--- a/CAZy/cazyEC.xlsx
+++ b/CAZy/cazyEC.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{160B5CEF-EE6D-4AD8-97E5-90E15889520C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3EBCF3-DF4F-4C85-BB00-CD9752B424A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="1272" windowWidth="17484" windowHeight="10812" xr2:uid="{9B374AC3-F643-4C6F-98BB-B75DB48583FD}"/>
+    <workbookView xWindow="480" yWindow="1044" windowWidth="6708" windowHeight="10812" firstSheet="2" activeTab="2" xr2:uid="{9B374AC3-F643-4C6F-98BB-B75DB48583FD}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="1" r:id="rId1"/>
     <sheet name="clan" sheetId="2" r:id="rId2"/>
+    <sheet name="ECnet" sheetId="4" r:id="rId3"/>
+    <sheet name="sources" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="689">
   <si>
     <t>1.14.99.53</t>
   </si>
@@ -17363,13 +17365,91 @@
   </si>
   <si>
     <t>Carbohydrate-Binding-Modules</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>CAZy family</t>
+  </si>
+  <si>
+    <t>CAZy Type</t>
+  </si>
+  <si>
+    <t>FromEC</t>
+  </si>
+  <si>
+    <t>ToEC</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Hyaluronan</t>
+  </si>
+  <si>
+    <t>3.1.6.13</t>
+  </si>
+  <si>
+    <t>Dermatan Sulfate</t>
+  </si>
+  <si>
+    <t>3.1.6.12</t>
+  </si>
+  <si>
+    <t>Chondroitin Sulfate</t>
+  </si>
+  <si>
+    <t>Heparan Sulfate</t>
+  </si>
+  <si>
+    <t>3.10.1.1</t>
+  </si>
+  <si>
+    <t>2.3.1.78</t>
+  </si>
+  <si>
+    <t>3.1.6.18</t>
+  </si>
+  <si>
+    <t>3.1.6.14</t>
+  </si>
+  <si>
+    <t>3.1.6.4</t>
+  </si>
+  <si>
+    <t>Keratan Sulfate</t>
+  </si>
+  <si>
+    <t>3.5.1.26</t>
+  </si>
+  <si>
+    <t>N-glycan</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/1873-3468.13045</t>
+  </si>
+  <si>
+    <t>https://www.genome.jp/kegg-bin/show_pathway?org_name=ec&amp;mapno=00511&amp;mapscale=&amp;show_description=hide</t>
+  </si>
+  <si>
+    <t>https://www.genome.jp/kegg-bin/show_pathway?select_scale=0.82&amp;query=&amp;map=ec00531&amp;scale=0.82&amp;orgs=&amp;auto_image=&amp;show_description=hide&amp;multi_query=</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.ppat.1006090</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nature21725</t>
+  </si>
+  <si>
+    <t>O-glycan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17410,6 +17490,12 @@
       <sz val="7"/>
       <color rgb="FF6B6B6B"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF767676"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -17482,7 +17568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -17499,6 +17585,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -17814,45 +17905,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC703F99-887E-48F1-8184-C8580AC6FFC8}">
-  <dimension ref="A1:C544"/>
+  <dimension ref="A1:C545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="C443" sqref="C443:C544"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B2" s="3">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>330</v>
@@ -17860,10 +17955,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>330</v>
@@ -17871,10 +17966,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>330</v>
@@ -17882,10 +17977,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>330</v>
@@ -17893,10 +17988,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>330</v>
@@ -17904,10 +17999,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>330</v>
@@ -17915,10 +18010,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>330</v>
@@ -17926,10 +18021,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>330</v>
@@ -17937,10 +18032,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>330</v>
@@ -17948,9 +18043,9 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
@@ -17959,21 +18054,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>330</v>
@@ -17981,10 +18076,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3">
-        <v>149</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>330</v>
@@ -17992,10 +18087,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
         <v>330</v>
@@ -18003,7 +18098,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3">
         <v>94</v>
@@ -18014,10 +18109,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
         <v>330</v>
@@ -18025,10 +18120,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>330</v>
@@ -18036,7 +18131,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="3">
         <v>36</v>
@@ -18047,10 +18142,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>330</v>
@@ -18058,10 +18153,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>330</v>
@@ -18069,7 +18164,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3">
         <v>32</v>
@@ -18080,10 +18175,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>330</v>
@@ -18091,10 +18186,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="3">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
         <v>330</v>
@@ -18102,10 +18197,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>330</v>
@@ -18113,10 +18208,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B27" s="3">
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>330</v>
@@ -18124,10 +18219,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="3">
-        <v>112</v>
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>330</v>
@@ -18135,10 +18230,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
         <v>330</v>
@@ -18146,7 +18241,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3">
         <v>65</v>
@@ -18157,10 +18252,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
         <v>330</v>
@@ -18168,10 +18263,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
         <v>330</v>
@@ -18179,10 +18274,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
         <v>330</v>
@@ -18190,10 +18285,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>330</v>
@@ -18201,10 +18296,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>330</v>
@@ -18212,10 +18307,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
         <v>330</v>
@@ -18223,10 +18318,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>330</v>
@@ -18234,7 +18329,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3">
         <v>130</v>
@@ -18245,10 +18340,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
         <v>330</v>
@@ -18256,10 +18351,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="3">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
         <v>330</v>
@@ -18267,10 +18362,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B41" s="3">
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>330</v>
@@ -18278,10 +18373,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="3">
-        <v>130</v>
+        <v>46</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C42" t="s">
         <v>330</v>
@@ -18289,7 +18384,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>130</v>
@@ -18300,10 +18395,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
         <v>330</v>
@@ -18311,7 +18406,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="3">
         <v>13</v>
@@ -18322,10 +18417,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
         <v>330</v>
@@ -18333,10 +18428,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
         <v>330</v>
@@ -18344,10 +18439,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="B48" s="3">
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>330</v>
@@ -18355,10 +18450,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>330</v>
@@ -18366,21 +18461,21 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="63" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
         <v>330</v>
@@ -18388,10 +18483,10 @@
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
         <v>330</v>
@@ -18399,10 +18494,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
         <v>330</v>
@@ -18410,32 +18505,32 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
         <v>330</v>
@@ -18443,32 +18538,32 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="3">
-        <v>32</v>
+        <v>70</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C57" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="B58" s="3">
+        <v>32</v>
       </c>
       <c r="C58" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
         <v>330</v>
@@ -18476,21 +18571,21 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
         <v>330</v>
@@ -18498,76 +18593,76 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="3">
-        <v>28</v>
+        <v>79</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C62" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="B63" s="3">
+        <v>28</v>
       </c>
       <c r="C63" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
         <v>330</v>
@@ -18575,21 +18670,21 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" t="s">
         <v>330</v>
@@ -18597,32 +18692,32 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73" t="s">
         <v>330</v>
@@ -18630,10 +18725,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
         <v>330</v>
@@ -18641,10 +18736,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s">
         <v>330</v>
@@ -18652,10 +18747,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
         <v>330</v>
@@ -18663,21 +18758,21 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B77" s="3">
-        <v>79</v>
+        <v>108</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C77" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="B78" s="3">
+        <v>79</v>
       </c>
       <c r="C78" t="s">
         <v>330</v>
@@ -18685,32 +18780,32 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
         <v>330</v>
@@ -18718,10 +18813,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="C82" t="s">
         <v>330</v>
@@ -18729,10 +18824,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
         <v>330</v>
@@ -18740,10 +18835,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
         <v>330</v>
@@ -18751,21 +18846,21 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B85" s="3">
-        <v>31</v>
+        <v>122</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C85" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="B86" s="3">
+        <v>31</v>
       </c>
       <c r="C86" t="s">
         <v>330</v>
@@ -18773,32 +18868,32 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B87" s="3">
-        <v>89</v>
+        <v>125</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C87" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="B88" s="3">
+        <v>89</v>
       </c>
       <c r="C88" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
         <v>330</v>
@@ -18806,10 +18901,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B90" s="3">
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C90" t="s">
         <v>330</v>
@@ -18817,21 +18912,21 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>13</v>
+        <v>132</v>
+      </c>
+      <c r="B91" s="3">
+        <v>123</v>
       </c>
       <c r="C91" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
         <v>330</v>
@@ -18839,21 +18934,21 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="3">
-        <v>49</v>
+        <v>134</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="C93" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="B94" s="3">
+        <v>49</v>
       </c>
       <c r="C94" t="s">
         <v>330</v>
@@ -18861,10 +18956,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C95" t="s">
         <v>330</v>
@@ -18872,10 +18967,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B96" s="3">
-        <v>13</v>
+        <v>139</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C96" t="s">
         <v>330</v>
@@ -18883,10 +18978,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B97" s="3">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
         <v>330</v>
@@ -18894,10 +18989,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B98" s="3">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
         <v>330</v>
@@ -18905,10 +19000,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1</v>
       </c>
       <c r="C99" t="s">
         <v>330</v>
@@ -18916,10 +19011,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B100" s="3">
-        <v>32</v>
+        <v>144</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C100" t="s">
         <v>330</v>
@@ -18927,7 +19022,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B101" s="3">
         <v>32</v>
@@ -18938,10 +19033,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="B102" s="3">
+        <v>32</v>
       </c>
       <c r="C102" t="s">
         <v>330</v>
@@ -18949,10 +19044,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B103" s="3">
-        <v>13</v>
+        <v>148</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C103" t="s">
         <v>330</v>
@@ -18960,10 +19055,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="B104" s="3">
+        <v>13</v>
       </c>
       <c r="C104" t="s">
         <v>330</v>
@@ -18971,21 +19066,21 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C105" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C106" t="s">
         <v>330</v>
@@ -18993,10 +19088,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C107" t="s">
         <v>330</v>
@@ -19004,10 +19099,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" t="s">
         <v>330</v>
@@ -19015,21 +19110,21 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B109" s="3">
-        <v>39</v>
+        <v>159</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C109" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="B110" s="3">
+        <v>39</v>
       </c>
       <c r="C110" t="s">
         <v>330</v>
@@ -19037,21 +19132,21 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B111" s="3">
-        <v>32</v>
+        <v>162</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C111" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="B112" s="3">
+        <v>32</v>
       </c>
       <c r="C112" t="s">
         <v>330</v>
@@ -19059,10 +19154,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B113" s="3">
-        <v>28</v>
+        <v>165</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="C113" t="s">
         <v>330</v>
@@ -19070,10 +19165,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B114" s="3">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C114" t="s">
         <v>330</v>
@@ -19081,10 +19176,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="B115" s="3">
+        <v>16</v>
       </c>
       <c r="C115" t="s">
         <v>330</v>
@@ -19092,10 +19187,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B116" s="3">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C116" t="s">
         <v>330</v>
@@ -19103,10 +19198,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1</v>
       </c>
       <c r="C117" t="s">
         <v>330</v>
@@ -19114,10 +19209,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C118" t="s">
         <v>330</v>
@@ -19125,10 +19220,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C119" t="s">
         <v>330</v>
@@ -19136,10 +19231,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C120" t="s">
         <v>330</v>
@@ -19147,10 +19242,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B121" s="3">
-        <v>13</v>
+        <v>178</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C121" t="s">
         <v>330</v>
@@ -19158,10 +19253,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B122" s="3">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
         <v>330</v>
@@ -19169,21 +19264,21 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B123" s="3">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="B124" s="3">
+        <v>49</v>
       </c>
       <c r="C124" t="s">
         <v>330</v>
@@ -19191,10 +19286,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B125" s="3">
-        <v>101</v>
+        <v>183</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C125" t="s">
         <v>330</v>
@@ -19202,10 +19297,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B126" s="3">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="C126" t="s">
         <v>330</v>
@@ -19213,10 +19308,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B127" s="3">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
         <v>330</v>
@@ -19224,10 +19319,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B128" s="3">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C128" t="s">
         <v>330</v>
@@ -19235,10 +19330,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B129" s="3">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C129" t="s">
         <v>330</v>
@@ -19246,10 +19341,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B130" s="3">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C130" t="s">
         <v>330</v>
@@ -19257,10 +19352,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B131" s="3">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C131" t="s">
         <v>330</v>
@@ -19268,10 +19363,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B132" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
         <v>330</v>
@@ -19279,10 +19374,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B133" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>330</v>
@@ -19290,10 +19385,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B134" s="3">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C134" t="s">
         <v>330</v>
@@ -19301,10 +19396,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B135" s="3">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
         <v>330</v>
@@ -19312,10 +19407,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B136" s="3">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C136" t="s">
         <v>330</v>
@@ -19323,10 +19418,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B137" s="3">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="C137" t="s">
         <v>330</v>
@@ -19334,10 +19429,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B138" s="3">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="C138" t="s">
         <v>330</v>
@@ -19345,10 +19440,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="B139" s="3">
+        <v>29</v>
       </c>
       <c r="C139" t="s">
         <v>330</v>
@@ -19356,10 +19451,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C140" t="s">
         <v>330</v>
@@ -19367,10 +19462,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B141" s="3">
-        <v>13</v>
+        <v>201</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="C141" t="s">
         <v>330</v>
@@ -19378,10 +19473,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B142" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
         <v>330</v>
@@ -19389,7 +19484,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
@@ -19400,7 +19495,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
@@ -19411,10 +19506,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B145" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C145" t="s">
         <v>330</v>
@@ -19422,10 +19517,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B146" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146" t="s">
         <v>330</v>
@@ -19433,10 +19528,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B147" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147" t="s">
         <v>330</v>
@@ -19444,10 +19539,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B148" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>330</v>
@@ -19455,10 +19550,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B149" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
         <v>330</v>
@@ -19466,10 +19561,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B150" s="3">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C150" t="s">
         <v>330</v>
@@ -19477,10 +19572,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B151" s="3">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C151" t="s">
         <v>330</v>
@@ -19488,21 +19583,21 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="B152" s="3">
+        <v>99</v>
       </c>
       <c r="C152" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C153" t="s">
         <v>330</v>
@@ -19510,10 +19605,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B154" s="3">
-        <v>13</v>
+        <v>216</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C154" t="s">
         <v>330</v>
@@ -19521,7 +19616,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B155" s="3">
         <v>13</v>
@@ -19532,10 +19627,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B156" s="3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
         <v>330</v>
@@ -19543,10 +19638,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="B157" s="3">
+        <v>30</v>
       </c>
       <c r="C157" t="s">
         <v>330</v>
@@ -19554,10 +19649,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C158" t="s">
         <v>330</v>
@@ -19565,10 +19660,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B159" s="3">
-        <v>13</v>
+        <v>223</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C159" t="s">
         <v>330</v>
@@ -19576,21 +19671,21 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B160" s="3">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="B161" s="3">
+        <v>43</v>
       </c>
       <c r="C161" t="s">
         <v>330</v>
@@ -19598,10 +19693,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B162" s="3">
-        <v>1</v>
+        <v>227</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="C162" t="s">
         <v>330</v>
@@ -19609,10 +19704,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
+      </c>
+      <c r="B163" s="3">
+        <v>1</v>
       </c>
       <c r="C163" t="s">
         <v>330</v>
@@ -19620,21 +19715,21 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B164" s="3">
-        <v>74</v>
+        <v>230</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="C164" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="B165" s="3">
+        <v>74</v>
       </c>
       <c r="C165" t="s">
         <v>330</v>
@@ -19642,10 +19737,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B166" s="3">
-        <v>2</v>
+        <v>233</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C166" t="s">
         <v>330</v>
@@ -19653,10 +19748,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B167" s="3">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C167" t="s">
         <v>330</v>
@@ -19664,7 +19759,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B168" s="3">
         <v>32</v>
@@ -19675,10 +19770,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B169" s="3">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C169" t="s">
         <v>330</v>
@@ -19686,10 +19781,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B170" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C170" t="s">
         <v>330</v>
@@ -19697,10 +19792,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B171" s="3">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>330</v>
@@ -19708,10 +19803,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B172" s="3">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C172" t="s">
         <v>330</v>
@@ -19719,10 +19814,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B173" s="3">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C173" t="s">
         <v>330</v>
@@ -19730,10 +19825,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B174" s="3">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="C174" t="s">
         <v>330</v>
@@ -19741,10 +19836,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>160</v>
+        <v>243</v>
+      </c>
+      <c r="B175" s="3">
+        <v>150</v>
       </c>
       <c r="C175" t="s">
         <v>330</v>
@@ -19752,10 +19847,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="C176" t="s">
         <v>330</v>
@@ -19763,10 +19858,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B177" s="3">
-        <v>79</v>
+        <v>245</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="C177" t="s">
         <v>330</v>
@@ -19774,7 +19869,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B178" s="3">
         <v>79</v>
@@ -19785,10 +19880,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B179" s="3">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C179" t="s">
         <v>330</v>
@@ -19796,10 +19891,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B180" s="3">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C180" t="s">
         <v>330</v>
@@ -19807,10 +19902,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B181" s="3">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C181" t="s">
         <v>330</v>
@@ -19818,10 +19913,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B182" s="3">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C182" t="s">
         <v>330</v>
@@ -19829,10 +19924,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="B183" s="3">
+        <v>105</v>
       </c>
       <c r="C183" t="s">
         <v>330</v>
@@ -19840,10 +19935,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C184" t="s">
         <v>330</v>
@@ -19851,10 +19946,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C185" t="s">
         <v>330</v>
@@ -19862,10 +19957,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C186" t="s">
         <v>330</v>
@@ -19873,10 +19968,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B187" s="3">
-        <v>31</v>
+        <v>259</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="C187" t="s">
         <v>330</v>
@@ -19884,10 +19979,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
+      </c>
+      <c r="B188" s="3">
+        <v>31</v>
       </c>
       <c r="C188" t="s">
         <v>330</v>
@@ -19895,10 +19990,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B189" s="3">
-        <v>16</v>
+        <v>262</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="C189" t="s">
         <v>330</v>
@@ -19906,21 +20001,21 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B190" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="B191" s="3">
+        <v>1</v>
       </c>
       <c r="C191" t="s">
         <v>330</v>
@@ -19928,10 +20023,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B192" s="3">
-        <v>130</v>
+        <v>266</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="C192" t="s">
         <v>330</v>
@@ -19939,10 +20034,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B193" s="3">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C193" t="s">
         <v>330</v>
@@ -19950,10 +20045,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B194" s="3">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C194" t="s">
         <v>330</v>
@@ -19961,7 +20056,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B195" s="3">
         <v>31</v>
@@ -19972,10 +20067,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B196" s="3">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C196" t="s">
         <v>330</v>
@@ -19983,32 +20078,32 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B197" s="3">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C197" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B198" s="3">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C198" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B199" s="3">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="C199" t="s">
         <v>330</v>
@@ -20016,21 +20111,21 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B200" s="3">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="C200" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
+      </c>
+      <c r="B201" s="3">
+        <v>1</v>
       </c>
       <c r="C201" t="s">
         <v>330</v>
@@ -20038,10 +20133,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B202" s="3">
-        <v>31</v>
+        <v>277</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="C202" t="s">
         <v>330</v>
@@ -20049,10 +20144,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B203" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C203" t="s">
         <v>330</v>
@@ -20060,10 +20155,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B204" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C204" t="s">
         <v>330</v>
@@ -20071,10 +20166,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B205" s="3">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="C205" t="s">
         <v>330</v>
@@ -20082,7 +20177,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B206" s="3">
         <v>91</v>
@@ -20093,10 +20188,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B207" s="3">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C207" t="s">
         <v>330</v>
@@ -20104,7 +20199,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B208" s="3">
         <v>13</v>
@@ -20115,7 +20210,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B209" s="3">
         <v>13</v>
@@ -20126,18 +20221,18 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="B210" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C210" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B211" s="3">
         <v>1</v>
@@ -20148,10 +20243,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B212" s="3">
         <v>1</v>
-      </c>
-      <c r="B212" s="3">
-        <v>4</v>
       </c>
       <c r="C212" t="s">
         <v>359</v>
@@ -20159,10 +20254,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>334</v>
+        <v>1</v>
+      </c>
+      <c r="B213" s="3">
+        <v>4</v>
       </c>
       <c r="C213" t="s">
         <v>359</v>
@@ -20170,10 +20265,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>54</v>
+        <v>333</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C214" t="s">
         <v>359</v>
@@ -20181,10 +20276,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B215" s="3">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="C215" t="s">
         <v>359</v>
@@ -20192,10 +20287,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="B216" s="3">
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>359</v>
@@ -20203,10 +20298,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C217" t="s">
         <v>359</v>
@@ -20214,10 +20309,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B218" s="3">
-        <v>7</v>
+        <v>339</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="C218" t="s">
         <v>359</v>
@@ -20225,10 +20320,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="B219" s="3">
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>359</v>
@@ -20236,10 +20331,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B220" s="3">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="C220" t="s">
         <v>359</v>
@@ -20247,10 +20342,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>343</v>
+        <v>58</v>
       </c>
       <c r="B221" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C221" t="s">
         <v>359</v>
@@ -20258,10 +20353,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
+      </c>
+      <c r="B222" s="3">
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>359</v>
@@ -20269,10 +20364,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B223" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="C223" t="s">
         <v>359</v>
@@ -20280,10 +20375,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>345</v>
+        <v>68</v>
+      </c>
+      <c r="B224" s="3">
+        <v>2</v>
       </c>
       <c r="C224" t="s">
         <v>359</v>
@@ -20291,10 +20386,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B225" s="3">
-        <v>15</v>
+        <v>73</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="C225" t="s">
         <v>359</v>
@@ -20302,10 +20397,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>346</v>
+        <v>117</v>
+      </c>
+      <c r="B226" s="3">
+        <v>15</v>
       </c>
       <c r="C226" t="s">
         <v>359</v>
@@ -20313,10 +20408,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>275</v>
+        <v>134</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C227" t="s">
         <v>359</v>
@@ -20324,10 +20419,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B228" s="3">
-        <v>9</v>
+        <v>275</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="C228" t="s">
         <v>359</v>
@@ -20335,10 +20430,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B229" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
         <v>359</v>
@@ -20346,10 +20441,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B230" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C230" t="s">
         <v>359</v>
@@ -20357,10 +20452,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B231" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
         <v>359</v>
@@ -20368,10 +20463,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B232" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C232" t="s">
         <v>359</v>
@@ -20379,10 +20474,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
+      </c>
+      <c r="B233" s="3">
+        <v>4</v>
       </c>
       <c r="C233" t="s">
         <v>359</v>
@@ -20390,10 +20485,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B234" s="3">
-        <v>11</v>
+        <v>353</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="C234" t="s">
         <v>359</v>
@@ -20401,10 +20496,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B235" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C235" t="s">
         <v>359</v>
@@ -20412,10 +20507,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B236" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C236" t="s">
         <v>359</v>
@@ -20423,7 +20518,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B237" s="3">
         <v>8</v>
@@ -20432,23 +20527,23 @@
         <v>359</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B238" s="3">
+        <v>8</v>
+      </c>
+      <c r="C238" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C238" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="C239" t="s">
         <v>390</v>
@@ -20456,10 +20551,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C240" t="s">
         <v>390</v>
@@ -20467,10 +20562,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C241" t="s">
         <v>390</v>
@@ -20478,10 +20573,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B242" s="3">
-        <v>8</v>
+        <v>364</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="C242" t="s">
         <v>390</v>
@@ -20489,10 +20584,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B243" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>390</v>
@@ -20500,10 +20595,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
+      </c>
+      <c r="B244" s="3">
+        <v>22</v>
       </c>
       <c r="C244" t="s">
         <v>390</v>
@@ -20511,10 +20606,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C245" t="s">
         <v>390</v>
@@ -20522,10 +20617,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C246" t="s">
         <v>390</v>
@@ -20533,10 +20628,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B247" s="3">
-        <v>1</v>
+        <v>372</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="C247" t="s">
         <v>390</v>
@@ -20544,10 +20639,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="B248" s="3">
+        <v>1</v>
       </c>
       <c r="C248" t="s">
         <v>390</v>
@@ -20555,10 +20650,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B249" s="3">
-        <v>8</v>
+        <v>375</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="C249" t="s">
         <v>390</v>
@@ -20566,10 +20661,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
+      </c>
+      <c r="B250" s="3">
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>390</v>
@@ -20577,10 +20672,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B251" s="3">
-        <v>6</v>
+        <v>378</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="C251" t="s">
         <v>390</v>
@@ -20588,10 +20683,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
+      </c>
+      <c r="B252" s="3">
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>390</v>
@@ -20599,10 +20694,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C253" t="s">
         <v>390</v>
@@ -20610,10 +20705,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C254" t="s">
         <v>390</v>
@@ -20621,10 +20716,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B255" s="3">
-        <v>33</v>
+        <v>385</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="C255" t="s">
         <v>390</v>
@@ -20632,10 +20727,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
+      </c>
+      <c r="B256" s="3">
+        <v>33</v>
       </c>
       <c r="C256" t="s">
         <v>390</v>
@@ -20643,21 +20738,21 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
       <c r="C257" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="C258" t="s">
         <v>423</v>
@@ -20665,10 +20760,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B259" s="3">
-        <v>3</v>
+        <v>392</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="C259" t="s">
         <v>423</v>
@@ -20676,10 +20771,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
+      </c>
+      <c r="B260" s="3">
+        <v>3</v>
       </c>
       <c r="C260" t="s">
         <v>423</v>
@@ -20687,10 +20782,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B261" s="3">
-        <v>5</v>
+        <v>395</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="C261" t="s">
         <v>423</v>
@@ -20698,10 +20793,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B262" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C262" t="s">
         <v>423</v>
@@ -20709,10 +20804,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="B263" s="3">
+        <v>3</v>
       </c>
       <c r="C263" t="s">
         <v>423</v>
@@ -20720,10 +20815,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B264" s="3">
-        <v>3</v>
+        <v>399</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="C264" t="s">
         <v>423</v>
@@ -20731,10 +20826,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B265" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C265" t="s">
         <v>423</v>
@@ -20742,10 +20837,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B266" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C266" t="s">
         <v>423</v>
@@ -20753,10 +20848,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
+      </c>
+      <c r="B267" s="3">
+        <v>5</v>
       </c>
       <c r="C267" t="s">
         <v>423</v>
@@ -20764,10 +20859,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B268" s="3">
-        <v>3</v>
+        <v>403</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="C268" t="s">
         <v>423</v>
@@ -20775,10 +20870,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B269" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C269" t="s">
         <v>423</v>
@@ -20786,10 +20881,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B270" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C270" t="s">
         <v>423</v>
@@ -20797,10 +20892,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B271" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C271" t="s">
         <v>423</v>
@@ -20808,7 +20903,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B272" s="3">
         <v>1</v>
@@ -20819,10 +20914,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B273" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C273" t="s">
         <v>423</v>
@@ -20830,7 +20925,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B274" s="3">
         <v>2</v>
@@ -20841,7 +20936,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B275" s="3">
         <v>2</v>
@@ -20852,7 +20947,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B276" s="3">
         <v>2</v>
@@ -20863,7 +20958,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B277" s="3">
         <v>2</v>
@@ -20874,21 +20969,21 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="B278" s="3">
+        <v>2</v>
       </c>
       <c r="C278" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C279" t="s">
         <v>423</v>
@@ -20896,10 +20991,10 @@
     </row>
     <row r="280" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C280" t="s">
         <v>423</v>
@@ -20907,10 +21002,10 @@
     </row>
     <row r="281" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B281" s="3">
-        <v>13</v>
+        <v>418</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="C281" t="s">
         <v>423</v>
@@ -20918,21 +21013,21 @@
     </row>
     <row r="282" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
+      </c>
+      <c r="B282" s="3">
+        <v>13</v>
       </c>
       <c r="C282" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B283" s="3">
-        <v>10</v>
+        <v>421</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="C283" t="s">
         <v>423</v>
@@ -20940,43 +21035,43 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>425</v>
+        <v>162</v>
+      </c>
+      <c r="B284" s="3">
+        <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>604</v>
+        <v>423</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C285" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>1</v>
+        <v>426</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C286" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B287" s="3">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="C287" t="s">
         <v>604</v>
@@ -20984,10 +21079,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>396</v>
+        <v>429</v>
+      </c>
+      <c r="B288" s="3">
+        <v>35</v>
       </c>
       <c r="C288" t="s">
         <v>604</v>
@@ -20995,10 +21090,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B289" s="3">
-        <v>2</v>
+        <v>430</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="C289" t="s">
         <v>604</v>
@@ -21006,10 +21101,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>431</v>
+        <v>11</v>
       </c>
       <c r="B290" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C290" t="s">
         <v>604</v>
@@ -21017,7 +21112,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B291" s="3">
         <v>4</v>
@@ -21028,10 +21123,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B292" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C292" t="s">
         <v>604</v>
@@ -21039,10 +21134,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B293" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C293" t="s">
         <v>604</v>
@@ -21050,10 +21145,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
+      </c>
+      <c r="B294" s="3">
+        <v>2</v>
       </c>
       <c r="C294" t="s">
         <v>604</v>
@@ -21061,10 +21156,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C295" t="s">
         <v>604</v>
@@ -21072,10 +21167,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B296" s="3">
-        <v>7</v>
+        <v>437</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="C296" t="s">
         <v>604</v>
@@ -21083,10 +21178,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B297" s="3">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C297" t="s">
         <v>604</v>
@@ -21094,10 +21189,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B298" s="3">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C298" t="s">
         <v>604</v>
@@ -21105,10 +21200,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B299" s="3">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="C299" t="s">
         <v>604</v>
@@ -21116,10 +21211,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
+      </c>
+      <c r="B300" s="3">
+        <v>2</v>
       </c>
       <c r="C300" t="s">
         <v>604</v>
@@ -21127,10 +21222,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B301" s="3">
-        <v>1</v>
+        <v>443</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="C301" t="s">
         <v>604</v>
@@ -21138,10 +21233,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
+      </c>
+      <c r="B302" s="3">
+        <v>1</v>
       </c>
       <c r="C302" t="s">
         <v>604</v>
@@ -21149,10 +21244,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B303" s="3">
-        <v>7</v>
+        <v>446</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="C303" t="s">
         <v>604</v>
@@ -21160,10 +21255,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B304" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C304" t="s">
         <v>604</v>
@@ -21171,10 +21266,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B305" s="3">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C305" t="s">
         <v>604</v>
@@ -21182,10 +21277,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B306" s="3">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C306" t="s">
         <v>604</v>
@@ -21193,10 +21288,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B307" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C307" t="s">
         <v>604</v>
@@ -21204,10 +21299,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
+      </c>
+      <c r="B308" s="3">
+        <v>1</v>
       </c>
       <c r="C308" t="s">
         <v>604</v>
@@ -21215,10 +21310,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B309" s="3">
-        <v>1</v>
+        <v>453</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="C309" t="s">
         <v>604</v>
@@ -21226,10 +21321,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B310" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C310" t="s">
         <v>604</v>
@@ -21237,10 +21332,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B311" s="3">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C311" t="s">
         <v>604</v>
@@ -21248,10 +21343,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+      <c r="B312" s="3">
+        <v>4</v>
       </c>
       <c r="C312" t="s">
         <v>604</v>
@@ -21259,10 +21354,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B313" s="3">
-        <v>4</v>
+        <v>458</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="C313" t="s">
         <v>604</v>
@@ -21270,10 +21365,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B314" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C314" t="s">
         <v>604</v>
@@ -21281,10 +21376,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B315" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C315" t="s">
         <v>604</v>
@@ -21292,10 +21387,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
+      </c>
+      <c r="B316" s="3">
+        <v>10</v>
       </c>
       <c r="C316" t="s">
         <v>604</v>
@@ -21303,10 +21398,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B317" s="3">
-        <v>23</v>
+        <v>463</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="C317" t="s">
         <v>604</v>
@@ -21314,10 +21409,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
+      </c>
+      <c r="B318" s="3">
+        <v>23</v>
       </c>
       <c r="C318" t="s">
         <v>604</v>
@@ -21325,10 +21420,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B319" s="3">
-        <v>31</v>
+        <v>466</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="C319" t="s">
         <v>604</v>
@@ -21336,10 +21431,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
+      </c>
+      <c r="B320" s="3">
+        <v>31</v>
       </c>
       <c r="C320" t="s">
         <v>604</v>
@@ -21347,10 +21442,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B321" s="3">
-        <v>2</v>
+        <v>469</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="C321" t="s">
         <v>604</v>
@@ -21358,10 +21453,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B322" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C322" t="s">
         <v>604</v>
@@ -21369,7 +21464,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B323" s="3">
         <v>6</v>
@@ -21380,10 +21475,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B324" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C324" t="s">
         <v>604</v>
@@ -21391,10 +21486,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B325" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C325" t="s">
         <v>604</v>
@@ -21402,10 +21497,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B326" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C326" t="s">
         <v>604</v>
@@ -21413,10 +21508,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B327" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C327" t="s">
         <v>604</v>
@@ -21424,10 +21519,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B328" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C328" t="s">
         <v>604</v>
@@ -21435,10 +21530,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
+      </c>
+      <c r="B329" s="3">
+        <v>14</v>
       </c>
       <c r="C329" t="s">
         <v>604</v>
@@ -21446,10 +21541,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B330" s="3">
-        <v>1</v>
+        <v>479</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="C330" t="s">
         <v>604</v>
@@ -21457,10 +21552,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B331" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C331" t="s">
         <v>604</v>
@@ -21468,10 +21563,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B332" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C332" t="s">
         <v>604</v>
@@ -21479,7 +21574,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B333" s="3">
         <v>1</v>
@@ -21490,10 +21585,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B334" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C334" t="s">
         <v>604</v>
@@ -21501,10 +21596,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B335" s="3">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C335" t="s">
         <v>604</v>
@@ -21512,10 +21607,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B336" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C336" t="s">
         <v>604</v>
@@ -21523,10 +21618,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B337" s="3">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C337" t="s">
         <v>604</v>
@@ -21534,10 +21629,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
+      </c>
+      <c r="B338" s="3">
+        <v>51</v>
       </c>
       <c r="C338" t="s">
         <v>604</v>
@@ -21545,10 +21640,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B339" s="3">
-        <v>4</v>
+        <v>489</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="C339" t="s">
         <v>604</v>
@@ -21556,10 +21651,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B340" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C340" t="s">
         <v>604</v>
@@ -21567,10 +21662,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B341" s="3">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C341" t="s">
         <v>604</v>
@@ -21578,10 +21673,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B342" s="3">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C342" t="s">
         <v>604</v>
@@ -21589,10 +21684,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B343" s="3">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C343" t="s">
         <v>604</v>
@@ -21600,10 +21695,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B344" s="3">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C344" t="s">
         <v>604</v>
@@ -21611,10 +21706,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B345" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C345" t="s">
         <v>604</v>
@@ -21622,10 +21717,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B346" s="3">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C346" t="s">
         <v>604</v>
@@ -21633,10 +21728,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
+      </c>
+      <c r="B347" s="3">
+        <v>54</v>
       </c>
       <c r="C347" t="s">
         <v>604</v>
@@ -21644,10 +21739,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B348" s="3">
-        <v>14</v>
+        <v>499</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="C348" t="s">
         <v>604</v>
@@ -21655,10 +21750,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B349" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C349" t="s">
         <v>604</v>
@@ -21666,10 +21761,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B350" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C350" t="s">
         <v>604</v>
@@ -21677,10 +21772,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
+      </c>
+      <c r="B351" s="3">
+        <v>18</v>
       </c>
       <c r="C351" t="s">
         <v>604</v>
@@ -21688,10 +21783,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B352" s="3">
-        <v>1</v>
+        <v>504</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="C352" t="s">
         <v>604</v>
@@ -21699,7 +21794,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B353" s="3">
         <v>1</v>
@@ -21710,7 +21805,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B354" s="3">
         <v>1</v>
@@ -21721,10 +21816,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B355" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C355" t="s">
         <v>604</v>
@@ -21732,10 +21827,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
+      </c>
+      <c r="B356" s="3">
+        <v>7</v>
       </c>
       <c r="C356" t="s">
         <v>604</v>
@@ -21743,10 +21838,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B357" s="3">
-        <v>1</v>
+        <v>510</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="C357" t="s">
         <v>604</v>
@@ -21754,10 +21849,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B358" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C358" t="s">
         <v>604</v>
@@ -21765,10 +21860,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>30</v>
+        <v>513</v>
       </c>
       <c r="B359" s="3">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C359" t="s">
         <v>604</v>
@@ -21776,10 +21871,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>514</v>
+        <v>30</v>
       </c>
       <c r="B360" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C360" t="s">
         <v>604</v>
@@ -21787,10 +21882,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B361" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C361" t="s">
         <v>604</v>
@@ -21798,10 +21893,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B362" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C362" t="s">
         <v>604</v>
@@ -21809,7 +21904,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B363" s="3">
         <v>1</v>
@@ -21820,7 +21915,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B364" s="3">
         <v>1</v>
@@ -21831,10 +21926,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B365" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C365" t="s">
         <v>604</v>
@@ -21842,10 +21937,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B366" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C366" t="s">
         <v>604</v>
@@ -21853,10 +21948,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B367" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C367" t="s">
         <v>604</v>
@@ -21864,7 +21959,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B368" s="3">
         <v>1</v>
@@ -21875,10 +21970,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B369" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C369" t="s">
         <v>604</v>
@@ -21886,10 +21981,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B370" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C370" t="s">
         <v>604</v>
@@ -21897,10 +21992,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B371" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C371" t="s">
         <v>604</v>
@@ -21908,10 +22003,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B372" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C372" t="s">
         <v>604</v>
@@ -21919,10 +22014,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B373" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C373" t="s">
         <v>604</v>
@@ -21930,10 +22025,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B374" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C374" t="s">
         <v>604</v>
@@ -21941,10 +22036,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
+      </c>
+      <c r="B375" s="3">
+        <v>1</v>
       </c>
       <c r="C375" t="s">
         <v>604</v>
@@ -21952,10 +22047,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B376" s="3">
-        <v>65</v>
+        <v>529</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="C376" t="s">
         <v>604</v>
@@ -21963,10 +22058,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B377" s="3">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C377" t="s">
         <v>604</v>
@@ -21974,10 +22069,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
+      </c>
+      <c r="B378" s="3">
+        <v>31</v>
       </c>
       <c r="C378" t="s">
         <v>604</v>
@@ -21985,7 +22080,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>534</v>
@@ -21996,7 +22091,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>534</v>
@@ -22007,10 +22102,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="C381" t="s">
         <v>604</v>
@@ -22018,10 +22113,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B382" s="3">
-        <v>28</v>
+        <v>537</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="C382" t="s">
         <v>604</v>
@@ -22029,10 +22124,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B383" s="3">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C383" t="s">
         <v>604</v>
@@ -22040,10 +22135,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B384" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C384" t="s">
         <v>604</v>
@@ -22051,7 +22146,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B385" s="3">
         <v>1</v>
@@ -22062,7 +22157,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B386" s="3">
         <v>1</v>
@@ -22073,10 +22168,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>149</v>
+        <v>542</v>
+      </c>
+      <c r="B387" s="3">
+        <v>1</v>
       </c>
       <c r="C387" t="s">
         <v>604</v>
@@ -22084,10 +22179,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B388" s="3">
-        <v>5</v>
+        <v>543</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C388" t="s">
         <v>604</v>
@@ -22095,10 +22190,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B389" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C389" t="s">
         <v>604</v>
@@ -22106,10 +22201,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B390" s="3">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="C390" t="s">
         <v>604</v>
@@ -22117,10 +22212,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B391" s="3">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="C391" t="s">
         <v>604</v>
@@ -22128,10 +22223,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B392" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C392" t="s">
         <v>604</v>
@@ -22139,10 +22234,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
+      </c>
+      <c r="B393" s="3">
+        <v>1</v>
       </c>
       <c r="C393" t="s">
         <v>604</v>
@@ -22150,10 +22245,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B394" s="3">
-        <v>59</v>
+        <v>549</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="C394" t="s">
         <v>604</v>
@@ -22161,10 +22256,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
+      </c>
+      <c r="B395" s="3">
+        <v>59</v>
       </c>
       <c r="C395" t="s">
         <v>604</v>
@@ -22172,10 +22267,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B396" s="3">
-        <v>58</v>
+        <v>552</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="C396" t="s">
         <v>604</v>
@@ -22183,10 +22278,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B397" s="3">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C397" t="s">
         <v>604</v>
@@ -22194,7 +22289,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B398" s="3">
         <v>22</v>
@@ -22205,7 +22300,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B399" s="3">
         <v>22</v>
@@ -22216,10 +22311,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B400" s="3">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C400" t="s">
         <v>604</v>
@@ -22227,10 +22322,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B401" s="3">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C401" t="s">
         <v>604</v>
@@ -22238,10 +22333,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B402" s="3">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C402" t="s">
         <v>604</v>
@@ -22249,10 +22344,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
+      </c>
+      <c r="B403" s="3">
+        <v>57</v>
       </c>
       <c r="C403" t="s">
         <v>604</v>
@@ -22260,10 +22355,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B404" s="3">
-        <v>7</v>
+        <v>561</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="C404" t="s">
         <v>604</v>
@@ -22271,10 +22366,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B405" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C405" t="s">
         <v>604</v>
@@ -22282,10 +22377,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B406" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C406" t="s">
         <v>604</v>
@@ -22293,7 +22388,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B407" s="3">
         <v>4</v>
@@ -22304,10 +22399,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B408" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C408" t="s">
         <v>604</v>
@@ -22315,10 +22410,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B409" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C409" t="s">
         <v>604</v>
@@ -22326,7 +22421,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B410" s="3">
         <v>2</v>
@@ -22337,10 +22432,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
+      </c>
+      <c r="B411" s="3">
+        <v>2</v>
       </c>
       <c r="C411" t="s">
         <v>604</v>
@@ -22348,10 +22443,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B412" s="3">
-        <v>4</v>
+        <v>570</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>571</v>
       </c>
       <c r="C412" t="s">
         <v>604</v>
@@ -22359,10 +22454,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B413" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C413" t="s">
         <v>604</v>
@@ -22370,10 +22465,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B414" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C414" t="s">
         <v>604</v>
@@ -22381,10 +22476,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
-        <v>46</v>
+        <v>574</v>
       </c>
       <c r="B415" s="3">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="C415" t="s">
         <v>604</v>
@@ -22392,10 +22487,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B416" s="3">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C416" t="s">
         <v>604</v>
@@ -22403,10 +22498,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
-        <v>575</v>
+        <v>48</v>
       </c>
       <c r="B417" s="3">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="C417" t="s">
         <v>604</v>
@@ -22414,10 +22509,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B418" s="3">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="C418" t="s">
         <v>604</v>
@@ -22425,10 +22520,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B419" s="3">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="C419" t="s">
         <v>604</v>
@@ -22436,32 +22531,32 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
+      </c>
+      <c r="B420" s="3">
+        <v>1</v>
       </c>
       <c r="C420" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
-        <v>52</v>
+        <v>578</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C421" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B422" s="3">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="C422" t="s">
         <v>604</v>
@@ -22469,10 +22564,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B423" s="3">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C423" t="s">
         <v>604</v>
@@ -22480,10 +22575,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B424" s="3">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C424" t="s">
         <v>604</v>
@@ -22491,10 +22586,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B425" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C425" t="s">
         <v>604</v>
@@ -22502,32 +22597,32 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B426" s="3">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="C426" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
+      </c>
+      <c r="B427" s="3">
+        <v>83</v>
       </c>
       <c r="C427" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C428" t="s">
         <v>604</v>
@@ -22535,10 +22630,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C429" t="s">
         <v>604</v>
@@ -22546,10 +22641,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C430" t="s">
         <v>604</v>
@@ -22557,10 +22652,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C431" t="s">
         <v>604</v>
@@ -22568,10 +22663,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B432" s="3">
-        <v>29</v>
+        <v>594</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>595</v>
       </c>
       <c r="C432" t="s">
         <v>604</v>
@@ -22579,10 +22674,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>591</v>
+        <v>596</v>
+      </c>
+      <c r="B433" s="3">
+        <v>29</v>
       </c>
       <c r="C433" t="s">
         <v>604</v>
@@ -22590,10 +22685,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B434" s="3">
-        <v>29</v>
+        <v>597</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>591</v>
       </c>
       <c r="C434" t="s">
         <v>604</v>
@@ -22601,10 +22696,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B435" s="3">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C435" t="s">
         <v>604</v>
@@ -22612,7 +22707,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B436" s="3">
         <v>66</v>
@@ -22623,10 +22718,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B437" s="3" t="s">
-        <v>464</v>
+        <v>600</v>
+      </c>
+      <c r="B437" s="3">
+        <v>66</v>
       </c>
       <c r="C437" t="s">
         <v>604</v>
@@ -22634,10 +22729,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B438" s="3">
-        <v>20</v>
+        <v>601</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="C438" t="s">
         <v>604</v>
@@ -22645,10 +22740,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
-        <v>60</v>
+        <v>602</v>
       </c>
       <c r="B439" s="3">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C439" t="s">
         <v>604</v>
@@ -22656,7 +22751,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B440" s="3">
         <v>80</v>
@@ -22667,10 +22762,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
-        <v>275</v>
+        <v>84</v>
       </c>
       <c r="B441" s="3">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C441" t="s">
         <v>604</v>
@@ -22678,10 +22773,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>603</v>
+        <v>275</v>
       </c>
       <c r="B442" s="3">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C442" t="s">
         <v>604</v>
@@ -22689,21 +22784,21 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
-        <v>391</v>
+        <v>603</v>
       </c>
       <c r="B443" s="3">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C443" t="s">
-        <v>662</v>
+        <v>604</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B444" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C444" t="s">
         <v>662</v>
@@ -22711,21 +22806,21 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B445" s="3">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C445" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>605</v>
+        <v>403</v>
+      </c>
+      <c r="B446" s="3">
+        <v>1</v>
       </c>
       <c r="C446" t="s">
         <v>662</v>
@@ -22733,10 +22828,10 @@
     </row>
     <row r="447" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C447" t="s">
         <v>662</v>
@@ -22744,10 +22839,10 @@
     </row>
     <row r="448" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B448" s="3">
-        <v>20</v>
+        <v>418</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="C448" t="s">
         <v>662</v>
@@ -22755,21 +22850,21 @@
     </row>
     <row r="449" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>607</v>
+        <v>420</v>
+      </c>
+      <c r="B449" s="3">
+        <v>20</v>
       </c>
       <c r="C449" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>1</v>
+        <v>421</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C450" t="s">
         <v>662</v>
@@ -22777,10 +22872,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>464</v>
+        <v>1</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="C451" t="s">
         <v>662</v>
@@ -22788,10 +22883,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B452" s="3">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="C452" t="s">
         <v>662</v>
@@ -22799,10 +22894,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B453" s="3">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C453" t="s">
         <v>662</v>
@@ -22810,10 +22905,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>437</v>
+        <v>14</v>
       </c>
       <c r="B454" s="3">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C454" t="s">
         <v>662</v>
@@ -22821,10 +22916,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>609</v>
+        <v>437</v>
+      </c>
+      <c r="B455" s="3">
+        <v>53</v>
       </c>
       <c r="C455" t="s">
         <v>662</v>
@@ -22832,10 +22927,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B456" s="3">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="C456" t="s">
         <v>662</v>
@@ -22843,10 +22938,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="B457" s="3">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C457" t="s">
         <v>662</v>
@@ -22854,10 +22949,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B458" s="3">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C458" t="s">
         <v>662</v>
@@ -22865,10 +22960,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B459" s="2" t="s">
-        <v>610</v>
+        <v>52</v>
+      </c>
+      <c r="B459" s="3">
+        <v>22</v>
       </c>
       <c r="C459" t="s">
         <v>662</v>
@@ -22876,10 +22971,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>337</v>
+        <v>54</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C460" t="s">
         <v>662</v>
@@ -22887,10 +22982,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
-        <v>56</v>
+        <v>337</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C461" t="s">
         <v>662</v>
@@ -22898,10 +22993,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C462" t="s">
         <v>662</v>
@@ -22909,32 +23004,32 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B463" s="3">
-        <v>21</v>
+        <v>58</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="C463" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
+      </c>
+      <c r="B464" s="3">
+        <v>21</v>
       </c>
       <c r="C464" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C465" t="s">
         <v>662</v>
@@ -22942,10 +23037,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C466" t="s">
         <v>662</v>
@@ -22953,54 +23048,54 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C467" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C468" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C469" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C470" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C471" t="s">
         <v>662</v>
@@ -23008,10 +23103,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C472" t="s">
         <v>662</v>
@@ -23019,10 +23114,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C473" t="s">
         <v>662</v>
@@ -23030,10 +23125,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C474" t="s">
         <v>662</v>
@@ -23041,10 +23136,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C475" t="s">
         <v>662</v>
@@ -23052,10 +23147,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B476" s="3">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>626</v>
       </c>
       <c r="C476" t="s">
         <v>662</v>
@@ -23063,10 +23158,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>627</v>
+        <v>88</v>
+      </c>
+      <c r="B477" s="3">
+        <v>1</v>
       </c>
       <c r="C477" t="s">
         <v>662</v>
@@ -23074,10 +23169,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C478" t="s">
         <v>662</v>
@@ -23085,10 +23180,10 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B479" s="3">
-        <v>38</v>
+        <v>92</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="C479" t="s">
         <v>662</v>
@@ -23096,10 +23191,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B480" s="3">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C480" t="s">
         <v>662</v>
@@ -23107,10 +23202,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B481" s="2" t="s">
-        <v>629</v>
+        <v>102</v>
+      </c>
+      <c r="B481" s="3">
+        <v>57</v>
       </c>
       <c r="C481" t="s">
         <v>662</v>
@@ -23118,10 +23213,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C482" t="s">
         <v>662</v>
@@ -23129,10 +23224,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B483" s="3">
-        <v>32</v>
+        <v>106</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>630</v>
       </c>
       <c r="C483" t="s">
         <v>662</v>
@@ -23140,10 +23235,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>631</v>
+        <v>108</v>
+      </c>
+      <c r="B484" s="3">
+        <v>32</v>
       </c>
       <c r="C484" t="s">
         <v>662</v>
@@ -23151,10 +23246,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C485" t="s">
         <v>662</v>
@@ -23162,10 +23257,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B486" s="3">
-        <v>67</v>
+        <v>115</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>632</v>
       </c>
       <c r="C486" t="s">
         <v>662</v>
@@ -23173,10 +23268,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B487" s="2" t="s">
-        <v>633</v>
+        <v>117</v>
+      </c>
+      <c r="B487" s="3">
+        <v>67</v>
       </c>
       <c r="C487" t="s">
         <v>662</v>
@@ -23184,10 +23279,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C488" t="s">
         <v>662</v>
@@ -23195,10 +23290,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B489" s="3">
-        <v>32</v>
+        <v>125</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>634</v>
       </c>
       <c r="C489" t="s">
         <v>662</v>
@@ -23206,7 +23301,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B490" s="3">
         <v>32</v>
@@ -23217,10 +23312,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B491" s="2" t="s">
-        <v>635</v>
+        <v>130</v>
+      </c>
+      <c r="B491" s="3">
+        <v>32</v>
       </c>
       <c r="C491" t="s">
         <v>662</v>
@@ -23228,10 +23323,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C492" t="s">
         <v>662</v>
@@ -23239,10 +23334,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C493" t="s">
         <v>662</v>
@@ -23250,10 +23345,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C494" t="s">
         <v>662</v>
@@ -23261,10 +23356,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C495" t="s">
         <v>662</v>
@@ -23272,10 +23367,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B496" s="3">
-        <v>51</v>
+        <v>141</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="C496" t="s">
         <v>662</v>
@@ -23283,10 +23378,10 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B497" s="3">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C497" t="s">
         <v>662</v>
@@ -23294,10 +23389,10 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B498" s="2" t="s">
-        <v>640</v>
+        <v>147</v>
+      </c>
+      <c r="B498" s="3">
+        <v>66</v>
       </c>
       <c r="C498" t="s">
         <v>662</v>
@@ -23305,10 +23400,10 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C499" t="s">
         <v>662</v>
@@ -23316,10 +23411,10 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C500" t="s">
         <v>662</v>
@@ -23327,10 +23422,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B501" s="3">
-        <v>6</v>
+        <v>157</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>642</v>
       </c>
       <c r="C501" t="s">
         <v>662</v>
@@ -23338,10 +23433,10 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B502" s="2" t="s">
-        <v>643</v>
+        <v>159</v>
+      </c>
+      <c r="B502" s="3">
+        <v>6</v>
       </c>
       <c r="C502" t="s">
         <v>662</v>
@@ -23349,10 +23444,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C503" t="s">
         <v>662</v>
@@ -23360,10 +23455,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C504" t="s">
         <v>662</v>
@@ -23371,10 +23466,10 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B505" s="3">
-        <v>16</v>
+        <v>165</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>645</v>
       </c>
       <c r="C505" t="s">
         <v>662</v>
@@ -23382,10 +23477,10 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>646</v>
+        <v>168</v>
+      </c>
+      <c r="B506" s="3">
+        <v>16</v>
       </c>
       <c r="C506" t="s">
         <v>662</v>
@@ -23393,10 +23488,10 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B507" s="3">
-        <v>61</v>
+        <v>174</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>646</v>
       </c>
       <c r="C507" t="s">
         <v>662</v>
@@ -23404,10 +23499,10 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B508" s="2" t="s">
-        <v>647</v>
+        <v>176</v>
+      </c>
+      <c r="B508" s="3">
+        <v>61</v>
       </c>
       <c r="C508" t="s">
         <v>662</v>
@@ -23415,10 +23510,10 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B509" s="3">
-        <v>35</v>
+        <v>178</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>647</v>
       </c>
       <c r="C509" t="s">
         <v>662</v>
@@ -23426,10 +23521,10 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B510" s="2" t="s">
-        <v>648</v>
+        <v>181</v>
+      </c>
+      <c r="B510" s="3">
+        <v>35</v>
       </c>
       <c r="C510" t="s">
         <v>662</v>
@@ -23437,10 +23532,10 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C511" t="s">
         <v>662</v>
@@ -23448,10 +23543,10 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="C512" t="s">
         <v>662</v>
@@ -23459,10 +23554,10 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="C513" t="s">
         <v>662</v>
@@ -23470,10 +23565,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B514" s="3">
-        <v>6</v>
+        <v>187</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="C514" t="s">
         <v>662</v>
@@ -23481,10 +23576,10 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B515" s="2" t="s">
-        <v>651</v>
+        <v>189</v>
+      </c>
+      <c r="B515" s="3">
+        <v>6</v>
       </c>
       <c r="C515" t="s">
         <v>662</v>
@@ -23492,10 +23587,10 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B516" s="3">
-        <v>16</v>
+        <v>190</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>651</v>
       </c>
       <c r="C516" t="s">
         <v>662</v>
@@ -23503,10 +23598,10 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B517" s="3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C517" t="s">
         <v>662</v>
@@ -23514,10 +23609,10 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B518" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C518" t="s">
         <v>662</v>
@@ -23525,10 +23620,10 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B519" s="3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C519" t="s">
         <v>662</v>
@@ -23536,10 +23631,10 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B520" s="2" t="s">
-        <v>652</v>
+        <v>207</v>
+      </c>
+      <c r="B520" s="3">
+        <v>6</v>
       </c>
       <c r="C520" t="s">
         <v>662</v>
@@ -23547,10 +23642,10 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C521" t="s">
         <v>662</v>
@@ -23558,10 +23653,10 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C522" t="s">
         <v>662</v>
@@ -23569,10 +23664,10 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B523" s="3">
-        <v>35</v>
+        <v>219</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>654</v>
       </c>
       <c r="C523" t="s">
         <v>662</v>
@@ -23580,10 +23675,10 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B524" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C524" t="s">
         <v>662</v>
@@ -23591,10 +23686,10 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B525" s="3">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C525" t="s">
         <v>662</v>
@@ -23602,10 +23697,10 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B526" s="2" t="s">
-        <v>655</v>
+        <v>225</v>
+      </c>
+      <c r="B526" s="3">
+        <v>48</v>
       </c>
       <c r="C526" t="s">
         <v>662</v>
@@ -23613,10 +23708,10 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C527" t="s">
         <v>662</v>
@@ -23624,10 +23719,10 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C528" t="s">
         <v>662</v>
@@ -23635,10 +23730,10 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B529" s="3">
-        <v>6</v>
+        <v>233</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>657</v>
       </c>
       <c r="C529" t="s">
         <v>662</v>
@@ -23646,10 +23741,10 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B530" s="3">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C530" t="s">
         <v>662</v>
@@ -23657,10 +23752,10 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B531" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C531" t="s">
         <v>662</v>
@@ -23668,10 +23763,10 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B532" s="2" t="s">
-        <v>658</v>
+        <v>249</v>
+      </c>
+      <c r="B532" s="3">
+        <v>32</v>
       </c>
       <c r="C532" t="s">
         <v>662</v>
@@ -23679,10 +23774,10 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B533" s="3">
-        <v>13</v>
+        <v>259</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="C533" t="s">
         <v>662</v>
@@ -23690,10 +23785,10 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B534" s="3">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C534" t="s">
         <v>662</v>
@@ -23701,10 +23796,10 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B535" s="2" t="s">
-        <v>659</v>
+        <v>266</v>
+      </c>
+      <c r="B535" s="3">
+        <v>57</v>
       </c>
       <c r="C535" t="s">
         <v>662</v>
@@ -23712,10 +23807,10 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B536" s="3">
-        <v>50</v>
+        <v>357</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>659</v>
       </c>
       <c r="C536" t="s">
         <v>662</v>
@@ -23723,10 +23818,10 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
-        <v>361</v>
+        <v>277</v>
       </c>
       <c r="B537" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C537" t="s">
         <v>662</v>
@@ -23734,10 +23829,10 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B538" s="2" t="s">
-        <v>660</v>
+        <v>361</v>
+      </c>
+      <c r="B538" s="3">
+        <v>70</v>
       </c>
       <c r="C538" t="s">
         <v>662</v>
@@ -23745,10 +23840,10 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C539" t="s">
         <v>662</v>
@@ -23756,10 +23851,10 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B540" s="3">
-        <v>1</v>
+        <v>364</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>661</v>
       </c>
       <c r="C540" t="s">
         <v>662</v>
@@ -23767,10 +23862,10 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B541" s="2" t="s">
-        <v>661</v>
+        <v>374</v>
+      </c>
+      <c r="B541" s="3">
+        <v>1</v>
       </c>
       <c r="C541" t="s">
         <v>662</v>
@@ -23778,10 +23873,10 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B542" s="3">
-        <v>84</v>
+        <v>375</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>661</v>
       </c>
       <c r="C542" t="s">
         <v>662</v>
@@ -23789,10 +23884,10 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
-        <v>280</v>
+        <v>377</v>
       </c>
       <c r="B543" s="3">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C543" t="s">
         <v>662</v>
@@ -23800,899 +23895,910 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>383</v>
+        <v>280</v>
       </c>
       <c r="B544" s="3">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C544" t="s">
         <v>662</v>
       </c>
     </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B545" s="3">
+        <v>2</v>
+      </c>
+      <c r="C545" t="s">
+        <v>662</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://www.enzyme-database.org/query.php?ec=1.14.99.53" xr:uid="{79BE4573-CE80-458B-9E74-D24138790E95}"/>
-    <hyperlink ref="B1" r:id="rId2" display="http://www.cazy.org/GH18.html" xr:uid="{B1908F6A-74B4-41F9-80AA-52CCAB5479DB}"/>
-    <hyperlink ref="A2" r:id="rId3" display="http://www.enzyme-database.org/query.php?ec=2.4.1.*" xr:uid="{1E0BF863-F813-4BF3-8CD5-3EF8021A6E22}"/>
-    <hyperlink ref="A3" r:id="rId4" display="http://www.enzyme-database.org/query.php?ec=2.4.1.2" xr:uid="{971E1744-B174-4315-935D-B58F3F5F7443}"/>
-    <hyperlink ref="B3" r:id="rId5" display="http://www.cazy.org/GH15.html" xr:uid="{49A4A60B-36C3-4D24-936F-7B6815B9DC96}"/>
-    <hyperlink ref="A4" r:id="rId6" display="http://www.enzyme-database.org/query.php?ec=2.4.1.4" xr:uid="{858C0871-A7F5-4ACB-B531-E87E43608AB8}"/>
-    <hyperlink ref="B4" r:id="rId7" display="http://www.cazy.org/GH13.html" xr:uid="{857B169D-C60F-42F8-9A09-B271AFEA76B6}"/>
-    <hyperlink ref="A5" r:id="rId8" display="http://www.enzyme-database.org/query.php?ec=2.4.1.5" xr:uid="{F67C54EF-D070-464D-A120-7367237CFB45}"/>
-    <hyperlink ref="B5" r:id="rId9" display="http://www.cazy.org/GH70.html" xr:uid="{BFE7AF43-9873-400F-8C77-2E226E4CFC12}"/>
-    <hyperlink ref="A6" r:id="rId10" display="http://www.enzyme-database.org/query.php?ec=2.4.1.7" xr:uid="{36954E1F-F007-4F4A-A7AC-6A288BA7C091}"/>
-    <hyperlink ref="B6" r:id="rId11" display="http://www.cazy.org/GH13.html" xr:uid="{0E9F1EB0-B70A-45A0-9385-7BDCD0103800}"/>
-    <hyperlink ref="A7" r:id="rId12" display="http://www.enzyme-database.org/query.php?ec=2.4.1.8" xr:uid="{02B696FA-1283-4476-A03C-2B3B1AB5B5F7}"/>
-    <hyperlink ref="B7" r:id="rId13" display="http://www.cazy.org/GH65.html" xr:uid="{730B6238-95CF-4EBD-8014-286DAF1DBCA7}"/>
-    <hyperlink ref="A8" r:id="rId14" display="http://www.enzyme-database.org/query.php?ec=2.4.1.9" xr:uid="{E91AD565-EAEF-40A2-A552-A6B6F68C3BB7}"/>
-    <hyperlink ref="B8" r:id="rId15" display="http://www.cazy.org/GH68.html" xr:uid="{DF09DA8E-88AC-4F5B-AF9F-5BCD38F8B681}"/>
-    <hyperlink ref="A9" r:id="rId16" display="http://www.enzyme-database.org/query.php?ec=2.4.1.10" xr:uid="{8B79DBB4-E6EE-4AD9-B4AF-6B53E65041EC}"/>
-    <hyperlink ref="A10" r:id="rId17" display="http://www.enzyme-database.org/query.php?ec=2.4.1.12" xr:uid="{B37916A6-A123-43B9-BD9C-95E4CFB3C622}"/>
-    <hyperlink ref="B10" r:id="rId18" display="http://www.cazy.org/GH6.html" xr:uid="{24C468C8-8A24-48C5-BC31-E5152A21A57B}"/>
-    <hyperlink ref="A11" r:id="rId19" display="http://www.enzyme-database.org/query.php?ec=2.4.1.18" xr:uid="{58313A5D-ECE1-4CBA-AD70-6BE16AFD619D}"/>
-    <hyperlink ref="A12" r:id="rId20" display="http://www.enzyme-database.org/query.php?ec=2.4.1.19" xr:uid="{2F1F0BB5-1F7F-435D-BA96-832541C17CF9}"/>
-    <hyperlink ref="B12" r:id="rId21" display="http://www.cazy.org/GH13.html" xr:uid="{DB8B771B-14DF-41EE-9BDF-7E8C331B89B9}"/>
-    <hyperlink ref="A13" r:id="rId22" display="http://www.enzyme-database.org/query.php?ec=2.4.1.20" xr:uid="{2E8B18CA-AAF5-4A5D-9991-461D8D8220B5}"/>
-    <hyperlink ref="B13" r:id="rId23" display="http://www.cazy.org/GH94.html" xr:uid="{9CE2F5D2-AA84-48FA-864D-CDA935D4D71F}"/>
-    <hyperlink ref="A14" r:id="rId24" display="http://www.enzyme-database.org/query.php?ec=2.4.1.25" xr:uid="{1F4DC544-9C09-4D30-819F-69C7CCAB23AC}"/>
-    <hyperlink ref="A15" r:id="rId25" display="http://www.enzyme-database.org/query.php?ec=2.4.1.30" xr:uid="{27CB8A4D-C9BB-4882-9A4F-3EFFF3443E7C}"/>
-    <hyperlink ref="B15" r:id="rId26" display="http://www.cazy.org/GH149.html" xr:uid="{A5219F0C-8E15-4F04-ABE7-BF4DFAB7223C}"/>
-    <hyperlink ref="A16" r:id="rId27" display="http://www.enzyme-database.org/query.php?ec=2.4.1.31" xr:uid="{19C140DF-C3C3-404A-9383-0D6507EA07E5}"/>
-    <hyperlink ref="B16" r:id="rId28" display="http://www.cazy.org/GH94.html" xr:uid="{EB6B9072-A4B7-442F-BB2E-768BB8D57A61}"/>
-    <hyperlink ref="A17" r:id="rId29" display="http://www.enzyme-database.org/query.php?ec=2.4.1.49" xr:uid="{B49E7A47-CCA8-4588-A294-F30497A05F78}"/>
-    <hyperlink ref="B17" r:id="rId30" display="http://www.cazy.org/GH94.html" xr:uid="{B5015399-3343-4D87-9FEA-214C1189DB83}"/>
-    <hyperlink ref="A18" r:id="rId31" display="http://www.enzyme-database.org/query.php?ec=2.4.1.64" xr:uid="{542C27BA-CEA0-4BF2-8497-D1F485D272F5}"/>
-    <hyperlink ref="B18" r:id="rId32" display="http://www.cazy.org/GH65.html" xr:uid="{AEE1C1AB-CF67-4740-B8CA-73ADE7C8FB90}"/>
-    <hyperlink ref="A19" r:id="rId33" display="http://www.enzyme-database.org/query.php?ec=2.4.1.67" xr:uid="{3581AEAD-AF26-4080-89BF-E222C1CFD60C}"/>
-    <hyperlink ref="B19" r:id="rId34" display="http://www.cazy.org/GH36.html" xr:uid="{A9D83BB4-8454-4B1C-B8C5-83D97E2EDC5A}"/>
-    <hyperlink ref="A20" r:id="rId35" display="http://www.enzyme-database.org/query.php?ec=2.4.1.82" xr:uid="{A64C1AE1-8519-4630-91D5-75D3863DCFE2}"/>
-    <hyperlink ref="B20" r:id="rId36" display="http://www.cazy.org/GH36.html" xr:uid="{5A1DB228-5D17-4BF2-9D5D-C0AE47507AE6}"/>
-    <hyperlink ref="A21" r:id="rId37" display="http://www.enzyme-database.org/query.php?ec=2.4.1.97" xr:uid="{5B1340D6-6439-402C-B739-CD4B09364C34}"/>
-    <hyperlink ref="A22" r:id="rId38" display="http://www.enzyme-database.org/query.php?ec=2.4.1.99" xr:uid="{6715C783-2507-4CA3-BD9F-9AF7B03CA6D8}"/>
-    <hyperlink ref="B22" r:id="rId39" display="http://www.cazy.org/GH32.html" xr:uid="{FD54D9AD-6A73-4003-A85B-AA2699B5E6D2}"/>
-    <hyperlink ref="A23" r:id="rId40" display="http://www.enzyme-database.org/query.php?ec=2.4.1.100" xr:uid="{4C37B11A-BDC0-428F-A7F6-0B5372B0D349}"/>
-    <hyperlink ref="B23" r:id="rId41" display="http://www.cazy.org/GH32.html" xr:uid="{A71C85EA-50AA-482D-BC3D-9405A80BFC32}"/>
-    <hyperlink ref="A24" r:id="rId42" display="http://www.enzyme-database.org/query.php?ec=2.4.1.140" xr:uid="{4E76D27E-ECD8-40F7-9B32-5EE6E535EC38}"/>
-    <hyperlink ref="B24" r:id="rId43" display="http://www.cazy.org/GH70.html" xr:uid="{FD9D455F-A957-4742-8C9E-7E950E8A2568}"/>
-    <hyperlink ref="A25" r:id="rId44" display="http://www.enzyme-database.org/query.php?ec=2.4.1.161" xr:uid="{7E37906D-1559-44EC-AB4F-E6BF47E6F401}"/>
-    <hyperlink ref="B25" r:id="rId45" display="http://www.cazy.org/GH31.html" xr:uid="{E52DA811-EDE4-4D4A-A910-63E87F9B3C59}"/>
-    <hyperlink ref="A26" r:id="rId46" display="http://www.enzyme-database.org/query.php?ec=2.4.1.183" xr:uid="{8A7DFECF-F9BB-4E62-8EDF-EFC1C6A11A56}"/>
-    <hyperlink ref="B26" r:id="rId47" display="http://www.cazy.org/GH13.html" xr:uid="{BC0AABEC-2641-4741-BD2A-6DA418DFD686}"/>
-    <hyperlink ref="A27" r:id="rId48" display="http://www.enzyme-database.org/query.php?ec=2.4.1.207" xr:uid="{7FEDB3A1-89B0-4EE0-81E0-544A51F7E555}"/>
-    <hyperlink ref="A28" r:id="rId49" display="http://www.enzyme-database.org/query.php?ec=2.4.1.211" xr:uid="{8DEF80A7-1ECE-4012-B0E5-D25212A0B5BC}"/>
-    <hyperlink ref="B28" r:id="rId50" display="http://www.cazy.org/GH112.html" xr:uid="{7B4A5C8A-DE5C-4A43-BFB7-863A78A30B59}"/>
-    <hyperlink ref="A29" r:id="rId51" display="http://www.enzyme-database.org/query.php?ec=2.4.1.216" xr:uid="{CADAC9F5-FBAE-48B2-BCE4-18E6BBD8B57F}"/>
-    <hyperlink ref="B29" r:id="rId52" display="http://www.cazy.org/GH65.html" xr:uid="{E478464F-3EC3-4266-9268-A7A619D6F483}"/>
-    <hyperlink ref="A30" r:id="rId53" display="http://www.enzyme-database.org/query.php?ec=2.4.1.230" xr:uid="{1BC5CB18-A3AF-45A2-991D-50F6DFBEEC40}"/>
-    <hyperlink ref="B30" r:id="rId54" display="http://www.cazy.org/GH65.html" xr:uid="{1FACED40-1C62-45CE-BEF9-08F218E709E2}"/>
-    <hyperlink ref="A31" r:id="rId55" display="http://www.enzyme-database.org/query.php?ec=2.4.1.243" xr:uid="{F3F2F0DF-7735-409F-A08C-0C7C2A42555A}"/>
-    <hyperlink ref="B31" r:id="rId56" display="http://www.cazy.org/GH32.html" xr:uid="{84FDD4B7-97EC-49B9-95DD-37E8987322C6}"/>
-    <hyperlink ref="A32" r:id="rId57" display="http://www.enzyme-database.org/query.php?ec=2.4.1.247" xr:uid="{27DFCF45-8874-47FF-A2CC-AD90770E8387}"/>
-    <hyperlink ref="B32" r:id="rId58" display="http://www.cazy.org/GH112.html" xr:uid="{DB89BB3B-E8AA-4B50-A812-0D4F6B961651}"/>
-    <hyperlink ref="A33" r:id="rId59" display="http://www.enzyme-database.org/query.php?ec=2.4.1.248" xr:uid="{DB945989-1712-4693-84B5-494F62EE5792}"/>
-    <hyperlink ref="B33" r:id="rId60" display="http://www.cazy.org/GH66.html" xr:uid="{DFA5CF57-68CA-446B-8CE0-400F8FCA4DCB}"/>
-    <hyperlink ref="A34" r:id="rId61" display="http://www.enzyme-database.org/query.php?ec=2.4.1.279" xr:uid="{0AF5A723-B713-4889-86D4-A9BC2C188C6C}"/>
-    <hyperlink ref="B34" r:id="rId62" display="http://www.cazy.org/GH65.html" xr:uid="{C745EB50-8F5E-4F4A-BCF3-88B419E8576E}"/>
-    <hyperlink ref="A35" r:id="rId63" display="http://www.enzyme-database.org/query.php?ec=2.4.1.281" xr:uid="{DF811EEC-AB78-4B08-B995-0B2E8547AC9D}"/>
-    <hyperlink ref="B35" r:id="rId64" display="http://www.cazy.org/GH130.html" xr:uid="{D52EC780-3340-4CF0-AA5D-506FECDDD066}"/>
-    <hyperlink ref="A36" r:id="rId65" display="http://www.enzyme-database.org/query.php?ec=2.4.1.282" xr:uid="{FF67D4ED-F119-41FB-B937-B2EF0AED1933}"/>
-    <hyperlink ref="B36" r:id="rId66" display="http://www.cazy.org/GH65.html" xr:uid="{12E072DB-C301-4D5D-B47C-5ED03B1A9BD5}"/>
-    <hyperlink ref="A37" r:id="rId67" display="http://www.enzyme-database.org/query.php?ec=2.4.1.319" xr:uid="{A04E0BAC-F1FB-4C15-9B59-66D4643B1554}"/>
-    <hyperlink ref="B37" r:id="rId68" display="http://www.cazy.org/GH130.html" xr:uid="{DE76E1E7-EEF5-4307-9CF7-9DC725CD904A}"/>
-    <hyperlink ref="A38" r:id="rId69" display="http://www.enzyme-database.org/query.php?ec=2.4.1.320" xr:uid="{7F0FE9B5-98CA-4690-BAD9-EDA0C6429A1D}"/>
-    <hyperlink ref="B38" r:id="rId70" display="http://www.cazy.org/GH130.html" xr:uid="{ABBB575E-6B1F-4F45-A6AA-917B57C8A631}"/>
-    <hyperlink ref="A39" r:id="rId71" display="http://www.enzyme-database.org/query.php?ec=2.4.1.321" xr:uid="{B2A9DC27-45AF-4D92-945E-55B0EAA71903}"/>
-    <hyperlink ref="B39" r:id="rId72" display="http://www.cazy.org/GH94.html" xr:uid="{F07736E7-247D-4E8E-BC64-E2C238FB5793}"/>
-    <hyperlink ref="A40" r:id="rId73" display="http://www.enzyme-database.org/query.php?ec=2.4.1.329" xr:uid="{CD6A8ACE-AD01-41E8-8C17-2991968CBD5F}"/>
-    <hyperlink ref="B40" r:id="rId74" display="http://www.cazy.org/GH13.html" xr:uid="{D1FD6503-903A-42ED-BEA1-75E37DA6A889}"/>
-    <hyperlink ref="A41" r:id="rId75" display="http://www.enzyme-database.org/query.php?ec=2.4.1.333" xr:uid="{CD6DB272-4C04-4750-AB72-898CAFB08212}"/>
-    <hyperlink ref="A42" r:id="rId76" display="http://www.enzyme-database.org/query.php?ec=2.4.1.339" xr:uid="{8A9C63C1-7534-4D8E-A113-326D8168BAB9}"/>
-    <hyperlink ref="B42" r:id="rId77" display="http://www.cazy.org/GH130.html" xr:uid="{A7C825D1-61A0-46F8-87A4-8F027617C1CF}"/>
-    <hyperlink ref="A43" r:id="rId78" display="http://www.enzyme-database.org/query.php?ec=2.4.1.340" xr:uid="{195D8890-5931-47AF-8148-0C22707BB3B6}"/>
-    <hyperlink ref="B43" r:id="rId79" display="http://www.cazy.org/GH130.html" xr:uid="{07E1A9A4-8330-41C2-AD8B-2094531CBB7A}"/>
-    <hyperlink ref="A44" r:id="rId80" display="http://www.enzyme-database.org/query.php?ec=2.4.1.352" xr:uid="{459FD277-6037-41A3-9E37-3F5CC8FE8F25}"/>
-    <hyperlink ref="B44" r:id="rId81" display="http://www.cazy.org/GH13.html" xr:uid="{0EE7CD35-DECD-4BBC-8E21-1E1BE45F87C4}"/>
-    <hyperlink ref="A45" r:id="rId82" display="http://www.enzyme-database.org/query.php?ec=2.4.1.359" xr:uid="{63508567-AE71-4A79-A1B4-BD322815FCB1}"/>
-    <hyperlink ref="B45" r:id="rId83" display="http://www.cazy.org/GH13.html" xr:uid="{FBC08B26-8F76-49C9-B47B-798B3CFDFBC0}"/>
-    <hyperlink ref="A46" r:id="rId84" display="http://www.enzyme-database.org/query.php?ec=2.4.2.*" xr:uid="{A2DAD15E-084F-48C6-B276-02F6E1AA6C11}"/>
-    <hyperlink ref="B46" r:id="rId85" display="http://www.cazy.org/GH10.html" xr:uid="{5A37F0C4-B8F5-44D8-BCAC-FA57F51A5B53}"/>
-    <hyperlink ref="A47" r:id="rId86" display="http://www.enzyme-database.org/query.php?ec=2.4.99.16" xr:uid="{C55BD2AA-0F43-4861-A650-D08CC28A55D7}"/>
-    <hyperlink ref="B47" r:id="rId87" display="http://www.cazy.org/GH13.html" xr:uid="{5FD37B45-B982-4FE4-BD71-F973DE54C086}"/>
-    <hyperlink ref="A48" r:id="rId88" display="http://www.enzyme-database.org/query.php?ec=3.1.1.*" xr:uid="{9057678E-E986-4404-82F3-2C24909F04FA}"/>
-    <hyperlink ref="A49" r:id="rId89" display="http://www.enzyme-database.org/query.php?ec=3.1.1.72" xr:uid="{EBFF3F45-1BEA-4387-8983-204C947AE1CC}"/>
-    <hyperlink ref="A50" r:id="rId90" display="http://www.enzyme-database.org/query.php?ec=3.1.1.73" xr:uid="{6EB56600-1D24-427B-B07C-F43345F8D384}"/>
-    <hyperlink ref="A51" r:id="rId91" display="http://www.enzyme-database.org/query.php?ec=3.2.1.*" xr:uid="{A6AFB9CD-9A98-47F2-A666-EF93B04CE51C}"/>
-    <hyperlink ref="A52" r:id="rId92" display="http://www.enzyme-database.org/query.php?ec=3.2.1.1" xr:uid="{199FA03E-EB8F-4605-AA44-B095579B23F9}"/>
-    <hyperlink ref="A53" r:id="rId93" display="http://www.enzyme-database.org/query.php?ec=3.2.1.2" xr:uid="{5A430A31-FF97-43D3-82E4-3972869FD892}"/>
-    <hyperlink ref="A54" r:id="rId94" display="http://www.enzyme-database.org/query.php?ec=3.2.1.3" xr:uid="{727CB659-1CFC-4322-A7A4-BC90729A9B0B}"/>
-    <hyperlink ref="A55" r:id="rId95" display="http://www.enzyme-database.org/query.php?ec=3.2.1.4" xr:uid="{07D3FD74-1D67-4A32-ACD1-A28F919A7ED5}"/>
-    <hyperlink ref="A56" r:id="rId96" display="http://www.enzyme-database.org/query.php?ec=3.2.1.6" xr:uid="{50BBDE1A-C8E9-432D-AB3B-2C3DFB38729B}"/>
-    <hyperlink ref="A57" r:id="rId97" display="http://www.enzyme-database.org/query.php?ec=3.2.1.7" xr:uid="{DE8C5E3D-9484-444D-A029-02FDF599C7F4}"/>
-    <hyperlink ref="B57" r:id="rId98" display="http://www.cazy.org/GH32.html" xr:uid="{32A4B799-D52F-431E-BCC8-AF41C90E4E33}"/>
-    <hyperlink ref="A58" r:id="rId99" display="http://www.enzyme-database.org/query.php?ec=3.2.1.8" xr:uid="{6A922F5C-32DA-4404-9940-8F77BD426B5C}"/>
-    <hyperlink ref="A59" r:id="rId100" display="http://www.enzyme-database.org/query.php?ec=3.2.1.10" xr:uid="{607F6BB3-1317-4BF8-A838-139D36B6E741}"/>
-    <hyperlink ref="A60" r:id="rId101" display="http://www.enzyme-database.org/query.php?ec=3.2.1.11" xr:uid="{8320D856-4D85-4367-B221-17E3A90F5EF8}"/>
-    <hyperlink ref="A61" r:id="rId102" display="http://www.enzyme-database.org/query.php?ec=3.2.1.14" xr:uid="{DDE9552A-A242-4885-850A-52C0153576E5}"/>
-    <hyperlink ref="A62" r:id="rId103" display="http://www.enzyme-database.org/query.php?ec=3.2.1.15" xr:uid="{727782BD-1900-4AC9-83D1-486C5141726E}"/>
-    <hyperlink ref="B62" r:id="rId104" display="http://www.cazy.org/GH28.html" xr:uid="{8095F908-F2E9-41B6-BFAA-BB21B96DBEB0}"/>
-    <hyperlink ref="A63" r:id="rId105" display="http://www.enzyme-database.org/query.php?ec=3.2.1.17" xr:uid="{51363F3F-97C3-4B6E-B1F2-BEABFCFA1D8A}"/>
-    <hyperlink ref="A64" r:id="rId106" display="http://www.enzyme-database.org/query.php?ec=3.2.1.18" xr:uid="{C1BD03CD-B8A2-4B68-8AB1-D9F4144545F1}"/>
-    <hyperlink ref="A65" r:id="rId107" display="http://www.enzyme-database.org/query.php?ec=3.2.1.20" xr:uid="{E38B201F-3AFA-476A-B4B7-DE2176FFDF65}"/>
-    <hyperlink ref="A66" r:id="rId108" display="http://www.enzyme-database.org/query.php?ec=3.2.1.21" xr:uid="{8E0A9210-C8CC-45C6-9D26-94566A14BDB9}"/>
-    <hyperlink ref="A67" r:id="rId109" display="http://www.enzyme-database.org/query.php?ec=3.2.1.22" xr:uid="{85A8E04C-83BE-4B56-9478-B3CA955A52F4}"/>
-    <hyperlink ref="A68" r:id="rId110" display="http://www.enzyme-database.org/query.php?ec=3.2.1.23" xr:uid="{6585FC08-EAC5-423B-8A79-93E479A2BA75}"/>
-    <hyperlink ref="A69" r:id="rId111" display="http://www.enzyme-database.org/query.php?ec=3.2.1.24" xr:uid="{DF282013-0806-4741-936D-349F0F9716E4}"/>
-    <hyperlink ref="A70" r:id="rId112" display="http://www.enzyme-database.org/query.php?ec=3.2.1.25" xr:uid="{9CD5CE6B-F277-42E4-AE0B-A79F5ED62EEA}"/>
-    <hyperlink ref="A71" r:id="rId113" display="http://www.enzyme-database.org/query.php?ec=3.2.1.26" xr:uid="{FB5F3C47-DB20-422B-BAD2-878380EC1B6E}"/>
-    <hyperlink ref="A72" r:id="rId114" display="http://www.enzyme-database.org/query.php?ec=3.2.1.28" xr:uid="{15B7B2ED-D539-4A1B-83E6-FA3DCA942A3E}"/>
-    <hyperlink ref="A73" r:id="rId115" display="http://www.enzyme-database.org/query.php?ec=3.2.1.31" xr:uid="{C8D7B076-EC88-44B7-BB77-4494026E3314}"/>
-    <hyperlink ref="A74" r:id="rId116" display="http://www.enzyme-database.org/query.php?ec=3.2.1.32" xr:uid="{D149CEA5-1E06-4955-9D56-874134261EA6}"/>
-    <hyperlink ref="A75" r:id="rId117" display="http://www.enzyme-database.org/query.php?ec=3.2.1.33" xr:uid="{4E0575E7-F770-4EB5-9C47-EE6AEAFA90E1}"/>
-    <hyperlink ref="A76" r:id="rId118" display="http://www.enzyme-database.org/query.php?ec=3.2.1.35" xr:uid="{A6C92B49-5E5D-429C-9CBC-0D960E55878D}"/>
-    <hyperlink ref="A77" r:id="rId119" display="http://www.enzyme-database.org/query.php?ec=3.2.1.36" xr:uid="{0004FF3B-9DE6-4368-956E-2D5D48A55D8D}"/>
-    <hyperlink ref="B77" r:id="rId120" display="http://www.cazy.org/GH79.html" xr:uid="{F054944A-ECC7-45F9-A309-E9188F9D597D}"/>
-    <hyperlink ref="A78" r:id="rId121" display="http://www.enzyme-database.org/query.php?ec=3.2.1.37" xr:uid="{46C8D390-1C54-4720-A633-998E925F4324}"/>
-    <hyperlink ref="A79" r:id="rId122" display="http://www.enzyme-database.org/query.php?ec=3.2.1.38" xr:uid="{8EF12D9F-F05D-43E5-AA67-60341632D242}"/>
-    <hyperlink ref="A80" r:id="rId123" display="http://www.enzyme-database.org/query.php?ec=3.2.1.39" xr:uid="{7E45B975-C832-4503-80C5-92E2BD702642}"/>
-    <hyperlink ref="A81" r:id="rId124" display="http://www.enzyme-database.org/query.php?ec=3.2.1.40" xr:uid="{4BF6D9EA-18E0-4E4A-99FE-B1A74E57D1D2}"/>
-    <hyperlink ref="A82" r:id="rId125" display="http://www.enzyme-database.org/query.php?ec=3.2.1.41" xr:uid="{2B0A39FB-C2CF-43EC-B4B4-87F66B6C1E82}"/>
-    <hyperlink ref="A83" r:id="rId126" display="http://www.enzyme-database.org/query.php?ec=3.2.1.45" xr:uid="{BA0D970C-A8A9-4DCA-BAC9-AB69CDC952FF}"/>
-    <hyperlink ref="A84" r:id="rId127" display="http://www.enzyme-database.org/query.php?ec=3.2.1.46" xr:uid="{11210C26-0CB9-4740-8165-176A390BCC8E}"/>
-    <hyperlink ref="A85" r:id="rId128" display="http://www.enzyme-database.org/query.php?ec=3.2.1.48" xr:uid="{12B70063-6E28-4A19-8EAD-3C53633D3801}"/>
-    <hyperlink ref="B85" r:id="rId129" display="http://www.cazy.org/GH31.html" xr:uid="{7B068EA1-45E0-4C6B-AD88-0CF9FD67F719}"/>
-    <hyperlink ref="A86" r:id="rId130" display="http://www.enzyme-database.org/query.php?ec=3.2.1.49" xr:uid="{7B2B823E-922C-4B86-A19E-5861D9567AF5}"/>
-    <hyperlink ref="A87" r:id="rId131" display="http://www.enzyme-database.org/query.php?ec=3.2.1.50" xr:uid="{AD35ABE5-6963-479D-AC12-B53D68CE2FD2}"/>
-    <hyperlink ref="B87" r:id="rId132" display="http://www.cazy.org/GH89.html" xr:uid="{EF6C9A87-B8CE-46AB-9873-F0856B8AC884}"/>
-    <hyperlink ref="A88" r:id="rId133" display="http://www.enzyme-database.org/query.php?ec=3.2.1.51" xr:uid="{CD974D05-D9E3-443D-84EC-6A17C695D5A0}"/>
-    <hyperlink ref="A89" r:id="rId134" display="http://www.enzyme-database.org/query.php?ec=3.2.1.52" xr:uid="{ABBCB113-F4FA-4C2D-BF48-2BB0AF39BAF5}"/>
-    <hyperlink ref="A90" r:id="rId135" display="http://www.enzyme-database.org/query.php?ec=3.2.1.53" xr:uid="{16420FC9-02B9-4794-AFF4-5656744F1084}"/>
-    <hyperlink ref="B90" r:id="rId136" display="http://www.cazy.org/GH123.html" xr:uid="{9AFCED04-5EE4-4D27-A29D-94D5273C28F6}"/>
-    <hyperlink ref="A91" r:id="rId137" display="http://www.enzyme-database.org/query.php?ec=3.2.1.54" xr:uid="{564B2FB8-1D9F-4648-90DF-7F9F4C439D47}"/>
-    <hyperlink ref="A92" r:id="rId138" display="http://www.enzyme-database.org/query.php?ec=3.2.1.55" xr:uid="{C96EDC42-1AD1-4D99-B9A9-15F5974094D9}"/>
-    <hyperlink ref="A93" r:id="rId139" display="http://www.enzyme-database.org/query.php?ec=3.2.1.57" xr:uid="{27A330FA-1F38-46C1-BC72-685FA51B7238}"/>
-    <hyperlink ref="B93" r:id="rId140" display="http://www.cazy.org/GH49.html" xr:uid="{390EE9DA-5E38-4140-BB87-CA6933E99C3A}"/>
-    <hyperlink ref="A94" r:id="rId141" display="http://www.enzyme-database.org/query.php?ec=3.2.1.58" xr:uid="{0BE032C9-CB7B-46A7-9100-6419D230F169}"/>
-    <hyperlink ref="A95" r:id="rId142" display="http://www.enzyme-database.org/query.php?ec=3.2.1.59" xr:uid="{764EC265-83FD-4E93-BB13-7EADF2C2F3E8}"/>
-    <hyperlink ref="A96" r:id="rId143" display="http://www.enzyme-database.org/query.php?ec=3.2.1.60" xr:uid="{D5ECECBF-8AE1-4849-8541-C51CDDF789D5}"/>
-    <hyperlink ref="B96" r:id="rId144" display="http://www.cazy.org/GH13.html" xr:uid="{0A51E1D0-DB6F-43CA-942E-A8ED3976AF9B}"/>
-    <hyperlink ref="A97" r:id="rId145" display="http://www.enzyme-database.org/query.php?ec=3.2.1.61" xr:uid="{FAC178D2-EFBD-434E-B50C-2EB8BF0CF623}"/>
-    <hyperlink ref="B97" r:id="rId146" display="http://www.cazy.org/GH87.html" xr:uid="{B837699F-4C6C-48BE-91D0-52195D318921}"/>
-    <hyperlink ref="A98" r:id="rId147" display="http://www.enzyme-database.org/query.php?ec=3.2.1.62" xr:uid="{3A2D9EBD-59D1-4A1A-A459-8619C1BA53EB}"/>
-    <hyperlink ref="B98" r:id="rId148" display="http://www.cazy.org/GH1.html" xr:uid="{FC6BFDB8-1C9A-4B56-8A18-1B18299D025E}"/>
-    <hyperlink ref="A99" r:id="rId149" display="http://www.enzyme-database.org/query.php?ec=3.2.1.63" xr:uid="{5C3B5FC7-883B-4F32-BE17-11F10AC4C911}"/>
-    <hyperlink ref="A100" r:id="rId150" display="http://www.enzyme-database.org/query.php?ec=3.2.1.64" xr:uid="{D0BADE27-94CC-4D54-B555-D8A709215972}"/>
-    <hyperlink ref="B100" r:id="rId151" display="http://www.cazy.org/GH32.html" xr:uid="{306D49E4-6D66-4E54-BAD7-F2C4F8631142}"/>
-    <hyperlink ref="A101" r:id="rId152" display="http://www.enzyme-database.org/query.php?ec=3.2.1.65" xr:uid="{AD76FEA5-BD29-437A-8EA1-83320BD036FF}"/>
-    <hyperlink ref="B101" r:id="rId153" display="http://www.cazy.org/GH32.html" xr:uid="{51A13DC1-139E-4291-877B-DB593CE74380}"/>
-    <hyperlink ref="A102" r:id="rId154" display="http://www.enzyme-database.org/query.php?ec=3.2.1.67" xr:uid="{30A57B9C-FE07-4D56-944C-707D45D334B7}"/>
-    <hyperlink ref="A103" r:id="rId155" display="http://www.enzyme-database.org/query.php?ec=3.2.1.68" xr:uid="{C0800683-334B-4572-B24C-ED864F4849CD}"/>
-    <hyperlink ref="B103" r:id="rId156" display="http://www.cazy.org/GH13.html" xr:uid="{6E72BCAC-36E5-4566-AC96-8EB53E9F14B5}"/>
-    <hyperlink ref="A104" r:id="rId157" display="http://www.enzyme-database.org/query.php?ec=3.2.1.70" xr:uid="{D34A9DE0-91AC-4E66-ACD4-2DACDFC70CFA}"/>
-    <hyperlink ref="A105" r:id="rId158" display="http://www.enzyme-database.org/query.php?ec=3.2.1.71" xr:uid="{C7A9528E-4CE6-44EA-B9EB-F0784D750B24}"/>
-    <hyperlink ref="A106" r:id="rId159" display="http://www.enzyme-database.org/query.php?ec=3.2.1.73" xr:uid="{26EF4BE0-D8F9-4772-9FF7-AA294C1682DF}"/>
-    <hyperlink ref="A107" r:id="rId160" display="http://www.enzyme-database.org/query.php?ec=3.2.1.74" xr:uid="{046147E9-742E-49F3-AECF-49179C3406DB}"/>
-    <hyperlink ref="A108" r:id="rId161" display="http://www.enzyme-database.org/query.php?ec=3.2.1.75" xr:uid="{B375917A-2F3B-4CD3-AB86-DA8013CB1E83}"/>
-    <hyperlink ref="A109" r:id="rId162" display="http://www.enzyme-database.org/query.php?ec=3.2.1.76" xr:uid="{216A137E-040B-4F8B-875F-F1E7001338CA}"/>
-    <hyperlink ref="B109" r:id="rId163" display="http://www.cazy.org/GH39.html" xr:uid="{849B850D-FD39-402B-B4F2-A31021583269}"/>
-    <hyperlink ref="A110" r:id="rId164" display="http://www.enzyme-database.org/query.php?ec=3.2.1.78" xr:uid="{FF6D147D-B565-46D0-8520-28AAA8D7CDCF}"/>
-    <hyperlink ref="A111" r:id="rId165" display="http://www.enzyme-database.org/query.php?ec=3.2.1.80" xr:uid="{6CC58696-CA0B-4D7A-9589-3AC0E194D821}"/>
-    <hyperlink ref="B111" r:id="rId166" display="http://www.cazy.org/GH32.html" xr:uid="{BE5C4677-EAAA-4801-AA57-4F4E21990F60}"/>
-    <hyperlink ref="A112" r:id="rId167" display="http://www.enzyme-database.org/query.php?ec=3.2.1.81" xr:uid="{9A802A62-7F47-4B72-889B-93BBDBEB7702}"/>
-    <hyperlink ref="A113" r:id="rId168" display="http://www.enzyme-database.org/query.php?ec=3.2.1.82" xr:uid="{B5BC3447-E372-4A23-B469-2FF20C0B99FB}"/>
-    <hyperlink ref="B113" r:id="rId169" display="http://www.cazy.org/GH28.html" xr:uid="{5D096390-0E02-4CDA-A9CD-3544CD22BF41}"/>
-    <hyperlink ref="A114" r:id="rId170" display="http://www.enzyme-database.org/query.php?ec=3.2.1.83" xr:uid="{CF88595B-5CAF-41DC-A249-D8C5EE546261}"/>
-    <hyperlink ref="B114" r:id="rId171" display="http://www.cazy.org/GH16.html" xr:uid="{543F0E57-CCAB-4BF7-94CB-E38817C14AA0}"/>
-    <hyperlink ref="A115" r:id="rId172" display="http://www.enzyme-database.org/query.php?ec=3.2.1.84" xr:uid="{46832345-E2FF-4FB4-9AFE-F28B56FAF90D}"/>
-    <hyperlink ref="A116" r:id="rId173" display="http://www.enzyme-database.org/query.php?ec=3.2.1.85" xr:uid="{8837EB93-4A3E-409C-B7AC-A125D3343EA7}"/>
-    <hyperlink ref="B116" r:id="rId174" display="http://www.cazy.org/GH1.html" xr:uid="{7412B4A4-0929-4E72-BFCE-862663F3087F}"/>
-    <hyperlink ref="A117" r:id="rId175" display="http://www.enzyme-database.org/query.php?ec=3.2.1.86" xr:uid="{BCE67AB3-CBA1-40F9-B906-74136897CF5B}"/>
-    <hyperlink ref="A118" r:id="rId176" display="http://www.enzyme-database.org/query.php?ec=3.2.1.88" xr:uid="{BB3B6549-4FDF-4622-BD7E-5014A147C90D}"/>
-    <hyperlink ref="A119" r:id="rId177" display="http://www.enzyme-database.org/query.php?ec=3.2.1.89" xr:uid="{B94E0825-89BE-45F2-B063-BEF97A2BD679}"/>
-    <hyperlink ref="A120" r:id="rId178" display="http://www.enzyme-database.org/query.php?ec=3.2.1.91" xr:uid="{545FB5D3-ACBF-4B06-8714-DED492CE2063}"/>
-    <hyperlink ref="A121" r:id="rId179" display="http://www.enzyme-database.org/query.php?ec=3.2.1.93" xr:uid="{F30774C1-8A13-4F8C-81EA-FA8BB59DC64C}"/>
-    <hyperlink ref="B121" r:id="rId180" display="http://www.cazy.org/GH13.html" xr:uid="{AF7B8EFA-57F0-44A9-87B3-B5BCA18AA95B}"/>
-    <hyperlink ref="A122" r:id="rId181" display="http://www.enzyme-database.org/query.php?ec=3.2.1.94" xr:uid="{A1AD22FB-35E2-47DF-8B23-3FBFECC4336D}"/>
-    <hyperlink ref="B122" r:id="rId182" display="http://www.cazy.org/GH27.html" xr:uid="{43661670-C2AB-4442-A75D-7F13553B1DDE}"/>
-    <hyperlink ref="A123" r:id="rId183" display="http://www.enzyme-database.org/query.php?ec=3.2.1.95" xr:uid="{A7B85200-4C71-470B-9F7F-27C6F43BDD36}"/>
-    <hyperlink ref="B123" r:id="rId184" display="http://www.cazy.org/GH49.html" xr:uid="{7C83DBAE-4AE6-4024-A1DA-B6BF3F2E2B85}"/>
-    <hyperlink ref="A124" r:id="rId185" display="http://www.enzyme-database.org/query.php?ec=3.2.1.96" xr:uid="{79F6CAAC-D9E5-4D7B-89C4-EC4D20F928FC}"/>
-    <hyperlink ref="A125" r:id="rId186" display="http://www.enzyme-database.org/query.php?ec=3.2.1.97" xr:uid="{CD0DE081-2373-4513-83C3-4AAB5A94326F}"/>
-    <hyperlink ref="B125" r:id="rId187" display="http://www.cazy.org/GH101.html" xr:uid="{ECF64332-80D2-4237-958A-2C76C403C26A}"/>
-    <hyperlink ref="A126" r:id="rId188" display="http://www.enzyme-database.org/query.php?ec=3.2.1.98" xr:uid="{C80BD435-2390-4C97-ADA7-31C6CF84E31E}"/>
-    <hyperlink ref="B126" r:id="rId189" display="http://www.cazy.org/GH13.html" xr:uid="{D54D6ADB-7EC4-4598-85E8-E9C25F1ABBD1}"/>
-    <hyperlink ref="A127" r:id="rId190" display="http://www.enzyme-database.org/query.php?ec=3.2.1.99" xr:uid="{4A27F5F6-42C8-4C11-ABF0-B67F40E12B8B}"/>
-    <hyperlink ref="B127" r:id="rId191" display="http://www.cazy.org/GH43.html" xr:uid="{901E9749-2067-4959-88A8-E99ACE2ABD93}"/>
-    <hyperlink ref="A128" r:id="rId192" display="http://www.enzyme-database.org/query.php?ec=3.2.1.100" xr:uid="{AEB187AD-EE25-46C3-A96A-793206A36019}"/>
-    <hyperlink ref="B128" r:id="rId193" display="http://www.cazy.org/GH26.html" xr:uid="{8671E555-60BA-4491-8EBC-F383660C02DE}"/>
-    <hyperlink ref="A129" r:id="rId194" display="http://www.enzyme-database.org/query.php?ec=3.2.1.101" xr:uid="{14ED6164-972E-4C22-904A-D3179BAFAD9A}"/>
-    <hyperlink ref="B129" r:id="rId195" display="http://www.cazy.org/GH76.html" xr:uid="{9480F48A-FD36-4693-BDBC-60087A4A1365}"/>
-    <hyperlink ref="A130" r:id="rId196" display="http://www.enzyme-database.org/query.php?ec=3.2.1.102" xr:uid="{2DF2DBF2-8709-4DCD-B635-B6E5A9F4766B}"/>
-    <hyperlink ref="B130" r:id="rId197" display="http://www.cazy.org/GH98.html" xr:uid="{43BAB24C-BA7A-46C1-A57B-F05A5359C3AE}"/>
-    <hyperlink ref="A131" r:id="rId198" display="http://www.enzyme-database.org/query.php?ec=3.2.1.103" xr:uid="{3AEFADDF-13E1-4C74-9949-1FAC2FCC5EA2}"/>
-    <hyperlink ref="B131" r:id="rId199" display="http://www.cazy.org/GH16.html" xr:uid="{91C64C84-9FE0-448D-AA31-FA38F6B76A2E}"/>
-    <hyperlink ref="A132" r:id="rId200" display="http://www.enzyme-database.org/query.php?ec=3.2.1.104" xr:uid="{CAFA0FD1-F96F-46AF-BB64-E859853B67BD}"/>
-    <hyperlink ref="B132" r:id="rId201" display="http://www.cazy.org/GH5.html" xr:uid="{AAF94F82-FA0B-465A-A4EE-C81500E4958C}"/>
-    <hyperlink ref="A133" r:id="rId202" display="http://www.enzyme-database.org/query.php?ec=3.2.1.105" xr:uid="{A63F9DD6-8913-4419-9FAC-9FB4E78FE09D}"/>
-    <hyperlink ref="B133" r:id="rId203" display="http://www.cazy.org/GH1.html" xr:uid="{218D9506-6BC2-4DF3-9884-C086C86546D7}"/>
-    <hyperlink ref="A134" r:id="rId204" display="http://www.enzyme-database.org/query.php?ec=3.2.1.106" xr:uid="{383031CC-A017-4B99-AE17-8324353FBF21}"/>
-    <hyperlink ref="B134" r:id="rId205" display="http://www.cazy.org/GH63.html" xr:uid="{5EA4D399-1BDC-4576-81E8-AABF6A8FFD59}"/>
-    <hyperlink ref="A135" r:id="rId206" display="http://www.enzyme-database.org/query.php?ec=3.2.1.107" xr:uid="{9645372A-A227-4F95-B97F-C07B2ECED2C8}"/>
-    <hyperlink ref="B135" r:id="rId207" display="http://www.cazy.org/GH65.html" xr:uid="{6E670950-ED82-42F1-945A-246E3688E77C}"/>
-    <hyperlink ref="A136" r:id="rId208" display="http://www.enzyme-database.org/query.php?ec=3.2.1.108" xr:uid="{FF0F4612-7C51-45CF-B6C3-82616FFD641D}"/>
-    <hyperlink ref="B136" r:id="rId209" display="http://www.cazy.org/GH1.html" xr:uid="{C9B61F2F-4775-4EF9-A0F2-A3FA99EE3E08}"/>
-    <hyperlink ref="A137" r:id="rId210" display="http://www.enzyme-database.org/query.php?ec=3.2.1.109" xr:uid="{AC636A36-7CB5-43D9-BC5F-74C761DE7B50}"/>
-    <hyperlink ref="B137" r:id="rId211" display="http://www.cazy.org/GH114.html" xr:uid="{57EA1B3E-F354-4280-943C-B168C2FF0381}"/>
-    <hyperlink ref="A138" r:id="rId212" display="http://www.enzyme-database.org/query.php?ec=3.2.1.111" xr:uid="{911BBD77-868D-411B-A91B-A632CECCBFB1}"/>
-    <hyperlink ref="B138" r:id="rId213" display="http://www.cazy.org/GH29.html" xr:uid="{9CBCFB13-FC46-475A-8879-4F1039F38CD8}"/>
-    <hyperlink ref="A139" r:id="rId214" display="http://www.enzyme-database.org/query.php?ec=3.2.1.113" xr:uid="{1BCAC8A8-9EA5-49E8-AC4C-C094A9D1DFC0}"/>
-    <hyperlink ref="A140" r:id="rId215" display="http://www.enzyme-database.org/query.php?ec=3.2.1.114" xr:uid="{27E7D34E-5ED5-40E0-ACAD-D0506D4856E5}"/>
-    <hyperlink ref="A141" r:id="rId216" display="http://www.enzyme-database.org/query.php?ec=3.2.1.116" xr:uid="{9263B1E5-8FC5-4FE3-AE14-276198B1384B}"/>
-    <hyperlink ref="B141" r:id="rId217" display="http://www.cazy.org/GH13.html" xr:uid="{C33EABFC-B1B3-4961-8E6F-FBCBBCEE7B1F}"/>
-    <hyperlink ref="A142" r:id="rId218" display="http://www.enzyme-database.org/query.php?ec=3.2.1.117" xr:uid="{5ED7AB07-042A-4C35-B9DC-B52B7FA2C801}"/>
-    <hyperlink ref="B142" r:id="rId219" display="http://www.cazy.org/GH1.html" xr:uid="{C4F84391-6134-4C1A-8C34-1696DE8F9173}"/>
-    <hyperlink ref="A143" r:id="rId220" display="http://www.enzyme-database.org/query.php?ec=3.2.1.118" xr:uid="{155BD9DC-2929-4516-8195-666CCB80EC44}"/>
-    <hyperlink ref="B143" r:id="rId221" display="http://www.cazy.org/GH1.html" xr:uid="{FC7597E8-A056-4228-B2F5-CB78D549A5E8}"/>
-    <hyperlink ref="A144" r:id="rId222" display="http://www.enzyme-database.org/query.php?ec=3.2.1.119" xr:uid="{2C1788DE-AB1D-44C4-8566-6954A8F6848E}"/>
-    <hyperlink ref="B144" r:id="rId223" display="http://www.cazy.org/GH1.html" xr:uid="{89BA3681-75F6-4AB2-9EF9-1638118B83C3}"/>
-    <hyperlink ref="A145" r:id="rId224" display="http://www.enzyme-database.org/query.php?ec=3.2.1.120" xr:uid="{1EA26F23-5D2A-4CCF-ADAB-DD649379B12C}"/>
-    <hyperlink ref="B145" r:id="rId225" display="http://www.cazy.org/GH3.html" xr:uid="{3603CFA5-FA5B-4C21-8EC6-5523556775B8}"/>
-    <hyperlink ref="A146" r:id="rId226" display="http://www.enzyme-database.org/query.php?ec=3.2.1.122" xr:uid="{85D1C063-F27A-483A-BD1C-730C8613CF32}"/>
-    <hyperlink ref="B146" r:id="rId227" display="http://www.cazy.org/GH4.html" xr:uid="{78870075-5E79-4C55-8D6F-CC317920975D}"/>
-    <hyperlink ref="A147" r:id="rId228" display="http://www.enzyme-database.org/query.php?ec=3.2.1.123" xr:uid="{9CDEA70D-2B8A-49EC-BB91-DA36D2171E14}"/>
-    <hyperlink ref="B147" r:id="rId229" display="http://www.cazy.org/GH5.html" xr:uid="{2F2E624C-6DF4-4720-A60E-4E647128D761}"/>
-    <hyperlink ref="A148" r:id="rId230" display="http://www.enzyme-database.org/query.php?ec=3.2.1.125" xr:uid="{FC49BC2E-DBA5-41EE-BBC9-590FC5548DC4}"/>
-    <hyperlink ref="B148" r:id="rId231" display="http://www.cazy.org/GH1.html" xr:uid="{203E0A95-2919-49E0-B4D8-877CD1EB5699}"/>
-    <hyperlink ref="A149" r:id="rId232" display="http://www.enzyme-database.org/query.php?ec=3.2.1.126" xr:uid="{FFEB2980-EDCC-4E71-A712-997E7B931F03}"/>
-    <hyperlink ref="B149" r:id="rId233" display="http://www.cazy.org/GH3.html" xr:uid="{3D66302B-027A-4962-9204-5AFFBD5593B3}"/>
-    <hyperlink ref="A150" r:id="rId234" display="http://www.enzyme-database.org/query.php?ec=3.2.1.129" xr:uid="{2F988A79-4275-4B2B-9995-36DA250E8C98}"/>
-    <hyperlink ref="B150" r:id="rId235" display="http://www.cazy.org/GH58.html" xr:uid="{C3991303-8D1B-456A-B8E9-B81357913BD0}"/>
-    <hyperlink ref="A151" r:id="rId236" display="http://www.enzyme-database.org/query.php?ec=3.2.1.130" xr:uid="{991A4E6E-6E14-4146-B213-2C93C8544BB7}"/>
-    <hyperlink ref="B151" r:id="rId237" display="http://www.cazy.org/GH99.html" xr:uid="{242477B0-42D5-4602-8B8A-501491B66E10}"/>
-    <hyperlink ref="A152" r:id="rId238" display="http://www.enzyme-database.org/query.php?ec=3.2.1.131" xr:uid="{95587517-0DD9-45D9-8C4E-A9B988F834FB}"/>
-    <hyperlink ref="A153" r:id="rId239" display="http://www.enzyme-database.org/query.php?ec=3.2.1.132" xr:uid="{553E2A30-C3D1-49A0-A1EB-C5F4F59B38D0}"/>
-    <hyperlink ref="A154" r:id="rId240" display="http://www.enzyme-database.org/query.php?ec=3.2.1.133" xr:uid="{DBDB763E-5ACC-4FFD-846F-00BC8D169E56}"/>
-    <hyperlink ref="B154" r:id="rId241" display="http://www.cazy.org/GH13.html" xr:uid="{F4090853-2CDD-45A3-A4F1-2E087C36EA55}"/>
-    <hyperlink ref="A155" r:id="rId242" display="http://www.enzyme-database.org/query.php?ec=3.2.1.135" xr:uid="{8759E03A-EB0C-48A8-9FD9-A500FF2555C9}"/>
-    <hyperlink ref="B155" r:id="rId243" display="http://www.cazy.org/GH13.html" xr:uid="{43EEBDF8-3693-4A64-99E1-DF636952EBDF}"/>
-    <hyperlink ref="A156" r:id="rId244" display="http://www.enzyme-database.org/query.php?ec=3.2.1.136" xr:uid="{9436BFEF-E31B-448F-87BE-EA39B34C6E03}"/>
-    <hyperlink ref="B156" r:id="rId245" display="http://www.cazy.org/GH30.html" xr:uid="{E618CACE-FED2-4906-9DED-68D61C134FB7}"/>
-    <hyperlink ref="A157" r:id="rId246" display="http://www.enzyme-database.org/query.php?ec=3.2.1.139" xr:uid="{E4BF61FA-73B9-42F5-B72B-4D14C75D7824}"/>
-    <hyperlink ref="A158" r:id="rId247" display="http://www.enzyme-database.org/query.php?ec=3.2.1.140" xr:uid="{7822A13B-0D2F-43A9-AED4-A1484CDD5349}"/>
-    <hyperlink ref="A159" r:id="rId248" display="http://www.enzyme-database.org/query.php?ec=3.2.1.141" xr:uid="{2271A89F-CD43-4E59-8F6C-F7FD282B58B4}"/>
-    <hyperlink ref="B159" r:id="rId249" display="http://www.cazy.org/GH13.html" xr:uid="{4B652109-4A76-4D8F-8604-52D3CD1C68BE}"/>
-    <hyperlink ref="A160" r:id="rId250" display="http://www.enzyme-database.org/query.php?ec=3.2.1.145" xr:uid="{90771EC0-B222-46AA-ACC5-C9D1E4EC8807}"/>
-    <hyperlink ref="B160" r:id="rId251" display="http://www.cazy.org/GH43.html" xr:uid="{0EC94AFF-2382-446B-9E6A-E26A6C431D73}"/>
-    <hyperlink ref="A161" r:id="rId252" display="http://www.enzyme-database.org/query.php?ec=3.2.1.146" xr:uid="{37F9F265-B9C0-4E3D-A9C4-D70975E82F9A}"/>
-    <hyperlink ref="A162" r:id="rId253" display="http://www.enzyme-database.org/query.php?ec=3.2.1.147" xr:uid="{CE542BE9-8698-4384-80CB-E0A1F5A6F6B5}"/>
-    <hyperlink ref="B162" r:id="rId254" display="http://www.cazy.org/GH1.html" xr:uid="{BA056BF6-94FC-4CE0-A6C1-964036FD4E44}"/>
-    <hyperlink ref="A163" r:id="rId255" display="http://www.enzyme-database.org/query.php?ec=3.2.1.149" xr:uid="{ED5C9258-4738-4E00-9E08-EFD8AACA9A6F}"/>
-    <hyperlink ref="A164" r:id="rId256" display="http://www.enzyme-database.org/query.php?ec=3.2.1.150" xr:uid="{1D29AFE7-4137-40CC-A8DB-39DDCE307134}"/>
-    <hyperlink ref="B164" r:id="rId257" display="http://www.cazy.org/GH74.html" xr:uid="{4B7B2439-7C20-45D8-9865-D279F864FF0B}"/>
-    <hyperlink ref="A165" r:id="rId258" display="http://www.enzyme-database.org/query.php?ec=3.2.1.151" xr:uid="{B6F4A8B3-34F9-4C93-98E0-783C0132DEC4}"/>
-    <hyperlink ref="A166" r:id="rId259" display="http://www.enzyme-database.org/query.php?ec=3.2.1.152" xr:uid="{7D463713-3972-4E60-9408-44A8FE6DD68C}"/>
-    <hyperlink ref="B166" r:id="rId260" display="http://www.cazy.org/GH2.html" xr:uid="{8D802E88-0B45-4C74-AA2D-D50EAAFCD86F}"/>
-    <hyperlink ref="A167" r:id="rId261" display="http://www.enzyme-database.org/query.php?ec=3.2.1.153" xr:uid="{A950986F-B176-4334-B263-97F9163FB906}"/>
-    <hyperlink ref="B167" r:id="rId262" display="http://www.cazy.org/GH32.html" xr:uid="{C0F9CEA5-4B22-4F56-9D9C-C71472137C00}"/>
-    <hyperlink ref="A168" r:id="rId263" display="http://www.enzyme-database.org/query.php?ec=3.2.1.154" xr:uid="{03781914-61E9-4F89-BBEE-26AE6A30D20D}"/>
-    <hyperlink ref="B168" r:id="rId264" display="http://www.cazy.org/GH32.html" xr:uid="{BC502B7D-FEE8-4428-AFCF-7935ED9B83B3}"/>
-    <hyperlink ref="A169" r:id="rId265" display="http://www.enzyme-database.org/query.php?ec=3.2.1.155" xr:uid="{ECBE5AFE-0234-4D8C-AC28-80B6B69BCB35}"/>
-    <hyperlink ref="B169" r:id="rId266" display="http://www.cazy.org/GH3.html" xr:uid="{1605CCC9-0D48-4ED8-A1B2-1D2AAA0110B2}"/>
-    <hyperlink ref="A170" r:id="rId267" display="http://www.enzyme-database.org/query.php?ec=3.2.1.156" xr:uid="{C2729B3D-F1FA-47D2-AE4C-C1758798D157}"/>
-    <hyperlink ref="B170" r:id="rId268" display="http://www.cazy.org/GH8.html" xr:uid="{2CC3353A-1BA8-4A4C-B48F-F0B7052ACB60}"/>
-    <hyperlink ref="A171" r:id="rId269" display="http://www.enzyme-database.org/query.php?ec=3.2.1.157" xr:uid="{C358A685-5D49-42DE-8427-1B6D9AD07785}"/>
-    <hyperlink ref="B171" r:id="rId270" display="http://www.cazy.org/GH82.html" xr:uid="{13FA5F50-3C59-4181-AD42-3145DB002AD3}"/>
-    <hyperlink ref="A172" r:id="rId271" display="http://www.enzyme-database.org/query.php?ec=3.2.1.158" xr:uid="{5BE57BB3-D5E6-40AE-B1DC-9BB6492BE9B7}"/>
-    <hyperlink ref="B172" r:id="rId272" display="http://www.cazy.org/GH96.html" xr:uid="{EDBC2A2D-1822-4C79-B445-A62D8A3D2AE4}"/>
-    <hyperlink ref="A173" r:id="rId273" display="http://www.enzyme-database.org/query.php?ec=3.2.1.161" xr:uid="{513D42B3-9CB3-4686-8C0D-79A89B3E2C37}"/>
-    <hyperlink ref="B173" r:id="rId274" display="http://www.cazy.org/GH1.html" xr:uid="{CBC2A177-564F-40B7-B561-5FA4211FC53C}"/>
-    <hyperlink ref="A174" r:id="rId275" display="http://www.enzyme-database.org/query.php?ec=3.2.1.162" xr:uid="{1F651A82-B0FF-4E7D-94AA-3023410AC89F}"/>
-    <hyperlink ref="B174" r:id="rId276" display="http://www.cazy.org/GH150.html" xr:uid="{148849C5-48A9-4E47-8C18-0D679993242A}"/>
-    <hyperlink ref="A175" r:id="rId277" display="http://www.enzyme-database.org/query.php?ec=3.2.1.164" xr:uid="{09BA475B-C9E1-4F9C-B9C7-B313D1A1D3BA}"/>
-    <hyperlink ref="A176" r:id="rId278" display="http://www.enzyme-database.org/query.php?ec=3.2.1.165" xr:uid="{EF19F2A2-D0EF-43A9-95AF-5DE829C69341}"/>
-    <hyperlink ref="A177" r:id="rId279" display="http://www.enzyme-database.org/query.php?ec=3.2.1.166" xr:uid="{732D573E-947A-493C-9951-DCBF1CF431DB}"/>
-    <hyperlink ref="B177" r:id="rId280" display="http://www.cazy.org/GH79.html" xr:uid="{882AED30-3A5C-48B9-A74E-CCC38EFB03AD}"/>
-    <hyperlink ref="A178" r:id="rId281" display="http://www.enzyme-database.org/query.php?ec=3.2.1.167" xr:uid="{4F961B4F-E27B-4F13-AD38-FDBAE1B13997}"/>
-    <hyperlink ref="B178" r:id="rId282" display="http://www.cazy.org/GH79.html" xr:uid="{4B4603C8-635A-4BA7-A6B3-019E9171CBAD}"/>
-    <hyperlink ref="A179" r:id="rId283" display="http://www.enzyme-database.org/query.php?ec=3.2.1.169" xr:uid="{02509F15-04DD-499E-8CC3-EE8E1241FCDF}"/>
-    <hyperlink ref="B179" r:id="rId284" display="http://www.cazy.org/GH84.html" xr:uid="{AFEFA06B-E740-4A94-A2FF-F4A25E8592D8}"/>
-    <hyperlink ref="A180" r:id="rId285" display="http://www.enzyme-database.org/query.php?ec=3.2.1.170" xr:uid="{744DD699-AAB1-4A88-A78F-B17749697934}"/>
-    <hyperlink ref="B180" r:id="rId286" display="http://www.cazy.org/GH63.html" xr:uid="{EDA9F939-7827-4E53-833C-34DA338B762A}"/>
-    <hyperlink ref="A181" r:id="rId287" display="http://www.enzyme-database.org/query.php?ec=3.2.1.171" xr:uid="{5B18DDFB-C211-4F83-B5AA-0F287D1AB165}"/>
-    <hyperlink ref="B181" r:id="rId288" display="http://www.cazy.org/GH28.html" xr:uid="{592ED95E-E86D-4260-B30A-84B62ED0FD22}"/>
-    <hyperlink ref="A182" r:id="rId289" display="http://www.enzyme-database.org/query.php?ec=3.2.1.172" xr:uid="{0C355A62-DAF3-4AD4-8FB7-C660DC7B1288}"/>
-    <hyperlink ref="B182" r:id="rId290" display="http://www.cazy.org/GH105.html" xr:uid="{7DF8D5C3-9C9E-4C68-A948-A23037B6D35B}"/>
-    <hyperlink ref="A183" r:id="rId291" display="http://www.enzyme-database.org/query.php?ec=3.2.1.173" xr:uid="{02F75C2D-9F8C-4DE1-ACFA-40D024E0429B}"/>
-    <hyperlink ref="A184" r:id="rId292" display="http://www.enzyme-database.org/query.php?ec=3.2.1.174" xr:uid="{0D3F31D0-C77E-4AED-BE20-2C1283682C87}"/>
-    <hyperlink ref="A185" r:id="rId293" display="http://www.enzyme-database.org/query.php?ec=3.2.1.175" xr:uid="{F0863926-FB80-4852-8B1E-6D4A53C28DD1}"/>
-    <hyperlink ref="A186" r:id="rId294" display="http://www.enzyme-database.org/query.php?ec=3.2.1.176" xr:uid="{C23903EB-482F-4F57-BDCB-FE3509329861}"/>
-    <hyperlink ref="A187" r:id="rId295" display="http://www.enzyme-database.org/query.php?ec=3.2.1.177" xr:uid="{B22D9CBE-4705-4C31-BA26-E4FE630737AE}"/>
-    <hyperlink ref="B187" r:id="rId296" display="http://www.cazy.org/GH31.html" xr:uid="{459F9FD1-5E28-4379-ABBA-9BB123590ADB}"/>
-    <hyperlink ref="A188" r:id="rId297" display="http://www.enzyme-database.org/query.php?ec=3.2.1.178" xr:uid="{1ECFBD4D-8758-40F5-A2BE-EE0C02036556}"/>
-    <hyperlink ref="A189" r:id="rId298" display="http://www.enzyme-database.org/query.php?ec=3.2.1.181" xr:uid="{4EFA2C93-09C0-4429-BCCB-F6EB5C7214C0}"/>
-    <hyperlink ref="B189" r:id="rId299" display="http://www.cazy.org/GH16.html" xr:uid="{91B50039-C4BF-4389-9FFE-F09381D084E7}"/>
-    <hyperlink ref="A190" r:id="rId300" display="http://www.enzyme-database.org/query.php?ec=3.2.1.182" xr:uid="{B55DADF5-AF07-4A64-8301-E5DFF0F40F76}"/>
-    <hyperlink ref="B190" r:id="rId301" display="http://www.cazy.org/GH1.html" xr:uid="{325DA677-4ECB-4372-A419-693614A10BF0}"/>
-    <hyperlink ref="A191" r:id="rId302" display="http://www.enzyme-database.org/query.php?ec=3.2.1.185" xr:uid="{67328C98-858A-4F64-8FE5-9ADD0DC7720A}"/>
-    <hyperlink ref="A192" r:id="rId303" display="http://www.enzyme-database.org/query.php?ec=3.2.1.197" xr:uid="{D4172457-9EA2-45FA-8EAF-A2E2E8DB89F2}"/>
-    <hyperlink ref="B192" r:id="rId304" display="http://www.cazy.org/GH130.html" xr:uid="{CB257451-28EF-4BD2-954B-28CC39E744BF}"/>
-    <hyperlink ref="A193" r:id="rId305" display="http://www.enzyme-database.org/query.php?ec=3.2.1.198" xr:uid="{16CCC59B-B204-4E20-AC47-FC2359735F21}"/>
-    <hyperlink ref="B193" r:id="rId306" display="http://www.cazy.org/GH99.html" xr:uid="{B04443E4-E7F5-45FA-BE86-7E187D7744DF}"/>
-    <hyperlink ref="A194" r:id="rId307" display="http://www.enzyme-database.org/query.php?ec=3.2.1.199" xr:uid="{22AD7008-4930-4B30-A3DD-CCFEEEABDF5A}"/>
-    <hyperlink ref="B194" r:id="rId308" display="http://www.cazy.org/GH31.html" xr:uid="{B0BED108-CAD5-4F99-A7FE-6BE671406E00}"/>
-    <hyperlink ref="A195" r:id="rId309" display="http://www.enzyme-database.org/query.php?ec=3.2.1.204" xr:uid="{88D20A0D-F0D4-488B-BAE1-5D795FA021BB}"/>
-    <hyperlink ref="B195" r:id="rId310" display="http://www.cazy.org/GH31.html" xr:uid="{012849C7-E412-44A6-9687-B6B53A9B3330}"/>
-    <hyperlink ref="A196" r:id="rId311" display="http://www.enzyme-database.org/query.php?ec=3.2.1.205" xr:uid="{52635E72-0C47-4695-A21F-0751C1ED25E6}"/>
-    <hyperlink ref="B196" r:id="rId312" display="http://www.cazy.org/GH15.html" xr:uid="{805F9A31-3953-4925-A88D-66CEBA475CA2}"/>
-    <hyperlink ref="A197" r:id="rId313" display="http://www.enzyme-database.org/query.php?ec=3.2.1.208" xr:uid="{1BA7F589-771C-4D23-8E74-C13850BF7536}"/>
-    <hyperlink ref="B197" r:id="rId314" display="http://www.cazy.org/GH63.html" xr:uid="{A1DB8A86-4A19-4F7C-9AB3-AB5BE9445D49}"/>
-    <hyperlink ref="A198" r:id="rId315" display="http://www.enzyme-database.org/query.php?ec=3.2.1.17_or_4.2.2.n1" xr:uid="{F42DB441-CEE2-4813-A0A1-781607CD69D8}"/>
-    <hyperlink ref="B198" r:id="rId316" display="http://www.cazy.org/GH23.html" xr:uid="{C377E959-E548-44DC-A40B-2757698EC94C}"/>
-    <hyperlink ref="A199" r:id="rId317" display="http://www.enzyme-database.org/query.php?ec=3.5.1.*" xr:uid="{99A0B3CE-CA74-4651-874B-4314633F2598}"/>
-    <hyperlink ref="B199" r:id="rId318" display="http://www.cazy.org/GH153.html" xr:uid="{3CDB310C-CD07-49F6-89F3-8F6B805C2011}"/>
-    <hyperlink ref="A200" r:id="rId319" display="http://www.enzyme-database.org/query.php?ec=3.5.2.17" xr:uid="{F3A88802-E1A4-4403-8974-B07702835B86}"/>
-    <hyperlink ref="B200" r:id="rId320" display="http://www.cazy.org/GH1.html" xr:uid="{9CEBC35B-C473-4A1D-B438-139DC0CC3241}"/>
-    <hyperlink ref="A201" r:id="rId321" display="http://www.enzyme-database.org/query.php?ec=4.2.2.n1" xr:uid="{03831B41-F0E6-4EF5-A536-9B50BFD73FAC}"/>
-    <hyperlink ref="A202" r:id="rId322" display="http://www.enzyme-database.org/query.php?ec=4.2.2.13" xr:uid="{2716BDFE-8AA2-4E17-9748-611F8A962345}"/>
-    <hyperlink ref="B202" r:id="rId323" display="http://www.cazy.org/GH31.html" xr:uid="{4AB50486-F2D7-4DEE-A8A9-0AA1A3C53F77}"/>
-    <hyperlink ref="A203" r:id="rId324" display="http://www.enzyme-database.org/query.php?ec=4.2.2.15" xr:uid="{DFC5CD9B-6259-4760-8F6F-82163C16F3BF}"/>
-    <hyperlink ref="B203" r:id="rId325" display="http://www.cazy.org/GH33.html" xr:uid="{DF058D98-5BD5-44A1-AC2C-94A056F55414}"/>
-    <hyperlink ref="A204" r:id="rId326" display="http://www.enzyme-database.org/query.php?ec=4.2.2.16" xr:uid="{4C82A388-104D-47FE-B79D-AC7D90671DCB}"/>
-    <hyperlink ref="B204" r:id="rId327" display="http://www.cazy.org/GH32.html" xr:uid="{E553D347-E9F4-4EE4-A1B0-76DB3D1AB867}"/>
-    <hyperlink ref="A205" r:id="rId328" display="http://www.enzyme-database.org/query.php?ec=4.2.2.17" xr:uid="{2EE3D1AC-2DA5-4CDD-99B8-F1FBBE5E0E59}"/>
-    <hyperlink ref="B205" r:id="rId329" display="http://www.cazy.org/GH91.html" xr:uid="{6784051F-B00F-4430-8D04-644E979283B5}"/>
-    <hyperlink ref="A206" r:id="rId330" display="http://www.enzyme-database.org/query.php?ec=4.2.2.18" xr:uid="{643259AF-35E8-4E17-8C16-C523D6EAAB6B}"/>
-    <hyperlink ref="B206" r:id="rId331" display="http://www.cazy.org/GH91.html" xr:uid="{7FCAE84F-730C-4666-9782-D2678396858A}"/>
-    <hyperlink ref="A207" r:id="rId332" display="http://www.enzyme-database.org/query.php?ec=5.4.99.11" xr:uid="{F042801C-B53D-45A7-94B1-9E3045571EF1}"/>
-    <hyperlink ref="B207" r:id="rId333" display="http://www.cazy.org/GH13.html" xr:uid="{0CD9DD24-E589-4EA8-B907-4B32DBDBCABE}"/>
-    <hyperlink ref="A208" r:id="rId334" display="http://www.enzyme-database.org/query.php?ec=5.4.99.15" xr:uid="{458176D5-CA1A-488B-9C5D-853C4D1C599E}"/>
-    <hyperlink ref="B208" r:id="rId335" display="http://www.cazy.org/GH13.html" xr:uid="{698F9195-4C97-4C3F-A2F1-618E306D5531}"/>
-    <hyperlink ref="A209" r:id="rId336" display="http://www.enzyme-database.org/query.php?ec=5.4.99.16" xr:uid="{DEB7092B-2206-4920-960C-87422B56C3D8}"/>
-    <hyperlink ref="B209" r:id="rId337" display="http://www.cazy.org/GH13.html" xr:uid="{A7847B2B-5B67-4B92-B507-8F6462E17E6A}"/>
-    <hyperlink ref="A210" r:id="rId338" display="http://www.enzyme-database.org/query.php?ec=2.3.1.20" xr:uid="{9C46BB56-3410-40C1-AD5C-4A08CAFE8F68}"/>
-    <hyperlink ref="B210" r:id="rId339" display="http://www.cazy.org/CE1.html" xr:uid="{30F0AB7B-3858-4846-9956-2D20DE5762FD}"/>
-    <hyperlink ref="A211" r:id="rId340" display="http://www.enzyme-database.org/query.php?ec=2.3.1.122" xr:uid="{DA90063B-720E-4766-AF46-5C39D8B30880}"/>
-    <hyperlink ref="B211" r:id="rId341" display="http://www.cazy.org/CE1.html" xr:uid="{E4715773-8B05-4D90-8F6A-9BEDEA41B529}"/>
-    <hyperlink ref="A212" r:id="rId342" display="http://www.enzyme-database.org/query.php?ec=2.4.1.*" xr:uid="{15A1D7DC-056B-4968-83EE-E5094F8FBD47}"/>
-    <hyperlink ref="B212" r:id="rId343" display="http://www.cazy.org/CE4.html" xr:uid="{1A7816D9-8FE1-4AA8-A53F-9CA90ADBE9BE}"/>
-    <hyperlink ref="A213" r:id="rId344" display="http://www.enzyme-database.org/query.php?ec=3.*.*.*" xr:uid="{14197CFB-207A-4563-AFEF-B344F5F1EECF}"/>
-    <hyperlink ref="A214" r:id="rId345" display="http://www.enzyme-database.org/query.php?ec=3.1.1.*" xr:uid="{661C05B1-32C6-4A3B-BE94-369DA5115FC2}"/>
-    <hyperlink ref="A215" r:id="rId346" display="http://www.enzyme-database.org/query.php?ec=3.1.1.3" xr:uid="{26157D35-2749-4FCE-83FC-053E579F5D71}"/>
-    <hyperlink ref="B215" r:id="rId347" display="http://www.cazy.org/CE5.html" xr:uid="{7E6152B7-816E-491A-A152-92EE0A82FFF7}"/>
-    <hyperlink ref="A216" r:id="rId348" display="http://www.enzyme-database.org/query.php?ec=3.1.1.6" xr:uid="{601B1863-CB94-49CC-AF01-BFE6CAFC08F6}"/>
-    <hyperlink ref="A217" r:id="rId349" display="http://www.enzyme-database.org/query.php?ec=3.1.1.11" xr:uid="{7E170074-D41E-4276-84C6-050DDD5C4D93}"/>
-    <hyperlink ref="A218" r:id="rId350" display="http://www.enzyme-database.org/query.php?ec=3.1.1.41" xr:uid="{354CDBE4-B48E-44EE-9A00-0710A4F5B4BE}"/>
-    <hyperlink ref="B218" r:id="rId351" display="http://www.cazy.org/CE7.html" xr:uid="{95A9DB72-AE27-4063-BB75-06BB1E30D245}"/>
-    <hyperlink ref="A219" r:id="rId352" display="http://www.enzyme-database.org/query.php?ec=3.1.1.72" xr:uid="{004EEB2B-6437-416D-BB30-028BC292B75D}"/>
-    <hyperlink ref="A220" r:id="rId353" display="http://www.enzyme-database.org/query.php?ec=3.1.1.73" xr:uid="{6BAAB4A4-CAC3-4596-9F2E-C55BDB819572}"/>
-    <hyperlink ref="B220" r:id="rId354" display="http://www.cazy.org/CE1.html" xr:uid="{507DF1BF-44AF-4212-BD36-4560F1F7049F}"/>
-    <hyperlink ref="A221" r:id="rId355" display="http://www.enzyme-database.org/query.php?ec=3.1.1.74" xr:uid="{ADAC32F7-3867-4417-AE81-8382CFC3C6EA}"/>
-    <hyperlink ref="B221" r:id="rId356" display="http://www.cazy.org/CE5.html" xr:uid="{612947A0-F41F-4951-B436-A10611DCF6EC}"/>
-    <hyperlink ref="A222" r:id="rId357" display="http://www.enzyme-database.org/query.php?ec=3.2.1.*" xr:uid="{A2F0BAC6-1D93-4E46-9B08-94AC362AFFC9}"/>
-    <hyperlink ref="A223" r:id="rId358" display="http://www.enzyme-database.org/query.php?ec=3.2.1.4" xr:uid="{71F09740-0359-4E5D-9598-6BC6D6F91DA9}"/>
-    <hyperlink ref="B223" r:id="rId359" display="http://www.cazy.org/CE2.html" xr:uid="{BF6EB3AD-7324-45E9-A16F-9281316CEE73}"/>
-    <hyperlink ref="A224" r:id="rId360" display="http://www.enzyme-database.org/query.php?ec=3.2.1.8" xr:uid="{162083DA-4E44-4080-BDDD-6009D7273F2A}"/>
-    <hyperlink ref="A225" r:id="rId361" display="http://www.enzyme-database.org/query.php?ec=3.2.1.40" xr:uid="{552E45BA-22F5-4D34-9567-B727C94E5346}"/>
-    <hyperlink ref="B225" r:id="rId362" display="http://www.cazy.org/CE15.html" xr:uid="{F50C6AA1-7F62-4874-9156-7A1BA2932D3D}"/>
-    <hyperlink ref="A226" r:id="rId363" display="http://www.enzyme-database.org/query.php?ec=3.2.1.55" xr:uid="{DCA0BABF-B931-42F0-A816-74321B4DE840}"/>
-    <hyperlink ref="A227" r:id="rId364" display="http://www.enzyme-database.org/query.php?ec=3.5.1.*" xr:uid="{C2802504-C002-4638-AC08-12AA1AA12F38}"/>
-    <hyperlink ref="A228" r:id="rId365" display="http://www.enzyme-database.org/query.php?ec=3.5.1.25" xr:uid="{356213F2-2CA0-4DEB-8851-8AE23A8AB8BA}"/>
-    <hyperlink ref="B228" r:id="rId366" display="http://www.cazy.org/CE9.html" xr:uid="{6F899334-90E5-41A6-898F-BFBAA61D8C2F}"/>
-    <hyperlink ref="A229" r:id="rId367" display="http://www.enzyme-database.org/query.php?ec=3.5.1.41" xr:uid="{59B01DAF-9B3F-4137-9BA5-C3A5EA863F98}"/>
-    <hyperlink ref="B229" r:id="rId368" display="http://www.cazy.org/CE4.html" xr:uid="{2FC7E397-E8C7-410A-AE28-5B9609BBDAB2}"/>
-    <hyperlink ref="A230" r:id="rId369" display="http://www.enzyme-database.org/query.php?ec=3.5.1.80" xr:uid="{6BE3D664-D029-4908-BD6F-2A3EF39E8A02}"/>
-    <hyperlink ref="B230" r:id="rId370" display="http://www.cazy.org/CE9.html" xr:uid="{878CD556-CD7D-41D4-A032-408EA9F20877}"/>
-    <hyperlink ref="A231" r:id="rId371" display="http://www.enzyme-database.org/query.php?ec=3.5.1.89" xr:uid="{EE6D15D2-519C-4EE4-9DCA-E466E249C3C9}"/>
-    <hyperlink ref="B231" r:id="rId372" display="http://www.cazy.org/CE14.html" xr:uid="{749A0FB0-8990-4225-A224-F6236D663658}"/>
-    <hyperlink ref="A232" r:id="rId373" display="http://www.enzyme-database.org/query.php?ec=3.5.1.104" xr:uid="{262968D3-34D0-41E3-A316-463A89B1C818}"/>
-    <hyperlink ref="B232" r:id="rId374" display="http://www.cazy.org/CE4.html" xr:uid="{AB98BB8A-DF7E-4DF1-A420-B864809F36F9}"/>
-    <hyperlink ref="A233" r:id="rId375" display="http://www.enzyme-database.org/query.php?ec=3.5.1.105" xr:uid="{7B2E81C3-EFC0-434C-804B-3B25235A30F9}"/>
-    <hyperlink ref="A234" r:id="rId376" display="http://www.enzyme-database.org/query.php?ec=3.5.1.108" xr:uid="{74994A41-0B7D-4FD8-835F-04B4D9F95914}"/>
-    <hyperlink ref="B234" r:id="rId377" display="http://www.cazy.org/CE11.html" xr:uid="{E1CB2D72-9AD3-43D6-A391-61B1CD07DC28}"/>
-    <hyperlink ref="A235" r:id="rId378" display="http://www.enzyme-database.org/query.php?ec=3.5.1.115" xr:uid="{51645E4F-F65F-4373-8815-784A5CC2AB76}"/>
-    <hyperlink ref="B235" r:id="rId379" display="http://www.cazy.org/CE14.html" xr:uid="{16CAA97E-9871-4958-91FD-935708B694EB}"/>
-    <hyperlink ref="A236" r:id="rId380" display="http://www.enzyme-database.org/query.php?ec=4.2.2.*" xr:uid="{BA481108-8130-4F1D-92AC-91254603900D}"/>
-    <hyperlink ref="B236" r:id="rId381" display="http://www.cazy.org/CE8.html" xr:uid="{85E6EB80-A2C9-47C6-A34C-B1951907C478}"/>
-    <hyperlink ref="A237" r:id="rId382" display="http://www.enzyme-database.org/query.php?ec=4.2.2.2" xr:uid="{0CF8EC81-B4E1-4877-810B-3AE4E44EB88F}"/>
-    <hyperlink ref="B237" r:id="rId383" display="http://www.cazy.org/CE8.html" xr:uid="{B9E801D4-45BB-4660-82F8-F060FDA881A5}"/>
-    <hyperlink ref="A238" r:id="rId384" display="http://www.enzyme-database.org/query.php?ec=4.2.2.*" xr:uid="{7EFB225B-2DA7-4ADA-B405-EE8CE1A532C3}"/>
-    <hyperlink ref="A239" r:id="rId385" display="http://www.enzyme-database.org/query.php?ec=4.2.2.1" xr:uid="{152FD9F0-5BB0-4211-B611-1F28BA0505AD}"/>
-    <hyperlink ref="A240" r:id="rId386" display="http://www.enzyme-database.org/query.php?ec=4.2.2.2" xr:uid="{284A3127-8347-47A1-9555-7EBA76517A01}"/>
-    <hyperlink ref="A241" r:id="rId387" display="http://www.enzyme-database.org/query.php?ec=4.2.2.3" xr:uid="{B7A3622A-11C0-42BA-A7CB-6668DBA370F1}"/>
-    <hyperlink ref="A242" r:id="rId388" display="http://www.enzyme-database.org/query.php?ec=4.2.2.5" xr:uid="{BD372ED4-3D52-4CA6-ABF7-398D24043360}"/>
-    <hyperlink ref="B242" r:id="rId389" display="http://www.cazy.org/PL8.html" xr:uid="{09CC7F4B-9B11-4E96-8B6E-0FCB77AB478D}"/>
-    <hyperlink ref="A243" r:id="rId390" display="http://www.enzyme-database.org/query.php?ec=4.2.2.6" xr:uid="{02C21CA6-3CFB-4AFF-B5EC-CEC09E78F84C}"/>
-    <hyperlink ref="B243" r:id="rId391" display="http://www.cazy.org/PL22.html" xr:uid="{8CCD938B-05C3-4179-8BD2-089284826006}"/>
-    <hyperlink ref="A244" r:id="rId392" display="http://www.enzyme-database.org/query.php?ec=4.2.2.7" xr:uid="{583CD244-80C0-47AB-B73F-BCB6EAC3539F}"/>
-    <hyperlink ref="A245" r:id="rId393" display="http://www.enzyme-database.org/query.php?ec=4.2.2.8" xr:uid="{BF7CEAB8-74D8-4902-8434-48E84D8A908F}"/>
-    <hyperlink ref="A246" r:id="rId394" display="http://www.enzyme-database.org/query.php?ec=4.2.2.9" xr:uid="{F1ACED2B-CF0E-4E9C-8E26-80484C30521B}"/>
-    <hyperlink ref="A247" r:id="rId395" display="http://www.enzyme-database.org/query.php?ec=4.2.2.10" xr:uid="{016E8DA5-C3CB-4479-AAEC-A1A05B54D241}"/>
-    <hyperlink ref="B247" r:id="rId396" display="http://www.cazy.org/PL1.html" xr:uid="{EF67B68F-6A0D-4832-860B-692B1C4395FB}"/>
-    <hyperlink ref="A248" r:id="rId397" display="http://www.enzyme-database.org/query.php?ec=4.2.2.11" xr:uid="{0AC84656-FC6E-408B-B447-DA0C82DA5232}"/>
-    <hyperlink ref="A249" r:id="rId398" display="http://www.enzyme-database.org/query.php?ec=4.2.2.12" xr:uid="{D08BF58B-C9FF-4992-A9B1-7032B313CF57}"/>
-    <hyperlink ref="B249" r:id="rId399" display="http://www.cazy.org/PL8.html" xr:uid="{A82E9684-A6BF-4A90-B7BD-47E4F38FB42B}"/>
-    <hyperlink ref="A250" r:id="rId400" display="http://www.enzyme-database.org/query.php?ec=4.2.2.14" xr:uid="{984A8C49-CA7D-4167-98BB-4237C9C1D679}"/>
-    <hyperlink ref="A251" r:id="rId401" display="http://www.enzyme-database.org/query.php?ec=4.2.2.19" xr:uid="{EA6D932F-D8DA-4454-B75D-FABBA0DAEB79}"/>
-    <hyperlink ref="B251" r:id="rId402" display="http://www.cazy.org/PL6.html" xr:uid="{8EF41D6C-FD9E-43EB-8CBB-7830368EB564}"/>
-    <hyperlink ref="A252" r:id="rId403" display="http://www.enzyme-database.org/query.php?ec=4.2.2.20" xr:uid="{3895A25B-546F-4FA7-937E-97A7CCF49B8C}"/>
-    <hyperlink ref="A253" r:id="rId404" display="http://www.enzyme-database.org/query.php?ec=4.2.2.23" xr:uid="{6D9ADC4A-1724-4BF9-9CC9-6CAE4963EE8C}"/>
-    <hyperlink ref="A254" r:id="rId405" display="http://www.enzyme-database.org/query.php?ec=4.2.2.24" xr:uid="{74471C35-AC36-4F4D-879F-10B8E8922C75}"/>
-    <hyperlink ref="A255" r:id="rId406" display="http://www.enzyme-database.org/query.php?ec=4.2.2.25" xr:uid="{6BF501A3-CC3A-4614-89C8-FE201CC03769}"/>
-    <hyperlink ref="B255" r:id="rId407" display="http://www.cazy.org/PL33.html" xr:uid="{CA362EAA-D8AB-4743-AE5C-633372AD1267}"/>
-    <hyperlink ref="A256" r:id="rId408" display="http://www.enzyme-database.org/query.php?ec=4.2.2.26" xr:uid="{CF0E2E1A-2197-49F6-A3FF-A9832241086D}"/>
-    <hyperlink ref="A257" r:id="rId409" display="http://www.enzyme-database.org/query.php?ec=1.*.*.*" xr:uid="{38F21554-EF77-41A1-B744-B0E1C9CB17A6}"/>
-    <hyperlink ref="A258" r:id="rId410" display="http://www.enzyme-database.org/query.php?ec=1.1.3.*" xr:uid="{CDA5E4F1-1C3E-4CA5-ADD8-F4F0189D1D09}"/>
-    <hyperlink ref="A259" r:id="rId411" display="http://www.enzyme-database.org/query.php?ec=1.1.3.4" xr:uid="{2610284E-61A0-4636-9DB9-631F2BA7D908}"/>
-    <hyperlink ref="B259" r:id="rId412" display="http://www.cazy.org/AA3.html" xr:uid="{9EA610D6-4836-42BD-B5C7-123DE3FBF147}"/>
-    <hyperlink ref="A260" r:id="rId413" display="http://www.enzyme-database.org/query.php?ec=1.1.3.7" xr:uid="{D7B216B3-5B88-4C47-BC6E-A815EBC44EAF}"/>
-    <hyperlink ref="A261" r:id="rId414" display="http://www.enzyme-database.org/query.php?ec=1.1.3.9" xr:uid="{167680AB-045B-4BCE-8E7E-16E63DEBBFE9}"/>
-    <hyperlink ref="B261" r:id="rId415" display="http://www.cazy.org/AA5.html" xr:uid="{520E71B5-D925-405A-8F5B-7691BBFFFB52}"/>
-    <hyperlink ref="A262" r:id="rId416" display="http://www.enzyme-database.org/query.php?ec=1.1.3.10" xr:uid="{82AE0A6F-B4DA-4F06-8288-AE36A6A23EA3}"/>
-    <hyperlink ref="B262" r:id="rId417" display="http://www.cazy.org/AA3.html" xr:uid="{2791E8EC-D2B3-467F-AB5D-2BDF5612AAC1}"/>
-    <hyperlink ref="A263" r:id="rId418" display="http://www.enzyme-database.org/query.php?ec=1.1.3.13" xr:uid="{D4F58CE2-892B-497E-AA14-E987AC21D773}"/>
-    <hyperlink ref="A264" r:id="rId419" display="http://www.enzyme-database.org/query.php?ec=1.1.3.16" xr:uid="{C8766D32-3B74-40C7-AE03-8BB3FE8C3138}"/>
-    <hyperlink ref="B264" r:id="rId420" display="http://www.cazy.org/AA3.html" xr:uid="{07E9AA05-6508-492E-BECD-E70A15B5D27C}"/>
-    <hyperlink ref="A265" r:id="rId421" display="http://www.enzyme-database.org/query.php?ec=1.1.3.38" xr:uid="{BBC70207-FFF6-4B4F-8347-7C0B10B6E31A}"/>
-    <hyperlink ref="B265" r:id="rId422" display="http://www.cazy.org/AA4.html" xr:uid="{F42C1F03-C2AD-485E-838F-23FA051F75AD}"/>
-    <hyperlink ref="A266" r:id="rId423" display="http://www.enzyme-database.org/query.php?ec=1.1.3.47" xr:uid="{819EED09-10D3-4523-AFE3-EBEB2BC7235F}"/>
-    <hyperlink ref="B266" r:id="rId424" display="http://www.cazy.org/AA5.html" xr:uid="{5381DA2A-D6F3-4D3B-B703-14D2B1F5637F}"/>
-    <hyperlink ref="A267" r:id="rId425" display="http://www.enzyme-database.org/query.php?ec=1.1.99.18" xr:uid="{33C13F4E-D585-4A49-903E-0BC20CB0539B}"/>
-    <hyperlink ref="A268" r:id="rId426" display="http://www.enzyme-database.org/query.php?ec=1.1.99.29" xr:uid="{229CE486-2391-43E4-82C1-3B3FB9224EB5}"/>
-    <hyperlink ref="B268" r:id="rId427" display="http://www.cazy.org/AA3.html" xr:uid="{BC6D02E0-4CBF-4C60-8074-02ED606B2DEF}"/>
-    <hyperlink ref="A269" r:id="rId428" display="http://www.enzyme-database.org/query.php?ec=1.2.3.15" xr:uid="{1B351095-AD9A-4F0B-9E59-DBE89E9BF19E}"/>
-    <hyperlink ref="B269" r:id="rId429" display="http://www.cazy.org/AA5.html" xr:uid="{55A12923-B60F-4C7A-8039-D12AA1FEAAC7}"/>
-    <hyperlink ref="A270" r:id="rId430" display="http://www.enzyme-database.org/query.php?ec=1.6.5.6" xr:uid="{B54665A3-691C-47CE-9E56-825C2E1EE36A}"/>
-    <hyperlink ref="B270" r:id="rId431" display="http://www.cazy.org/AA6.html" xr:uid="{CCC6BB4C-FA2E-453A-91CE-B036DC53447A}"/>
-    <hyperlink ref="A271" r:id="rId432" display="http://www.enzyme-database.org/query.php?ec=1.10.3.*" xr:uid="{91FC7D24-5F73-4FBD-8851-E257C370420A}"/>
-    <hyperlink ref="B271" r:id="rId433" display="http://www.cazy.org/AA1.html" xr:uid="{156DA526-F416-4BC3-BB5F-B43A422DD0D3}"/>
-    <hyperlink ref="A272" r:id="rId434" display="http://www.enzyme-database.org/query.php?ec=1.10.3.2" xr:uid="{E0AA23E4-7985-44A9-AF29-61711063FED2}"/>
-    <hyperlink ref="B272" r:id="rId435" display="http://www.cazy.org/AA1.html" xr:uid="{58346DEF-B21F-4105-A66D-8EBF50DFF865}"/>
-    <hyperlink ref="A273" r:id="rId436" display="http://www.enzyme-database.org/query.php?ec=1.11.1.*" xr:uid="{333351AC-46D9-43F0-8CFF-85B8BC4865F0}"/>
-    <hyperlink ref="B273" r:id="rId437" display="http://www.cazy.org/AA2.html" xr:uid="{07E37B5E-5319-4DD0-B9A2-7E283FA2A378}"/>
-    <hyperlink ref="A274" r:id="rId438" display="http://www.enzyme-database.org/query.php?ec=1.11.1.5" xr:uid="{456A06E5-0CFA-4AC7-A034-3B01DA4E3728}"/>
-    <hyperlink ref="B274" r:id="rId439" display="http://www.cazy.org/AA2.html" xr:uid="{4F6FC256-1A3C-4B01-A83B-019C86448665}"/>
-    <hyperlink ref="A275" r:id="rId440" display="http://www.enzyme-database.org/query.php?ec=1.11.1.13" xr:uid="{F6AC7CE2-16E4-4B2A-A2E7-D4EDA43B6F1A}"/>
-    <hyperlink ref="B275" r:id="rId441" display="http://www.cazy.org/AA2.html" xr:uid="{26F85CB0-3889-4F1E-881D-9E9766DEFC1A}"/>
-    <hyperlink ref="A276" r:id="rId442" display="http://www.enzyme-database.org/query.php?ec=1.11.1.14" xr:uid="{82C48D86-7557-41F7-8DCC-071B56936DE2}"/>
-    <hyperlink ref="B276" r:id="rId443" display="http://www.cazy.org/AA2.html" xr:uid="{B28601DD-7029-4A01-BAD1-CBF1412B8444}"/>
-    <hyperlink ref="A277" r:id="rId444" display="http://www.enzyme-database.org/query.php?ec=1.11.1.16" xr:uid="{5FC5D4A2-22E8-4672-9267-A43C32A5E605}"/>
-    <hyperlink ref="B277" r:id="rId445" display="http://www.cazy.org/AA2.html" xr:uid="{06503ACA-CD37-41AD-B798-BF8F18D81B21}"/>
-    <hyperlink ref="A278" r:id="rId446" display="http://www.enzyme-database.org/query.php?ec=1.14.99.*" xr:uid="{6162D4EE-990A-42F5-A07B-C88A67D044B0}"/>
-    <hyperlink ref="A279" r:id="rId447" display="http://www.enzyme-database.org/query.php?ec=1.14.99.53" xr:uid="{D6E5E3CC-CD06-4572-8CB9-ED8A16591362}"/>
-    <hyperlink ref="A280" r:id="rId448" display="http://www.enzyme-database.org/query.php?ec=1.14.99.54" xr:uid="{7D28FC8E-D95C-471D-82BD-6BB90B1CFFB8}"/>
-    <hyperlink ref="A281" r:id="rId449" display="http://www.enzyme-database.org/query.php?ec=1.14.99.55" xr:uid="{115E8DA0-76AD-4D25-87E4-DA389E548F36}"/>
-    <hyperlink ref="B281" r:id="rId450" display="http://www.cazy.org/AA13.html" xr:uid="{BDF2BA5C-BE35-4089-ADAE-585D94983E57}"/>
-    <hyperlink ref="A282" r:id="rId451" display="http://www.enzyme-database.org/query.php?ec=1.14.99.56" xr:uid="{E5E4A16A-052E-4920-A20B-095A70AD667C}"/>
-    <hyperlink ref="A283" r:id="rId452" display="http://www.enzyme-database.org/query.php?ec=3.2.1.78" xr:uid="{4B618456-6E5F-4C0B-86A8-31C68DAAFB23}"/>
-    <hyperlink ref="B283" r:id="rId453" display="http://www.cazy.org/AA10.html" xr:uid="{ACD9A28E-9598-473F-B1EC-A6D5AC94C43B}"/>
-    <hyperlink ref="A284" r:id="rId454" display="http://www.enzyme-database.org/query.php?ec=2.*.*.*" xr:uid="{1FC638F7-3875-4892-A915-52C1D9C1C9FF}"/>
-    <hyperlink ref="A285" r:id="rId455" display="http://www.enzyme-database.org/query.php?ec=2.4.*.*" xr:uid="{965685DC-B7CA-4C65-81BE-78BBC9639C6C}"/>
-    <hyperlink ref="A286" r:id="rId456" display="http://www.enzyme-database.org/query.php?ec=2.4.1.*" xr:uid="{9BB44268-D2C0-4FE2-8100-F1165B1F0ADA}"/>
-    <hyperlink ref="A287" r:id="rId457" display="http://www.enzyme-database.org/query.php?ec=2.4.1.1" xr:uid="{6E0B3BC0-DE3A-461A-B5E1-CA3467AF57DF}"/>
-    <hyperlink ref="B287" r:id="rId458" display="http://www.cazy.org/GT35.html" xr:uid="{F749236B-127C-44B2-8443-6C4D2BC9A4C1}"/>
-    <hyperlink ref="A288" r:id="rId459" display="http://www.enzyme-database.org/query.php?ec=2.4.1.11" xr:uid="{0CCFDF73-9C37-49F9-A266-9E123549B9E0}"/>
-    <hyperlink ref="A289" r:id="rId460" display="http://www.enzyme-database.org/query.php?ec=2.4.1.12" xr:uid="{E4E52BAD-B4E8-4E41-B8BA-2C43FE179C96}"/>
-    <hyperlink ref="B289" r:id="rId461" display="http://www.cazy.org/GT2.html" xr:uid="{5C5AA017-ECF7-447A-9DA6-31DAC5AC0FCD}"/>
-    <hyperlink ref="A290" r:id="rId462" display="http://www.enzyme-database.org/query.php?ec=2.4.1.13" xr:uid="{AE74FE23-7146-40FC-AA70-6F2470046115}"/>
-    <hyperlink ref="B290" r:id="rId463" display="http://www.cazy.org/GT4.html" xr:uid="{A674FE53-98F6-460C-A9B9-4E91EBE36E42}"/>
-    <hyperlink ref="A291" r:id="rId464" display="http://www.enzyme-database.org/query.php?ec=2.4.1.14" xr:uid="{1ADF0F3E-5FF6-403B-B0F4-D175D1299A9A}"/>
-    <hyperlink ref="B291" r:id="rId465" display="http://www.cazy.org/GT4.html" xr:uid="{23AA5E77-FA21-499D-B66B-526D3CE82D8D}"/>
-    <hyperlink ref="A292" r:id="rId466" display="http://www.enzyme-database.org/query.php?ec=2.4.1.15" xr:uid="{1FFC2A47-3C90-49C3-911D-9E3152CFC68F}"/>
-    <hyperlink ref="B292" r:id="rId467" display="http://www.cazy.org/GT20.html" xr:uid="{36344CE9-C018-4782-9CAC-F29057951AF8}"/>
-    <hyperlink ref="A293" r:id="rId468" display="http://www.enzyme-database.org/query.php?ec=2.4.1.16" xr:uid="{D576FABE-64ED-4E48-87BF-C489FCF8F2E9}"/>
-    <hyperlink ref="B293" r:id="rId469" display="http://www.cazy.org/GT2.html" xr:uid="{B889E955-ECFC-4ADB-B3FF-A21CF7EC0458}"/>
-    <hyperlink ref="A294" r:id="rId470" display="http://www.enzyme-database.org/query.php?ec=2.4.1.17" xr:uid="{A20157DD-11E5-4241-911F-62C3F486D260}"/>
-    <hyperlink ref="A295" r:id="rId471" display="http://www.enzyme-database.org/query.php?ec=2.4.1.21" xr:uid="{983DD70A-4DCE-443B-8578-210027B9EC2E}"/>
-    <hyperlink ref="A296" r:id="rId472" display="http://www.enzyme-database.org/query.php?ec=2.4.1.22" xr:uid="{5862056D-29DC-45A0-BD51-CC810B3BA116}"/>
-    <hyperlink ref="B296" r:id="rId473" display="http://www.cazy.org/GT7.html" xr:uid="{C485FFDA-E58D-4BB9-BCF4-EB4514190F96}"/>
-    <hyperlink ref="A297" r:id="rId474" display="http://www.enzyme-database.org/query.php?ec=2.4.1.26" xr:uid="{A33E9647-32DF-4076-BECD-4829D00A12CE}"/>
-    <hyperlink ref="B297" r:id="rId475" display="http://www.cazy.org/GT72.html" xr:uid="{CBF0BF86-8F68-4A5B-847E-5FFF47013F3C}"/>
-    <hyperlink ref="A298" r:id="rId476" display="http://www.enzyme-database.org/query.php?ec=2.4.1.27" xr:uid="{4148D64E-B5C4-48FD-A36B-CD98F95256F3}"/>
-    <hyperlink ref="B298" r:id="rId477" display="http://www.cazy.org/GT63.html" xr:uid="{2FB559E8-ACCF-4FCB-878F-28CC45E9FBE8}"/>
-    <hyperlink ref="A299" r:id="rId478" display="http://www.enzyme-database.org/query.php?ec=2.4.1.33" xr:uid="{5CC09543-BAD6-4F28-A59C-CE38F16A5113}"/>
-    <hyperlink ref="B299" r:id="rId479" display="http://www.cazy.org/GT2.html" xr:uid="{22C783E1-FD92-4A67-B2DB-421D7324F31C}"/>
-    <hyperlink ref="A300" r:id="rId480" display="http://www.enzyme-database.org/query.php?ec=2.4.1.34" xr:uid="{9DCFD50D-3AC2-4779-A158-939401716F20}"/>
-    <hyperlink ref="A301" r:id="rId481" display="http://www.enzyme-database.org/query.php?ec=2.4.1.35" xr:uid="{7A1A368A-8FFF-481B-B0C2-2B18AE1D1F90}"/>
-    <hyperlink ref="B301" r:id="rId482" display="http://www.cazy.org/GT1.html" xr:uid="{48AFC8ED-A434-404C-BF13-27F4D20BE437}"/>
-    <hyperlink ref="A302" r:id="rId483" display="http://www.enzyme-database.org/query.php?ec=2.4.1.37" xr:uid="{E13C984E-5476-4DD5-BA9B-48BA9C673D8F}"/>
-    <hyperlink ref="A303" r:id="rId484" display="http://www.enzyme-database.org/query.php?ec=2.4.1.38" xr:uid="{A5341025-9373-408A-9929-3CD28FF14BC6}"/>
-    <hyperlink ref="B303" r:id="rId485" display="http://www.cazy.org/GT7.html" xr:uid="{8F7AF297-B400-40C0-ACC2-28BA22927CBF}"/>
-    <hyperlink ref="A304" r:id="rId486" display="http://www.enzyme-database.org/query.php?ec=2.4.1.40" xr:uid="{24F7B20E-7C4F-4C7E-8A81-915CBEE836A8}"/>
-    <hyperlink ref="B304" r:id="rId487" display="http://www.cazy.org/GT6.html" xr:uid="{7DD43090-3A27-44F1-B5CB-EF9F85CFB51F}"/>
-    <hyperlink ref="A305" r:id="rId488" display="http://www.enzyme-database.org/query.php?ec=2.4.1.41" xr:uid="{C21CB325-502A-42CA-BD56-1996546968B9}"/>
-    <hyperlink ref="B305" r:id="rId489" display="http://www.cazy.org/GT27.html" xr:uid="{E1BEA024-8EFB-4340-BF95-73A6FF9B6942}"/>
-    <hyperlink ref="A306" r:id="rId490" display="http://www.enzyme-database.org/query.php?ec=2.4.1.44" xr:uid="{ACD0371D-8A73-45B3-AC08-20EEE3D7A86F}"/>
-    <hyperlink ref="B306" r:id="rId491" display="http://www.cazy.org/GT8.html" xr:uid="{215AACB1-5BDD-413D-BDB8-53B1D8718185}"/>
-    <hyperlink ref="A307" r:id="rId492" display="http://www.enzyme-database.org/query.php?ec=2.4.1.45" xr:uid="{D5F7FC52-254B-4BB0-A264-01CBF360E34A}"/>
-    <hyperlink ref="B307" r:id="rId493" display="http://www.cazy.org/GT1.html" xr:uid="{CD646A6F-6719-4A0D-B858-3504D05035F0}"/>
-    <hyperlink ref="A308" r:id="rId494" display="http://www.enzyme-database.org/query.php?ec=2.4.1.46" xr:uid="{0CD2345C-92BB-421E-A9FB-AA00A0B52904}"/>
-    <hyperlink ref="A309" r:id="rId495" display="http://www.enzyme-database.org/query.php?ec=2.4.1.47" xr:uid="{C180C134-C256-42E8-BAC9-9EAC4387AE63}"/>
-    <hyperlink ref="B309" r:id="rId496" display="http://www.cazy.org/GT1.html" xr:uid="{917E3984-592B-4B81-89DE-C924D967139D}"/>
-    <hyperlink ref="A310" r:id="rId497" display="http://www.enzyme-database.org/query.php?ec=2.4.1.50" xr:uid="{9CA824D9-C90F-431A-AB00-283316E76AF7}"/>
-    <hyperlink ref="B310" r:id="rId498" display="http://www.cazy.org/GT25.html" xr:uid="{115D3AB8-8C9D-4322-9021-383C8DD7DA92}"/>
-    <hyperlink ref="A311" r:id="rId499" display="http://www.enzyme-database.org/query.php?ec=2.4.1.52" xr:uid="{C3E23021-AF06-42B9-B578-F2CA7EE232C8}"/>
-    <hyperlink ref="B311" r:id="rId500" display="http://www.cazy.org/GT4.html" xr:uid="{A0B6B725-7C8A-4C64-9918-91F0558358BF}"/>
-    <hyperlink ref="A312" r:id="rId501" display="http://www.enzyme-database.org/query.php?ec=2.4.1.56" xr:uid="{E24AE146-35C6-47CD-902A-66DD265CE6CA}"/>
-    <hyperlink ref="A313" r:id="rId502" display="http://www.enzyme-database.org/query.php?ec=2.4.1.57" xr:uid="{248904BA-0190-4B0B-B395-9E72C73366EA}"/>
-    <hyperlink ref="B313" r:id="rId503" display="http://www.cazy.org/GT4.html" xr:uid="{53D670F7-170B-4D4B-81D2-07103B6D2CEC}"/>
-    <hyperlink ref="A314" r:id="rId504" display="http://www.enzyme-database.org/query.php?ec=2.4.1.58" xr:uid="{4D684305-56EE-4013-8547-FE7A07A54CE9}"/>
-    <hyperlink ref="B314" r:id="rId505" display="http://www.cazy.org/GT8.html" xr:uid="{CC5D3F9A-67CC-4A98-B017-882D6A748C41}"/>
-    <hyperlink ref="A315" r:id="rId506" display="http://www.enzyme-database.org/query.php?ec=2.4.1.65" xr:uid="{F595EAB2-9769-4D48-8535-58A409BC38AB}"/>
-    <hyperlink ref="B315" r:id="rId507" display="http://www.cazy.org/GT10.html" xr:uid="{AEB7748F-2C6A-4DF2-B85C-E4D992200853}"/>
-    <hyperlink ref="A316" r:id="rId508" display="http://www.enzyme-database.org/query.php?ec=2.4.1.66" xr:uid="{FD32E887-3A28-4F49-B5AF-BDD50624B12B}"/>
-    <hyperlink ref="B316" r:id="rId509" display="http://www.cazy.org/GT0.html" xr:uid="{F4937C10-4198-414F-B6B0-8E635457D2CE}"/>
-    <hyperlink ref="A317" r:id="rId510" display="http://www.enzyme-database.org/query.php?ec=2.4.1.68" xr:uid="{645A3814-3097-4428-8EDD-DDF9F477B45E}"/>
-    <hyperlink ref="B317" r:id="rId511" display="http://www.cazy.org/GT23.html" xr:uid="{6E3C7286-3B35-4045-A5D5-5A24B63DD866}"/>
-    <hyperlink ref="A318" r:id="rId512" display="http://www.enzyme-database.org/query.php?ec=2.4.1.69" xr:uid="{125D0950-D7A7-4324-AB85-3AC9BF891919}"/>
-    <hyperlink ref="A319" r:id="rId513" display="http://www.enzyme-database.org/query.php?ec=2.4.1.79" xr:uid="{53DE0481-27CC-4287-BF30-3838675E5086}"/>
-    <hyperlink ref="B319" r:id="rId514" display="http://www.cazy.org/GT31.html" xr:uid="{2F7F2FE7-FAF0-438C-B350-115A0AE04066}"/>
-    <hyperlink ref="A320" r:id="rId515" display="http://www.enzyme-database.org/query.php?ec=2.4.1.80" xr:uid="{0CB1C042-3630-4F80-A581-A1511D140215}"/>
-    <hyperlink ref="A321" r:id="rId516" display="http://www.enzyme-database.org/query.php?ec=2.4.1.83" xr:uid="{55112CA3-94DE-44AF-A162-63B39CA76C9C}"/>
-    <hyperlink ref="B321" r:id="rId517" display="http://www.cazy.org/GT2.html" xr:uid="{57F0D69D-0544-4B3C-A9C9-92235FA15EB3}"/>
-    <hyperlink ref="A322" r:id="rId518" display="http://www.enzyme-database.org/query.php?ec=2.4.1.87" xr:uid="{8FF17ABE-F52D-46CB-98E9-537E59934169}"/>
-    <hyperlink ref="B322" r:id="rId519" display="http://www.cazy.org/GT6.html" xr:uid="{1644C924-96DB-41BF-A572-E3E54431495E}"/>
-    <hyperlink ref="A323" r:id="rId520" display="http://www.enzyme-database.org/query.php?ec=2.4.1.88" xr:uid="{53F63336-93A9-435C-9BCF-E72A25133F49}"/>
-    <hyperlink ref="B323" r:id="rId521" display="http://www.cazy.org/GT6.html" xr:uid="{50D0822C-7278-4592-A163-0C61E5A09ECE}"/>
-    <hyperlink ref="A324" r:id="rId522" display="http://www.enzyme-database.org/query.php?ec=2.4.1.90" xr:uid="{9C773FE4-61FE-47DF-A742-195592001521}"/>
-    <hyperlink ref="B324" r:id="rId523" display="http://www.cazy.org/GT7.html" xr:uid="{6361C09C-48AA-4F0E-A696-36254082215F}"/>
-    <hyperlink ref="A325" r:id="rId524" display="http://www.enzyme-database.org/query.php?ec=2.4.1.91" xr:uid="{C0C98394-E3C9-4595-A2E8-A23A8FB883B7}"/>
-    <hyperlink ref="B325" r:id="rId525" display="http://www.cazy.org/GT1.html" xr:uid="{78A955DA-1B83-4E36-8741-33231347A5D9}"/>
-    <hyperlink ref="A326" r:id="rId526" display="http://www.enzyme-database.org/query.php?ec=2.4.1.92" xr:uid="{F8DD5F73-7241-46D6-AD3B-7DB2D60DAA44}"/>
-    <hyperlink ref="B326" r:id="rId527" display="http://www.cazy.org/GT12.html" xr:uid="{8896AA8B-02B2-42BB-85C5-66763657947B}"/>
-    <hyperlink ref="A327" r:id="rId528" display="http://www.enzyme-database.org/query.php?ec=2.4.1.101" xr:uid="{684162A6-3389-4FDE-B9F4-A7E3BDC6CB9D}"/>
-    <hyperlink ref="B327" r:id="rId529" display="http://www.cazy.org/GT13.html" xr:uid="{9E106DE2-9682-4B85-A040-A9CEAD247896}"/>
-    <hyperlink ref="A328" r:id="rId530" display="http://www.enzyme-database.org/query.php?ec=2.4.1.102" xr:uid="{CE7C6E36-39A2-4249-BBA3-57D42BF17233}"/>
-    <hyperlink ref="B328" r:id="rId531" display="http://www.cazy.org/GT14.html" xr:uid="{BF93DFB8-8F56-49B1-88F6-91C28E036520}"/>
-    <hyperlink ref="A329" r:id="rId532" display="http://www.enzyme-database.org/query.php?ec=2.4.1.109" xr:uid="{17400D61-6517-43D3-838D-E584C6F4BFF8}"/>
-    <hyperlink ref="A330" r:id="rId533" display="http://www.enzyme-database.org/query.php?ec=2.4.1.115" xr:uid="{6CA7C788-0FA0-4525-AF23-5ED6CF50673D}"/>
-    <hyperlink ref="B330" r:id="rId534" display="http://www.cazy.org/GT1.html" xr:uid="{CA446890-3D74-4FE7-9B01-3D293EF1F6B6}"/>
-    <hyperlink ref="A331" r:id="rId535" display="http://www.enzyme-database.org/query.php?ec=2.4.1.117" xr:uid="{82EEEDDF-09D8-40A6-A228-49C3AC655B2A}"/>
-    <hyperlink ref="B331" r:id="rId536" display="http://www.cazy.org/GT2.html" xr:uid="{985AC923-CA66-491D-A9A1-426EE36605D8}"/>
-    <hyperlink ref="A332" r:id="rId537" display="http://www.enzyme-database.org/query.php?ec=2.4.1.120" xr:uid="{089B7D3F-289C-43E7-866C-831434F94E64}"/>
-    <hyperlink ref="B332" r:id="rId538" display="http://www.cazy.org/GT1.html" xr:uid="{78E95C4D-69BA-4900-BB5E-ECE658842D95}"/>
-    <hyperlink ref="A333" r:id="rId539" display="http://www.enzyme-database.org/query.php?ec=2.4.1.121" xr:uid="{E78CADE1-5048-401D-9B2C-768DDD4C186B}"/>
-    <hyperlink ref="B333" r:id="rId540" display="http://www.cazy.org/GT1.html" xr:uid="{CC04FCE7-64E6-47E3-99DE-65E3A69F97ED}"/>
-    <hyperlink ref="A334" r:id="rId541" display="http://www.enzyme-database.org/query.php?ec=2.4.1.122" xr:uid="{EBC11CB1-BEB2-4869-A75B-945069266618}"/>
-    <hyperlink ref="B334" r:id="rId542" display="http://www.cazy.org/GT31.html" xr:uid="{1CD5B706-05EA-4277-859C-DAEAB1553A9A}"/>
-    <hyperlink ref="A335" r:id="rId543" display="http://www.enzyme-database.org/query.php?ec=2.4.1.123" xr:uid="{1C523D83-4278-4D20-A0F6-DCDB7F97406C}"/>
-    <hyperlink ref="B335" r:id="rId544" display="http://www.cazy.org/GT8.html" xr:uid="{1A5602CD-167B-4520-B540-1C2D5F5545F3}"/>
-    <hyperlink ref="A336" r:id="rId545" display="http://www.enzyme-database.org/query.php?ec=2.4.1.128" xr:uid="{BD74BFC0-436A-4C3E-8DF3-A3658D265A01}"/>
-    <hyperlink ref="B336" r:id="rId546" display="http://www.cazy.org/GT1.html" xr:uid="{296CF131-FCFC-427E-AAF5-6DC9629521EA}"/>
-    <hyperlink ref="A337" r:id="rId547" display="http://www.enzyme-database.org/query.php?ec=2.4.1.129" xr:uid="{92EBC909-FD12-4A80-8CC0-15BA1B1F1909}"/>
-    <hyperlink ref="B337" r:id="rId548" display="http://www.cazy.org/GT51.html" xr:uid="{D5480597-C77F-4D9C-8F12-2A76620239BD}"/>
-    <hyperlink ref="A338" r:id="rId549" display="http://www.enzyme-database.org/query.php?ec=2.4.1.131" xr:uid="{198A1C18-B519-48D2-A840-32DBEBDAA045}"/>
-    <hyperlink ref="A339" r:id="rId550" display="http://www.enzyme-database.org/query.php?ec=2.4.1.132" xr:uid="{7DCD6A37-B049-4E4B-BFE9-5C9024E8C5CA}"/>
-    <hyperlink ref="B339" r:id="rId551" display="http://www.cazy.org/GT4.html" xr:uid="{718F1C9B-D6BB-4A35-A3AF-B0C7D80C2266}"/>
-    <hyperlink ref="A340" r:id="rId552" display="http://www.enzyme-database.org/query.php?ec=2.4.1.133" xr:uid="{EEE9E492-9E26-4899-BAFC-EA61AEB6486B}"/>
-    <hyperlink ref="B340" r:id="rId553" display="http://www.cazy.org/GT7.html" xr:uid="{E891A145-9474-4F4B-9EEE-6ABFF7D1F857}"/>
-    <hyperlink ref="A341" r:id="rId554" display="http://www.enzyme-database.org/query.php?ec=2.4.1.134" xr:uid="{BF5A5CA3-E185-4900-9F69-4A45948E6513}"/>
-    <hyperlink ref="B341" r:id="rId555" display="http://www.cazy.org/GT31.html" xr:uid="{2CB19A4F-44DD-4FAA-93D8-4551FA60F158}"/>
-    <hyperlink ref="A342" r:id="rId556" display="http://www.enzyme-database.org/query.php?ec=2.4.1.135" xr:uid="{4FD2CB07-A957-48CF-A2BD-D365A6A9C2E9}"/>
-    <hyperlink ref="B342" r:id="rId557" display="http://www.cazy.org/GT43.html" xr:uid="{9AC6B125-01C9-457F-9F49-74C0BB396215}"/>
-    <hyperlink ref="A343" r:id="rId558" display="http://www.enzyme-database.org/query.php?ec=2.4.1.142" xr:uid="{E768CE23-2631-462C-B527-86D6490870FE}"/>
-    <hyperlink ref="B343" r:id="rId559" display="http://www.cazy.org/GT33.html" xr:uid="{553DF08F-7A5D-454B-8E3F-C25841F7DF30}"/>
-    <hyperlink ref="A344" r:id="rId560" display="http://www.enzyme-database.org/query.php?ec=2.4.1.143" xr:uid="{C256BB37-6101-498E-A84B-36343DDF1B7B}"/>
-    <hyperlink ref="B344" r:id="rId561" display="http://www.cazy.org/GT16.html" xr:uid="{2C88BB03-73FF-4013-98E4-30ECC149FBC2}"/>
-    <hyperlink ref="A345" r:id="rId562" display="http://www.enzyme-database.org/query.php?ec=2.4.1.144" xr:uid="{3E73AF42-2708-448D-B44D-DEA1C98D77EE}"/>
-    <hyperlink ref="B345" r:id="rId563" display="http://www.cazy.org/GT17.html" xr:uid="{A1F805F4-FDBE-4403-AF53-A3A805451443}"/>
-    <hyperlink ref="A346" r:id="rId564" display="http://www.enzyme-database.org/query.php?ec=2.4.1.145" xr:uid="{13A02134-97A0-4C46-B053-EE8D48543999}"/>
-    <hyperlink ref="B346" r:id="rId565" display="http://www.cazy.org/GT54.html" xr:uid="{ECDB1CCD-A540-4F9A-BD8C-8CE1DEDE2981}"/>
-    <hyperlink ref="A347" r:id="rId566" display="http://www.enzyme-database.org/query.php?ec=2.4.1.149" xr:uid="{0FD821F6-16F6-4BFE-8187-85DC81979D6A}"/>
-    <hyperlink ref="A348" r:id="rId567" display="http://www.enzyme-database.org/query.php?ec=2.4.1.150" xr:uid="{0395E11D-1A3A-4AF6-93B5-2B6AFB58FF14}"/>
-    <hyperlink ref="B348" r:id="rId568" display="http://www.cazy.org/GT14.html" xr:uid="{C5899305-2ECA-4741-BE55-A856CA2CB229}"/>
-    <hyperlink ref="A349" r:id="rId569" display="http://www.enzyme-database.org/query.php?ec=2.4.1.152" xr:uid="{FCC5811E-0A9C-4F91-B32F-9E99632444A8}"/>
-    <hyperlink ref="B349" r:id="rId570" display="http://www.cazy.org/GT10.html" xr:uid="{4E2EC124-F266-4B62-95E1-9877A7D497A0}"/>
-    <hyperlink ref="A350" r:id="rId571" display="http://www.enzyme-database.org/query.php?ec=2.4.1.155" xr:uid="{C0B0C3D1-F017-47BA-9D6B-D996C11C235B}"/>
-    <hyperlink ref="B350" r:id="rId572" display="http://www.cazy.org/GT18.html" xr:uid="{7DC43F5A-D6FB-47E6-84F1-8029AAC22D6B}"/>
-    <hyperlink ref="A351" r:id="rId573" display="http://www.enzyme-database.org/query.php?ec=2.4.1.157" xr:uid="{6FBB669A-BA65-4AA6-B101-8ECBD07222C4}"/>
-    <hyperlink ref="A352" r:id="rId574" display="http://www.enzyme-database.org/query.php?ec=2.4.1.159" xr:uid="{0F42A1CA-4438-4C6A-ABC7-02AE5E33898E}"/>
-    <hyperlink ref="B352" r:id="rId575" display="http://www.cazy.org/GT1.html" xr:uid="{8CD5F932-491C-4AE0-8093-586C42D10D42}"/>
-    <hyperlink ref="A353" r:id="rId576" display="http://www.enzyme-database.org/query.php?ec=2.4.1.170" xr:uid="{0EE09556-2F14-4E55-BA54-700A493CC737}"/>
-    <hyperlink ref="B353" r:id="rId577" display="http://www.cazy.org/GT1.html" xr:uid="{ECC814B0-EE44-4E56-8CF5-A870CA54F369}"/>
-    <hyperlink ref="A354" r:id="rId578" display="http://www.enzyme-database.org/query.php?ec=2.4.1.173" xr:uid="{7C72061D-63F3-4947-83F6-FB95FBA1759E}"/>
-    <hyperlink ref="B354" r:id="rId579" display="http://www.cazy.org/GT1.html" xr:uid="{953DAB05-F514-4B84-BC0A-3AB809705849}"/>
-    <hyperlink ref="A355" r:id="rId580" display="http://www.enzyme-database.org/query.php?ec=2.4.1.174" xr:uid="{ADE79EFB-6696-420B-BE1C-F74700E16EA2}"/>
-    <hyperlink ref="B355" r:id="rId581" display="http://www.cazy.org/GT7.html" xr:uid="{EFFA20B9-3EA2-405E-8039-5F13F2224EEE}"/>
-    <hyperlink ref="A356" r:id="rId582" display="http://www.enzyme-database.org/query.php?ec=2.4.1.175" xr:uid="{963AE470-D4E1-4834-810D-B4AC5AB8FD54}"/>
-    <hyperlink ref="A357" r:id="rId583" display="http://www.enzyme-database.org/query.php?ec=2.4.1.177" xr:uid="{82138650-35FD-4585-8691-B6A538A22724}"/>
-    <hyperlink ref="B357" r:id="rId584" display="http://www.cazy.org/GT1.html" xr:uid="{C52EE271-D589-4795-BA8F-184133339A05}"/>
-    <hyperlink ref="A358" r:id="rId585" display="http://www.enzyme-database.org/query.php?ec=2.4.1.182" xr:uid="{C5AFE64D-8EC5-46EA-8E57-83C338F04AA2}"/>
-    <hyperlink ref="B358" r:id="rId586" display="http://www.cazy.org/GT19.html" xr:uid="{7CC0D504-4536-4886-864A-3ADA1FCDD88C}"/>
-    <hyperlink ref="A359" r:id="rId587" display="http://www.enzyme-database.org/query.php?ec=2.4.1.183" xr:uid="{5653ACE0-DB20-41F9-ABB0-B51D96D33611}"/>
-    <hyperlink ref="B359" r:id="rId588" display="http://www.cazy.org/GT5.html" xr:uid="{C9717E5A-8242-4D6F-A514-808ADC7CCDD8}"/>
-    <hyperlink ref="A360" r:id="rId589" display="http://www.enzyme-database.org/query.php?ec=2.4.1.185" xr:uid="{D548AA26-7B1B-4DE9-A5A3-9093D8F49371}"/>
-    <hyperlink ref="B360" r:id="rId590" display="http://www.cazy.org/GT1.html" xr:uid="{8C790B1C-93A3-41E7-9687-391BF95BCCEF}"/>
-    <hyperlink ref="A361" r:id="rId591" display="http://www.enzyme-database.org/query.php?ec=2.4.1.186" xr:uid="{9B395980-8BD3-44D6-A8F8-58A1408120CB}"/>
-    <hyperlink ref="B361" r:id="rId592" display="http://www.cazy.org/GT8.html" xr:uid="{F55D9340-DF09-4287-89F4-557BC6C191D5}"/>
-    <hyperlink ref="A362" r:id="rId593" display="http://www.enzyme-database.org/query.php?ec=2.4.1.189" xr:uid="{87898C20-D384-44DD-8E66-4D6467E8E248}"/>
-    <hyperlink ref="B362" r:id="rId594" display="http://www.cazy.org/GT1.html" xr:uid="{B34060C2-A4C1-4D66-A221-A30CF799C154}"/>
-    <hyperlink ref="A363" r:id="rId595" display="http://www.enzyme-database.org/query.php?ec=2.4.1.194" xr:uid="{71D7C7CE-1302-409D-914C-E8901A36BAB5}"/>
-    <hyperlink ref="B363" r:id="rId596" display="http://www.cazy.org/GT1.html" xr:uid="{98943441-30F8-4577-8E51-5227AA8EB593}"/>
-    <hyperlink ref="A364" r:id="rId597" display="http://www.enzyme-database.org/query.php?ec=2.4.1.195" xr:uid="{74BD4F5A-E993-4468-9BB7-95443FA214F3}"/>
-    <hyperlink ref="B364" r:id="rId598" display="http://www.cazy.org/GT1.html" xr:uid="{E7D726C6-0901-49F9-90B5-509F8B1C0379}"/>
-    <hyperlink ref="A365" r:id="rId599" display="http://www.enzyme-database.org/query.php?ec=2.4.1.198" xr:uid="{8613BC03-4ADA-4371-82B3-CE953069C12D}"/>
-    <hyperlink ref="B365" r:id="rId600" display="http://www.cazy.org/GT4.html" xr:uid="{C5BC5043-D830-4B31-B20B-531A323FA9CF}"/>
-    <hyperlink ref="A366" r:id="rId601" display="http://www.enzyme-database.org/query.php?ec=2.4.1.199" xr:uid="{E53C0FF8-489F-43DD-8B8A-443FC8A83444}"/>
-    <hyperlink ref="B366" r:id="rId602" display="http://www.cazy.org/GT2.html" xr:uid="{FDD8C3E5-8A8D-4BD7-86DE-D5F3F63EE836}"/>
-    <hyperlink ref="A367" r:id="rId603" display="http://www.enzyme-database.org/query.php?ec=2.4.1.202" xr:uid="{B681F483-D36A-49EE-A05C-068A4958CB72}"/>
-    <hyperlink ref="B367" r:id="rId604" display="http://www.cazy.org/GT1.html" xr:uid="{25604B56-2303-46BD-B2C1-E981640F5848}"/>
-    <hyperlink ref="A368" r:id="rId605" display="http://www.enzyme-database.org/query.php?ec=2.4.1.203" xr:uid="{9BB53A4B-1D9C-41EE-B168-33133265786C}"/>
-    <hyperlink ref="B368" r:id="rId606" display="http://www.cazy.org/GT1.html" xr:uid="{CA0532B2-252B-47F3-9645-A5CCE296BF88}"/>
-    <hyperlink ref="A369" r:id="rId607" display="http://www.enzyme-database.org/query.php?ec=2.4.1.208" xr:uid="{788B56E2-A1D1-46A6-98E7-255C3FA5A7CC}"/>
-    <hyperlink ref="B369" r:id="rId608" display="http://www.cazy.org/GT4.html" xr:uid="{5F9A052D-9B21-49AE-98E8-8987FD7966D6}"/>
-    <hyperlink ref="A370" r:id="rId609" display="http://www.enzyme-database.org/query.php?ec=2.4.1.210" xr:uid="{504CE031-B17F-4EA4-A8B2-07D4FBB7D113}"/>
-    <hyperlink ref="B370" r:id="rId610" display="http://www.cazy.org/GT1.html" xr:uid="{3E014469-4463-4BBB-A436-FEE0AB2FF620}"/>
-    <hyperlink ref="A371" r:id="rId611" display="http://www.enzyme-database.org/query.php?ec=2.4.1.212" xr:uid="{4A4FDA76-4A4B-4824-B805-1EC421A5F576}"/>
-    <hyperlink ref="B371" r:id="rId612" display="http://www.cazy.org/GT2.html" xr:uid="{BE3EAD98-2D71-48D6-AABC-7D666CBAB15E}"/>
-    <hyperlink ref="A372" r:id="rId613" display="http://www.enzyme-database.org/query.php?ec=2.4.1.213" xr:uid="{28020C68-53D6-4BF7-B310-9FF851E29F5E}"/>
-    <hyperlink ref="B372" r:id="rId614" display="http://www.cazy.org/GT20.html" xr:uid="{B2DA658C-EE3C-477E-B0AC-7347BA44E408}"/>
-    <hyperlink ref="A373" r:id="rId615" display="http://www.enzyme-database.org/query.php?ec=2.4.1.214" xr:uid="{9A32DD6D-DBA2-464E-93B8-C04FFAC1FD53}"/>
-    <hyperlink ref="B373" r:id="rId616" display="http://www.cazy.org/GT10.html" xr:uid="{A6492E7E-A358-46F2-8E44-553B9841DB13}"/>
-    <hyperlink ref="A374" r:id="rId617" display="http://www.enzyme-database.org/query.php?ec=2.4.1.215" xr:uid="{543019FE-625E-4688-9F39-3CD935A98150}"/>
-    <hyperlink ref="B374" r:id="rId618" display="http://www.cazy.org/GT1.html" xr:uid="{1FC1D3A5-86A0-4FF5-8996-F1FEFF627C29}"/>
-    <hyperlink ref="A375" r:id="rId619" display="http://www.enzyme-database.org/query.php?ec=2.4.1.217" xr:uid="{73A9B673-8A04-4FBF-84DF-C012F2FAF376}"/>
-    <hyperlink ref="A376" r:id="rId620" display="http://www.enzyme-database.org/query.php?ec=2.4.1.221" xr:uid="{DDC6FAAA-7742-45FC-994A-8053C5578B84}"/>
-    <hyperlink ref="B376" r:id="rId621" display="http://www.cazy.org/GT65.html" xr:uid="{956ED24C-AA69-456E-AB90-4A86476ED5C7}"/>
-    <hyperlink ref="A377" r:id="rId622" display="http://www.enzyme-database.org/query.php?ec=2.4.1.222" xr:uid="{1E7A8FD1-EF21-4C9F-B6A3-ED9D6828DA7E}"/>
-    <hyperlink ref="B377" r:id="rId623" display="http://www.cazy.org/GT31.html" xr:uid="{FD1609F5-F5EB-4913-AD8D-7006FACC10EB}"/>
-    <hyperlink ref="A378" r:id="rId624" display="http://www.enzyme-database.org/query.php?ec=2.4.1.223" xr:uid="{B63F620F-8E40-4027-B817-67CCB149270E}"/>
-    <hyperlink ref="A379" r:id="rId625" display="http://www.enzyme-database.org/query.php?ec=2.4.1.224" xr:uid="{FCC35D8D-9D2E-4461-821E-CFF582E5BEA2}"/>
-    <hyperlink ref="A380" r:id="rId626" display="http://www.enzyme-database.org/query.php?ec=2.4.1.225" xr:uid="{491E59DF-31E8-4115-8F68-AC9F567064FD}"/>
-    <hyperlink ref="A381" r:id="rId627" display="http://www.enzyme-database.org/query.php?ec=2.4.1.226" xr:uid="{73055DCC-46D4-4C6C-94D2-9C3F3A0D20E2}"/>
-    <hyperlink ref="A382" r:id="rId628" display="http://www.enzyme-database.org/query.php?ec=2.4.1.227" xr:uid="{52A501AA-BE7E-4632-8189-BCD0316F9DD7}"/>
-    <hyperlink ref="B382" r:id="rId629" display="http://www.cazy.org/GT28.html" xr:uid="{524CE7ED-A632-4EA4-BBA3-7A56770611DF}"/>
-    <hyperlink ref="A383" r:id="rId630" display="http://www.enzyme-database.org/query.php?ec=2.4.1.231" xr:uid="{743BD659-D30B-4D02-938C-1AAA035A6230}"/>
-    <hyperlink ref="B383" r:id="rId631" display="http://www.cazy.org/GT4.html" xr:uid="{8BA09160-360A-42AA-ABF4-65252BE22C2C}"/>
-    <hyperlink ref="A384" r:id="rId632" display="http://www.enzyme-database.org/query.php?ec=2.4.1.234" xr:uid="{AAAA708E-909C-4BE4-ACA2-C694D83BBFC7}"/>
-    <hyperlink ref="B384" r:id="rId633" display="http://www.cazy.org/GT1.html" xr:uid="{C288FD6F-4E5D-4CCD-836B-67A746321CEA}"/>
-    <hyperlink ref="A385" r:id="rId634" display="http://www.enzyme-database.org/query.php?ec=2.4.1.237" xr:uid="{30E4517C-846D-45FB-8F2E-6B91C396A767}"/>
-    <hyperlink ref="B385" r:id="rId635" display="http://www.cazy.org/GT1.html" xr:uid="{87743CE2-D841-41D8-A526-A8ECC9DC56FD}"/>
-    <hyperlink ref="A386" r:id="rId636" display="http://www.enzyme-database.org/query.php?ec=2.4.1.238" xr:uid="{F2381F48-A682-4BA5-8332-B55A84E200DA}"/>
-    <hyperlink ref="B386" r:id="rId637" display="http://www.cazy.org/GT1.html" xr:uid="{F089CC11-DAB2-4592-8CE8-E182C8A7B48E}"/>
-    <hyperlink ref="A387" r:id="rId638" display="http://www.enzyme-database.org/query.php?ec=2.4.1.241" xr:uid="{4BC3D3D8-A3D7-41EB-84DF-BABF184DB430}"/>
-    <hyperlink ref="A388" r:id="rId639" display="http://www.enzyme-database.org/query.php?ec=2.4.1.242" xr:uid="{849B4C56-C115-48DC-B804-D286A0E89AB1}"/>
-    <hyperlink ref="B388" r:id="rId640" display="http://www.cazy.org/GT5.html" xr:uid="{7720A9AE-93D4-4D9F-9A3D-AA78B25EABED}"/>
-    <hyperlink ref="A389" r:id="rId641" display="http://www.enzyme-database.org/query.php?ec=2.4.1.245" xr:uid="{6FB71D70-20F3-4363-BC00-C33FFF2976AE}"/>
-    <hyperlink ref="B389" r:id="rId642" display="http://www.cazy.org/GT4.html" xr:uid="{39918779-822A-4495-9FA0-F3CD2A1C67E8}"/>
-    <hyperlink ref="A390" r:id="rId643" display="http://www.enzyme-database.org/query.php?ec=2.4.1.251" xr:uid="{8208AAB4-E37F-4430-B9E2-3DD1E755A07C}"/>
-    <hyperlink ref="B390" r:id="rId644" display="http://www.cazy.org/GT94.html" xr:uid="{FA50ECAE-5FA7-4E8B-B26D-4CAE60346572}"/>
-    <hyperlink ref="A391" r:id="rId645" display="http://www.enzyme-database.org/query.php?ec=2.4.1.252" xr:uid="{D30E1345-DA17-4771-BA43-B148911B0365}"/>
-    <hyperlink ref="B391" r:id="rId646" display="http://www.cazy.org/GT4.html" xr:uid="{642D0C46-D3FB-4DA3-B842-6EF84B54DD83}"/>
-    <hyperlink ref="A392" r:id="rId647" display="http://www.enzyme-database.org/query.php?ec=2.4.1.253" xr:uid="{F388454E-6FC2-475E-9499-4D2B930D4E13}"/>
-    <hyperlink ref="B392" r:id="rId648" display="http://www.cazy.org/GT1.html" xr:uid="{BF111348-E47C-4F04-882A-0571FACB896F}"/>
-    <hyperlink ref="A393" r:id="rId649" display="http://www.enzyme-database.org/query.php?ec=2.4.1.255" xr:uid="{92ED25CA-7673-4975-B9C6-E5BDDB24F875}"/>
-    <hyperlink ref="A394" r:id="rId650" display="http://www.enzyme-database.org/query.php?ec=2.4.1.256" xr:uid="{9E60076B-BB15-48F2-8158-56424281D2C1}"/>
-    <hyperlink ref="B394" r:id="rId651" display="http://www.cazy.org/GT59.html" xr:uid="{0BF0046B-0464-435A-920E-4CA12E4E78A1}"/>
-    <hyperlink ref="A395" r:id="rId652" display="http://www.enzyme-database.org/query.php?ec=2.4.1.257" xr:uid="{4A8D6197-6F5C-47D5-99AA-99BEF6B0C39C}"/>
-    <hyperlink ref="A396" r:id="rId653" display="http://www.enzyme-database.org/query.php?ec=2.4.1.258" xr:uid="{59B4A6AD-8EA8-4C38-A1BA-DACBBD153520}"/>
-    <hyperlink ref="B396" r:id="rId654" display="http://www.cazy.org/GT58.html" xr:uid="{6C2A2FE4-1ADC-461A-8412-AE9417272041}"/>
-    <hyperlink ref="A397" r:id="rId655" display="http://www.enzyme-database.org/query.php?ec=2.4.1.259" xr:uid="{09076308-7387-4D8C-BDB6-35808189920E}"/>
-    <hyperlink ref="B397" r:id="rId656" display="http://www.cazy.org/GT22.html" xr:uid="{0F4B28E8-DF98-477A-B659-C6000C1A4103}"/>
-    <hyperlink ref="A398" r:id="rId657" display="http://www.enzyme-database.org/query.php?ec=2.4.1.260" xr:uid="{CB8C3D7A-2819-4CC9-AC93-C77EBDB89C12}"/>
-    <hyperlink ref="B398" r:id="rId658" display="http://www.cazy.org/GT22.html" xr:uid="{7439191F-1F88-4D4A-B71B-B0D7E98393D3}"/>
-    <hyperlink ref="A399" r:id="rId659" display="http://www.enzyme-database.org/query.php?ec=2.4.1.261" xr:uid="{745C53AA-546C-49A8-97F1-A788291D49E3}"/>
-    <hyperlink ref="B399" r:id="rId660" display="http://www.cazy.org/GT22.html" xr:uid="{1F40E678-CB91-4AB6-95F0-9B8EFE7D6A65}"/>
-    <hyperlink ref="A400" r:id="rId661" display="http://www.enzyme-database.org/query.php?ec=2.4.1.265" xr:uid="{DB36F5FD-7B2A-4CF7-A04C-FF02C5E3ACF6}"/>
-    <hyperlink ref="B400" r:id="rId662" display="http://www.cazy.org/GT57.html" xr:uid="{5658E5B6-BD53-4427-B847-EA61C1343145}"/>
-    <hyperlink ref="A401" r:id="rId663" display="http://www.enzyme-database.org/query.php?ec=2.4.1.266" xr:uid="{BE5F5A79-EC61-42D6-A691-A24748A99B7E}"/>
-    <hyperlink ref="B401" r:id="rId664" display="http://www.cazy.org/GT81.html" xr:uid="{5933FB7F-4216-43AD-9D12-291B860E47C3}"/>
-    <hyperlink ref="A402" r:id="rId665" display="http://www.enzyme-database.org/query.php?ec=2.4.1.267" xr:uid="{94D433EE-0A34-453F-9E5B-4A7B1E998604}"/>
-    <hyperlink ref="B402" r:id="rId666" display="http://www.cazy.org/GT57.html" xr:uid="{8966F79F-4D89-4976-87DC-4F661F8B271E}"/>
-    <hyperlink ref="A403" r:id="rId667" display="http://www.enzyme-database.org/query.php?ec=2.4.1.270" xr:uid="{780F4282-5C14-47B6-864F-4466B564F7FC}"/>
-    <hyperlink ref="A404" r:id="rId668" display="http://www.enzyme-database.org/query.php?ec=2.4.1.275" xr:uid="{CC7DFFD0-DF3A-4AC2-9E42-03C655CC1BC3}"/>
-    <hyperlink ref="B404" r:id="rId669" display="http://www.cazy.org/GT7.html" xr:uid="{A0522A94-800E-4D2D-89BB-95B47C0F9189}"/>
-    <hyperlink ref="A405" r:id="rId670" display="http://www.enzyme-database.org/query.php?ec=2.4.1.276" xr:uid="{66B0110A-5B63-41D9-B038-5A01A6C1AA7C}"/>
-    <hyperlink ref="B405" r:id="rId671" display="http://www.cazy.org/GT1.html" xr:uid="{85EC6581-5B5C-4398-A251-282A362E0681}"/>
-    <hyperlink ref="A406" r:id="rId672" display="http://www.enzyme-database.org/query.php?ec=2.4.1.283" xr:uid="{51572718-3926-4AF9-ADBB-EB6F19889394}"/>
-    <hyperlink ref="B406" r:id="rId673" display="http://www.cazy.org/GT4.html" xr:uid="{2C12D214-3813-467D-948E-900CF01A5727}"/>
-    <hyperlink ref="A407" r:id="rId674" display="http://www.enzyme-database.org/query.php?ec=2.4.1.285" xr:uid="{B2335507-CF3F-4A56-B9FD-44C4660690AA}"/>
-    <hyperlink ref="B407" r:id="rId675" display="http://www.cazy.org/GT4.html" xr:uid="{B31EDEAF-25D9-458A-9E5D-8227E4EA3DAB}"/>
-    <hyperlink ref="A408" r:id="rId676" display="http://www.enzyme-database.org/query.php?ec=2.4.1.286" xr:uid="{6516BA54-769C-43BA-AB68-59A2012A95C4}"/>
-    <hyperlink ref="B408" r:id="rId677" display="http://www.cazy.org/GT1.html" xr:uid="{8F844FDD-C0B2-4EF4-BDEF-A94F6DA22A4F}"/>
-    <hyperlink ref="A409" r:id="rId678" display="http://www.enzyme-database.org/query.php?ec=2.4.1.287" xr:uid="{5FCFC557-2F8D-4813-A922-07BB8B397BAF}"/>
-    <hyperlink ref="B409" r:id="rId679" display="http://www.cazy.org/GT2.html" xr:uid="{A41543F0-C6A7-4989-BCFB-7B39E51CCC20}"/>
-    <hyperlink ref="A410" r:id="rId680" display="http://www.enzyme-database.org/query.php?ec=2.4.1.288" xr:uid="{3E5BE2B9-7B77-481D-A3D7-2853500B4C34}"/>
-    <hyperlink ref="B410" r:id="rId681" display="http://www.cazy.org/GT2.html" xr:uid="{E4F7E712-7602-4D66-9125-5DE4090A86A8}"/>
-    <hyperlink ref="A411" r:id="rId682" display="http://www.enzyme-database.org/query.php?ec=2.4.1.289" xr:uid="{0E09B00E-13F4-4492-839C-25F3018753A6}"/>
-    <hyperlink ref="A412" r:id="rId683" display="http://www.enzyme-database.org/query.php?ec=2.4.1.290" xr:uid="{5FFC5A87-30D9-43D8-92B0-0A9B1BC12439}"/>
-    <hyperlink ref="B412" r:id="rId684" display="http://www.cazy.org/GT4.html" xr:uid="{A42CE274-F3FA-49A0-96A9-D709187FC97E}"/>
-    <hyperlink ref="A413" r:id="rId685" display="http://www.enzyme-database.org/query.php?ec=2.4.1.302" xr:uid="{5EFFCD52-CAFE-445B-91BF-4404D7B0AC48}"/>
-    <hyperlink ref="B413" r:id="rId686" display="http://www.cazy.org/GT1.html" xr:uid="{DA85FEFA-CECE-4127-92D5-03F0A7AEEFC3}"/>
-    <hyperlink ref="A414" r:id="rId687" display="http://www.enzyme-database.org/query.php?ec=2.4.1.305" xr:uid="{10219540-B60A-495D-AECF-FE189EC875F2}"/>
-    <hyperlink ref="B414" r:id="rId688" display="http://www.cazy.org/GT2.html" xr:uid="{F1592050-E230-40EA-BAEB-D8A4FE0D9B98}"/>
-    <hyperlink ref="A415" r:id="rId689" display="http://www.enzyme-database.org/query.php?ec=2.4.1.333" xr:uid="{184F5FB3-D33D-4D13-8395-3A10B34D9FFB}"/>
-    <hyperlink ref="B415" r:id="rId690" display="http://www.cazy.org/GT84.html" xr:uid="{30EB9CE4-10D1-4FF9-8AD3-DDFEA7454B75}"/>
-    <hyperlink ref="A416" r:id="rId691" display="http://www.enzyme-database.org/query.php?ec=2.4.1.339" xr:uid="{BDD6F19F-64DC-4E43-B00E-1AFE6D65D390}"/>
-    <hyperlink ref="B416" r:id="rId692" display="http://www.cazy.org/GT91.html" xr:uid="{4D44A969-848F-4CA1-9408-624AF6C1EB82}"/>
-    <hyperlink ref="A417" r:id="rId693" display="http://www.enzyme-database.org/query.php?ec=2.4.1.342" xr:uid="{11E76A6F-249D-47BC-A5DC-83CA0EA3FFA1}"/>
-    <hyperlink ref="B417" r:id="rId694" display="http://www.cazy.org/GT4.html" xr:uid="{6C3CEE3F-D4C7-4BFA-8C9A-D652E27CE695}"/>
-    <hyperlink ref="A418" r:id="rId695" display="http://www.enzyme-database.org/query.php?ec=2.4.1.351" xr:uid="{66607E7E-AF98-476C-8733-939190A5DBCB}"/>
-    <hyperlink ref="B418" r:id="rId696" display="http://www.cazy.org/GT106.html" xr:uid="{BB2DFFEF-F130-4C12-88BA-4F5E7DC449B9}"/>
-    <hyperlink ref="A419" r:id="rId697" display="http://www.enzyme-database.org/query.php?ec=2.4.1.360" xr:uid="{3193569D-9D65-4300-8F5F-757456E3FCD5}"/>
-    <hyperlink ref="B419" r:id="rId698" display="http://www.cazy.org/GT1.html" xr:uid="{18AB5B4A-E9AF-4043-B064-1A7F5969FD09}"/>
-    <hyperlink ref="A420" r:id="rId699" display="http://www.enzyme-database.org/query.php?ec=2.4.1.374" xr:uid="{D1632F7A-EB0F-4718-ADC0-8725906544D6}"/>
-    <hyperlink ref="A421" r:id="rId700" display="http://www.enzyme-database.org/query.php?ec=2.4.2.*" xr:uid="{0254E433-8A91-469F-8EA8-F66D210CCEBD}"/>
-    <hyperlink ref="A422" r:id="rId701" display="http://www.enzyme-database.org/query.php?ec=2.4.2.26" xr:uid="{A66F8E06-E5F8-4C9E-8A6A-08FEB291A560}"/>
-    <hyperlink ref="B422" r:id="rId702" display="http://www.cazy.org/GT14.html" xr:uid="{A8DDA507-F3E9-4897-B2A4-046810B8F8F8}"/>
-    <hyperlink ref="A423" r:id="rId703" display="http://www.enzyme-database.org/query.php?ec=2.4.2.38" xr:uid="{8EE900A7-2085-41B1-91DA-58B9BFB68044}"/>
-    <hyperlink ref="B423" r:id="rId704" display="http://www.cazy.org/GT61.html" xr:uid="{2344E712-0823-4F2B-8CFF-E6468EC3E682}"/>
-    <hyperlink ref="A424" r:id="rId705" display="http://www.enzyme-database.org/query.php?ec=2.4.2.39" xr:uid="{C0823454-1F25-4499-98D6-D0D0E348715F}"/>
-    <hyperlink ref="B424" r:id="rId706" display="http://www.cazy.org/GT34.html" xr:uid="{9C632984-0DDA-4C50-A257-3E95029CE4F2}"/>
-    <hyperlink ref="A425" r:id="rId707" display="http://www.enzyme-database.org/query.php?ec=2.4.2.40" xr:uid="{49962D0A-0F8A-4B3A-9C4F-964251818699}"/>
-    <hyperlink ref="B425" r:id="rId708" display="http://www.cazy.org/GT1.html" xr:uid="{45520705-123C-4328-A751-E67372971C74}"/>
-    <hyperlink ref="A426" r:id="rId709" display="http://www.enzyme-database.org/query.php?ec=2.4.2.43" xr:uid="{82CE83F4-A01F-46F0-99D2-B2E86CC3B0A4}"/>
-    <hyperlink ref="B426" r:id="rId710" display="http://www.cazy.org/GT83.html" xr:uid="{AB422344-A460-4A2A-B8E1-86A2654A33AE}"/>
-    <hyperlink ref="A427" r:id="rId711" display="http://www.enzyme-database.org/query.php?ec=2.4.99.*" xr:uid="{0D11D1F5-B43C-4669-8C7A-9E65141CA11F}"/>
-    <hyperlink ref="A428" r:id="rId712" display="http://www.enzyme-database.org/query.php?ec=2.4.99.1" xr:uid="{F0A85EE5-A0DA-4178-9340-847B4DA1FD5C}"/>
-    <hyperlink ref="A429" r:id="rId713" display="http://www.enzyme-database.org/query.php?ec=2.4.99.3" xr:uid="{8C1916E0-5E26-45C9-A874-2CDE48B817D0}"/>
-    <hyperlink ref="A430" r:id="rId714" display="http://www.enzyme-database.org/query.php?ec=2.4.99.4" xr:uid="{F32DB229-90FA-4916-9692-044459A18940}"/>
-    <hyperlink ref="A431" r:id="rId715" display="http://www.enzyme-database.org/query.php?ec=2.4.99.6" xr:uid="{F55097C2-D610-4E8A-9F79-D1468946516F}"/>
-    <hyperlink ref="A432" r:id="rId716" display="http://www.enzyme-database.org/query.php?ec=2.4.99.7" xr:uid="{9FD0E631-69D9-49EC-A277-A3333BC7F13C}"/>
-    <hyperlink ref="B432" r:id="rId717" display="http://www.cazy.org/GT29.html" xr:uid="{F1621FA6-E79A-4201-B1F4-06499D20CB16}"/>
-    <hyperlink ref="A433" r:id="rId718" display="http://www.enzyme-database.org/query.php?ec=2.4.99.8" xr:uid="{BF29D03D-E704-4257-87F4-63165F0FE405}"/>
-    <hyperlink ref="A434" r:id="rId719" display="http://www.enzyme-database.org/query.php?ec=2.4.99.9" xr:uid="{007020A7-72FF-4BC5-8CB6-1799B5C4F651}"/>
-    <hyperlink ref="B434" r:id="rId720" display="http://www.cazy.org/GT29.html" xr:uid="{F3236A9A-32D5-4A1B-86FD-17AC2E71A5D2}"/>
-    <hyperlink ref="A435" r:id="rId721" display="http://www.enzyme-database.org/query.php?ec=2.4.99.18" xr:uid="{CA647DA6-8274-4082-8444-F32DAC775740}"/>
-    <hyperlink ref="B435" r:id="rId722" display="http://www.cazy.org/GT66.html" xr:uid="{D60C51E1-3FBD-455C-B856-5C9D12E88A40}"/>
-    <hyperlink ref="A436" r:id="rId723" display="http://www.enzyme-database.org/query.php?ec=2.4.99.19" xr:uid="{F173DDDF-CF7E-484C-B081-A20BF0A7B6EE}"/>
-    <hyperlink ref="B436" r:id="rId724" display="http://www.cazy.org/GT66.html" xr:uid="{2F6BE171-1562-4DEC-9A25-0B1DA2E7D0B7}"/>
-    <hyperlink ref="A437" r:id="rId725" display="http://www.enzyme-database.org/query.php?ec=3.1.*.*" xr:uid="{0CBE4EC9-A5D4-4BEB-B769-8417798E2D60}"/>
-    <hyperlink ref="B437" r:id="rId726" display="http://www.cazy.org/GT0.html" xr:uid="{7FE1D4D0-D319-4066-8C68-968C4434F879}"/>
-    <hyperlink ref="A438" r:id="rId727" display="http://www.enzyme-database.org/query.php?ec=3.1.3.12" xr:uid="{6D35B192-5810-4382-88C0-E80B5E6E8724}"/>
-    <hyperlink ref="B438" r:id="rId728" display="http://www.cazy.org/GT20.html" xr:uid="{BC141A27-2D29-4C60-821F-A7897B3DB1F9}"/>
-    <hyperlink ref="A439" r:id="rId729" display="http://www.enzyme-database.org/query.php?ec=3.2.1.*" xr:uid="{759C8935-0144-4776-93AC-2BB9BF6B32EF}"/>
-    <hyperlink ref="B439" r:id="rId730" display="http://www.cazy.org/GT80.html" xr:uid="{FB53A599-A7BB-4125-A056-5530AFB043CF}"/>
-    <hyperlink ref="A440" r:id="rId731" display="http://www.enzyme-database.org/query.php?ec=3.2.1.18" xr:uid="{6C3C0F68-ED6C-4268-8B92-4BB11B4BDCAF}"/>
-    <hyperlink ref="B440" r:id="rId732" display="http://www.cazy.org/GT80.html" xr:uid="{2CD7BF08-3A3E-4A03-A5DC-39B1539E07F2}"/>
-    <hyperlink ref="A441" r:id="rId733" display="http://www.enzyme-database.org/query.php?ec=3.5.1.*" xr:uid="{D0637A18-B661-4D85-9C01-44EE5D59F2A5}"/>
-    <hyperlink ref="B441" r:id="rId734" display="http://www.cazy.org/GT4.html" xr:uid="{5208C152-6451-4A38-BD59-3EC63333B3F4}"/>
-    <hyperlink ref="A442" r:id="rId735" display="http://www.enzyme-database.org/query.php?ec=5.4.99.30" xr:uid="{8F9ED7D8-A663-4D08-9F34-3D11BBA05E23}"/>
-    <hyperlink ref="B442" r:id="rId736" display="http://www.cazy.org/GT75.html" xr:uid="{E99A4F8C-3819-45C3-A6A0-FB4E9B26FC29}"/>
-    <hyperlink ref="A443" r:id="rId737" display="http://www.enzyme-database.org/query.php?ec=1.*.*.*" xr:uid="{AD91FCB0-8C6A-4267-9A3B-4BD05B226AA0}"/>
-    <hyperlink ref="B443" r:id="rId738" display="http://www.cazy.org/CBM1.html" xr:uid="{C0E96DAF-BD73-485C-9F33-2D3942129425}"/>
-    <hyperlink ref="A444" r:id="rId739" display="http://www.enzyme-database.org/query.php?ec=1.1.3.9" xr:uid="{877BC5B1-63C2-4597-92E2-0AF799A13A0C}"/>
-    <hyperlink ref="B444" r:id="rId740" display="http://www.cazy.org/CBM32.html" xr:uid="{37E623BF-E963-4777-937A-C5FCAF5DA1BA}"/>
-    <hyperlink ref="A445" r:id="rId741" display="http://www.enzyme-database.org/query.php?ec=1.1.99.18" xr:uid="{91C6435E-C28F-4206-B818-5C1E1FA133C3}"/>
-    <hyperlink ref="B445" r:id="rId742" display="http://www.cazy.org/CBM1.html" xr:uid="{8F4D67F1-5B07-4B49-B29D-E43590BA67EB}"/>
-    <hyperlink ref="A446" r:id="rId743" display="http://www.enzyme-database.org/query.php?ec=1.14.99.53" xr:uid="{C429F853-C9CD-4D9B-9BC9-9EA0137E0433}"/>
-    <hyperlink ref="A447" r:id="rId744" display="http://www.enzyme-database.org/query.php?ec=1.14.99.54" xr:uid="{C7461350-4609-4DF0-8D68-81AF5E4C6AAE}"/>
-    <hyperlink ref="A448" r:id="rId745" display="http://www.enzyme-database.org/query.php?ec=1.14.99.55" xr:uid="{D8D339EE-29CE-4830-989C-4B90A92400F8}"/>
-    <hyperlink ref="B448" r:id="rId746" display="http://www.cazy.org/CBM20.html" xr:uid="{7632F99E-FA5C-41E0-BF65-B5A7B06767F8}"/>
-    <hyperlink ref="A449" r:id="rId747" display="http://www.enzyme-database.org/query.php?ec=1.14.99.56" xr:uid="{B58563C5-412A-4E1D-B976-8E44C7837482}"/>
-    <hyperlink ref="A450" r:id="rId748" display="http://www.enzyme-database.org/query.php?ec=2.4.1.*" xr:uid="{1F25A950-AF18-4FA9-83D4-0804BC647D7E}"/>
-    <hyperlink ref="A451" r:id="rId749" display="http://www.enzyme-database.org/query.php?ec=2.4.1.2" xr:uid="{116B1290-541E-4BB2-B7AF-8182362D1D9F}"/>
-    <hyperlink ref="B451" r:id="rId750" display="http://www.cazy.org/CBM0.html" xr:uid="{7226D1BF-0F36-46C6-B49E-53E82D1F0514}"/>
-    <hyperlink ref="A452" r:id="rId751" display="http://www.enzyme-database.org/query.php?ec=2.4.1.18" xr:uid="{684156C1-0ED6-4BAA-BB61-162168C5617C}"/>
-    <hyperlink ref="B452" r:id="rId752" display="http://www.cazy.org/CBM48.html" xr:uid="{6A2F0064-F3DC-4F02-929E-2177C09D88D2}"/>
-    <hyperlink ref="A453" r:id="rId753" display="http://www.enzyme-database.org/query.php?ec=2.4.1.19" xr:uid="{5EB6FC5F-7C9B-49E8-8D70-210927B898C2}"/>
-    <hyperlink ref="B453" r:id="rId754" display="http://www.cazy.org/CBM20.html" xr:uid="{1217925A-5C03-433A-94BB-8A0ED5A54656}"/>
-    <hyperlink ref="A454" r:id="rId755" display="http://www.enzyme-database.org/query.php?ec=2.4.1.21" xr:uid="{FB3D4860-2486-41BE-88B9-C55A8F35C412}"/>
-    <hyperlink ref="B454" r:id="rId756" display="http://www.cazy.org/CBM53.html" xr:uid="{462AA5D3-4E70-47F9-A78D-A318C9751618}"/>
-    <hyperlink ref="A455" r:id="rId757" display="http://www.enzyme-database.org/query.php?ec=2.4.1.25" xr:uid="{C28B7CBC-821E-4DA4-81B9-803EA032B480}"/>
-    <hyperlink ref="A456" r:id="rId758" display="http://www.enzyme-database.org/query.php?ec=2.4.1.41" xr:uid="{1206B01A-0FED-4BE6-BFBC-9616085BCE5F}"/>
-    <hyperlink ref="B456" r:id="rId759" display="http://www.cazy.org/CBM13.html" xr:uid="{5260B6B1-8561-4160-B58C-CC2DC58C9D7B}"/>
-    <hyperlink ref="A457" r:id="rId760" display="http://www.enzyme-database.org/query.php?ec=2.4.1.248" xr:uid="{35F56F94-6DB0-4E68-8030-966F33893C6E}"/>
-    <hyperlink ref="B457" r:id="rId761" display="http://www.cazy.org/CBM35.html" xr:uid="{C041D178-0EA8-4AB6-A494-A94EACE4BB80}"/>
-    <hyperlink ref="A458" r:id="rId762" display="http://www.enzyme-database.org/query.php?ec=2.4.2.*" xr:uid="{99E9C2F2-E09B-4947-8451-15AFA12C3549}"/>
-    <hyperlink ref="B458" r:id="rId763" display="http://www.cazy.org/CBM22.html" xr:uid="{61DA7A17-8926-4A64-81D2-42673E6A2BA1}"/>
-    <hyperlink ref="A459" r:id="rId764" display="http://www.enzyme-database.org/query.php?ec=3.1.1.*" xr:uid="{462C7E51-87A0-4CD7-89F1-844C81B5C487}"/>
-    <hyperlink ref="A460" r:id="rId765" display="http://www.enzyme-database.org/query.php?ec=3.1.1.6" xr:uid="{BB89312B-47C3-454D-B2E7-447798BFCB89}"/>
-    <hyperlink ref="A461" r:id="rId766" display="http://www.enzyme-database.org/query.php?ec=3.1.1.72" xr:uid="{17B916DE-CC4B-43C8-96A7-DF640AF70563}"/>
-    <hyperlink ref="A462" r:id="rId767" display="http://www.enzyme-database.org/query.php?ec=3.1.1.73" xr:uid="{1BCFC7CA-B5C3-4B6F-9386-1BDEAAA386C2}"/>
-    <hyperlink ref="A463" r:id="rId768" display="http://www.enzyme-database.org/query.php?ec=3.1.3.16" xr:uid="{E6E5D2AB-AD2C-4D40-8950-03E9AA201E85}"/>
-    <hyperlink ref="B463" r:id="rId769" display="http://www.cazy.org/CBM21.html" xr:uid="{7B9F06F7-11ED-4F41-BBDD-7CF5DA7D84F2}"/>
-    <hyperlink ref="A464" r:id="rId770" display="http://www.enzyme-database.org/query.php?ec=3.2.1.*" xr:uid="{D2BDDD07-F68E-467A-BFC7-AE925EB0BBBC}"/>
-    <hyperlink ref="A465" r:id="rId771" display="http://www.enzyme-database.org/query.php?ec=3.2.1.1" xr:uid="{80908D42-6E69-4EFA-A9CE-F681B83F3249}"/>
-    <hyperlink ref="A466" r:id="rId772" display="http://www.enzyme-database.org/query.php?ec=3.2.1.2" xr:uid="{16B7E257-F03E-4E58-9061-F0EF4EE7061F}"/>
-    <hyperlink ref="A467" r:id="rId773" display="http://www.enzyme-database.org/query.php?ec=3.2.1.3" xr:uid="{7ABE65E4-1F89-4661-8347-F9C2A8A4843E}"/>
-    <hyperlink ref="A468" r:id="rId774" display="http://www.enzyme-database.org/query.php?ec=3.2.1.4" xr:uid="{49B9DA2D-C7BF-4A4A-8F53-1C48AFA66A4E}"/>
-    <hyperlink ref="A469" r:id="rId775" display="http://www.enzyme-database.org/query.php?ec=3.2.1.6" xr:uid="{0E6E7110-1CED-49C4-AFBA-799D14525987}"/>
-    <hyperlink ref="A470" r:id="rId776" display="http://www.enzyme-database.org/query.php?ec=3.2.1.8" xr:uid="{2DD9972C-95D1-4CB9-A80E-759BA1F86868}"/>
-    <hyperlink ref="A471" r:id="rId777" display="http://www.enzyme-database.org/query.php?ec=3.2.1.11" xr:uid="{2822482C-B138-493B-B8AC-A014526C73CB}"/>
-    <hyperlink ref="A472" r:id="rId778" display="http://www.enzyme-database.org/query.php?ec=3.2.1.14" xr:uid="{8D797C7C-E931-42E7-A3EF-6CADC907F6F2}"/>
-    <hyperlink ref="A473" r:id="rId779" display="http://www.enzyme-database.org/query.php?ec=3.2.1.17" xr:uid="{03EBA11B-5629-49B8-ADFD-452937451718}"/>
-    <hyperlink ref="A474" r:id="rId780" display="http://www.enzyme-database.org/query.php?ec=3.2.1.18" xr:uid="{7C60A3B5-98B5-42D5-B6DB-192FF84FD1CF}"/>
-    <hyperlink ref="A475" r:id="rId781" display="http://www.enzyme-database.org/query.php?ec=3.2.1.20" xr:uid="{2C66E270-B458-4D97-A9CA-2FDE3D4121A4}"/>
-    <hyperlink ref="A476" r:id="rId782" display="http://www.enzyme-database.org/query.php?ec=3.2.1.21" xr:uid="{E8EF7ADE-0754-4168-A559-B8452C8F351B}"/>
-    <hyperlink ref="B476" r:id="rId783" display="http://www.cazy.org/CBM1.html" xr:uid="{61CEDC9B-BA17-43D1-95C2-ABC3A5DFDB73}"/>
-    <hyperlink ref="A477" r:id="rId784" display="http://www.enzyme-database.org/query.php?ec=3.2.1.22" xr:uid="{86F45BBB-2715-484C-853B-CBB2F169C98D}"/>
-    <hyperlink ref="A478" r:id="rId785" display="http://www.enzyme-database.org/query.php?ec=3.2.1.23" xr:uid="{8D9AF3CD-1783-4166-8BF0-A94FEEA25961}"/>
-    <hyperlink ref="A479" r:id="rId786" display="http://www.enzyme-database.org/query.php?ec=3.2.1.26" xr:uid="{2A41B8C9-C5C4-4FEC-A8CB-21DE41812C2D}"/>
-    <hyperlink ref="B479" r:id="rId787" display="http://www.cazy.org/CBM38.html" xr:uid="{8EAE36D2-3C14-42E3-B68B-663591558E4B}"/>
-    <hyperlink ref="A480" r:id="rId788" display="http://www.enzyme-database.org/query.php?ec=3.2.1.31" xr:uid="{4CD4E0AE-6323-4657-A7E5-1BEE5BBF21C3}"/>
-    <hyperlink ref="B480" r:id="rId789" display="http://www.cazy.org/CBM57.html" xr:uid="{C318587E-74C0-4C94-B47C-5ADCEC85E547}"/>
-    <hyperlink ref="A481" r:id="rId790" display="http://www.enzyme-database.org/query.php?ec=3.2.1.32" xr:uid="{709F8B86-75A6-4EFD-AEC9-1124A0906312}"/>
-    <hyperlink ref="A482" r:id="rId791" display="http://www.enzyme-database.org/query.php?ec=3.2.1.33" xr:uid="{EF82897F-7E3F-49BF-BEF2-ADAAD3B29ED9}"/>
-    <hyperlink ref="A483" r:id="rId792" display="http://www.enzyme-database.org/query.php?ec=3.2.1.35" xr:uid="{ADEE678F-0A85-4845-A2D9-35943DAFB0E1}"/>
-    <hyperlink ref="B483" r:id="rId793" display="http://www.cazy.org/CBM32.html" xr:uid="{BCA1C8D2-2817-44F7-A9BB-E3E84C833EFC}"/>
-    <hyperlink ref="A484" r:id="rId794" display="http://www.enzyme-database.org/query.php?ec=3.2.1.37" xr:uid="{03EB0C42-8218-4EE3-8D15-B7E5E7CF6182}"/>
-    <hyperlink ref="A485" r:id="rId795" display="http://www.enzyme-database.org/query.php?ec=3.2.1.39" xr:uid="{3618787D-A700-407B-838C-63613A8542DA}"/>
-    <hyperlink ref="A486" r:id="rId796" display="http://www.enzyme-database.org/query.php?ec=3.2.1.40" xr:uid="{28B2CEA0-F2C8-41D9-BE17-3DA700E475FB}"/>
-    <hyperlink ref="B486" r:id="rId797" display="http://www.cazy.org/CBM67.html" xr:uid="{8D95C4F9-8AE2-4AA7-99F5-49B1010E7E72}"/>
-    <hyperlink ref="A487" r:id="rId798" display="http://www.enzyme-database.org/query.php?ec=3.2.1.41" xr:uid="{41962F69-A598-4C90-B5FD-6CB765663860}"/>
-    <hyperlink ref="A488" r:id="rId799" display="http://www.enzyme-database.org/query.php?ec=3.2.1.49" xr:uid="{1B28506D-AB4E-4FBB-99E2-C6DC19F3A27A}"/>
-    <hyperlink ref="A489" r:id="rId800" display="http://www.enzyme-database.org/query.php?ec=3.2.1.50" xr:uid="{0202A205-8DB6-4E6F-A566-4FD0F0F7D623}"/>
-    <hyperlink ref="B489" r:id="rId801" display="http://www.cazy.org/CBM32.html" xr:uid="{FD035676-0026-44FA-AF03-089B32F7CD29}"/>
-    <hyperlink ref="A490" r:id="rId802" display="http://www.enzyme-database.org/query.php?ec=3.2.1.52" xr:uid="{2A7DA163-0D79-4771-8F0E-0B0643A602D3}"/>
-    <hyperlink ref="B490" r:id="rId803" display="http://www.cazy.org/CBM32.html" xr:uid="{EDCCD98E-6F39-4F75-A85B-16AA8C81DFEC}"/>
-    <hyperlink ref="A491" r:id="rId804" display="http://www.enzyme-database.org/query.php?ec=3.2.1.54" xr:uid="{BC90E494-FE30-4A29-990E-593130BE9950}"/>
-    <hyperlink ref="A492" r:id="rId805" display="http://www.enzyme-database.org/query.php?ec=3.2.1.55" xr:uid="{365155D6-6061-4C98-8D81-25A630D140E4}"/>
-    <hyperlink ref="A493" r:id="rId806" display="http://www.enzyme-database.org/query.php?ec=3.2.1.58" xr:uid="{CBDDDC55-B8B6-45D1-85BB-2D5FCE7B5133}"/>
-    <hyperlink ref="A494" r:id="rId807" display="http://www.enzyme-database.org/query.php?ec=3.2.1.59" xr:uid="{5C9D860F-4DD8-47EB-9548-DA12F18A7489}"/>
-    <hyperlink ref="A495" r:id="rId808" display="http://www.enzyme-database.org/query.php?ec=3.2.1.60" xr:uid="{FC0BE366-ECAC-4F70-B4DD-E9548AF98901}"/>
-    <hyperlink ref="A496" r:id="rId809" display="http://www.enzyme-database.org/query.php?ec=3.2.1.63" xr:uid="{AE6AA34E-10D1-4EC6-A9B6-96DB2A777D6E}"/>
-    <hyperlink ref="B496" r:id="rId810" display="http://www.cazy.org/CBM51.html" xr:uid="{06CF2933-BD43-4402-AA10-A99A901DFEFD}"/>
-    <hyperlink ref="A497" r:id="rId811" display="http://www.enzyme-database.org/query.php?ec=3.2.1.65" xr:uid="{C3D9774E-3CAA-4DD0-9DBB-93417F1B694B}"/>
-    <hyperlink ref="B497" r:id="rId812" display="http://www.cazy.org/CBM66.html" xr:uid="{B8C95657-7428-4FDE-9326-40006135B6AE}"/>
-    <hyperlink ref="A498" r:id="rId813" display="http://www.enzyme-database.org/query.php?ec=3.2.1.68" xr:uid="{7183E2EB-1002-476A-8E0A-B0C76F80B35F}"/>
-    <hyperlink ref="A499" r:id="rId814" display="http://www.enzyme-database.org/query.php?ec=3.2.1.73" xr:uid="{70F55DA4-36F3-49FB-BB5A-1DE0A09C6E91}"/>
-    <hyperlink ref="A500" r:id="rId815" display="http://www.enzyme-database.org/query.php?ec=3.2.1.74" xr:uid="{9236F63F-F04F-4E4D-9137-A2A011A3D4CB}"/>
-    <hyperlink ref="A501" r:id="rId816" display="http://www.enzyme-database.org/query.php?ec=3.2.1.75" xr:uid="{EE947138-032C-448B-ADA3-0B74971AF08D}"/>
-    <hyperlink ref="B501" r:id="rId817" display="http://www.cazy.org/CBM6.html" xr:uid="{DEA4C102-1231-4CC8-BBC3-9C4D26004F8D}"/>
-    <hyperlink ref="A502" r:id="rId818" display="http://www.enzyme-database.org/query.php?ec=3.2.1.78" xr:uid="{F460B2F1-3D15-486E-89F6-61D7D5E22359}"/>
-    <hyperlink ref="A503" r:id="rId819" display="http://www.enzyme-database.org/query.php?ec=3.2.1.80" xr:uid="{ED507CA3-54CD-441E-997B-9D67D0670FD4}"/>
-    <hyperlink ref="A504" r:id="rId820" display="http://www.enzyme-database.org/query.php?ec=3.2.1.81" xr:uid="{AD00E7E5-5BCF-472D-8F25-92CFC27BFD19}"/>
-    <hyperlink ref="A505" r:id="rId821" display="http://www.enzyme-database.org/query.php?ec=3.2.1.83" xr:uid="{F38BEABB-5D98-46FE-84DF-269B461E66DF}"/>
-    <hyperlink ref="B505" r:id="rId822" display="http://www.cazy.org/CBM16.html" xr:uid="{72C35D89-7290-4170-8E49-E549F7427E66}"/>
-    <hyperlink ref="A506" r:id="rId823" display="http://www.enzyme-database.org/query.php?ec=3.2.1.88" xr:uid="{6B24C995-040D-4A19-A9DE-14D5B1433134}"/>
-    <hyperlink ref="A507" r:id="rId824" display="http://www.enzyme-database.org/query.php?ec=3.2.1.89" xr:uid="{B72F29EF-4A3D-4636-B4F1-0636CFC26201}"/>
-    <hyperlink ref="B507" r:id="rId825" display="http://www.cazy.org/CBM61.html" xr:uid="{125270D1-D863-442B-876C-3138B40E737D}"/>
-    <hyperlink ref="A508" r:id="rId826" display="http://www.enzyme-database.org/query.php?ec=3.2.1.91" xr:uid="{40090463-20EF-4AD3-A341-A56F9E1FB5CB}"/>
-    <hyperlink ref="A509" r:id="rId827" display="http://www.enzyme-database.org/query.php?ec=3.2.1.94" xr:uid="{24147497-5BBB-486D-BCFD-44E9001C9AC5}"/>
-    <hyperlink ref="B509" r:id="rId828" display="http://www.cazy.org/CBM35.html" xr:uid="{AE89FA2A-52BB-478A-9CAD-FC380FE0BB88}"/>
-    <hyperlink ref="A510" r:id="rId829" display="http://www.enzyme-database.org/query.php?ec=3.2.1.96" xr:uid="{5EBF0FEF-CCF3-43F5-8821-BA940B85F4DE}"/>
-    <hyperlink ref="A511" r:id="rId830" display="http://www.enzyme-database.org/query.php?ec=3.2.1.97" xr:uid="{F7E8AE82-6BEB-4B6A-BADD-411070F316F1}"/>
-    <hyperlink ref="A512" r:id="rId831" display="http://www.enzyme-database.org/query.php?ec=3.2.1.98" xr:uid="{67AC58E7-FA4B-4286-94BD-F66F4993F86D}"/>
-    <hyperlink ref="A513" r:id="rId832" display="http://www.enzyme-database.org/query.php?ec=3.2.1.99" xr:uid="{4EA6906F-D13B-4365-A8B6-8185DEDC414C}"/>
-    <hyperlink ref="A514" r:id="rId833" display="http://www.enzyme-database.org/query.php?ec=3.2.1.101" xr:uid="{42F0A71F-C76E-43AB-A3EC-CBA8E7E52C49}"/>
-    <hyperlink ref="B514" r:id="rId834" display="http://www.cazy.org/CBM6.html" xr:uid="{3C32308F-CA79-4F31-9B63-193CB2B446F7}"/>
-    <hyperlink ref="A515" r:id="rId835" display="http://www.enzyme-database.org/query.php?ec=3.2.1.102" xr:uid="{261691FE-C994-4111-98E2-6028193EF1A0}"/>
-    <hyperlink ref="A516" r:id="rId836" display="http://www.enzyme-database.org/query.php?ec=3.2.1.103" xr:uid="{E2DC75F1-B6A7-4CA6-9E25-7A29192FBDFF}"/>
-    <hyperlink ref="B516" r:id="rId837" display="http://www.cazy.org/CBM16.html" xr:uid="{DA6994EF-2198-4C23-9FB1-79DE966CB652}"/>
-    <hyperlink ref="A517" r:id="rId838" display="http://www.enzyme-database.org/query.php?ec=3.2.1.113" xr:uid="{5768C37A-A12D-45CB-ABEB-E31443A818D3}"/>
-    <hyperlink ref="B517" r:id="rId839" display="http://www.cazy.org/CBM32.html" xr:uid="{221034A2-771A-48FD-9E85-9FC1F4ED5B55}"/>
-    <hyperlink ref="A518" r:id="rId840" display="http://www.enzyme-database.org/query.php?ec=3.2.1.116" xr:uid="{C924DF09-D3C0-4ECF-A4A3-6984C667D057}"/>
-    <hyperlink ref="B518" r:id="rId841" display="http://www.cazy.org/CBM20.html" xr:uid="{DC2D6068-EA93-42A4-A911-1885FC0944DA}"/>
-    <hyperlink ref="A519" r:id="rId842" display="http://www.enzyme-database.org/query.php?ec=3.2.1.120" xr:uid="{7251CDB3-D81C-4851-90C0-1D2643EB03A2}"/>
-    <hyperlink ref="B519" r:id="rId843" display="http://www.cazy.org/CBM6.html" xr:uid="{1713C50B-D042-4E29-A0E1-73DB936F32AA}"/>
-    <hyperlink ref="A520" r:id="rId844" display="http://www.enzyme-database.org/query.php?ec=3.2.1.132" xr:uid="{DEAD326A-4ED5-4D26-8830-9DC62D10476E}"/>
-    <hyperlink ref="A521" r:id="rId845" display="http://www.enzyme-database.org/query.php?ec=3.2.1.133" xr:uid="{6FE7D578-62E9-46A8-ADD9-697E73AE2373}"/>
-    <hyperlink ref="A522" r:id="rId846" display="http://www.enzyme-database.org/query.php?ec=3.2.1.135" xr:uid="{F81C9C54-CFC1-410F-9F17-38DB9E870777}"/>
-    <hyperlink ref="A523" r:id="rId847" display="http://www.enzyme-database.org/query.php?ec=3.2.1.136" xr:uid="{77313FF1-DDF9-4B5B-AF7C-95EB4AAC65C8}"/>
-    <hyperlink ref="B523" r:id="rId848" display="http://www.cazy.org/CBM35.html" xr:uid="{9B30CF79-8215-4E69-BC08-0A987097D21A}"/>
-    <hyperlink ref="A524" r:id="rId849" display="http://www.enzyme-database.org/query.php?ec=3.2.1.140" xr:uid="{ED50EA32-ED96-40F1-B98A-AB31477F8777}"/>
-    <hyperlink ref="B524" r:id="rId850" display="http://www.cazy.org/CBM32.html" xr:uid="{3EA275AC-ACE2-4B44-AAB0-C6A0129AB836}"/>
-    <hyperlink ref="A525" r:id="rId851" display="http://www.enzyme-database.org/query.php?ec=3.2.1.141" xr:uid="{B2C3267E-2DB4-4FF5-8BB8-8A80166FA87C}"/>
-    <hyperlink ref="B525" r:id="rId852" display="http://www.cazy.org/CBM48.html" xr:uid="{3CCDA8BA-CC4F-4D98-BD63-616B8458146C}"/>
-    <hyperlink ref="A526" r:id="rId853" display="http://www.enzyme-database.org/query.php?ec=3.2.1.145" xr:uid="{0287D86A-ACE8-4ECD-B472-41807AC7DC90}"/>
-    <hyperlink ref="A527" r:id="rId854" display="http://www.enzyme-database.org/query.php?ec=3.2.1.146" xr:uid="{5CF9AA1C-92FE-4973-8FA3-37BB10CBCDCD}"/>
-    <hyperlink ref="A528" r:id="rId855" display="http://www.enzyme-database.org/query.php?ec=3.2.1.151" xr:uid="{F0125379-C2B6-43B6-BA84-5F4B1CB8E9A1}"/>
-    <hyperlink ref="A529" r:id="rId856" display="http://www.enzyme-database.org/query.php?ec=3.2.1.158" xr:uid="{10B07716-CECA-441C-B9F8-614D076694B7}"/>
-    <hyperlink ref="B529" r:id="rId857" display="http://www.cazy.org/CBM6.html" xr:uid="{E5D421D8-8878-4FD1-B0F0-951682BC1EC4}"/>
-    <hyperlink ref="A530" r:id="rId858" display="http://www.enzyme-database.org/query.php?ec=3.2.1.165" xr:uid="{79EDF645-0547-4A53-9B92-29918BD8FE21}"/>
-    <hyperlink ref="B530" r:id="rId859" display="http://www.cazy.org/CBM35.html" xr:uid="{FC674227-7643-4578-8191-52546DC5A05E}"/>
-    <hyperlink ref="A531" r:id="rId860" display="http://www.enzyme-database.org/query.php?ec=3.2.1.169" xr:uid="{16A09198-AD22-4BD0-8811-F7087BB205C5}"/>
-    <hyperlink ref="B531" r:id="rId861" display="http://www.cazy.org/CBM32.html" xr:uid="{CCD41928-9C69-45FD-9E35-E3F47F1AF03B}"/>
-    <hyperlink ref="A532" r:id="rId862" display="http://www.enzyme-database.org/query.php?ec=3.2.1.176" xr:uid="{B2A8F872-4AC8-4998-9A0F-347C37791C0B}"/>
-    <hyperlink ref="A533" r:id="rId863" display="http://www.enzyme-database.org/query.php?ec=3.2.1.178" xr:uid="{77CA21EC-427D-4BA0-A9ED-3D2BFEBA2CD3}"/>
-    <hyperlink ref="B533" r:id="rId864" display="http://www.cazy.org/CBM13.html" xr:uid="{2C17C8D1-2F57-4FAF-895C-9EBE1BF26EAA}"/>
-    <hyperlink ref="A534" r:id="rId865" display="http://www.enzyme-database.org/query.php?ec=3.2.1.185" xr:uid="{5DA7220D-CF98-410E-B06A-FC90B08A3145}"/>
-    <hyperlink ref="B534" r:id="rId866" display="http://www.cazy.org/CBM57.html" xr:uid="{41CE8A12-09D8-48E9-8230-A3334364A669}"/>
-    <hyperlink ref="A535" r:id="rId867" display="http://www.enzyme-database.org/query.php?ec=4.2.2.*" xr:uid="{A4F16054-5CD3-44A9-8BBA-7715B6376EAB}"/>
-    <hyperlink ref="A536" r:id="rId868" display="http://www.enzyme-database.org/query.php?ec=4.2.2.n1" xr:uid="{6BED835D-3691-4E17-A1E0-AF22EA3BE91D}"/>
-    <hyperlink ref="B536" r:id="rId869" display="http://www.cazy.org/CBM50.html" xr:uid="{C11F4E23-C246-47D7-BB7E-3BBF04FF4DC5}"/>
-    <hyperlink ref="A537" r:id="rId870" display="http://www.enzyme-database.org/query.php?ec=4.2.2.1" xr:uid="{6EEA796F-78FA-4714-A0E4-4E476D22AC4B}"/>
-    <hyperlink ref="B537" r:id="rId871" display="http://www.cazy.org/CBM70.html" xr:uid="{AD4173BF-2ABB-4144-93BD-15956AD8CA06}"/>
-    <hyperlink ref="A538" r:id="rId872" display="http://www.enzyme-database.org/query.php?ec=4.2.2.2" xr:uid="{F77A878C-39BE-4CBD-B69F-91F9918738A7}"/>
-    <hyperlink ref="A539" r:id="rId873" display="http://www.enzyme-database.org/query.php?ec=4.2.2.3" xr:uid="{90D14C5D-5F47-4C90-AD8A-131F54DAE842}"/>
-    <hyperlink ref="A540" r:id="rId874" display="http://www.enzyme-database.org/query.php?ec=4.2.2.10" xr:uid="{6AE6842E-D090-434C-86DE-AF09117A89F0}"/>
-    <hyperlink ref="B540" r:id="rId875" display="http://www.cazy.org/CBM1.html" xr:uid="{547408AA-6CA9-4CF6-92DF-A979CB3C4BBD}"/>
-    <hyperlink ref="A541" r:id="rId876" display="http://www.enzyme-database.org/query.php?ec=4.2.2.11" xr:uid="{6E05C6D4-314D-48D6-AF6F-D9202E1B7A73}"/>
-    <hyperlink ref="A542" r:id="rId877" display="http://www.enzyme-database.org/query.php?ec=4.2.2.12" xr:uid="{D0E395D8-CECE-4944-8FCF-61EEA05B1B4E}"/>
-    <hyperlink ref="B542" r:id="rId878" display="http://www.cazy.org/CBM84.html" xr:uid="{97433556-9CE5-43A8-BC99-297B73EC8F30}"/>
-    <hyperlink ref="A543" r:id="rId879" display="http://www.enzyme-database.org/query.php?ec=4.2.2.15" xr:uid="{1AFB821A-8E9A-4EFF-B27F-4FDC0C9D1BC0}"/>
-    <hyperlink ref="B543" r:id="rId880" display="http://www.cazy.org/CBM40.html" xr:uid="{A835D4DA-9B4F-4114-A900-30322C031A13}"/>
-    <hyperlink ref="A544" r:id="rId881" display="http://www.enzyme-database.org/query.php?ec=4.2.2.23" xr:uid="{04BAD822-84BD-498E-A129-4E303357054C}"/>
-    <hyperlink ref="B544" r:id="rId882" display="http://www.cazy.org/CBM2.html" xr:uid="{F4E7BCD8-236E-4F28-B93B-17DDE15ECE93}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.enzyme-database.org/query.php?ec=1.14.99.53" xr:uid="{79BE4573-CE80-458B-9E74-D24138790E95}"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://www.cazy.org/GH18.html" xr:uid="{B1908F6A-74B4-41F9-80AA-52CCAB5479DB}"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://www.enzyme-database.org/query.php?ec=2.4.1.*" xr:uid="{1E0BF863-F813-4BF3-8CD5-3EF8021A6E22}"/>
+    <hyperlink ref="A4" r:id="rId4" display="http://www.enzyme-database.org/query.php?ec=2.4.1.2" xr:uid="{971E1744-B174-4315-935D-B58F3F5F7443}"/>
+    <hyperlink ref="B4" r:id="rId5" display="http://www.cazy.org/GH15.html" xr:uid="{49A4A60B-36C3-4D24-936F-7B6815B9DC96}"/>
+    <hyperlink ref="A5" r:id="rId6" display="http://www.enzyme-database.org/query.php?ec=2.4.1.4" xr:uid="{858C0871-A7F5-4ACB-B531-E87E43608AB8}"/>
+    <hyperlink ref="B5" r:id="rId7" display="http://www.cazy.org/GH13.html" xr:uid="{857B169D-C60F-42F8-9A09-B271AFEA76B6}"/>
+    <hyperlink ref="A6" r:id="rId8" display="http://www.enzyme-database.org/query.php?ec=2.4.1.5" xr:uid="{F67C54EF-D070-464D-A120-7367237CFB45}"/>
+    <hyperlink ref="B6" r:id="rId9" display="http://www.cazy.org/GH70.html" xr:uid="{BFE7AF43-9873-400F-8C77-2E226E4CFC12}"/>
+    <hyperlink ref="A7" r:id="rId10" display="http://www.enzyme-database.org/query.php?ec=2.4.1.7" xr:uid="{36954E1F-F007-4F4A-A7AC-6A288BA7C091}"/>
+    <hyperlink ref="B7" r:id="rId11" display="http://www.cazy.org/GH13.html" xr:uid="{0E9F1EB0-B70A-45A0-9385-7BDCD0103800}"/>
+    <hyperlink ref="A8" r:id="rId12" display="http://www.enzyme-database.org/query.php?ec=2.4.1.8" xr:uid="{02B696FA-1283-4476-A03C-2B3B1AB5B5F7}"/>
+    <hyperlink ref="B8" r:id="rId13" display="http://www.cazy.org/GH65.html" xr:uid="{730B6238-95CF-4EBD-8014-286DAF1DBCA7}"/>
+    <hyperlink ref="A9" r:id="rId14" display="http://www.enzyme-database.org/query.php?ec=2.4.1.9" xr:uid="{E91AD565-EAEF-40A2-A552-A6B6F68C3BB7}"/>
+    <hyperlink ref="B9" r:id="rId15" display="http://www.cazy.org/GH68.html" xr:uid="{DF09DA8E-88AC-4F5B-AF9F-5BCD38F8B681}"/>
+    <hyperlink ref="A10" r:id="rId16" display="http://www.enzyme-database.org/query.php?ec=2.4.1.10" xr:uid="{8B79DBB4-E6EE-4AD9-B4AF-6B53E65041EC}"/>
+    <hyperlink ref="A11" r:id="rId17" display="http://www.enzyme-database.org/query.php?ec=2.4.1.12" xr:uid="{B37916A6-A123-43B9-BD9C-95E4CFB3C622}"/>
+    <hyperlink ref="B11" r:id="rId18" display="http://www.cazy.org/GH6.html" xr:uid="{24C468C8-8A24-48C5-BC31-E5152A21A57B}"/>
+    <hyperlink ref="A12" r:id="rId19" display="http://www.enzyme-database.org/query.php?ec=2.4.1.18" xr:uid="{58313A5D-ECE1-4CBA-AD70-6BE16AFD619D}"/>
+    <hyperlink ref="A13" r:id="rId20" display="http://www.enzyme-database.org/query.php?ec=2.4.1.19" xr:uid="{2F1F0BB5-1F7F-435D-BA96-832541C17CF9}"/>
+    <hyperlink ref="B13" r:id="rId21" display="http://www.cazy.org/GH13.html" xr:uid="{DB8B771B-14DF-41EE-9BDF-7E8C331B89B9}"/>
+    <hyperlink ref="A14" r:id="rId22" display="http://www.enzyme-database.org/query.php?ec=2.4.1.20" xr:uid="{2E8B18CA-AAF5-4A5D-9991-461D8D8220B5}"/>
+    <hyperlink ref="B14" r:id="rId23" display="http://www.cazy.org/GH94.html" xr:uid="{9CE2F5D2-AA84-48FA-864D-CDA935D4D71F}"/>
+    <hyperlink ref="A15" r:id="rId24" display="http://www.enzyme-database.org/query.php?ec=2.4.1.25" xr:uid="{1F4DC544-9C09-4D30-819F-69C7CCAB23AC}"/>
+    <hyperlink ref="A16" r:id="rId25" display="http://www.enzyme-database.org/query.php?ec=2.4.1.30" xr:uid="{27CB8A4D-C9BB-4882-9A4F-3EFFF3443E7C}"/>
+    <hyperlink ref="B16" r:id="rId26" display="http://www.cazy.org/GH149.html" xr:uid="{A5219F0C-8E15-4F04-ABE7-BF4DFAB7223C}"/>
+    <hyperlink ref="A17" r:id="rId27" display="http://www.enzyme-database.org/query.php?ec=2.4.1.31" xr:uid="{19C140DF-C3C3-404A-9383-0D6507EA07E5}"/>
+    <hyperlink ref="B17" r:id="rId28" display="http://www.cazy.org/GH94.html" xr:uid="{EB6B9072-A4B7-442F-BB2E-768BB8D57A61}"/>
+    <hyperlink ref="A18" r:id="rId29" display="http://www.enzyme-database.org/query.php?ec=2.4.1.49" xr:uid="{B49E7A47-CCA8-4588-A294-F30497A05F78}"/>
+    <hyperlink ref="B18" r:id="rId30" display="http://www.cazy.org/GH94.html" xr:uid="{B5015399-3343-4D87-9FEA-214C1189DB83}"/>
+    <hyperlink ref="A19" r:id="rId31" display="http://www.enzyme-database.org/query.php?ec=2.4.1.64" xr:uid="{542C27BA-CEA0-4BF2-8497-D1F485D272F5}"/>
+    <hyperlink ref="B19" r:id="rId32" display="http://www.cazy.org/GH65.html" xr:uid="{AEE1C1AB-CF67-4740-B8CA-73ADE7C8FB90}"/>
+    <hyperlink ref="A20" r:id="rId33" display="http://www.enzyme-database.org/query.php?ec=2.4.1.67" xr:uid="{3581AEAD-AF26-4080-89BF-E222C1CFD60C}"/>
+    <hyperlink ref="B20" r:id="rId34" display="http://www.cazy.org/GH36.html" xr:uid="{A9D83BB4-8454-4B1C-B8C5-83D97E2EDC5A}"/>
+    <hyperlink ref="A21" r:id="rId35" display="http://www.enzyme-database.org/query.php?ec=2.4.1.82" xr:uid="{A64C1AE1-8519-4630-91D5-75D3863DCFE2}"/>
+    <hyperlink ref="B21" r:id="rId36" display="http://www.cazy.org/GH36.html" xr:uid="{5A1DB228-5D17-4BF2-9D5D-C0AE47507AE6}"/>
+    <hyperlink ref="A22" r:id="rId37" display="http://www.enzyme-database.org/query.php?ec=2.4.1.97" xr:uid="{5B1340D6-6439-402C-B739-CD4B09364C34}"/>
+    <hyperlink ref="A23" r:id="rId38" display="http://www.enzyme-database.org/query.php?ec=2.4.1.99" xr:uid="{6715C783-2507-4CA3-BD9F-9AF7B03CA6D8}"/>
+    <hyperlink ref="B23" r:id="rId39" display="http://www.cazy.org/GH32.html" xr:uid="{FD54D9AD-6A73-4003-A85B-AA2699B5E6D2}"/>
+    <hyperlink ref="A24" r:id="rId40" display="http://www.enzyme-database.org/query.php?ec=2.4.1.100" xr:uid="{4C37B11A-BDC0-428F-A7F6-0B5372B0D349}"/>
+    <hyperlink ref="B24" r:id="rId41" display="http://www.cazy.org/GH32.html" xr:uid="{A71C85EA-50AA-482D-BC3D-9405A80BFC32}"/>
+    <hyperlink ref="A25" r:id="rId42" display="http://www.enzyme-database.org/query.php?ec=2.4.1.140" xr:uid="{4E76D27E-ECD8-40F7-9B32-5EE6E535EC38}"/>
+    <hyperlink ref="B25" r:id="rId43" display="http://www.cazy.org/GH70.html" xr:uid="{FD9D455F-A957-4742-8C9E-7E950E8A2568}"/>
+    <hyperlink ref="A26" r:id="rId44" display="http://www.enzyme-database.org/query.php?ec=2.4.1.161" xr:uid="{7E37906D-1559-44EC-AB4F-E6BF47E6F401}"/>
+    <hyperlink ref="B26" r:id="rId45" display="http://www.cazy.org/GH31.html" xr:uid="{E52DA811-EDE4-4D4A-A910-63E87F9B3C59}"/>
+    <hyperlink ref="A27" r:id="rId46" display="http://www.enzyme-database.org/query.php?ec=2.4.1.183" xr:uid="{8A7DFECF-F9BB-4E62-8EDF-EFC1C6A11A56}"/>
+    <hyperlink ref="B27" r:id="rId47" display="http://www.cazy.org/GH13.html" xr:uid="{BC0AABEC-2641-4741-BD2A-6DA418DFD686}"/>
+    <hyperlink ref="A28" r:id="rId48" display="http://www.enzyme-database.org/query.php?ec=2.4.1.207" xr:uid="{7FEDB3A1-89B0-4EE0-81E0-544A51F7E555}"/>
+    <hyperlink ref="A29" r:id="rId49" display="http://www.enzyme-database.org/query.php?ec=2.4.1.211" xr:uid="{8DEF80A7-1ECE-4012-B0E5-D25212A0B5BC}"/>
+    <hyperlink ref="B29" r:id="rId50" display="http://www.cazy.org/GH112.html" xr:uid="{7B4A5C8A-DE5C-4A43-BFB7-863A78A30B59}"/>
+    <hyperlink ref="A30" r:id="rId51" display="http://www.enzyme-database.org/query.php?ec=2.4.1.216" xr:uid="{CADAC9F5-FBAE-48B2-BCE4-18E6BBD8B57F}"/>
+    <hyperlink ref="B30" r:id="rId52" display="http://www.cazy.org/GH65.html" xr:uid="{E478464F-3EC3-4266-9268-A7A619D6F483}"/>
+    <hyperlink ref="A31" r:id="rId53" display="http://www.enzyme-database.org/query.php?ec=2.4.1.230" xr:uid="{1BC5CB18-A3AF-45A2-991D-50F6DFBEEC40}"/>
+    <hyperlink ref="B31" r:id="rId54" display="http://www.cazy.org/GH65.html" xr:uid="{1FACED40-1C62-45CE-BEF9-08F218E709E2}"/>
+    <hyperlink ref="A32" r:id="rId55" display="http://www.enzyme-database.org/query.php?ec=2.4.1.243" xr:uid="{F3F2F0DF-7735-409F-A08C-0C7C2A42555A}"/>
+    <hyperlink ref="B32" r:id="rId56" display="http://www.cazy.org/GH32.html" xr:uid="{84FDD4B7-97EC-49B9-95DD-37E8987322C6}"/>
+    <hyperlink ref="A33" r:id="rId57" display="http://www.enzyme-database.org/query.php?ec=2.4.1.247" xr:uid="{27DFCF45-8874-47FF-A2CC-AD90770E8387}"/>
+    <hyperlink ref="B33" r:id="rId58" display="http://www.cazy.org/GH112.html" xr:uid="{DB89BB3B-E8AA-4B50-A812-0D4F6B961651}"/>
+    <hyperlink ref="A34" r:id="rId59" display="http://www.enzyme-database.org/query.php?ec=2.4.1.248" xr:uid="{DB945989-1712-4693-84B5-494F62EE5792}"/>
+    <hyperlink ref="B34" r:id="rId60" display="http://www.cazy.org/GH66.html" xr:uid="{DFA5CF57-68CA-446B-8CE0-400F8FCA4DCB}"/>
+    <hyperlink ref="A35" r:id="rId61" display="http://www.enzyme-database.org/query.php?ec=2.4.1.279" xr:uid="{0AF5A723-B713-4889-86D4-A9BC2C188C6C}"/>
+    <hyperlink ref="B35" r:id="rId62" display="http://www.cazy.org/GH65.html" xr:uid="{C745EB50-8F5E-4F4A-BCF3-88B419E8576E}"/>
+    <hyperlink ref="A36" r:id="rId63" display="http://www.enzyme-database.org/query.php?ec=2.4.1.281" xr:uid="{DF811EEC-AB78-4B08-B995-0B2E8547AC9D}"/>
+    <hyperlink ref="B36" r:id="rId64" display="http://www.cazy.org/GH130.html" xr:uid="{D52EC780-3340-4CF0-AA5D-506FECDDD066}"/>
+    <hyperlink ref="A37" r:id="rId65" display="http://www.enzyme-database.org/query.php?ec=2.4.1.282" xr:uid="{FF67D4ED-F119-41FB-B937-B2EF0AED1933}"/>
+    <hyperlink ref="B37" r:id="rId66" display="http://www.cazy.org/GH65.html" xr:uid="{12E072DB-C301-4D5D-B47C-5ED03B1A9BD5}"/>
+    <hyperlink ref="A38" r:id="rId67" display="http://www.enzyme-database.org/query.php?ec=2.4.1.319" xr:uid="{A04E0BAC-F1FB-4C15-9B59-66D4643B1554}"/>
+    <hyperlink ref="B38" r:id="rId68" display="http://www.cazy.org/GH130.html" xr:uid="{DE76E1E7-EEF5-4307-9CF7-9DC725CD904A}"/>
+    <hyperlink ref="A39" r:id="rId69" display="http://www.enzyme-database.org/query.php?ec=2.4.1.320" xr:uid="{7F0FE9B5-98CA-4690-BAD9-EDA0C6429A1D}"/>
+    <hyperlink ref="B39" r:id="rId70" display="http://www.cazy.org/GH130.html" xr:uid="{ABBB575E-6B1F-4F45-A6AA-917B57C8A631}"/>
+    <hyperlink ref="A40" r:id="rId71" display="http://www.enzyme-database.org/query.php?ec=2.4.1.321" xr:uid="{B2A9DC27-45AF-4D92-945E-55B0EAA71903}"/>
+    <hyperlink ref="B40" r:id="rId72" display="http://www.cazy.org/GH94.html" xr:uid="{F07736E7-247D-4E8E-BC64-E2C238FB5793}"/>
+    <hyperlink ref="A41" r:id="rId73" display="http://www.enzyme-database.org/query.php?ec=2.4.1.329" xr:uid="{CD6A8ACE-AD01-41E8-8C17-2991968CBD5F}"/>
+    <hyperlink ref="B41" r:id="rId74" display="http://www.cazy.org/GH13.html" xr:uid="{D1FD6503-903A-42ED-BEA1-75E37DA6A889}"/>
+    <hyperlink ref="A42" r:id="rId75" display="http://www.enzyme-database.org/query.php?ec=2.4.1.333" xr:uid="{CD6DB272-4C04-4750-AB72-898CAFB08212}"/>
+    <hyperlink ref="A43" r:id="rId76" display="http://www.enzyme-database.org/query.php?ec=2.4.1.339" xr:uid="{8A9C63C1-7534-4D8E-A113-326D8168BAB9}"/>
+    <hyperlink ref="B43" r:id="rId77" display="http://www.cazy.org/GH130.html" xr:uid="{A7C825D1-61A0-46F8-87A4-8F027617C1CF}"/>
+    <hyperlink ref="A44" r:id="rId78" display="http://www.enzyme-database.org/query.php?ec=2.4.1.340" xr:uid="{195D8890-5931-47AF-8148-0C22707BB3B6}"/>
+    <hyperlink ref="B44" r:id="rId79" display="http://www.cazy.org/GH130.html" xr:uid="{07E1A9A4-8330-41C2-AD8B-2094531CBB7A}"/>
+    <hyperlink ref="A45" r:id="rId80" display="http://www.enzyme-database.org/query.php?ec=2.4.1.352" xr:uid="{459FD277-6037-41A3-9E37-3F5CC8FE8F25}"/>
+    <hyperlink ref="B45" r:id="rId81" display="http://www.cazy.org/GH13.html" xr:uid="{0EE7CD35-DECD-4BBC-8E21-1E1BE45F87C4}"/>
+    <hyperlink ref="A46" r:id="rId82" display="http://www.enzyme-database.org/query.php?ec=2.4.1.359" xr:uid="{63508567-AE71-4A79-A1B4-BD322815FCB1}"/>
+    <hyperlink ref="B46" r:id="rId83" display="http://www.cazy.org/GH13.html" xr:uid="{FBC08B26-8F76-49C9-B47B-798B3CFDFBC0}"/>
+    <hyperlink ref="A47" r:id="rId84" display="http://www.enzyme-database.org/query.php?ec=2.4.2.*" xr:uid="{A2DAD15E-084F-48C6-B276-02F6E1AA6C11}"/>
+    <hyperlink ref="B47" r:id="rId85" display="http://www.cazy.org/GH10.html" xr:uid="{5A37F0C4-B8F5-44D8-BCAC-FA57F51A5B53}"/>
+    <hyperlink ref="A48" r:id="rId86" display="http://www.enzyme-database.org/query.php?ec=2.4.99.16" xr:uid="{C55BD2AA-0F43-4861-A650-D08CC28A55D7}"/>
+    <hyperlink ref="B48" r:id="rId87" display="http://www.cazy.org/GH13.html" xr:uid="{5FD37B45-B982-4FE4-BD71-F973DE54C086}"/>
+    <hyperlink ref="A49" r:id="rId88" display="http://www.enzyme-database.org/query.php?ec=3.1.1.*" xr:uid="{9057678E-E986-4404-82F3-2C24909F04FA}"/>
+    <hyperlink ref="A50" r:id="rId89" display="http://www.enzyme-database.org/query.php?ec=3.1.1.72" xr:uid="{EBFF3F45-1BEA-4387-8983-204C947AE1CC}"/>
+    <hyperlink ref="A51" r:id="rId90" display="http://www.enzyme-database.org/query.php?ec=3.1.1.73" xr:uid="{6EB56600-1D24-427B-B07C-F43345F8D384}"/>
+    <hyperlink ref="A52" r:id="rId91" display="http://www.enzyme-database.org/query.php?ec=3.2.1.*" xr:uid="{A6AFB9CD-9A98-47F2-A666-EF93B04CE51C}"/>
+    <hyperlink ref="A53" r:id="rId92" display="http://www.enzyme-database.org/query.php?ec=3.2.1.1" xr:uid="{199FA03E-EB8F-4605-AA44-B095579B23F9}"/>
+    <hyperlink ref="A54" r:id="rId93" display="http://www.enzyme-database.org/query.php?ec=3.2.1.2" xr:uid="{5A430A31-FF97-43D3-82E4-3972869FD892}"/>
+    <hyperlink ref="A55" r:id="rId94" display="http://www.enzyme-database.org/query.php?ec=3.2.1.3" xr:uid="{727CB659-1CFC-4322-A7A4-BC90729A9B0B}"/>
+    <hyperlink ref="A56" r:id="rId95" display="http://www.enzyme-database.org/query.php?ec=3.2.1.4" xr:uid="{07D3FD74-1D67-4A32-ACD1-A28F919A7ED5}"/>
+    <hyperlink ref="A57" r:id="rId96" display="http://www.enzyme-database.org/query.php?ec=3.2.1.6" xr:uid="{50BBDE1A-C8E9-432D-AB3B-2C3DFB38729B}"/>
+    <hyperlink ref="A58" r:id="rId97" display="http://www.enzyme-database.org/query.php?ec=3.2.1.7" xr:uid="{DE8C5E3D-9484-444D-A029-02FDF599C7F4}"/>
+    <hyperlink ref="B58" r:id="rId98" display="http://www.cazy.org/GH32.html" xr:uid="{32A4B799-D52F-431E-BCC8-AF41C90E4E33}"/>
+    <hyperlink ref="A59" r:id="rId99" display="http://www.enzyme-database.org/query.php?ec=3.2.1.8" xr:uid="{6A922F5C-32DA-4404-9940-8F77BD426B5C}"/>
+    <hyperlink ref="A60" r:id="rId100" display="http://www.enzyme-database.org/query.php?ec=3.2.1.10" xr:uid="{607F6BB3-1317-4BF8-A838-139D36B6E741}"/>
+    <hyperlink ref="A61" r:id="rId101" display="http://www.enzyme-database.org/query.php?ec=3.2.1.11" xr:uid="{8320D856-4D85-4367-B221-17E3A90F5EF8}"/>
+    <hyperlink ref="A62" r:id="rId102" display="http://www.enzyme-database.org/query.php?ec=3.2.1.14" xr:uid="{DDE9552A-A242-4885-850A-52C0153576E5}"/>
+    <hyperlink ref="A63" r:id="rId103" display="http://www.enzyme-database.org/query.php?ec=3.2.1.15" xr:uid="{727782BD-1900-4AC9-83D1-486C5141726E}"/>
+    <hyperlink ref="B63" r:id="rId104" display="http://www.cazy.org/GH28.html" xr:uid="{8095F908-F2E9-41B6-BFAA-BB21B96DBEB0}"/>
+    <hyperlink ref="A64" r:id="rId105" display="http://www.enzyme-database.org/query.php?ec=3.2.1.17" xr:uid="{51363F3F-97C3-4B6E-B1F2-BEABFCFA1D8A}"/>
+    <hyperlink ref="A65" r:id="rId106" display="http://www.enzyme-database.org/query.php?ec=3.2.1.18" xr:uid="{C1BD03CD-B8A2-4B68-8AB1-D9F4144545F1}"/>
+    <hyperlink ref="A66" r:id="rId107" display="http://www.enzyme-database.org/query.php?ec=3.2.1.20" xr:uid="{E38B201F-3AFA-476A-B4B7-DE2176FFDF65}"/>
+    <hyperlink ref="A67" r:id="rId108" display="http://www.enzyme-database.org/query.php?ec=3.2.1.21" xr:uid="{8E0A9210-C8CC-45C6-9D26-94566A14BDB9}"/>
+    <hyperlink ref="A68" r:id="rId109" display="http://www.enzyme-database.org/query.php?ec=3.2.1.22" xr:uid="{85A8E04C-83BE-4B56-9478-B3CA955A52F4}"/>
+    <hyperlink ref="A69" r:id="rId110" display="http://www.enzyme-database.org/query.php?ec=3.2.1.23" xr:uid="{6585FC08-EAC5-423B-8A79-93E479A2BA75}"/>
+    <hyperlink ref="A70" r:id="rId111" display="http://www.enzyme-database.org/query.php?ec=3.2.1.24" xr:uid="{DF282013-0806-4741-936D-349F0F9716E4}"/>
+    <hyperlink ref="A71" r:id="rId112" display="http://www.enzyme-database.org/query.php?ec=3.2.1.25" xr:uid="{9CD5CE6B-F277-42E4-AE0B-A79F5ED62EEA}"/>
+    <hyperlink ref="A72" r:id="rId113" display="http://www.enzyme-database.org/query.php?ec=3.2.1.26" xr:uid="{FB5F3C47-DB20-422B-BAD2-878380EC1B6E}"/>
+    <hyperlink ref="A73" r:id="rId114" display="http://www.enzyme-database.org/query.php?ec=3.2.1.28" xr:uid="{15B7B2ED-D539-4A1B-83E6-FA3DCA942A3E}"/>
+    <hyperlink ref="A74" r:id="rId115" display="http://www.enzyme-database.org/query.php?ec=3.2.1.31" xr:uid="{C8D7B076-EC88-44B7-BB77-4494026E3314}"/>
+    <hyperlink ref="A75" r:id="rId116" display="http://www.enzyme-database.org/query.php?ec=3.2.1.32" xr:uid="{D149CEA5-1E06-4955-9D56-874134261EA6}"/>
+    <hyperlink ref="A76" r:id="rId117" display="http://www.enzyme-database.org/query.php?ec=3.2.1.33" xr:uid="{4E0575E7-F770-4EB5-9C47-EE6AEAFA90E1}"/>
+    <hyperlink ref="A77" r:id="rId118" display="http://www.enzyme-database.org/query.php?ec=3.2.1.35" xr:uid="{A6C92B49-5E5D-429C-9CBC-0D960E55878D}"/>
+    <hyperlink ref="A78" r:id="rId119" display="http://www.enzyme-database.org/query.php?ec=3.2.1.36" xr:uid="{0004FF3B-9DE6-4368-956E-2D5D48A55D8D}"/>
+    <hyperlink ref="B78" r:id="rId120" display="http://www.cazy.org/GH79.html" xr:uid="{F054944A-ECC7-45F9-A309-E9188F9D597D}"/>
+    <hyperlink ref="A79" r:id="rId121" display="http://www.enzyme-database.org/query.php?ec=3.2.1.37" xr:uid="{46C8D390-1C54-4720-A633-998E925F4324}"/>
+    <hyperlink ref="A80" r:id="rId122" display="http://www.enzyme-database.org/query.php?ec=3.2.1.38" xr:uid="{8EF12D9F-F05D-43E5-AA67-60341632D242}"/>
+    <hyperlink ref="A81" r:id="rId123" display="http://www.enzyme-database.org/query.php?ec=3.2.1.39" xr:uid="{7E45B975-C832-4503-80C5-92E2BD702642}"/>
+    <hyperlink ref="A82" r:id="rId124" display="http://www.enzyme-database.org/query.php?ec=3.2.1.40" xr:uid="{4BF6D9EA-18E0-4E4A-99FE-B1A74E57D1D2}"/>
+    <hyperlink ref="A83" r:id="rId125" display="http://www.enzyme-database.org/query.php?ec=3.2.1.41" xr:uid="{2B0A39FB-C2CF-43EC-B4B4-87F66B6C1E82}"/>
+    <hyperlink ref="A84" r:id="rId126" display="http://www.enzyme-database.org/query.php?ec=3.2.1.45" xr:uid="{BA0D970C-A8A9-4DCA-BAC9-AB69CDC952FF}"/>
+    <hyperlink ref="A85" r:id="rId127" display="http://www.enzyme-database.org/query.php?ec=3.2.1.46" xr:uid="{11210C26-0CB9-4740-8165-176A390BCC8E}"/>
+    <hyperlink ref="A86" r:id="rId128" display="http://www.enzyme-database.org/query.php?ec=3.2.1.48" xr:uid="{12B70063-6E28-4A19-8EAD-3C53633D3801}"/>
+    <hyperlink ref="B86" r:id="rId129" display="http://www.cazy.org/GH31.html" xr:uid="{7B068EA1-45E0-4C6B-AD88-0CF9FD67F719}"/>
+    <hyperlink ref="A87" r:id="rId130" display="http://www.enzyme-database.org/query.php?ec=3.2.1.49" xr:uid="{7B2B823E-922C-4B86-A19E-5861D9567AF5}"/>
+    <hyperlink ref="A88" r:id="rId131" display="http://www.enzyme-database.org/query.php?ec=3.2.1.50" xr:uid="{AD35ABE5-6963-479D-AC12-B53D68CE2FD2}"/>
+    <hyperlink ref="B88" r:id="rId132" display="http://www.cazy.org/GH89.html" xr:uid="{EF6C9A87-B8CE-46AB-9873-F0856B8AC884}"/>
+    <hyperlink ref="A89" r:id="rId133" display="http://www.enzyme-database.org/query.php?ec=3.2.1.51" xr:uid="{CD974D05-D9E3-443D-84EC-6A17C695D5A0}"/>
+    <hyperlink ref="A90" r:id="rId134" display="http://www.enzyme-database.org/query.php?ec=3.2.1.52" xr:uid="{ABBCB113-F4FA-4C2D-BF48-2BB0AF39BAF5}"/>
+    <hyperlink ref="A91" r:id="rId135" display="http://www.enzyme-database.org/query.php?ec=3.2.1.53" xr:uid="{16420FC9-02B9-4794-AFF4-5656744F1084}"/>
+    <hyperlink ref="B91" r:id="rId136" display="http://www.cazy.org/GH123.html" xr:uid="{9AFCED04-5EE4-4D27-A29D-94D5273C28F6}"/>
+    <hyperlink ref="A92" r:id="rId137" display="http://www.enzyme-database.org/query.php?ec=3.2.1.54" xr:uid="{564B2FB8-1D9F-4648-90DF-7F9F4C439D47}"/>
+    <hyperlink ref="A93" r:id="rId138" display="http://www.enzyme-database.org/query.php?ec=3.2.1.55" xr:uid="{C96EDC42-1AD1-4D99-B9A9-15F5974094D9}"/>
+    <hyperlink ref="A94" r:id="rId139" display="http://www.enzyme-database.org/query.php?ec=3.2.1.57" xr:uid="{27A330FA-1F38-46C1-BC72-685FA51B7238}"/>
+    <hyperlink ref="B94" r:id="rId140" display="http://www.cazy.org/GH49.html" xr:uid="{390EE9DA-5E38-4140-BB87-CA6933E99C3A}"/>
+    <hyperlink ref="A95" r:id="rId141" display="http://www.enzyme-database.org/query.php?ec=3.2.1.58" xr:uid="{0BE032C9-CB7B-46A7-9100-6419D230F169}"/>
+    <hyperlink ref="A96" r:id="rId142" display="http://www.enzyme-database.org/query.php?ec=3.2.1.59" xr:uid="{764EC265-83FD-4E93-BB13-7EADF2C2F3E8}"/>
+    <hyperlink ref="A97" r:id="rId143" display="http://www.enzyme-database.org/query.php?ec=3.2.1.60" xr:uid="{D5ECECBF-8AE1-4849-8541-C51CDDF789D5}"/>
+    <hyperlink ref="B97" r:id="rId144" display="http://www.cazy.org/GH13.html" xr:uid="{0A51E1D0-DB6F-43CA-942E-A8ED3976AF9B}"/>
+    <hyperlink ref="A98" r:id="rId145" display="http://www.enzyme-database.org/query.php?ec=3.2.1.61" xr:uid="{FAC178D2-EFBD-434E-B50C-2EB8BF0CF623}"/>
+    <hyperlink ref="B98" r:id="rId146" display="http://www.cazy.org/GH87.html" xr:uid="{B837699F-4C6C-48BE-91D0-52195D318921}"/>
+    <hyperlink ref="A99" r:id="rId147" display="http://www.enzyme-database.org/query.php?ec=3.2.1.62" xr:uid="{3A2D9EBD-59D1-4A1A-A459-8619C1BA53EB}"/>
+    <hyperlink ref="B99" r:id="rId148" display="http://www.cazy.org/GH1.html" xr:uid="{FC6BFDB8-1C9A-4B56-8A18-1B18299D025E}"/>
+    <hyperlink ref="A100" r:id="rId149" display="http://www.enzyme-database.org/query.php?ec=3.2.1.63" xr:uid="{5C3B5FC7-883B-4F32-BE17-11F10AC4C911}"/>
+    <hyperlink ref="A101" r:id="rId150" display="http://www.enzyme-database.org/query.php?ec=3.2.1.64" xr:uid="{D0BADE27-94CC-4D54-B555-D8A709215972}"/>
+    <hyperlink ref="B101" r:id="rId151" display="http://www.cazy.org/GH32.html" xr:uid="{306D49E4-6D66-4E54-BAD7-F2C4F8631142}"/>
+    <hyperlink ref="A102" r:id="rId152" display="http://www.enzyme-database.org/query.php?ec=3.2.1.65" xr:uid="{AD76FEA5-BD29-437A-8EA1-83320BD036FF}"/>
+    <hyperlink ref="B102" r:id="rId153" display="http://www.cazy.org/GH32.html" xr:uid="{51A13DC1-139E-4291-877B-DB593CE74380}"/>
+    <hyperlink ref="A103" r:id="rId154" display="http://www.enzyme-database.org/query.php?ec=3.2.1.67" xr:uid="{30A57B9C-FE07-4D56-944C-707D45D334B7}"/>
+    <hyperlink ref="A104" r:id="rId155" display="http://www.enzyme-database.org/query.php?ec=3.2.1.68" xr:uid="{C0800683-334B-4572-B24C-ED864F4849CD}"/>
+    <hyperlink ref="B104" r:id="rId156" display="http://www.cazy.org/GH13.html" xr:uid="{6E72BCAC-36E5-4566-AC96-8EB53E9F14B5}"/>
+    <hyperlink ref="A105" r:id="rId157" display="http://www.enzyme-database.org/query.php?ec=3.2.1.70" xr:uid="{D34A9DE0-91AC-4E66-ACD4-2DACDFC70CFA}"/>
+    <hyperlink ref="A106" r:id="rId158" display="http://www.enzyme-database.org/query.php?ec=3.2.1.71" xr:uid="{C7A9528E-4CE6-44EA-B9EB-F0784D750B24}"/>
+    <hyperlink ref="A107" r:id="rId159" display="http://www.enzyme-database.org/query.php?ec=3.2.1.73" xr:uid="{26EF4BE0-D8F9-4772-9FF7-AA294C1682DF}"/>
+    <hyperlink ref="A108" r:id="rId160" display="http://www.enzyme-database.org/query.php?ec=3.2.1.74" xr:uid="{046147E9-742E-49F3-AECF-49179C3406DB}"/>
+    <hyperlink ref="A109" r:id="rId161" display="http://www.enzyme-database.org/query.php?ec=3.2.1.75" xr:uid="{B375917A-2F3B-4CD3-AB86-DA8013CB1E83}"/>
+    <hyperlink ref="A110" r:id="rId162" display="http://www.enzyme-database.org/query.php?ec=3.2.1.76" xr:uid="{216A137E-040B-4F8B-875F-F1E7001338CA}"/>
+    <hyperlink ref="B110" r:id="rId163" display="http://www.cazy.org/GH39.html" xr:uid="{849B850D-FD39-402B-B4F2-A31021583269}"/>
+    <hyperlink ref="A111" r:id="rId164" display="http://www.enzyme-database.org/query.php?ec=3.2.1.78" xr:uid="{FF6D147D-B565-46D0-8520-28AAA8D7CDCF}"/>
+    <hyperlink ref="A112" r:id="rId165" display="http://www.enzyme-database.org/query.php?ec=3.2.1.80" xr:uid="{6CC58696-CA0B-4D7A-9589-3AC0E194D821}"/>
+    <hyperlink ref="B112" r:id="rId166" display="http://www.cazy.org/GH32.html" xr:uid="{BE5C4677-EAAA-4801-AA57-4F4E21990F60}"/>
+    <hyperlink ref="A113" r:id="rId167" display="http://www.enzyme-database.org/query.php?ec=3.2.1.81" xr:uid="{9A802A62-7F47-4B72-889B-93BBDBEB7702}"/>
+    <hyperlink ref="A114" r:id="rId168" display="http://www.enzyme-database.org/query.php?ec=3.2.1.82" xr:uid="{B5BC3447-E372-4A23-B469-2FF20C0B99FB}"/>
+    <hyperlink ref="B114" r:id="rId169" display="http://www.cazy.org/GH28.html" xr:uid="{5D096390-0E02-4CDA-A9CD-3544CD22BF41}"/>
+    <hyperlink ref="A115" r:id="rId170" display="http://www.enzyme-database.org/query.php?ec=3.2.1.83" xr:uid="{CF88595B-5CAF-41DC-A249-D8C5EE546261}"/>
+    <hyperlink ref="B115" r:id="rId171" display="http://www.cazy.org/GH16.html" xr:uid="{543F0E57-CCAB-4BF7-94CB-E38817C14AA0}"/>
+    <hyperlink ref="A116" r:id="rId172" display="http://www.enzyme-database.org/query.php?ec=3.2.1.84" xr:uid="{46832345-E2FF-4FB4-9AFE-F28B56FAF90D}"/>
+    <hyperlink ref="A117" r:id="rId173" display="http://www.enzyme-database.org/query.php?ec=3.2.1.85" xr:uid="{8837EB93-4A3E-409C-B7AC-A125D3343EA7}"/>
+    <hyperlink ref="B117" r:id="rId174" display="http://www.cazy.org/GH1.html" xr:uid="{7412B4A4-0929-4E72-BFCE-862663F3087F}"/>
+    <hyperlink ref="A118" r:id="rId175" display="http://www.enzyme-database.org/query.php?ec=3.2.1.86" xr:uid="{BCE67AB3-CBA1-40F9-B906-74136897CF5B}"/>
+    <hyperlink ref="A119" r:id="rId176" display="http://www.enzyme-database.org/query.php?ec=3.2.1.88" xr:uid="{BB3B6549-4FDF-4622-BD7E-5014A147C90D}"/>
+    <hyperlink ref="A120" r:id="rId177" display="http://www.enzyme-database.org/query.php?ec=3.2.1.89" xr:uid="{B94E0825-89BE-45F2-B063-BEF97A2BD679}"/>
+    <hyperlink ref="A121" r:id="rId178" display="http://www.enzyme-database.org/query.php?ec=3.2.1.91" xr:uid="{545FB5D3-ACBF-4B06-8714-DED492CE2063}"/>
+    <hyperlink ref="A122" r:id="rId179" display="http://www.enzyme-database.org/query.php?ec=3.2.1.93" xr:uid="{F30774C1-8A13-4F8C-81EA-FA8BB59DC64C}"/>
+    <hyperlink ref="B122" r:id="rId180" display="http://www.cazy.org/GH13.html" xr:uid="{AF7B8EFA-57F0-44A9-87B3-B5BCA18AA95B}"/>
+    <hyperlink ref="A123" r:id="rId181" display="http://www.enzyme-database.org/query.php?ec=3.2.1.94" xr:uid="{A1AD22FB-35E2-47DF-8B23-3FBFECC4336D}"/>
+    <hyperlink ref="B123" r:id="rId182" display="http://www.cazy.org/GH27.html" xr:uid="{43661670-C2AB-4442-A75D-7F13553B1DDE}"/>
+    <hyperlink ref="A124" r:id="rId183" display="http://www.enzyme-database.org/query.php?ec=3.2.1.95" xr:uid="{A7B85200-4C71-470B-9F7F-27C6F43BDD36}"/>
+    <hyperlink ref="B124" r:id="rId184" display="http://www.cazy.org/GH49.html" xr:uid="{7C83DBAE-4AE6-4024-A1DA-B6BF3F2E2B85}"/>
+    <hyperlink ref="A125" r:id="rId185" display="http://www.enzyme-database.org/query.php?ec=3.2.1.96" xr:uid="{79F6CAAC-D9E5-4D7B-89C4-EC4D20F928FC}"/>
+    <hyperlink ref="A126" r:id="rId186" display="http://www.enzyme-database.org/query.php?ec=3.2.1.97" xr:uid="{CD0DE081-2373-4513-83C3-4AAB5A94326F}"/>
+    <hyperlink ref="B126" r:id="rId187" display="http://www.cazy.org/GH101.html" xr:uid="{ECF64332-80D2-4237-958A-2C76C403C26A}"/>
+    <hyperlink ref="A127" r:id="rId188" display="http://www.enzyme-database.org/query.php?ec=3.2.1.98" xr:uid="{C80BD435-2390-4C97-ADA7-31C6CF84E31E}"/>
+    <hyperlink ref="B127" r:id="rId189" display="http://www.cazy.org/GH13.html" xr:uid="{D54D6ADB-7EC4-4598-85E8-E9C25F1ABBD1}"/>
+    <hyperlink ref="A128" r:id="rId190" display="http://www.enzyme-database.org/query.php?ec=3.2.1.99" xr:uid="{4A27F5F6-42C8-4C11-ABF0-B67F40E12B8B}"/>
+    <hyperlink ref="B128" r:id="rId191" display="http://www.cazy.org/GH43.html" xr:uid="{901E9749-2067-4959-88A8-E99ACE2ABD93}"/>
+    <hyperlink ref="A129" r:id="rId192" display="http://www.enzyme-database.org/query.php?ec=3.2.1.100" xr:uid="{AEB187AD-EE25-46C3-A96A-793206A36019}"/>
+    <hyperlink ref="B129" r:id="rId193" display="http://www.cazy.org/GH26.html" xr:uid="{8671E555-60BA-4491-8EBC-F383660C02DE}"/>
+    <hyperlink ref="A130" r:id="rId194" display="http://www.enzyme-database.org/query.php?ec=3.2.1.101" xr:uid="{14ED6164-972E-4C22-904A-D3179BAFAD9A}"/>
+    <hyperlink ref="B130" r:id="rId195" display="http://www.cazy.org/GH76.html" xr:uid="{9480F48A-FD36-4693-BDBC-60087A4A1365}"/>
+    <hyperlink ref="A131" r:id="rId196" display="http://www.enzyme-database.org/query.php?ec=3.2.1.102" xr:uid="{2DF2DBF2-8709-4DCD-B635-B6E5A9F4766B}"/>
+    <hyperlink ref="B131" r:id="rId197" display="http://www.cazy.org/GH98.html" xr:uid="{43BAB24C-BA7A-46C1-A57B-F05A5359C3AE}"/>
+    <hyperlink ref="A132" r:id="rId198" display="http://www.enzyme-database.org/query.php?ec=3.2.1.103" xr:uid="{3AEFADDF-13E1-4C74-9949-1FAC2FCC5EA2}"/>
+    <hyperlink ref="B132" r:id="rId199" display="http://www.cazy.org/GH16.html" xr:uid="{91C64C84-9FE0-448D-AA31-FA38F6B76A2E}"/>
+    <hyperlink ref="A133" r:id="rId200" display="http://www.enzyme-database.org/query.php?ec=3.2.1.104" xr:uid="{CAFA0FD1-F96F-46AF-BB64-E859853B67BD}"/>
+    <hyperlink ref="B133" r:id="rId201" display="http://www.cazy.org/GH5.html" xr:uid="{AAF94F82-FA0B-465A-A4EE-C81500E4958C}"/>
+    <hyperlink ref="A134" r:id="rId202" display="http://www.enzyme-database.org/query.php?ec=3.2.1.105" xr:uid="{A63F9DD6-8913-4419-9FAC-9FB4E78FE09D}"/>
+    <hyperlink ref="B134" r:id="rId203" display="http://www.cazy.org/GH1.html" xr:uid="{218D9506-6BC2-4DF3-9884-C086C86546D7}"/>
+    <hyperlink ref="A135" r:id="rId204" display="http://www.enzyme-database.org/query.php?ec=3.2.1.106" xr:uid="{383031CC-A017-4B99-AE17-8324353FBF21}"/>
+    <hyperlink ref="B135" r:id="rId205" display="http://www.cazy.org/GH63.html" xr:uid="{5EA4D399-1BDC-4576-81E8-AABF6A8FFD59}"/>
+    <hyperlink ref="A136" r:id="rId206" display="http://www.enzyme-database.org/query.php?ec=3.2.1.107" xr:uid="{9645372A-A227-4F95-B97F-C07B2ECED2C8}"/>
+    <hyperlink ref="B136" r:id="rId207" display="http://www.cazy.org/GH65.html" xr:uid="{6E670950-ED82-42F1-945A-246E3688E77C}"/>
+    <hyperlink ref="A137" r:id="rId208" display="http://www.enzyme-database.org/query.php?ec=3.2.1.108" xr:uid="{FF0F4612-7C51-45CF-B6C3-82616FFD641D}"/>
+    <hyperlink ref="B137" r:id="rId209" display="http://www.cazy.org/GH1.html" xr:uid="{C9B61F2F-4775-4EF9-A0F2-A3FA99EE3E08}"/>
+    <hyperlink ref="A138" r:id="rId210" display="http://www.enzyme-database.org/query.php?ec=3.2.1.109" xr:uid="{AC636A36-7CB5-43D9-BC5F-74C761DE7B50}"/>
+    <hyperlink ref="B138" r:id="rId211" display="http://www.cazy.org/GH114.html" xr:uid="{57EA1B3E-F354-4280-943C-B168C2FF0381}"/>
+    <hyperlink ref="A139" r:id="rId212" display="http://www.enzyme-database.org/query.php?ec=3.2.1.111" xr:uid="{911BBD77-868D-411B-A91B-A632CECCBFB1}"/>
+    <hyperlink ref="B139" r:id="rId213" display="http://www.cazy.org/GH29.html" xr:uid="{9CBCFB13-FC46-475A-8879-4F1039F38CD8}"/>
+    <hyperlink ref="A140" r:id="rId214" display="http://www.enzyme-database.org/query.php?ec=3.2.1.113" xr:uid="{1BCAC8A8-9EA5-49E8-AC4C-C094A9D1DFC0}"/>
+    <hyperlink ref="A141" r:id="rId215" display="http://www.enzyme-database.org/query.php?ec=3.2.1.114" xr:uid="{27E7D34E-5ED5-40E0-ACAD-D0506D4856E5}"/>
+    <hyperlink ref="A142" r:id="rId216" display="http://www.enzyme-database.org/query.php?ec=3.2.1.116" xr:uid="{9263B1E5-8FC5-4FE3-AE14-276198B1384B}"/>
+    <hyperlink ref="B142" r:id="rId217" display="http://www.cazy.org/GH13.html" xr:uid="{C33EABFC-B1B3-4961-8E6F-FBCBBCEE7B1F}"/>
+    <hyperlink ref="A143" r:id="rId218" display="http://www.enzyme-database.org/query.php?ec=3.2.1.117" xr:uid="{5ED7AB07-042A-4C35-B9DC-B52B7FA2C801}"/>
+    <hyperlink ref="B143" r:id="rId219" display="http://www.cazy.org/GH1.html" xr:uid="{C4F84391-6134-4C1A-8C34-1696DE8F9173}"/>
+    <hyperlink ref="A144" r:id="rId220" display="http://www.enzyme-database.org/query.php?ec=3.2.1.118" xr:uid="{155BD9DC-2929-4516-8195-666CCB80EC44}"/>
+    <hyperlink ref="B144" r:id="rId221" display="http://www.cazy.org/GH1.html" xr:uid="{FC7597E8-A056-4228-B2F5-CB78D549A5E8}"/>
+    <hyperlink ref="A145" r:id="rId222" display="http://www.enzyme-database.org/query.php?ec=3.2.1.119" xr:uid="{2C1788DE-AB1D-44C4-8566-6954A8F6848E}"/>
+    <hyperlink ref="B145" r:id="rId223" display="http://www.cazy.org/GH1.html" xr:uid="{89BA3681-75F6-4AB2-9EF9-1638118B83C3}"/>
+    <hyperlink ref="A146" r:id="rId224" display="http://www.enzyme-database.org/query.php?ec=3.2.1.120" xr:uid="{1EA26F23-5D2A-4CCF-ADAB-DD649379B12C}"/>
+    <hyperlink ref="B146" r:id="rId225" display="http://www.cazy.org/GH3.html" xr:uid="{3603CFA5-FA5B-4C21-8EC6-5523556775B8}"/>
+    <hyperlink ref="A147" r:id="rId226" display="http://www.enzyme-database.org/query.php?ec=3.2.1.122" xr:uid="{85D1C063-F27A-483A-BD1C-730C8613CF32}"/>
+    <hyperlink ref="B147" r:id="rId227" display="http://www.cazy.org/GH4.html" xr:uid="{78870075-5E79-4C55-8D6F-CC317920975D}"/>
+    <hyperlink ref="A148" r:id="rId228" display="http://www.enzyme-database.org/query.php?ec=3.2.1.123" xr:uid="{9CDEA70D-2B8A-49EC-BB91-DA36D2171E14}"/>
+    <hyperlink ref="B148" r:id="rId229" display="http://www.cazy.org/GH5.html" xr:uid="{2F2E624C-6DF4-4720-A60E-4E647128D761}"/>
+    <hyperlink ref="A149" r:id="rId230" display="http://www.enzyme-database.org/query.php?ec=3.2.1.125" xr:uid="{FC49BC2E-DBA5-41EE-BBC9-590FC5548DC4}"/>
+    <hyperlink ref="B149" r:id="rId231" display="http://www.cazy.org/GH1.html" xr:uid="{203E0A95-2919-49E0-B4D8-877CD1EB5699}"/>
+    <hyperlink ref="A150" r:id="rId232" display="http://www.enzyme-database.org/query.php?ec=3.2.1.126" xr:uid="{FFEB2980-EDCC-4E71-A712-997E7B931F03}"/>
+    <hyperlink ref="B150" r:id="rId233" display="http://www.cazy.org/GH3.html" xr:uid="{3D66302B-027A-4962-9204-5AFFBD5593B3}"/>
+    <hyperlink ref="A151" r:id="rId234" display="http://www.enzyme-database.org/query.php?ec=3.2.1.129" xr:uid="{2F988A79-4275-4B2B-9995-36DA250E8C98}"/>
+    <hyperlink ref="B151" r:id="rId235" display="http://www.cazy.org/GH58.html" xr:uid="{C3991303-8D1B-456A-B8E9-B81357913BD0}"/>
+    <hyperlink ref="A152" r:id="rId236" display="http://www.enzyme-database.org/query.php?ec=3.2.1.130" xr:uid="{991A4E6E-6E14-4146-B213-2C93C8544BB7}"/>
+    <hyperlink ref="B152" r:id="rId237" display="http://www.cazy.org/GH99.html" xr:uid="{242477B0-42D5-4602-8B8A-501491B66E10}"/>
+    <hyperlink ref="A153" r:id="rId238" display="http://www.enzyme-database.org/query.php?ec=3.2.1.131" xr:uid="{95587517-0DD9-45D9-8C4E-A9B988F834FB}"/>
+    <hyperlink ref="A154" r:id="rId239" display="http://www.enzyme-database.org/query.php?ec=3.2.1.132" xr:uid="{553E2A30-C3D1-49A0-A1EB-C5F4F59B38D0}"/>
+    <hyperlink ref="A155" r:id="rId240" display="http://www.enzyme-database.org/query.php?ec=3.2.1.133" xr:uid="{DBDB763E-5ACC-4FFD-846F-00BC8D169E56}"/>
+    <hyperlink ref="B155" r:id="rId241" display="http://www.cazy.org/GH13.html" xr:uid="{F4090853-2CDD-45A3-A4F1-2E087C36EA55}"/>
+    <hyperlink ref="A156" r:id="rId242" display="http://www.enzyme-database.org/query.php?ec=3.2.1.135" xr:uid="{8759E03A-EB0C-48A8-9FD9-A500FF2555C9}"/>
+    <hyperlink ref="B156" r:id="rId243" display="http://www.cazy.org/GH13.html" xr:uid="{43EEBDF8-3693-4A64-99E1-DF636952EBDF}"/>
+    <hyperlink ref="A157" r:id="rId244" display="http://www.enzyme-database.org/query.php?ec=3.2.1.136" xr:uid="{9436BFEF-E31B-448F-87BE-EA39B34C6E03}"/>
+    <hyperlink ref="B157" r:id="rId245" display="http://www.cazy.org/GH30.html" xr:uid="{E618CACE-FED2-4906-9DED-68D61C134FB7}"/>
+    <hyperlink ref="A158" r:id="rId246" display="http://www.enzyme-database.org/query.php?ec=3.2.1.139" xr:uid="{E4BF61FA-73B9-42F5-B72B-4D14C75D7824}"/>
+    <hyperlink ref="A159" r:id="rId247" display="http://www.enzyme-database.org/query.php?ec=3.2.1.140" xr:uid="{7822A13B-0D2F-43A9-AED4-A1484CDD5349}"/>
+    <hyperlink ref="A160" r:id="rId248" display="http://www.enzyme-database.org/query.php?ec=3.2.1.141" xr:uid="{2271A89F-CD43-4E59-8F6C-F7FD282B58B4}"/>
+    <hyperlink ref="B160" r:id="rId249" display="http://www.cazy.org/GH13.html" xr:uid="{4B652109-4A76-4D8F-8604-52D3CD1C68BE}"/>
+    <hyperlink ref="A161" r:id="rId250" display="http://www.enzyme-database.org/query.php?ec=3.2.1.145" xr:uid="{90771EC0-B222-46AA-ACC5-C9D1E4EC8807}"/>
+    <hyperlink ref="B161" r:id="rId251" display="http://www.cazy.org/GH43.html" xr:uid="{0EC94AFF-2382-446B-9E6A-E26A6C431D73}"/>
+    <hyperlink ref="A162" r:id="rId252" display="http://www.enzyme-database.org/query.php?ec=3.2.1.146" xr:uid="{37F9F265-B9C0-4E3D-A9C4-D70975E82F9A}"/>
+    <hyperlink ref="A163" r:id="rId253" display="http://www.enzyme-database.org/query.php?ec=3.2.1.147" xr:uid="{CE542BE9-8698-4384-80CB-E0A1F5A6F6B5}"/>
+    <hyperlink ref="B163" r:id="rId254" display="http://www.cazy.org/GH1.html" xr:uid="{BA056BF6-94FC-4CE0-A6C1-964036FD4E44}"/>
+    <hyperlink ref="A164" r:id="rId255" display="http://www.enzyme-database.org/query.php?ec=3.2.1.149" xr:uid="{ED5C9258-4738-4E00-9E08-EFD8AACA9A6F}"/>
+    <hyperlink ref="A165" r:id="rId256" display="http://www.enzyme-database.org/query.php?ec=3.2.1.150" xr:uid="{1D29AFE7-4137-40CC-A8DB-39DDCE307134}"/>
+    <hyperlink ref="B165" r:id="rId257" display="http://www.cazy.org/GH74.html" xr:uid="{4B7B2439-7C20-45D8-9865-D279F864FF0B}"/>
+    <hyperlink ref="A166" r:id="rId258" display="http://www.enzyme-database.org/query.php?ec=3.2.1.151" xr:uid="{B6F4A8B3-34F9-4C93-98E0-783C0132DEC4}"/>
+    <hyperlink ref="A167" r:id="rId259" display="http://www.enzyme-database.org/query.php?ec=3.2.1.152" xr:uid="{7D463713-3972-4E60-9408-44A8FE6DD68C}"/>
+    <hyperlink ref="B167" r:id="rId260" display="http://www.cazy.org/GH2.html" xr:uid="{8D802E88-0B45-4C74-AA2D-D50EAAFCD86F}"/>
+    <hyperlink ref="A168" r:id="rId261" display="http://www.enzyme-database.org/query.php?ec=3.2.1.153" xr:uid="{A950986F-B176-4334-B263-97F9163FB906}"/>
+    <hyperlink ref="B168" r:id="rId262" display="http://www.cazy.org/GH32.html" xr:uid="{C0F9CEA5-4B22-4F56-9D9C-C71472137C00}"/>
+    <hyperlink ref="A169" r:id="rId263" display="http://www.enzyme-database.org/query.php?ec=3.2.1.154" xr:uid="{03781914-61E9-4F89-BBEE-26AE6A30D20D}"/>
+    <hyperlink ref="B169" r:id="rId264" display="http://www.cazy.org/GH32.html" xr:uid="{BC502B7D-FEE8-4428-AFCF-7935ED9B83B3}"/>
+    <hyperlink ref="A170" r:id="rId265" display="http://www.enzyme-database.org/query.php?ec=3.2.1.155" xr:uid="{ECBE5AFE-0234-4D8C-AC28-80B6B69BCB35}"/>
+    <hyperlink ref="B170" r:id="rId266" display="http://www.cazy.org/GH3.html" xr:uid="{1605CCC9-0D48-4ED8-A1B2-1D2AAA0110B2}"/>
+    <hyperlink ref="A171" r:id="rId267" display="http://www.enzyme-database.org/query.php?ec=3.2.1.156" xr:uid="{C2729B3D-F1FA-47D2-AE4C-C1758798D157}"/>
+    <hyperlink ref="B171" r:id="rId268" display="http://www.cazy.org/GH8.html" xr:uid="{2CC3353A-1BA8-4A4C-B48F-F0B7052ACB60}"/>
+    <hyperlink ref="A172" r:id="rId269" display="http://www.enzyme-database.org/query.php?ec=3.2.1.157" xr:uid="{C358A685-5D49-42DE-8427-1B6D9AD07785}"/>
+    <hyperlink ref="B172" r:id="rId270" display="http://www.cazy.org/GH82.html" xr:uid="{13FA5F50-3C59-4181-AD42-3145DB002AD3}"/>
+    <hyperlink ref="A173" r:id="rId271" display="http://www.enzyme-database.org/query.php?ec=3.2.1.158" xr:uid="{5BE57BB3-D5E6-40AE-B1DC-9BB6492BE9B7}"/>
+    <hyperlink ref="B173" r:id="rId272" display="http://www.cazy.org/GH96.html" xr:uid="{EDBC2A2D-1822-4C79-B445-A62D8A3D2AE4}"/>
+    <hyperlink ref="A174" r:id="rId273" display="http://www.enzyme-database.org/query.php?ec=3.2.1.161" xr:uid="{513D42B3-9CB3-4686-8C0D-79A89B3E2C37}"/>
+    <hyperlink ref="B174" r:id="rId274" display="http://www.cazy.org/GH1.html" xr:uid="{CBC2A177-564F-40B7-B561-5FA4211FC53C}"/>
+    <hyperlink ref="A175" r:id="rId275" display="http://www.enzyme-database.org/query.php?ec=3.2.1.162" xr:uid="{1F651A82-B0FF-4E7D-94AA-3023410AC89F}"/>
+    <hyperlink ref="B175" r:id="rId276" display="http://www.cazy.org/GH150.html" xr:uid="{148849C5-48A9-4E47-8C18-0D679993242A}"/>
+    <hyperlink ref="A176" r:id="rId277" display="http://www.enzyme-database.org/query.php?ec=3.2.1.164" xr:uid="{09BA475B-C9E1-4F9C-B9C7-B313D1A1D3BA}"/>
+    <hyperlink ref="A177" r:id="rId278" display="http://www.enzyme-database.org/query.php?ec=3.2.1.165" xr:uid="{EF19F2A2-D0EF-43A9-95AF-5DE829C69341}"/>
+    <hyperlink ref="A178" r:id="rId279" display="http://www.enzyme-database.org/query.php?ec=3.2.1.166" xr:uid="{732D573E-947A-493C-9951-DCBF1CF431DB}"/>
+    <hyperlink ref="B178" r:id="rId280" display="http://www.cazy.org/GH79.html" xr:uid="{882AED30-3A5C-48B9-A74E-CCC38EFB03AD}"/>
+    <hyperlink ref="A179" r:id="rId281" display="http://www.enzyme-database.org/query.php?ec=3.2.1.167" xr:uid="{4F961B4F-E27B-4F13-AD38-FDBAE1B13997}"/>
+    <hyperlink ref="B179" r:id="rId282" display="http://www.cazy.org/GH79.html" xr:uid="{4B4603C8-635A-4BA7-A6B3-019E9171CBAD}"/>
+    <hyperlink ref="A180" r:id="rId283" display="http://www.enzyme-database.org/query.php?ec=3.2.1.169" xr:uid="{02509F15-04DD-499E-8CC3-EE8E1241FCDF}"/>
+    <hyperlink ref="B180" r:id="rId284" display="http://www.cazy.org/GH84.html" xr:uid="{AFEFA06B-E740-4A94-A2FF-F4A25E8592D8}"/>
+    <hyperlink ref="A181" r:id="rId285" display="http://www.enzyme-database.org/query.php?ec=3.2.1.170" xr:uid="{744DD699-AAB1-4A88-A78F-B17749697934}"/>
+    <hyperlink ref="B181" r:id="rId286" display="http://www.cazy.org/GH63.html" xr:uid="{EDA9F939-7827-4E53-833C-34DA338B762A}"/>
+    <hyperlink ref="A182" r:id="rId287" display="http://www.enzyme-database.org/query.php?ec=3.2.1.171" xr:uid="{5B18DDFB-C211-4F83-B5AA-0F287D1AB165}"/>
+    <hyperlink ref="B182" r:id="rId288" display="http://www.cazy.org/GH28.html" xr:uid="{592ED95E-E86D-4260-B30A-84B62ED0FD22}"/>
+    <hyperlink ref="A183" r:id="rId289" display="http://www.enzyme-database.org/query.php?ec=3.2.1.172" xr:uid="{0C355A62-DAF3-4AD4-8FB7-C660DC7B1288}"/>
+    <hyperlink ref="B183" r:id="rId290" display="http://www.cazy.org/GH105.html" xr:uid="{7DF8D5C3-9C9E-4C68-A948-A23037B6D35B}"/>
+    <hyperlink ref="A184" r:id="rId291" display="http://www.enzyme-database.org/query.php?ec=3.2.1.173" xr:uid="{02F75C2D-9F8C-4DE1-ACFA-40D024E0429B}"/>
+    <hyperlink ref="A185" r:id="rId292" display="http://www.enzyme-database.org/query.php?ec=3.2.1.174" xr:uid="{0D3F31D0-C77E-4AED-BE20-2C1283682C87}"/>
+    <hyperlink ref="A186" r:id="rId293" display="http://www.enzyme-database.org/query.php?ec=3.2.1.175" xr:uid="{F0863926-FB80-4852-8B1E-6D4A53C28DD1}"/>
+    <hyperlink ref="A187" r:id="rId294" display="http://www.enzyme-database.org/query.php?ec=3.2.1.176" xr:uid="{C23903EB-482F-4F57-BDCB-FE3509329861}"/>
+    <hyperlink ref="A188" r:id="rId295" display="http://www.enzyme-database.org/query.php?ec=3.2.1.177" xr:uid="{B22D9CBE-4705-4C31-BA26-E4FE630737AE}"/>
+    <hyperlink ref="B188" r:id="rId296" display="http://www.cazy.org/GH31.html" xr:uid="{459F9FD1-5E28-4379-ABBA-9BB123590ADB}"/>
+    <hyperlink ref="A189" r:id="rId297" display="http://www.enzyme-database.org/query.php?ec=3.2.1.178" xr:uid="{1ECFBD4D-8758-40F5-A2BE-EE0C02036556}"/>
+    <hyperlink ref="A190" r:id="rId298" display="http://www.enzyme-database.org/query.php?ec=3.2.1.181" xr:uid="{4EFA2C93-09C0-4429-BCCB-F6EB5C7214C0}"/>
+    <hyperlink ref="B190" r:id="rId299" display="http://www.cazy.org/GH16.html" xr:uid="{91B50039-C4BF-4389-9FFE-F09381D084E7}"/>
+    <hyperlink ref="A191" r:id="rId300" display="http://www.enzyme-database.org/query.php?ec=3.2.1.182" xr:uid="{B55DADF5-AF07-4A64-8301-E5DFF0F40F76}"/>
+    <hyperlink ref="B191" r:id="rId301" display="http://www.cazy.org/GH1.html" xr:uid="{325DA677-4ECB-4372-A419-693614A10BF0}"/>
+    <hyperlink ref="A192" r:id="rId302" display="http://www.enzyme-database.org/query.php?ec=3.2.1.185" xr:uid="{67328C98-858A-4F64-8FE5-9ADD0DC7720A}"/>
+    <hyperlink ref="A193" r:id="rId303" display="http://www.enzyme-database.org/query.php?ec=3.2.1.197" xr:uid="{D4172457-9EA2-45FA-8EAF-A2E2E8DB89F2}"/>
+    <hyperlink ref="B193" r:id="rId304" display="http://www.cazy.org/GH130.html" xr:uid="{CB257451-28EF-4BD2-954B-28CC39E744BF}"/>
+    <hyperlink ref="A194" r:id="rId305" display="http://www.enzyme-database.org/query.php?ec=3.2.1.198" xr:uid="{16CCC59B-B204-4E20-AC47-FC2359735F21}"/>
+    <hyperlink ref="B194" r:id="rId306" display="http://www.cazy.org/GH99.html" xr:uid="{B04443E4-E7F5-45FA-BE86-7E187D7744DF}"/>
+    <hyperlink ref="A195" r:id="rId307" display="http://www.enzyme-database.org/query.php?ec=3.2.1.199" xr:uid="{22AD7008-4930-4B30-A3DD-CCFEEEABDF5A}"/>
+    <hyperlink ref="B195" r:id="rId308" display="http://www.cazy.org/GH31.html" xr:uid="{B0BED108-CAD5-4F99-A7FE-6BE671406E00}"/>
+    <hyperlink ref="A196" r:id="rId309" display="http://www.enzyme-database.org/query.php?ec=3.2.1.204" xr:uid="{88D20A0D-F0D4-488B-BAE1-5D795FA021BB}"/>
+    <hyperlink ref="B196" r:id="rId310" display="http://www.cazy.org/GH31.html" xr:uid="{012849C7-E412-44A6-9687-B6B53A9B3330}"/>
+    <hyperlink ref="A197" r:id="rId311" display="http://www.enzyme-database.org/query.php?ec=3.2.1.205" xr:uid="{52635E72-0C47-4695-A21F-0751C1ED25E6}"/>
+    <hyperlink ref="B197" r:id="rId312" display="http://www.cazy.org/GH15.html" xr:uid="{805F9A31-3953-4925-A88D-66CEBA475CA2}"/>
+    <hyperlink ref="A198" r:id="rId313" display="http://www.enzyme-database.org/query.php?ec=3.2.1.208" xr:uid="{1BA7F589-771C-4D23-8E74-C13850BF7536}"/>
+    <hyperlink ref="B198" r:id="rId314" display="http://www.cazy.org/GH63.html" xr:uid="{A1DB8A86-4A19-4F7C-9AB3-AB5BE9445D49}"/>
+    <hyperlink ref="A199" r:id="rId315" display="http://www.enzyme-database.org/query.php?ec=3.2.1.17_or_4.2.2.n1" xr:uid="{F42DB441-CEE2-4813-A0A1-781607CD69D8}"/>
+    <hyperlink ref="B199" r:id="rId316" display="http://www.cazy.org/GH23.html" xr:uid="{C377E959-E548-44DC-A40B-2757698EC94C}"/>
+    <hyperlink ref="A200" r:id="rId317" display="http://www.enzyme-database.org/query.php?ec=3.5.1.*" xr:uid="{99A0B3CE-CA74-4651-874B-4314633F2598}"/>
+    <hyperlink ref="B200" r:id="rId318" display="http://www.cazy.org/GH153.html" xr:uid="{3CDB310C-CD07-49F6-89F3-8F6B805C2011}"/>
+    <hyperlink ref="A201" r:id="rId319" display="http://www.enzyme-database.org/query.php?ec=3.5.2.17" xr:uid="{F3A88802-E1A4-4403-8974-B07702835B86}"/>
+    <hyperlink ref="B201" r:id="rId320" display="http://www.cazy.org/GH1.html" xr:uid="{9CEBC35B-C473-4A1D-B438-139DC0CC3241}"/>
+    <hyperlink ref="A202" r:id="rId321" display="http://www.enzyme-database.org/query.php?ec=4.2.2.n1" xr:uid="{03831B41-F0E6-4EF5-A536-9B50BFD73FAC}"/>
+    <hyperlink ref="A203" r:id="rId322" display="http://www.enzyme-database.org/query.php?ec=4.2.2.13" xr:uid="{2716BDFE-8AA2-4E17-9748-611F8A962345}"/>
+    <hyperlink ref="B203" r:id="rId323" display="http://www.cazy.org/GH31.html" xr:uid="{4AB50486-F2D7-4DEE-A8A9-0AA1A3C53F77}"/>
+    <hyperlink ref="A204" r:id="rId324" display="http://www.enzyme-database.org/query.php?ec=4.2.2.15" xr:uid="{DFC5CD9B-6259-4760-8F6F-82163C16F3BF}"/>
+    <hyperlink ref="B204" r:id="rId325" display="http://www.cazy.org/GH33.html" xr:uid="{DF058D98-5BD5-44A1-AC2C-94A056F55414}"/>
+    <hyperlink ref="A205" r:id="rId326" display="http://www.enzyme-database.org/query.php?ec=4.2.2.16" xr:uid="{4C82A388-104D-47FE-B79D-AC7D90671DCB}"/>
+    <hyperlink ref="B205" r:id="rId327" display="http://www.cazy.org/GH32.html" xr:uid="{E553D347-E9F4-4EE4-A1B0-76DB3D1AB867}"/>
+    <hyperlink ref="A206" r:id="rId328" display="http://www.enzyme-database.org/query.php?ec=4.2.2.17" xr:uid="{2EE3D1AC-2DA5-4CDD-99B8-F1FBBE5E0E59}"/>
+    <hyperlink ref="B206" r:id="rId329" display="http://www.cazy.org/GH91.html" xr:uid="{6784051F-B00F-4430-8D04-644E979283B5}"/>
+    <hyperlink ref="A207" r:id="rId330" display="http://www.enzyme-database.org/query.php?ec=4.2.2.18" xr:uid="{643259AF-35E8-4E17-8C16-C523D6EAAB6B}"/>
+    <hyperlink ref="B207" r:id="rId331" display="http://www.cazy.org/GH91.html" xr:uid="{7FCAE84F-730C-4666-9782-D2678396858A}"/>
+    <hyperlink ref="A208" r:id="rId332" display="http://www.enzyme-database.org/query.php?ec=5.4.99.11" xr:uid="{F042801C-B53D-45A7-94B1-9E3045571EF1}"/>
+    <hyperlink ref="B208" r:id="rId333" display="http://www.cazy.org/GH13.html" xr:uid="{0CD9DD24-E589-4EA8-B907-4B32DBDBCABE}"/>
+    <hyperlink ref="A209" r:id="rId334" display="http://www.enzyme-database.org/query.php?ec=5.4.99.15" xr:uid="{458176D5-CA1A-488B-9C5D-853C4D1C599E}"/>
+    <hyperlink ref="B209" r:id="rId335" display="http://www.cazy.org/GH13.html" xr:uid="{698F9195-4C97-4C3F-A2F1-618E306D5531}"/>
+    <hyperlink ref="A210" r:id="rId336" display="http://www.enzyme-database.org/query.php?ec=5.4.99.16" xr:uid="{DEB7092B-2206-4920-960C-87422B56C3D8}"/>
+    <hyperlink ref="B210" r:id="rId337" display="http://www.cazy.org/GH13.html" xr:uid="{A7847B2B-5B67-4B92-B507-8F6462E17E6A}"/>
+    <hyperlink ref="A211" r:id="rId338" display="http://www.enzyme-database.org/query.php?ec=2.3.1.20" xr:uid="{9C46BB56-3410-40C1-AD5C-4A08CAFE8F68}"/>
+    <hyperlink ref="B211" r:id="rId339" display="http://www.cazy.org/CE1.html" xr:uid="{30F0AB7B-3858-4846-9956-2D20DE5762FD}"/>
+    <hyperlink ref="A212" r:id="rId340" display="http://www.enzyme-database.org/query.php?ec=2.3.1.122" xr:uid="{DA90063B-720E-4766-AF46-5C39D8B30880}"/>
+    <hyperlink ref="B212" r:id="rId341" display="http://www.cazy.org/CE1.html" xr:uid="{E4715773-8B05-4D90-8F6A-9BEDEA41B529}"/>
+    <hyperlink ref="A213" r:id="rId342" display="http://www.enzyme-database.org/query.php?ec=2.4.1.*" xr:uid="{15A1D7DC-056B-4968-83EE-E5094F8FBD47}"/>
+    <hyperlink ref="B213" r:id="rId343" display="http://www.cazy.org/CE4.html" xr:uid="{1A7816D9-8FE1-4AA8-A53F-9CA90ADBE9BE}"/>
+    <hyperlink ref="A214" r:id="rId344" display="http://www.enzyme-database.org/query.php?ec=3.*.*.*" xr:uid="{14197CFB-207A-4563-AFEF-B344F5F1EECF}"/>
+    <hyperlink ref="A215" r:id="rId345" display="http://www.enzyme-database.org/query.php?ec=3.1.1.*" xr:uid="{661C05B1-32C6-4A3B-BE94-369DA5115FC2}"/>
+    <hyperlink ref="A216" r:id="rId346" display="http://www.enzyme-database.org/query.php?ec=3.1.1.3" xr:uid="{26157D35-2749-4FCE-83FC-053E579F5D71}"/>
+    <hyperlink ref="B216" r:id="rId347" display="http://www.cazy.org/CE5.html" xr:uid="{7E6152B7-816E-491A-A152-92EE0A82FFF7}"/>
+    <hyperlink ref="A217" r:id="rId348" display="http://www.enzyme-database.org/query.php?ec=3.1.1.6" xr:uid="{601B1863-CB94-49CC-AF01-BFE6CAFC08F6}"/>
+    <hyperlink ref="A218" r:id="rId349" display="http://www.enzyme-database.org/query.php?ec=3.1.1.11" xr:uid="{7E170074-D41E-4276-84C6-050DDD5C4D93}"/>
+    <hyperlink ref="A219" r:id="rId350" display="http://www.enzyme-database.org/query.php?ec=3.1.1.41" xr:uid="{354CDBE4-B48E-44EE-9A00-0710A4F5B4BE}"/>
+    <hyperlink ref="B219" r:id="rId351" display="http://www.cazy.org/CE7.html" xr:uid="{95A9DB72-AE27-4063-BB75-06BB1E30D245}"/>
+    <hyperlink ref="A220" r:id="rId352" display="http://www.enzyme-database.org/query.php?ec=3.1.1.72" xr:uid="{004EEB2B-6437-416D-BB30-028BC292B75D}"/>
+    <hyperlink ref="A221" r:id="rId353" display="http://www.enzyme-database.org/query.php?ec=3.1.1.73" xr:uid="{6BAAB4A4-CAC3-4596-9F2E-C55BDB819572}"/>
+    <hyperlink ref="B221" r:id="rId354" display="http://www.cazy.org/CE1.html" xr:uid="{507DF1BF-44AF-4212-BD36-4560F1F7049F}"/>
+    <hyperlink ref="A222" r:id="rId355" display="http://www.enzyme-database.org/query.php?ec=3.1.1.74" xr:uid="{ADAC32F7-3867-4417-AE81-8382CFC3C6EA}"/>
+    <hyperlink ref="B222" r:id="rId356" display="http://www.cazy.org/CE5.html" xr:uid="{612947A0-F41F-4951-B436-A10611DCF6EC}"/>
+    <hyperlink ref="A223" r:id="rId357" display="http://www.enzyme-database.org/query.php?ec=3.2.1.*" xr:uid="{A2F0BAC6-1D93-4E46-9B08-94AC362AFFC9}"/>
+    <hyperlink ref="A224" r:id="rId358" display="http://www.enzyme-database.org/query.php?ec=3.2.1.4" xr:uid="{71F09740-0359-4E5D-9598-6BC6D6F91DA9}"/>
+    <hyperlink ref="B224" r:id="rId359" display="http://www.cazy.org/CE2.html" xr:uid="{BF6EB3AD-7324-45E9-A16F-9281316CEE73}"/>
+    <hyperlink ref="A225" r:id="rId360" display="http://www.enzyme-database.org/query.php?ec=3.2.1.8" xr:uid="{162083DA-4E44-4080-BDDD-6009D7273F2A}"/>
+    <hyperlink ref="A226" r:id="rId361" display="http://www.enzyme-database.org/query.php?ec=3.2.1.40" xr:uid="{552E45BA-22F5-4D34-9567-B727C94E5346}"/>
+    <hyperlink ref="B226" r:id="rId362" display="http://www.cazy.org/CE15.html" xr:uid="{F50C6AA1-7F62-4874-9156-7A1BA2932D3D}"/>
+    <hyperlink ref="A227" r:id="rId363" display="http://www.enzyme-database.org/query.php?ec=3.2.1.55" xr:uid="{DCA0BABF-B931-42F0-A816-74321B4DE840}"/>
+    <hyperlink ref="A228" r:id="rId364" display="http://www.enzyme-database.org/query.php?ec=3.5.1.*" xr:uid="{C2802504-C002-4638-AC08-12AA1AA12F38}"/>
+    <hyperlink ref="A229" r:id="rId365" display="http://www.enzyme-database.org/query.php?ec=3.5.1.25" xr:uid="{356213F2-2CA0-4DEB-8851-8AE23A8AB8BA}"/>
+    <hyperlink ref="B229" r:id="rId366" display="http://www.cazy.org/CE9.html" xr:uid="{6F899334-90E5-41A6-898F-BFBAA61D8C2F}"/>
+    <hyperlink ref="A230" r:id="rId367" display="http://www.enzyme-database.org/query.php?ec=3.5.1.41" xr:uid="{59B01DAF-9B3F-4137-9BA5-C3A5EA863F98}"/>
+    <hyperlink ref="B230" r:id="rId368" display="http://www.cazy.org/CE4.html" xr:uid="{2FC7E397-E8C7-410A-AE28-5B9609BBDAB2}"/>
+    <hyperlink ref="A231" r:id="rId369" display="http://www.enzyme-database.org/query.php?ec=3.5.1.80" xr:uid="{6BE3D664-D029-4908-BD6F-2A3EF39E8A02}"/>
+    <hyperlink ref="B231" r:id="rId370" display="http://www.cazy.org/CE9.html" xr:uid="{878CD556-CD7D-41D4-A032-408EA9F20877}"/>
+    <hyperlink ref="A232" r:id="rId371" display="http://www.enzyme-database.org/query.php?ec=3.5.1.89" xr:uid="{EE6D15D2-519C-4EE4-9DCA-E466E249C3C9}"/>
+    <hyperlink ref="B232" r:id="rId372" display="http://www.cazy.org/CE14.html" xr:uid="{749A0FB0-8990-4225-A224-F6236D663658}"/>
+    <hyperlink ref="A233" r:id="rId373" display="http://www.enzyme-database.org/query.php?ec=3.5.1.104" xr:uid="{262968D3-34D0-41E3-A316-463A89B1C818}"/>
+    <hyperlink ref="B233" r:id="rId374" display="http://www.cazy.org/CE4.html" xr:uid="{AB98BB8A-DF7E-4DF1-A420-B864809F36F9}"/>
+    <hyperlink ref="A234" r:id="rId375" display="http://www.enzyme-database.org/query.php?ec=3.5.1.105" xr:uid="{7B2E81C3-EFC0-434C-804B-3B25235A30F9}"/>
+    <hyperlink ref="A235" r:id="rId376" display="http://www.enzyme-database.org/query.php?ec=3.5.1.108" xr:uid="{74994A41-0B7D-4FD8-835F-04B4D9F95914}"/>
+    <hyperlink ref="B235" r:id="rId377" display="http://www.cazy.org/CE11.html" xr:uid="{E1CB2D72-9AD3-43D6-A391-61B1CD07DC28}"/>
+    <hyperlink ref="A236" r:id="rId378" display="http://www.enzyme-database.org/query.php?ec=3.5.1.115" xr:uid="{51645E4F-F65F-4373-8815-784A5CC2AB76}"/>
+    <hyperlink ref="B236" r:id="rId379" display="http://www.cazy.org/CE14.html" xr:uid="{16CAA97E-9871-4958-91FD-935708B694EB}"/>
+    <hyperlink ref="A237" r:id="rId380" display="http://www.enzyme-database.org/query.php?ec=4.2.2.*" xr:uid="{BA481108-8130-4F1D-92AC-91254603900D}"/>
+    <hyperlink ref="B237" r:id="rId381" display="http://www.cazy.org/CE8.html" xr:uid="{85E6EB80-A2C9-47C6-A34C-B1951907C478}"/>
+    <hyperlink ref="A238" r:id="rId382" display="http://www.enzyme-database.org/query.php?ec=4.2.2.2" xr:uid="{0CF8EC81-B4E1-4877-810B-3AE4E44EB88F}"/>
+    <hyperlink ref="B238" r:id="rId383" display="http://www.cazy.org/CE8.html" xr:uid="{B9E801D4-45BB-4660-82F8-F060FDA881A5}"/>
+    <hyperlink ref="A239" r:id="rId384" display="http://www.enzyme-database.org/query.php?ec=4.2.2.*" xr:uid="{7EFB225B-2DA7-4ADA-B405-EE8CE1A532C3}"/>
+    <hyperlink ref="A240" r:id="rId385" display="http://www.enzyme-database.org/query.php?ec=4.2.2.1" xr:uid="{152FD9F0-5BB0-4211-B611-1F28BA0505AD}"/>
+    <hyperlink ref="A241" r:id="rId386" display="http://www.enzyme-database.org/query.php?ec=4.2.2.2" xr:uid="{284A3127-8347-47A1-9555-7EBA76517A01}"/>
+    <hyperlink ref="A242" r:id="rId387" display="http://www.enzyme-database.org/query.php?ec=4.2.2.3" xr:uid="{B7A3622A-11C0-42BA-A7CB-6668DBA370F1}"/>
+    <hyperlink ref="A243" r:id="rId388" display="http://www.enzyme-database.org/query.php?ec=4.2.2.5" xr:uid="{BD372ED4-3D52-4CA6-ABF7-398D24043360}"/>
+    <hyperlink ref="B243" r:id="rId389" display="http://www.cazy.org/PL8.html" xr:uid="{09CC7F4B-9B11-4E96-8B6E-0FCB77AB478D}"/>
+    <hyperlink ref="A244" r:id="rId390" display="http://www.enzyme-database.org/query.php?ec=4.2.2.6" xr:uid="{02C21CA6-3CFB-4AFF-B5EC-CEC09E78F84C}"/>
+    <hyperlink ref="B244" r:id="rId391" display="http://www.cazy.org/PL22.html" xr:uid="{8CCD938B-05C3-4179-8BD2-089284826006}"/>
+    <hyperlink ref="A245" r:id="rId392" display="http://www.enzyme-database.org/query.php?ec=4.2.2.7" xr:uid="{583CD244-80C0-47AB-B73F-BCB6EAC3539F}"/>
+    <hyperlink ref="A246" r:id="rId393" display="http://www.enzyme-database.org/query.php?ec=4.2.2.8" xr:uid="{BF7CEAB8-74D8-4902-8434-48E84D8A908F}"/>
+    <hyperlink ref="A247" r:id="rId394" display="http://www.enzyme-database.org/query.php?ec=4.2.2.9" xr:uid="{F1ACED2B-CF0E-4E9C-8E26-80484C30521B}"/>
+    <hyperlink ref="A248" r:id="rId395" display="http://www.enzyme-database.org/query.php?ec=4.2.2.10" xr:uid="{016E8DA5-C3CB-4479-AAEC-A1A05B54D241}"/>
+    <hyperlink ref="B248" r:id="rId396" display="http://www.cazy.org/PL1.html" xr:uid="{EF67B68F-6A0D-4832-860B-692B1C4395FB}"/>
+    <hyperlink ref="A249" r:id="rId397" display="http://www.enzyme-database.org/query.php?ec=4.2.2.11" xr:uid="{0AC84656-FC6E-408B-B447-DA0C82DA5232}"/>
+    <hyperlink ref="A250" r:id="rId398" display="http://www.enzyme-database.org/query.php?ec=4.2.2.12" xr:uid="{D08BF58B-C9FF-4992-A9B1-7032B313CF57}"/>
+    <hyperlink ref="B250" r:id="rId399" display="http://www.cazy.org/PL8.html" xr:uid="{A82E9684-A6BF-4A90-B7BD-47E4F38FB42B}"/>
+    <hyperlink ref="A251" r:id="rId400" display="http://www.enzyme-database.org/query.php?ec=4.2.2.14" xr:uid="{984A8C49-CA7D-4167-98BB-4237C9C1D679}"/>
+    <hyperlink ref="A252" r:id="rId401" display="http://www.enzyme-database.org/query.php?ec=4.2.2.19" xr:uid="{EA6D932F-D8DA-4454-B75D-FABBA0DAEB79}"/>
+    <hyperlink ref="B252" r:id="rId402" display="http://www.cazy.org/PL6.html" xr:uid="{8EF41D6C-FD9E-43EB-8CBB-7830368EB564}"/>
+    <hyperlink ref="A253" r:id="rId403" display="http://www.enzyme-database.org/query.php?ec=4.2.2.20" xr:uid="{3895A25B-546F-4FA7-937E-97A7CCF49B8C}"/>
+    <hyperlink ref="A254" r:id="rId404" display="http://www.enzyme-database.org/query.php?ec=4.2.2.23" xr:uid="{6D9ADC4A-1724-4BF9-9CC9-6CAE4963EE8C}"/>
+    <hyperlink ref="A255" r:id="rId405" display="http://www.enzyme-database.org/query.php?ec=4.2.2.24" xr:uid="{74471C35-AC36-4F4D-879F-10B8E8922C75}"/>
+    <hyperlink ref="A256" r:id="rId406" display="http://www.enzyme-database.org/query.php?ec=4.2.2.25" xr:uid="{6BF501A3-CC3A-4614-89C8-FE201CC03769}"/>
+    <hyperlink ref="B256" r:id="rId407" display="http://www.cazy.org/PL33.html" xr:uid="{CA362EAA-D8AB-4743-AE5C-633372AD1267}"/>
+    <hyperlink ref="A257" r:id="rId408" display="http://www.enzyme-database.org/query.php?ec=4.2.2.26" xr:uid="{CF0E2E1A-2197-49F6-A3FF-A9832241086D}"/>
+    <hyperlink ref="A258" r:id="rId409" display="http://www.enzyme-database.org/query.php?ec=1.*.*.*" xr:uid="{38F21554-EF77-41A1-B744-B0E1C9CB17A6}"/>
+    <hyperlink ref="A259" r:id="rId410" display="http://www.enzyme-database.org/query.php?ec=1.1.3.*" xr:uid="{CDA5E4F1-1C3E-4CA5-ADD8-F4F0189D1D09}"/>
+    <hyperlink ref="A260" r:id="rId411" display="http://www.enzyme-database.org/query.php?ec=1.1.3.4" xr:uid="{2610284E-61A0-4636-9DB9-631F2BA7D908}"/>
+    <hyperlink ref="B260" r:id="rId412" display="http://www.cazy.org/AA3.html" xr:uid="{9EA610D6-4836-42BD-B5C7-123DE3FBF147}"/>
+    <hyperlink ref="A261" r:id="rId413" display="http://www.enzyme-database.org/query.php?ec=1.1.3.7" xr:uid="{D7B216B3-5B88-4C47-BC6E-A815EBC44EAF}"/>
+    <hyperlink ref="A262" r:id="rId414" display="http://www.enzyme-database.org/query.php?ec=1.1.3.9" xr:uid="{167680AB-045B-4BCE-8E7E-16E63DEBBFE9}"/>
+    <hyperlink ref="B262" r:id="rId415" display="http://www.cazy.org/AA5.html" xr:uid="{520E71B5-D925-405A-8F5B-7691BBFFFB52}"/>
+    <hyperlink ref="A263" r:id="rId416" display="http://www.enzyme-database.org/query.php?ec=1.1.3.10" xr:uid="{82AE0A6F-B4DA-4F06-8288-AE36A6A23EA3}"/>
+    <hyperlink ref="B263" r:id="rId417" display="http://www.cazy.org/AA3.html" xr:uid="{2791E8EC-D2B3-467F-AB5D-2BDF5612AAC1}"/>
+    <hyperlink ref="A264" r:id="rId418" display="http://www.enzyme-database.org/query.php?ec=1.1.3.13" xr:uid="{D4F58CE2-892B-497E-AA14-E987AC21D773}"/>
+    <hyperlink ref="A265" r:id="rId419" display="http://www.enzyme-database.org/query.php?ec=1.1.3.16" xr:uid="{C8766D32-3B74-40C7-AE03-8BB3FE8C3138}"/>
+    <hyperlink ref="B265" r:id="rId420" display="http://www.cazy.org/AA3.html" xr:uid="{07E9AA05-6508-492E-BECD-E70A15B5D27C}"/>
+    <hyperlink ref="A266" r:id="rId421" display="http://www.enzyme-database.org/query.php?ec=1.1.3.38" xr:uid="{BBC70207-FFF6-4B4F-8347-7C0B10B6E31A}"/>
+    <hyperlink ref="B266" r:id="rId422" display="http://www.cazy.org/AA4.html" xr:uid="{F42C1F03-C2AD-485E-838F-23FA051F75AD}"/>
+    <hyperlink ref="A267" r:id="rId423" display="http://www.enzyme-database.org/query.php?ec=1.1.3.47" xr:uid="{819EED09-10D3-4523-AFE3-EBEB2BC7235F}"/>
+    <hyperlink ref="B267" r:id="rId424" display="http://www.cazy.org/AA5.html" xr:uid="{5381DA2A-D6F3-4D3B-B703-14D2B1F5637F}"/>
+    <hyperlink ref="A268" r:id="rId425" display="http://www.enzyme-database.org/query.php?ec=1.1.99.18" xr:uid="{33C13F4E-D585-4A49-903E-0BC20CB0539B}"/>
+    <hyperlink ref="A269" r:id="rId426" display="http://www.enzyme-database.org/query.php?ec=1.1.99.29" xr:uid="{229CE486-2391-43E4-82C1-3B3FB9224EB5}"/>
+    <hyperlink ref="B269" r:id="rId427" display="http://www.cazy.org/AA3.html" xr:uid="{BC6D02E0-4CBF-4C60-8074-02ED606B2DEF}"/>
+    <hyperlink ref="A270" r:id="rId428" display="http://www.enzyme-database.org/query.php?ec=1.2.3.15" xr:uid="{1B351095-AD9A-4F0B-9E59-DBE89E9BF19E}"/>
+    <hyperlink ref="B270" r:id="rId429" display="http://www.cazy.org/AA5.html" xr:uid="{55A12923-B60F-4C7A-8039-D12AA1FEAAC7}"/>
+    <hyperlink ref="A271" r:id="rId430" display="http://www.enzyme-database.org/query.php?ec=1.6.5.6" xr:uid="{B54665A3-691C-47CE-9E56-825C2E1EE36A}"/>
+    <hyperlink ref="B271" r:id="rId431" display="http://www.cazy.org/AA6.html" xr:uid="{CCC6BB4C-FA2E-453A-91CE-B036DC53447A}"/>
+    <hyperlink ref="A272" r:id="rId432" display="http://www.enzyme-database.org/query.php?ec=1.10.3.*" xr:uid="{91FC7D24-5F73-4FBD-8851-E257C370420A}"/>
+    <hyperlink ref="B272" r:id="rId433" display="http://www.cazy.org/AA1.html" xr:uid="{156DA526-F416-4BC3-BB5F-B43A422DD0D3}"/>
+    <hyperlink ref="A273" r:id="rId434" display="http://www.enzyme-database.org/query.php?ec=1.10.3.2" xr:uid="{E0AA23E4-7985-44A9-AF29-61711063FED2}"/>
+    <hyperlink ref="B273" r:id="rId435" display="http://www.cazy.org/AA1.html" xr:uid="{58346DEF-B21F-4105-A66D-8EBF50DFF865}"/>
+    <hyperlink ref="A274" r:id="rId436" display="http://www.enzyme-database.org/query.php?ec=1.11.1.*" xr:uid="{333351AC-46D9-43F0-8CFF-85B8BC4865F0}"/>
+    <hyperlink ref="B274" r:id="rId437" display="http://www.cazy.org/AA2.html" xr:uid="{07E37B5E-5319-4DD0-B9A2-7E283FA2A378}"/>
+    <hyperlink ref="A275" r:id="rId438" display="http://www.enzyme-database.org/query.php?ec=1.11.1.5" xr:uid="{456A06E5-0CFA-4AC7-A034-3B01DA4E3728}"/>
+    <hyperlink ref="B275" r:id="rId439" display="http://www.cazy.org/AA2.html" xr:uid="{4F6FC256-1A3C-4B01-A83B-019C86448665}"/>
+    <hyperlink ref="A276" r:id="rId440" display="http://www.enzyme-database.org/query.php?ec=1.11.1.13" xr:uid="{F6AC7CE2-16E4-4B2A-A2E7-D4EDA43B6F1A}"/>
+    <hyperlink ref="B276" r:id="rId441" display="http://www.cazy.org/AA2.html" xr:uid="{26F85CB0-3889-4F1E-881D-9E9766DEFC1A}"/>
+    <hyperlink ref="A277" r:id="rId442" display="http://www.enzyme-database.org/query.php?ec=1.11.1.14" xr:uid="{82C48D86-7557-41F7-8DCC-071B56936DE2}"/>
+    <hyperlink ref="B277" r:id="rId443" display="http://www.cazy.org/AA2.html" xr:uid="{B28601DD-7029-4A01-BAD1-CBF1412B8444}"/>
+    <hyperlink ref="A278" r:id="rId444" display="http://www.enzyme-database.org/query.php?ec=1.11.1.16" xr:uid="{5FC5D4A2-22E8-4672-9267-A43C32A5E605}"/>
+    <hyperlink ref="B278" r:id="rId445" display="http://www.cazy.org/AA2.html" xr:uid="{06503ACA-CD37-41AD-B798-BF8F18D81B21}"/>
+    <hyperlink ref="A279" r:id="rId446" display="http://www.enzyme-database.org/query.php?ec=1.14.99.*" xr:uid="{6162D4EE-990A-42F5-A07B-C88A67D044B0}"/>
+    <hyperlink ref="A280" r:id="rId447" display="http://www.enzyme-database.org/query.php?ec=1.14.99.53" xr:uid="{D6E5E3CC-CD06-4572-8CB9-ED8A16591362}"/>
+    <hyperlink ref="A281" r:id="rId448" display="http://www.enzyme-database.org/query.php?ec=1.14.99.54" xr:uid="{7D28FC8E-D95C-471D-82BD-6BB90B1CFFB8}"/>
+    <hyperlink ref="A282" r:id="rId449" display="http://www.enzyme-database.org/query.php?ec=1.14.99.55" xr:uid="{115E8DA0-76AD-4D25-87E4-DA389E548F36}"/>
+    <hyperlink ref="B282" r:id="rId450" display="http://www.cazy.org/AA13.html" xr:uid="{BDF2BA5C-BE35-4089-ADAE-585D94983E57}"/>
+    <hyperlink ref="A283" r:id="rId451" display="http://www.enzyme-database.org/query.php?ec=1.14.99.56" xr:uid="{E5E4A16A-052E-4920-A20B-095A70AD667C}"/>
+    <hyperlink ref="A284" r:id="rId452" display="http://www.enzyme-database.org/query.php?ec=3.2.1.78" xr:uid="{4B618456-6E5F-4C0B-86A8-31C68DAAFB23}"/>
+    <hyperlink ref="B284" r:id="rId453" display="http://www.cazy.org/AA10.html" xr:uid="{ACD9A28E-9598-473F-B1EC-A6D5AC94C43B}"/>
+    <hyperlink ref="A285" r:id="rId454" display="http://www.enzyme-database.org/query.php?ec=2.*.*.*" xr:uid="{1FC638F7-3875-4892-A915-52C1D9C1C9FF}"/>
+    <hyperlink ref="A286" r:id="rId455" display="http://www.enzyme-database.org/query.php?ec=2.4.*.*" xr:uid="{965685DC-B7CA-4C65-81BE-78BBC9639C6C}"/>
+    <hyperlink ref="A287" r:id="rId456" display="http://www.enzyme-database.org/query.php?ec=2.4.1.*" xr:uid="{9BB44268-D2C0-4FE2-8100-F1165B1F0ADA}"/>
+    <hyperlink ref="A288" r:id="rId457" display="http://www.enzyme-database.org/query.php?ec=2.4.1.1" xr:uid="{6E0B3BC0-DE3A-461A-B5E1-CA3467AF57DF}"/>
+    <hyperlink ref="B288" r:id="rId458" display="http://www.cazy.org/GT35.html" xr:uid="{F749236B-127C-44B2-8443-6C4D2BC9A4C1}"/>
+    <hyperlink ref="A289" r:id="rId459" display="http://www.enzyme-database.org/query.php?ec=2.4.1.11" xr:uid="{0CCFDF73-9C37-49F9-A266-9E123549B9E0}"/>
+    <hyperlink ref="A290" r:id="rId460" display="http://www.enzyme-database.org/query.php?ec=2.4.1.12" xr:uid="{E4E52BAD-B4E8-4E41-B8BA-2C43FE179C96}"/>
+    <hyperlink ref="B290" r:id="rId461" display="http://www.cazy.org/GT2.html" xr:uid="{5C5AA017-ECF7-447A-9DA6-31DAC5AC0FCD}"/>
+    <hyperlink ref="A291" r:id="rId462" display="http://www.enzyme-database.org/query.php?ec=2.4.1.13" xr:uid="{AE74FE23-7146-40FC-AA70-6F2470046115}"/>
+    <hyperlink ref="B291" r:id="rId463" display="http://www.cazy.org/GT4.html" xr:uid="{A674FE53-98F6-460C-A9B9-4E91EBE36E42}"/>
+    <hyperlink ref="A292" r:id="rId464" display="http://www.enzyme-database.org/query.php?ec=2.4.1.14" xr:uid="{1ADF0F3E-5FF6-403B-B0F4-D175D1299A9A}"/>
+    <hyperlink ref="B292" r:id="rId465" display="http://www.cazy.org/GT4.html" xr:uid="{23AA5E77-FA21-499D-B66B-526D3CE82D8D}"/>
+    <hyperlink ref="A293" r:id="rId466" display="http://www.enzyme-database.org/query.php?ec=2.4.1.15" xr:uid="{1FFC2A47-3C90-49C3-911D-9E3152CFC68F}"/>
+    <hyperlink ref="B293" r:id="rId467" display="http://www.cazy.org/GT20.html" xr:uid="{36344CE9-C018-4782-9CAC-F29057951AF8}"/>
+    <hyperlink ref="A294" r:id="rId468" display="http://www.enzyme-database.org/query.php?ec=2.4.1.16" xr:uid="{D576FABE-64ED-4E48-87BF-C489FCF8F2E9}"/>
+    <hyperlink ref="B294" r:id="rId469" display="http://www.cazy.org/GT2.html" xr:uid="{B889E955-ECFC-4ADB-B3FF-A21CF7EC0458}"/>
+    <hyperlink ref="A295" r:id="rId470" display="http://www.enzyme-database.org/query.php?ec=2.4.1.17" xr:uid="{A20157DD-11E5-4241-911F-62C3F486D260}"/>
+    <hyperlink ref="A296" r:id="rId471" display="http://www.enzyme-database.org/query.php?ec=2.4.1.21" xr:uid="{983DD70A-4DCE-443B-8578-210027B9EC2E}"/>
+    <hyperlink ref="A297" r:id="rId472" display="http://www.enzyme-database.org/query.php?ec=2.4.1.22" xr:uid="{5862056D-29DC-45A0-BD51-CC810B3BA116}"/>
+    <hyperlink ref="B297" r:id="rId473" display="http://www.cazy.org/GT7.html" xr:uid="{C485FFDA-E58D-4BB9-BCF4-EB4514190F96}"/>
+    <hyperlink ref="A298" r:id="rId474" display="http://www.enzyme-database.org/query.php?ec=2.4.1.26" xr:uid="{A33E9647-32DF-4076-BECD-4829D00A12CE}"/>
+    <hyperlink ref="B298" r:id="rId475" display="http://www.cazy.org/GT72.html" xr:uid="{CBF0BF86-8F68-4A5B-847E-5FFF47013F3C}"/>
+    <hyperlink ref="A299" r:id="rId476" display="http://www.enzyme-database.org/query.php?ec=2.4.1.27" xr:uid="{4148D64E-B5C4-48FD-A36B-CD98F95256F3}"/>
+    <hyperlink ref="B299" r:id="rId477" display="http://www.cazy.org/GT63.html" xr:uid="{2FB559E8-ACCF-4FCB-878F-28CC45E9FBE8}"/>
+    <hyperlink ref="A300" r:id="rId478" display="http://www.enzyme-database.org/query.php?ec=2.4.1.33" xr:uid="{5CC09543-BAD6-4F28-A59C-CE38F16A5113}"/>
+    <hyperlink ref="B300" r:id="rId479" display="http://www.cazy.org/GT2.html" xr:uid="{22C783E1-FD92-4A67-B2DB-421D7324F31C}"/>
+    <hyperlink ref="A301" r:id="rId480" display="http://www.enzyme-database.org/query.php?ec=2.4.1.34" xr:uid="{9DCFD50D-3AC2-4779-A158-939401716F20}"/>
+    <hyperlink ref="A302" r:id="rId481" display="http://www.enzyme-database.org/query.php?ec=2.4.1.35" xr:uid="{7A1A368A-8FFF-481B-B0C2-2B18AE1D1F90}"/>
+    <hyperlink ref="B302" r:id="rId482" display="http://www.cazy.org/GT1.html" xr:uid="{48AFC8ED-A434-404C-BF13-27F4D20BE437}"/>
+    <hyperlink ref="A303" r:id="rId483" display="http://www.enzyme-database.org/query.php?ec=2.4.1.37" xr:uid="{E13C984E-5476-4DD5-BA9B-48BA9C673D8F}"/>
+    <hyperlink ref="A304" r:id="rId484" display="http://www.enzyme-database.org/query.php?ec=2.4.1.38" xr:uid="{A5341025-9373-408A-9929-3CD28FF14BC6}"/>
+    <hyperlink ref="B304" r:id="rId485" display="http://www.cazy.org/GT7.html" xr:uid="{8F7AF297-B400-40C0-ACC2-28BA22927CBF}"/>
+    <hyperlink ref="A305" r:id="rId486" display="http://www.enzyme-database.org/query.php?ec=2.4.1.40" xr:uid="{24F7B20E-7C4F-4C7E-8A81-915CBEE836A8}"/>
+    <hyperlink ref="B305" r:id="rId487" display="http://www.cazy.org/GT6.html" xr:uid="{7DD43090-3A27-44F1-B5CB-EF9F85CFB51F}"/>
+    <hyperlink ref="A306" r:id="rId488" display="http://www.enzyme-database.org/query.php?ec=2.4.1.41" xr:uid="{C21CB325-502A-42CA-BD56-1996546968B9}"/>
+    <hyperlink ref="B306" r:id="rId489" display="http://www.cazy.org/GT27.html" xr:uid="{E1BEA024-8EFB-4340-BF95-73A6FF9B6942}"/>
+    <hyperlink ref="A307" r:id="rId490" display="http://www.enzyme-database.org/query.php?ec=2.4.1.44" xr:uid="{ACD0371D-8A73-45B3-AC08-20EEE3D7A86F}"/>
+    <hyperlink ref="B307" r:id="rId491" display="http://www.cazy.org/GT8.html" xr:uid="{215AACB1-5BDD-413D-BDB8-53B1D8718185}"/>
+    <hyperlink ref="A308" r:id="rId492" display="http://www.enzyme-database.org/query.php?ec=2.4.1.45" xr:uid="{D5F7FC52-254B-4BB0-A264-01CBF360E34A}"/>
+    <hyperlink ref="B308" r:id="rId493" display="http://www.cazy.org/GT1.html" xr:uid="{CD646A6F-6719-4A0D-B858-3504D05035F0}"/>
+    <hyperlink ref="A309" r:id="rId494" display="http://www.enzyme-database.org/query.php?ec=2.4.1.46" xr:uid="{0CD2345C-92BB-421E-A9FB-AA00A0B52904}"/>
+    <hyperlink ref="A310" r:id="rId495" display="http://www.enzyme-database.org/query.php?ec=2.4.1.47" xr:uid="{C180C134-C256-42E8-BAC9-9EAC4387AE63}"/>
+    <hyperlink ref="B310" r:id="rId496" display="http://www.cazy.org/GT1.html" xr:uid="{917E3984-592B-4B81-89DE-C924D967139D}"/>
+    <hyperlink ref="A311" r:id="rId497" display="http://www.enzyme-database.org/query.php?ec=2.4.1.50" xr:uid="{9CA824D9-C90F-431A-AB00-283316E76AF7}"/>
+    <hyperlink ref="B311" r:id="rId498" display="http://www.cazy.org/GT25.html" xr:uid="{115D3AB8-8C9D-4322-9021-383C8DD7DA92}"/>
+    <hyperlink ref="A312" r:id="rId499" display="http://www.enzyme-database.org/query.php?ec=2.4.1.52" xr:uid="{C3E23021-AF06-42B9-B578-F2CA7EE232C8}"/>
+    <hyperlink ref="B312" r:id="rId500" display="http://www.cazy.org/GT4.html" xr:uid="{A0B6B725-7C8A-4C64-9918-91F0558358BF}"/>
+    <hyperlink ref="A313" r:id="rId501" display="http://www.enzyme-database.org/query.php?ec=2.4.1.56" xr:uid="{E24AE146-35C6-47CD-902A-66DD265CE6CA}"/>
+    <hyperlink ref="A314" r:id="rId502" display="http://www.enzyme-database.org/query.php?ec=2.4.1.57" xr:uid="{248904BA-0190-4B0B-B395-9E72C73366EA}"/>
+    <hyperlink ref="B314" r:id="rId503" display="http://www.cazy.org/GT4.html" xr:uid="{53D670F7-170B-4D4B-81D2-07103B6D2CEC}"/>
+    <hyperlink ref="A315" r:id="rId504" display="http://www.enzyme-database.org/query.php?ec=2.4.1.58" xr:uid="{4D684305-56EE-4013-8547-FE7A07A54CE9}"/>
+    <hyperlink ref="B315" r:id="rId505" display="http://www.cazy.org/GT8.html" xr:uid="{CC5D3F9A-67CC-4A98-B017-882D6A748C41}"/>
+    <hyperlink ref="A316" r:id="rId506" display="http://www.enzyme-database.org/query.php?ec=2.4.1.65" xr:uid="{F595EAB2-9769-4D48-8535-58A409BC38AB}"/>
+    <hyperlink ref="B316" r:id="rId507" display="http://www.cazy.org/GT10.html" xr:uid="{AEB7748F-2C6A-4DF2-B85C-E4D992200853}"/>
+    <hyperlink ref="A317" r:id="rId508" display="http://www.enzyme-database.org/query.php?ec=2.4.1.66" xr:uid="{FD32E887-3A28-4F49-B5AF-BDD50624B12B}"/>
+    <hyperlink ref="B317" r:id="rId509" display="http://www.cazy.org/GT0.html" xr:uid="{F4937C10-4198-414F-B6B0-8E635457D2CE}"/>
+    <hyperlink ref="A318" r:id="rId510" display="http://www.enzyme-database.org/query.php?ec=2.4.1.68" xr:uid="{645A3814-3097-4428-8EDD-DDF9F477B45E}"/>
+    <hyperlink ref="B318" r:id="rId511" display="http://www.cazy.org/GT23.html" xr:uid="{6E3C7286-3B35-4045-A5D5-5A24B63DD866}"/>
+    <hyperlink ref="A319" r:id="rId512" display="http://www.enzyme-database.org/query.php?ec=2.4.1.69" xr:uid="{125D0950-D7A7-4324-AB85-3AC9BF891919}"/>
+    <hyperlink ref="A320" r:id="rId513" display="http://www.enzyme-database.org/query.php?ec=2.4.1.79" xr:uid="{53DE0481-27CC-4287-BF30-3838675E5086}"/>
+    <hyperlink ref="B320" r:id="rId514" display="http://www.cazy.org/GT31.html" xr:uid="{2F7F2FE7-FAF0-438C-B350-115A0AE04066}"/>
+    <hyperlink ref="A321" r:id="rId515" display="http://www.enzyme-database.org/query.php?ec=2.4.1.80" xr:uid="{0CB1C042-3630-4F80-A581-A1511D140215}"/>
+    <hyperlink ref="A322" r:id="rId516" display="http://www.enzyme-database.org/query.php?ec=2.4.1.83" xr:uid="{55112CA3-94DE-44AF-A162-63B39CA76C9C}"/>
+    <hyperlink ref="B322" r:id="rId517" display="http://www.cazy.org/GT2.html" xr:uid="{57F0D69D-0544-4B3C-A9C9-92235FA15EB3}"/>
+    <hyperlink ref="A323" r:id="rId518" display="http://www.enzyme-database.org/query.php?ec=2.4.1.87" xr:uid="{8FF17ABE-F52D-46CB-98E9-537E59934169}"/>
+    <hyperlink ref="B323" r:id="rId519" display="http://www.cazy.org/GT6.html" xr:uid="{1644C924-96DB-41BF-A572-E3E54431495E}"/>
+    <hyperlink ref="A324" r:id="rId520" display="http://www.enzyme-database.org/query.php?ec=2.4.1.88" xr:uid="{53F63336-93A9-435C-9BCF-E72A25133F49}"/>
+    <hyperlink ref="B324" r:id="rId521" display="http://www.cazy.org/GT6.html" xr:uid="{50D0822C-7278-4592-A163-0C61E5A09ECE}"/>
+    <hyperlink ref="A325" r:id="rId522" display="http://www.enzyme-database.org/query.php?ec=2.4.1.90" xr:uid="{9C773FE4-61FE-47DF-A742-195592001521}"/>
+    <hyperlink ref="B325" r:id="rId523" display="http://www.cazy.org/GT7.html" xr:uid="{6361C09C-48AA-4F0E-A696-36254082215F}"/>
+    <hyperlink ref="A326" r:id="rId524" display="http://www.enzyme-database.org/query.php?ec=2.4.1.91" xr:uid="{C0C98394-E3C9-4595-A2E8-A23A8FB883B7}"/>
+    <hyperlink ref="B326" r:id="rId525" display="http://www.cazy.org/GT1.html" xr:uid="{78A955DA-1B83-4E36-8741-33231347A5D9}"/>
+    <hyperlink ref="A327" r:id="rId526" display="http://www.enzyme-database.org/query.php?ec=2.4.1.92" xr:uid="{F8DD5F73-7241-46D6-AD3B-7DB2D60DAA44}"/>
+    <hyperlink ref="B327" r:id="rId527" display="http://www.cazy.org/GT12.html" xr:uid="{8896AA8B-02B2-42BB-85C5-66763657947B}"/>
+    <hyperlink ref="A328" r:id="rId528" display="http://www.enzyme-database.org/query.php?ec=2.4.1.101" xr:uid="{684162A6-3389-4FDE-B9F4-A7E3BDC6CB9D}"/>
+    <hyperlink ref="B328" r:id="rId529" display="http://www.cazy.org/GT13.html" xr:uid="{9E106DE2-9682-4B85-A040-A9CEAD247896}"/>
+    <hyperlink ref="A329" r:id="rId530" display="http://www.enzyme-database.org/query.php?ec=2.4.1.102" xr:uid="{CE7C6E36-39A2-4249-BBA3-57D42BF17233}"/>
+    <hyperlink ref="B329" r:id="rId531" display="http://www.cazy.org/GT14.html" xr:uid="{BF93DFB8-8F56-49B1-88F6-91C28E036520}"/>
+    <hyperlink ref="A330" r:id="rId532" display="http://www.enzyme-database.org/query.php?ec=2.4.1.109" xr:uid="{17400D61-6517-43D3-838D-E584C6F4BFF8}"/>
+    <hyperlink ref="A331" r:id="rId533" display="http://www.enzyme-database.org/query.php?ec=2.4.1.115" xr:uid="{6CA7C788-0FA0-4525-AF23-5ED6CF50673D}"/>
+    <hyperlink ref="B331" r:id="rId534" display="http://www.cazy.org/GT1.html" xr:uid="{CA446890-3D74-4FE7-9B01-3D293EF1F6B6}"/>
+    <hyperlink ref="A332" r:id="rId535" display="http://www.enzyme-database.org/query.php?ec=2.4.1.117" xr:uid="{82EEEDDF-09D8-40A6-A228-49C3AC655B2A}"/>
+    <hyperlink ref="B332" r:id="rId536" display="http://www.cazy.org/GT2.html" xr:uid="{985AC923-CA66-491D-A9A1-426EE36605D8}"/>
+    <hyperlink ref="A333" r:id="rId537" display="http://www.enzyme-database.org/query.php?ec=2.4.1.120" xr:uid="{089B7D3F-289C-43E7-866C-831434F94E64}"/>
+    <hyperlink ref="B333" r:id="rId538" display="http://www.cazy.org/GT1.html" xr:uid="{78E95C4D-69BA-4900-BB5E-ECE658842D95}"/>
+    <hyperlink ref="A334" r:id="rId539" display="http://www.enzyme-database.org/query.php?ec=2.4.1.121" xr:uid="{E78CADE1-5048-401D-9B2C-768DDD4C186B}"/>
+    <hyperlink ref="B334" r:id="rId540" display="http://www.cazy.org/GT1.html" xr:uid="{CC04FCE7-64E6-47E3-99DE-65E3A69F97ED}"/>
+    <hyperlink ref="A335" r:id="rId541" display="http://www.enzyme-database.org/query.php?ec=2.4.1.122" xr:uid="{EBC11CB1-BEB2-4869-A75B-945069266618}"/>
+    <hyperlink ref="B335" r:id="rId542" display="http://www.cazy.org/GT31.html" xr:uid="{1CD5B706-05EA-4277-859C-DAEAB1553A9A}"/>
+    <hyperlink ref="A336" r:id="rId543" display="http://www.enzyme-database.org/query.php?ec=2.4.1.123" xr:uid="{1C523D83-4278-4D20-A0F6-DCDB7F97406C}"/>
+    <hyperlink ref="B336" r:id="rId544" display="http://www.cazy.org/GT8.html" xr:uid="{1A5602CD-167B-4520-B540-1C2D5F5545F3}"/>
+    <hyperlink ref="A337" r:id="rId545" display="http://www.enzyme-database.org/query.php?ec=2.4.1.128" xr:uid="{BD74BFC0-436A-4C3E-8DF3-A3658D265A01}"/>
+    <hyperlink ref="B337" r:id="rId546" display="http://www.cazy.org/GT1.html" xr:uid="{296CF131-FCFC-427E-AAF5-6DC9629521EA}"/>
+    <hyperlink ref="A338" r:id="rId547" display="http://www.enzyme-database.org/query.php?ec=2.4.1.129" xr:uid="{92EBC909-FD12-4A80-8CC0-15BA1B1F1909}"/>
+    <hyperlink ref="B338" r:id="rId548" display="http://www.cazy.org/GT51.html" xr:uid="{D5480597-C77F-4D9C-8F12-2A76620239BD}"/>
+    <hyperlink ref="A339" r:id="rId549" display="http://www.enzyme-database.org/query.php?ec=2.4.1.131" xr:uid="{198A1C18-B519-48D2-A840-32DBEBDAA045}"/>
+    <hyperlink ref="A340" r:id="rId550" display="http://www.enzyme-database.org/query.php?ec=2.4.1.132" xr:uid="{7DCD6A37-B049-4E4B-BFE9-5C9024E8C5CA}"/>
+    <hyperlink ref="B340" r:id="rId551" display="http://www.cazy.org/GT4.html" xr:uid="{718F1C9B-D6BB-4A35-A3AF-B0C7D80C2266}"/>
+    <hyperlink ref="A341" r:id="rId552" display="http://www.enzyme-database.org/query.php?ec=2.4.1.133" xr:uid="{EEE9E492-9E26-4899-BAFC-EA61AEB6486B}"/>
+    <hyperlink ref="B341" r:id="rId553" display="http://www.cazy.org/GT7.html" xr:uid="{E891A145-9474-4F4B-9EEE-6ABFF7D1F857}"/>
+    <hyperlink ref="A342" r:id="rId554" display="http://www.enzyme-database.org/query.php?ec=2.4.1.134" xr:uid="{BF5A5CA3-E185-4900-9F69-4A45948E6513}"/>
+    <hyperlink ref="B342" r:id="rId555" display="http://www.cazy.org/GT31.html" xr:uid="{2CB19A4F-44DD-4FAA-93D8-4551FA60F158}"/>
+    <hyperlink ref="A343" r:id="rId556" display="http://www.enzyme-database.org/query.php?ec=2.4.1.135" xr:uid="{4FD2CB07-A957-48CF-A2BD-D365A6A9C2E9}"/>
+    <hyperlink ref="B343" r:id="rId557" display="http://www.cazy.org/GT43.html" xr:uid="{9AC6B125-01C9-457F-9F49-74C0BB396215}"/>
+    <hyperlink ref="A344" r:id="rId558" display="http://www.enzyme-database.org/query.php?ec=2.4.1.142" xr:uid="{E768CE23-2631-462C-B527-86D6490870FE}"/>
+    <hyperlink ref="B344" r:id="rId559" display="http://www.cazy.org/GT33.html" xr:uid="{553DF08F-7A5D-454B-8E3F-C25841F7DF30}"/>
+    <hyperlink ref="A345" r:id="rId560" display="http://www.enzyme-database.org/query.php?ec=2.4.1.143" xr:uid="{C256BB37-6101-498E-A84B-36343DDF1B7B}"/>
+    <hyperlink ref="B345" r:id="rId561" display="http://www.cazy.org/GT16.html" xr:uid="{2C88BB03-73FF-4013-98E4-30ECC149FBC2}"/>
+    <hyperlink ref="A346" r:id="rId562" display="http://www.enzyme-database.org/query.php?ec=2.4.1.144" xr:uid="{3E73AF42-2708-448D-B44D-DEA1C98D77EE}"/>
+    <hyperlink ref="B346" r:id="rId563" display="http://www.cazy.org/GT17.html" xr:uid="{A1F805F4-FDBE-4403-AF53-A3A805451443}"/>
+    <hyperlink ref="A347" r:id="rId564" display="http://www.enzyme-database.org/query.php?ec=2.4.1.145" xr:uid="{13A02134-97A0-4C46-B053-EE8D48543999}"/>
+    <hyperlink ref="B347" r:id="rId565" display="http://www.cazy.org/GT54.html" xr:uid="{ECDB1CCD-A540-4F9A-BD8C-8CE1DEDE2981}"/>
+    <hyperlink ref="A348" r:id="rId566" display="http://www.enzyme-database.org/query.php?ec=2.4.1.149" xr:uid="{0FD821F6-16F6-4BFE-8187-85DC81979D6A}"/>
+    <hyperlink ref="A349" r:id="rId567" display="http://www.enzyme-database.org/query.php?ec=2.4.1.150" xr:uid="{0395E11D-1A3A-4AF6-93B5-2B6AFB58FF14}"/>
+    <hyperlink ref="B349" r:id="rId568" display="http://www.cazy.org/GT14.html" xr:uid="{C5899305-2ECA-4741-BE55-A856CA2CB229}"/>
+    <hyperlink ref="A350" r:id="rId569" display="http://www.enzyme-database.org/query.php?ec=2.4.1.152" xr:uid="{FCC5811E-0A9C-4F91-B32F-9E99632444A8}"/>
+    <hyperlink ref="B350" r:id="rId570" display="http://www.cazy.org/GT10.html" xr:uid="{4E2EC124-F266-4B62-95E1-9877A7D497A0}"/>
+    <hyperlink ref="A351" r:id="rId571" display="http://www.enzyme-database.org/query.php?ec=2.4.1.155" xr:uid="{C0B0C3D1-F017-47BA-9D6B-D996C11C235B}"/>
+    <hyperlink ref="B351" r:id="rId572" display="http://www.cazy.org/GT18.html" xr:uid="{7DC43F5A-D6FB-47E6-84F1-8029AAC22D6B}"/>
+    <hyperlink ref="A352" r:id="rId573" display="http://www.enzyme-database.org/query.php?ec=2.4.1.157" xr:uid="{6FBB669A-BA65-4AA6-B101-8ECBD07222C4}"/>
+    <hyperlink ref="A353" r:id="rId574" display="http://www.enzyme-database.org/query.php?ec=2.4.1.159" xr:uid="{0F42A1CA-4438-4C6A-ABC7-02AE5E33898E}"/>
+    <hyperlink ref="B353" r:id="rId575" display="http://www.cazy.org/GT1.html" xr:uid="{8CD5F932-491C-4AE0-8093-586C42D10D42}"/>
+    <hyperlink ref="A354" r:id="rId576" display="http://www.enzyme-database.org/query.php?ec=2.4.1.170" xr:uid="{0EE09556-2F14-4E55-BA54-700A493CC737}"/>
+    <hyperlink ref="B354" r:id="rId577" display="http://www.cazy.org/GT1.html" xr:uid="{ECC814B0-EE44-4E56-8CF5-A870CA54F369}"/>
+    <hyperlink ref="A355" r:id="rId578" display="http://www.enzyme-database.org/query.php?ec=2.4.1.173" xr:uid="{7C72061D-63F3-4947-83F6-FB95FBA1759E}"/>
+    <hyperlink ref="B355" r:id="rId579" display="http://www.cazy.org/GT1.html" xr:uid="{953DAB05-F514-4B84-BC0A-3AB809705849}"/>
+    <hyperlink ref="A356" r:id="rId580" display="http://www.enzyme-database.org/query.php?ec=2.4.1.174" xr:uid="{ADE79EFB-6696-420B-BE1C-F74700E16EA2}"/>
+    <hyperlink ref="B356" r:id="rId581" display="http://www.cazy.org/GT7.html" xr:uid="{EFFA20B9-3EA2-405E-8039-5F13F2224EEE}"/>
+    <hyperlink ref="A357" r:id="rId582" display="http://www.enzyme-database.org/query.php?ec=2.4.1.175" xr:uid="{963AE470-D4E1-4834-810D-B4AC5AB8FD54}"/>
+    <hyperlink ref="A358" r:id="rId583" display="http://www.enzyme-database.org/query.php?ec=2.4.1.177" xr:uid="{82138650-35FD-4585-8691-B6A538A22724}"/>
+    <hyperlink ref="B358" r:id="rId584" display="http://www.cazy.org/GT1.html" xr:uid="{C52EE271-D589-4795-BA8F-184133339A05}"/>
+    <hyperlink ref="A359" r:id="rId585" display="http://www.enzyme-database.org/query.php?ec=2.4.1.182" xr:uid="{C5AFE64D-8EC5-46EA-8E57-83C338F04AA2}"/>
+    <hyperlink ref="B359" r:id="rId586" display="http://www.cazy.org/GT19.html" xr:uid="{7CC0D504-4536-4886-864A-3ADA1FCDD88C}"/>
+    <hyperlink ref="A360" r:id="rId587" display="http://www.enzyme-database.org/query.php?ec=2.4.1.183" xr:uid="{5653ACE0-DB20-41F9-ABB0-B51D96D33611}"/>
+    <hyperlink ref="B360" r:id="rId588" display="http://www.cazy.org/GT5.html" xr:uid="{C9717E5A-8242-4D6F-A514-808ADC7CCDD8}"/>
+    <hyperlink ref="A361" r:id="rId589" display="http://www.enzyme-database.org/query.php?ec=2.4.1.185" xr:uid="{D548AA26-7B1B-4DE9-A5A3-9093D8F49371}"/>
+    <hyperlink ref="B361" r:id="rId590" display="http://www.cazy.org/GT1.html" xr:uid="{8C790B1C-93A3-41E7-9687-391BF95BCCEF}"/>
+    <hyperlink ref="A362" r:id="rId591" display="http://www.enzyme-database.org/query.php?ec=2.4.1.186" xr:uid="{9B395980-8BD3-44D6-A8F8-58A1408120CB}"/>
+    <hyperlink ref="B362" r:id="rId592" display="http://www.cazy.org/GT8.html" xr:uid="{F55D9340-DF09-4287-89F4-557BC6C191D5}"/>
+    <hyperlink ref="A363" r:id="rId593" display="http://www.enzyme-database.org/query.php?ec=2.4.1.189" xr:uid="{87898C20-D384-44DD-8E66-4D6467E8E248}"/>
+    <hyperlink ref="B363" r:id="rId594" display="http://www.cazy.org/GT1.html" xr:uid="{B34060C2-A4C1-4D66-A221-A30CF799C154}"/>
+    <hyperlink ref="A364" r:id="rId595" display="http://www.enzyme-database.org/query.php?ec=2.4.1.194" xr:uid="{71D7C7CE-1302-409D-914C-E8901A36BAB5}"/>
+    <hyperlink ref="B364" r:id="rId596" display="http://www.cazy.org/GT1.html" xr:uid="{98943441-30F8-4577-8E51-5227AA8EB593}"/>
+    <hyperlink ref="A365" r:id="rId597" display="http://www.enzyme-database.org/query.php?ec=2.4.1.195" xr:uid="{74BD4F5A-E993-4468-9BB7-95443FA214F3}"/>
+    <hyperlink ref="B365" r:id="rId598" display="http://www.cazy.org/GT1.html" xr:uid="{E7D726C6-0901-49F9-90B5-509F8B1C0379}"/>
+    <hyperlink ref="A366" r:id="rId599" display="http://www.enzyme-database.org/query.php?ec=2.4.1.198" xr:uid="{8613BC03-4ADA-4371-82B3-CE953069C12D}"/>
+    <hyperlink ref="B366" r:id="rId600" display="http://www.cazy.org/GT4.html" xr:uid="{C5BC5043-D830-4B31-B20B-531A323FA9CF}"/>
+    <hyperlink ref="A367" r:id="rId601" display="http://www.enzyme-database.org/query.php?ec=2.4.1.199" xr:uid="{E53C0FF8-489F-43DD-8B8A-443FC8A83444}"/>
+    <hyperlink ref="B367" r:id="rId602" display="http://www.cazy.org/GT2.html" xr:uid="{FDD8C3E5-8A8D-4BD7-86DE-D5F3F63EE836}"/>
+    <hyperlink ref="A368" r:id="rId603" display="http://www.enzyme-database.org/query.php?ec=2.4.1.202" xr:uid="{B681F483-D36A-49EE-A05C-068A4958CB72}"/>
+    <hyperlink ref="B368" r:id="rId604" display="http://www.cazy.org/GT1.html" xr:uid="{25604B56-2303-46BD-B2C1-E981640F5848}"/>
+    <hyperlink ref="A369" r:id="rId605" display="http://www.enzyme-database.org/query.php?ec=2.4.1.203" xr:uid="{9BB53A4B-1D9C-41EE-B168-33133265786C}"/>
+    <hyperlink ref="B369" r:id="rId606" display="http://www.cazy.org/GT1.html" xr:uid="{CA0532B2-252B-47F3-9645-A5CCE296BF88}"/>
+    <hyperlink ref="A370" r:id="rId607" display="http://www.enzyme-database.org/query.php?ec=2.4.1.208" xr:uid="{788B56E2-A1D1-46A6-98E7-255C3FA5A7CC}"/>
+    <hyperlink ref="B370" r:id="rId608" display="http://www.cazy.org/GT4.html" xr:uid="{5F9A052D-9B21-49AE-98E8-8987FD7966D6}"/>
+    <hyperlink ref="A371" r:id="rId609" display="http://www.enzyme-database.org/query.php?ec=2.4.1.210" xr:uid="{504CE031-B17F-4EA4-A8B2-07D4FBB7D113}"/>
+    <hyperlink ref="B371" r:id="rId610" display="http://www.cazy.org/GT1.html" xr:uid="{3E014469-4463-4BBB-A436-FEE0AB2FF620}"/>
+    <hyperlink ref="A372" r:id="rId611" display="http://www.enzyme-database.org/query.php?ec=2.4.1.212" xr:uid="{4A4FDA76-4A4B-4824-B805-1EC421A5F576}"/>
+    <hyperlink ref="B372" r:id="rId612" display="http://www.cazy.org/GT2.html" xr:uid="{BE3EAD98-2D71-48D6-AABC-7D666CBAB15E}"/>
+    <hyperlink ref="A373" r:id="rId613" display="http://www.enzyme-database.org/query.php?ec=2.4.1.213" xr:uid="{28020C68-53D6-4BF7-B310-9FF851E29F5E}"/>
+    <hyperlink ref="B373" r:id="rId614" display="http://www.cazy.org/GT20.html" xr:uid="{B2DA658C-EE3C-477E-B0AC-7347BA44E408}"/>
+    <hyperlink ref="A374" r:id="rId615" display="http://www.enzyme-database.org/query.php?ec=2.4.1.214" xr:uid="{9A32DD6D-DBA2-464E-93B8-C04FFAC1FD53}"/>
+    <hyperlink ref="B374" r:id="rId616" display="http://www.cazy.org/GT10.html" xr:uid="{A6492E7E-A358-46F2-8E44-553B9841DB13}"/>
+    <hyperlink ref="A375" r:id="rId617" display="http://www.enzyme-database.org/query.php?ec=2.4.1.215" xr:uid="{543019FE-625E-4688-9F39-3CD935A98150}"/>
+    <hyperlink ref="B375" r:id="rId618" display="http://www.cazy.org/GT1.html" xr:uid="{1FC1D3A5-86A0-4FF5-8996-F1FEFF627C29}"/>
+    <hyperlink ref="A376" r:id="rId619" display="http://www.enzyme-database.org/query.php?ec=2.4.1.217" xr:uid="{73A9B673-8A04-4FBF-84DF-C012F2FAF376}"/>
+    <hyperlink ref="A377" r:id="rId620" display="http://www.enzyme-database.org/query.php?ec=2.4.1.221" xr:uid="{DDC6FAAA-7742-45FC-994A-8053C5578B84}"/>
+    <hyperlink ref="B377" r:id="rId621" display="http://www.cazy.org/GT65.html" xr:uid="{956ED24C-AA69-456E-AB90-4A86476ED5C7}"/>
+    <hyperlink ref="A378" r:id="rId622" display="http://www.enzyme-database.org/query.php?ec=2.4.1.222" xr:uid="{1E7A8FD1-EF21-4C9F-B6A3-ED9D6828DA7E}"/>
+    <hyperlink ref="B378" r:id="rId623" display="http://www.cazy.org/GT31.html" xr:uid="{FD1609F5-F5EB-4913-AD8D-7006FACC10EB}"/>
+    <hyperlink ref="A379" r:id="rId624" display="http://www.enzyme-database.org/query.php?ec=2.4.1.223" xr:uid="{B63F620F-8E40-4027-B817-67CCB149270E}"/>
+    <hyperlink ref="A380" r:id="rId625" display="http://www.enzyme-database.org/query.php?ec=2.4.1.224" xr:uid="{FCC35D8D-9D2E-4461-821E-CFF582E5BEA2}"/>
+    <hyperlink ref="A381" r:id="rId626" display="http://www.enzyme-database.org/query.php?ec=2.4.1.225" xr:uid="{491E59DF-31E8-4115-8F68-AC9F567064FD}"/>
+    <hyperlink ref="A382" r:id="rId627" display="http://www.enzyme-database.org/query.php?ec=2.4.1.226" xr:uid="{73055DCC-46D4-4C6C-94D2-9C3F3A0D20E2}"/>
+    <hyperlink ref="A383" r:id="rId628" display="http://www.enzyme-database.org/query.php?ec=2.4.1.227" xr:uid="{52A501AA-BE7E-4632-8189-BCD0316F9DD7}"/>
+    <hyperlink ref="B383" r:id="rId629" display="http://www.cazy.org/GT28.html" xr:uid="{524CE7ED-A632-4EA4-BBA3-7A56770611DF}"/>
+    <hyperlink ref="A384" r:id="rId630" display="http://www.enzyme-database.org/query.php?ec=2.4.1.231" xr:uid="{743BD659-D30B-4D02-938C-1AAA035A6230}"/>
+    <hyperlink ref="B384" r:id="rId631" display="http://www.cazy.org/GT4.html" xr:uid="{8BA09160-360A-42AA-ABF4-65252BE22C2C}"/>
+    <hyperlink ref="A385" r:id="rId632" display="http://www.enzyme-database.org/query.php?ec=2.4.1.234" xr:uid="{AAAA708E-909C-4BE4-ACA2-C694D83BBFC7}"/>
+    <hyperlink ref="B385" r:id="rId633" display="http://www.cazy.org/GT1.html" xr:uid="{C288FD6F-4E5D-4CCD-836B-67A746321CEA}"/>
+    <hyperlink ref="A386" r:id="rId634" display="http://www.enzyme-database.org/query.php?ec=2.4.1.237" xr:uid="{30E4517C-846D-45FB-8F2E-6B91C396A767}"/>
+    <hyperlink ref="B386" r:id="rId635" display="http://www.cazy.org/GT1.html" xr:uid="{87743CE2-D841-41D8-A526-A8ECC9DC56FD}"/>
+    <hyperlink ref="A387" r:id="rId636" display="http://www.enzyme-database.org/query.php?ec=2.4.1.238" xr:uid="{F2381F48-A682-4BA5-8332-B55A84E200DA}"/>
+    <hyperlink ref="B387" r:id="rId637" display="http://www.cazy.org/GT1.html" xr:uid="{F089CC11-DAB2-4592-8CE8-E182C8A7B48E}"/>
+    <hyperlink ref="A388" r:id="rId638" display="http://www.enzyme-database.org/query.php?ec=2.4.1.241" xr:uid="{4BC3D3D8-A3D7-41EB-84DF-BABF184DB430}"/>
+    <hyperlink ref="A389" r:id="rId639" display="http://www.enzyme-database.org/query.php?ec=2.4.1.242" xr:uid="{849B4C56-C115-48DC-B804-D286A0E89AB1}"/>
+    <hyperlink ref="B389" r:id="rId640" display="http://www.cazy.org/GT5.html" xr:uid="{7720A9AE-93D4-4D9F-9A3D-AA78B25EABED}"/>
+    <hyperlink ref="A390" r:id="rId641" display="http://www.enzyme-database.org/query.php?ec=2.4.1.245" xr:uid="{6FB71D70-20F3-4363-BC00-C33FFF2976AE}"/>
+    <hyperlink ref="B390" r:id="rId642" display="http://www.cazy.org/GT4.html" xr:uid="{39918779-822A-4495-9FA0-F3CD2A1C67E8}"/>
+    <hyperlink ref="A391" r:id="rId643" display="http://www.enzyme-database.org/query.php?ec=2.4.1.251" xr:uid="{8208AAB4-E37F-4430-B9E2-3DD1E755A07C}"/>
+    <hyperlink ref="B391" r:id="rId644" display="http://www.cazy.org/GT94.html" xr:uid="{FA50ECAE-5FA7-4E8B-B26D-4CAE60346572}"/>
+    <hyperlink ref="A392" r:id="rId645" display="http://www.enzyme-database.org/query.php?ec=2.4.1.252" xr:uid="{D30E1345-DA17-4771-BA43-B148911B0365}"/>
+    <hyperlink ref="B392" r:id="rId646" display="http://www.cazy.org/GT4.html" xr:uid="{642D0C46-D3FB-4DA3-B842-6EF84B54DD83}"/>
+    <hyperlink ref="A393" r:id="rId647" display="http://www.enzyme-database.org/query.php?ec=2.4.1.253" xr:uid="{F388454E-6FC2-475E-9499-4D2B930D4E13}"/>
+    <hyperlink ref="B393" r:id="rId648" display="http://www.cazy.org/GT1.html" xr:uid="{BF111348-E47C-4F04-882A-0571FACB896F}"/>
+    <hyperlink ref="A394" r:id="rId649" display="http://www.enzyme-database.org/query.php?ec=2.4.1.255" xr:uid="{92ED25CA-7673-4975-B9C6-E5BDDB24F875}"/>
+    <hyperlink ref="A395" r:id="rId650" display="http://www.enzyme-database.org/query.php?ec=2.4.1.256" xr:uid="{9E60076B-BB15-48F2-8158-56424281D2C1}"/>
+    <hyperlink ref="B395" r:id="rId651" display="http://www.cazy.org/GT59.html" xr:uid="{0BF0046B-0464-435A-920E-4CA12E4E78A1}"/>
+    <hyperlink ref="A396" r:id="rId652" display="http://www.enzyme-database.org/query.php?ec=2.4.1.257" xr:uid="{4A8D6197-6F5C-47D5-99AA-99BEF6B0C39C}"/>
+    <hyperlink ref="A397" r:id="rId653" display="http://www.enzyme-database.org/query.php?ec=2.4.1.258" xr:uid="{59B4A6AD-8EA8-4C38-A1BA-DACBBD153520}"/>
+    <hyperlink ref="B397" r:id="rId654" display="http://www.cazy.org/GT58.html" xr:uid="{6C2A2FE4-1ADC-461A-8412-AE9417272041}"/>
+    <hyperlink ref="A398" r:id="rId655" display="http://www.enzyme-database.org/query.php?ec=2.4.1.259" xr:uid="{09076308-7387-4D8C-BDB6-35808189920E}"/>
+    <hyperlink ref="B398" r:id="rId656" display="http://www.cazy.org/GT22.html" xr:uid="{0F4B28E8-DF98-477A-B659-C6000C1A4103}"/>
+    <hyperlink ref="A399" r:id="rId657" display="http://www.enzyme-database.org/query.php?ec=2.4.1.260" xr:uid="{CB8C3D7A-2819-4CC9-AC93-C77EBDB89C12}"/>
+    <hyperlink ref="B399" r:id="rId658" display="http://www.cazy.org/GT22.html" xr:uid="{7439191F-1F88-4D4A-B71B-B0D7E98393D3}"/>
+    <hyperlink ref="A400" r:id="rId659" display="http://www.enzyme-database.org/query.php?ec=2.4.1.261" xr:uid="{745C53AA-546C-49A8-97F1-A788291D49E3}"/>
+    <hyperlink ref="B400" r:id="rId660" display="http://www.cazy.org/GT22.html" xr:uid="{1F40E678-CB91-4AB6-95F0-9B8EFE7D6A65}"/>
+    <hyperlink ref="A401" r:id="rId661" display="http://www.enzyme-database.org/query.php?ec=2.4.1.265" xr:uid="{DB36F5FD-7B2A-4CF7-A04C-FF02C5E3ACF6}"/>
+    <hyperlink ref="B401" r:id="rId662" display="http://www.cazy.org/GT57.html" xr:uid="{5658E5B6-BD53-4427-B847-EA61C1343145}"/>
+    <hyperlink ref="A402" r:id="rId663" display="http://www.enzyme-database.org/query.php?ec=2.4.1.266" xr:uid="{BE5F5A79-EC61-42D6-A691-A24748A99B7E}"/>
+    <hyperlink ref="B402" r:id="rId664" display="http://www.cazy.org/GT81.html" xr:uid="{5933FB7F-4216-43AD-9D12-291B860E47C3}"/>
+    <hyperlink ref="A403" r:id="rId665" display="http://www.enzyme-database.org/query.php?ec=2.4.1.267" xr:uid="{94D433EE-0A34-453F-9E5B-4A7B1E998604}"/>
+    <hyperlink ref="B403" r:id="rId666" display="http://www.cazy.org/GT57.html" xr:uid="{8966F79F-4D89-4976-87DC-4F661F8B271E}"/>
+    <hyperlink ref="A404" r:id="rId667" display="http://www.enzyme-database.org/query.php?ec=2.4.1.270" xr:uid="{780F4282-5C14-47B6-864F-4466B564F7FC}"/>
+    <hyperlink ref="A405" r:id="rId668" display="http://www.enzyme-database.org/query.php?ec=2.4.1.275" xr:uid="{CC7DFFD0-DF3A-4AC2-9E42-03C655CC1BC3}"/>
+    <hyperlink ref="B405" r:id="rId669" display="http://www.cazy.org/GT7.html" xr:uid="{A0522A94-800E-4D2D-89BB-95B47C0F9189}"/>
+    <hyperlink ref="A406" r:id="rId670" display="http://www.enzyme-database.org/query.php?ec=2.4.1.276" xr:uid="{66B0110A-5B63-41D9-B038-5A01A6C1AA7C}"/>
+    <hyperlink ref="B406" r:id="rId671" display="http://www.cazy.org/GT1.html" xr:uid="{85EC6581-5B5C-4398-A251-282A362E0681}"/>
+    <hyperlink ref="A407" r:id="rId672" display="http://www.enzyme-database.org/query.php?ec=2.4.1.283" xr:uid="{51572718-3926-4AF9-ADBB-EB6F19889394}"/>
+    <hyperlink ref="B407" r:id="rId673" display="http://www.cazy.org/GT4.html" xr:uid="{2C12D214-3813-467D-948E-900CF01A5727}"/>
+    <hyperlink ref="A408" r:id="rId674" display="http://www.enzyme-database.org/query.php?ec=2.4.1.285" xr:uid="{B2335507-CF3F-4A56-B9FD-44C4660690AA}"/>
+    <hyperlink ref="B408" r:id="rId675" display="http://www.cazy.org/GT4.html" xr:uid="{B31EDEAF-25D9-458A-9E5D-8227E4EA3DAB}"/>
+    <hyperlink ref="A409" r:id="rId676" display="http://www.enzyme-database.org/query.php?ec=2.4.1.286" xr:uid="{6516BA54-769C-43BA-AB68-59A2012A95C4}"/>
+    <hyperlink ref="B409" r:id="rId677" display="http://www.cazy.org/GT1.html" xr:uid="{8F844FDD-C0B2-4EF4-BDEF-A94F6DA22A4F}"/>
+    <hyperlink ref="A410" r:id="rId678" display="http://www.enzyme-database.org/query.php?ec=2.4.1.287" xr:uid="{5FCFC557-2F8D-4813-A922-07BB8B397BAF}"/>
+    <hyperlink ref="B410" r:id="rId679" display="http://www.cazy.org/GT2.html" xr:uid="{A41543F0-C6A7-4989-BCFB-7B39E51CCC20}"/>
+    <hyperlink ref="A411" r:id="rId680" display="http://www.enzyme-database.org/query.php?ec=2.4.1.288" xr:uid="{3E5BE2B9-7B77-481D-A3D7-2853500B4C34}"/>
+    <hyperlink ref="B411" r:id="rId681" display="http://www.cazy.org/GT2.html" xr:uid="{E4F7E712-7602-4D66-9125-5DE4090A86A8}"/>
+    <hyperlink ref="A412" r:id="rId682" display="http://www.enzyme-database.org/query.php?ec=2.4.1.289" xr:uid="{0E09B00E-13F4-4492-839C-25F3018753A6}"/>
+    <hyperlink ref="A413" r:id="rId683" display="http://www.enzyme-database.org/query.php?ec=2.4.1.290" xr:uid="{5FFC5A87-30D9-43D8-92B0-0A9B1BC12439}"/>
+    <hyperlink ref="B413" r:id="rId684" display="http://www.cazy.org/GT4.html" xr:uid="{A42CE274-F3FA-49A0-96A9-D709187FC97E}"/>
+    <hyperlink ref="A414" r:id="rId685" display="http://www.enzyme-database.org/query.php?ec=2.4.1.302" xr:uid="{5EFFCD52-CAFE-445B-91BF-4404D7B0AC48}"/>
+    <hyperlink ref="B414" r:id="rId686" display="http://www.cazy.org/GT1.html" xr:uid="{DA85FEFA-CECE-4127-92D5-03F0A7AEEFC3}"/>
+    <hyperlink ref="A415" r:id="rId687" display="http://www.enzyme-database.org/query.php?ec=2.4.1.305" xr:uid="{10219540-B60A-495D-AECF-FE189EC875F2}"/>
+    <hyperlink ref="B415" r:id="rId688" display="http://www.cazy.org/GT2.html" xr:uid="{F1592050-E230-40EA-BAEB-D8A4FE0D9B98}"/>
+    <hyperlink ref="A416" r:id="rId689" display="http://www.enzyme-database.org/query.php?ec=2.4.1.333" xr:uid="{184F5FB3-D33D-4D13-8395-3A10B34D9FFB}"/>
+    <hyperlink ref="B416" r:id="rId690" display="http://www.cazy.org/GT84.html" xr:uid="{30EB9CE4-10D1-4FF9-8AD3-DDFEA7454B75}"/>
+    <hyperlink ref="A417" r:id="rId691" display="http://www.enzyme-database.org/query.php?ec=2.4.1.339" xr:uid="{BDD6F19F-64DC-4E43-B00E-1AFE6D65D390}"/>
+    <hyperlink ref="B417" r:id="rId692" display="http://www.cazy.org/GT91.html" xr:uid="{4D44A969-848F-4CA1-9408-624AF6C1EB82}"/>
+    <hyperlink ref="A418" r:id="rId693" display="http://www.enzyme-database.org/query.php?ec=2.4.1.342" xr:uid="{11E76A6F-249D-47BC-A5DC-83CA0EA3FFA1}"/>
+    <hyperlink ref="B418" r:id="rId694" display="http://www.cazy.org/GT4.html" xr:uid="{6C3CEE3F-D4C7-4BFA-8C9A-D652E27CE695}"/>
+    <hyperlink ref="A419" r:id="rId695" display="http://www.enzyme-database.org/query.php?ec=2.4.1.351" xr:uid="{66607E7E-AF98-476C-8733-939190A5DBCB}"/>
+    <hyperlink ref="B419" r:id="rId696" display="http://www.cazy.org/GT106.html" xr:uid="{BB2DFFEF-F130-4C12-88BA-4F5E7DC449B9}"/>
+    <hyperlink ref="A420" r:id="rId697" display="http://www.enzyme-database.org/query.php?ec=2.4.1.360" xr:uid="{3193569D-9D65-4300-8F5F-757456E3FCD5}"/>
+    <hyperlink ref="B420" r:id="rId698" display="http://www.cazy.org/GT1.html" xr:uid="{18AB5B4A-E9AF-4043-B064-1A7F5969FD09}"/>
+    <hyperlink ref="A421" r:id="rId699" display="http://www.enzyme-database.org/query.php?ec=2.4.1.374" xr:uid="{D1632F7A-EB0F-4718-ADC0-8725906544D6}"/>
+    <hyperlink ref="A422" r:id="rId700" display="http://www.enzyme-database.org/query.php?ec=2.4.2.*" xr:uid="{0254E433-8A91-469F-8EA8-F66D210CCEBD}"/>
+    <hyperlink ref="A423" r:id="rId701" display="http://www.enzyme-database.org/query.php?ec=2.4.2.26" xr:uid="{A66F8E06-E5F8-4C9E-8A6A-08FEB291A560}"/>
+    <hyperlink ref="B423" r:id="rId702" display="http://www.cazy.org/GT14.html" xr:uid="{A8DDA507-F3E9-4897-B2A4-046810B8F8F8}"/>
+    <hyperlink ref="A424" r:id="rId703" display="http://www.enzyme-database.org/query.php?ec=2.4.2.38" xr:uid="{8EE900A7-2085-41B1-91DA-58B9BFB68044}"/>
+    <hyperlink ref="B424" r:id="rId704" display="http://www.cazy.org/GT61.html" xr:uid="{2344E712-0823-4F2B-8CFF-E6468EC3E682}"/>
+    <hyperlink ref="A425" r:id="rId705" display="http://www.enzyme-database.org/query.php?ec=2.4.2.39" xr:uid="{C0823454-1F25-4499-98D6-D0D0E348715F}"/>
+    <hyperlink ref="B425" r:id="rId706" display="http://www.cazy.org/GT34.html" xr:uid="{9C632984-0DDA-4C50-A257-3E95029CE4F2}"/>
+    <hyperlink ref="A426" r:id="rId707" display="http://www.enzyme-database.org/query.php?ec=2.4.2.40" xr:uid="{49962D0A-0F8A-4B3A-9C4F-964251818699}"/>
+    <hyperlink ref="B426" r:id="rId708" display="http://www.cazy.org/GT1.html" xr:uid="{45520705-123C-4328-A751-E67372971C74}"/>
+    <hyperlink ref="A427" r:id="rId709" display="http://www.enzyme-database.org/query.php?ec=2.4.2.43" xr:uid="{82CE83F4-A01F-46F0-99D2-B2E86CC3B0A4}"/>
+    <hyperlink ref="B427" r:id="rId710" display="http://www.cazy.org/GT83.html" xr:uid="{AB422344-A460-4A2A-B8E1-86A2654A33AE}"/>
+    <hyperlink ref="A428" r:id="rId711" display="http://www.enzyme-database.org/query.php?ec=2.4.99.*" xr:uid="{0D11D1F5-B43C-4669-8C7A-9E65141CA11F}"/>
+    <hyperlink ref="A429" r:id="rId712" display="http://www.enzyme-database.org/query.php?ec=2.4.99.1" xr:uid="{F0A85EE5-A0DA-4178-9340-847B4DA1FD5C}"/>
+    <hyperlink ref="A430" r:id="rId713" display="http://www.enzyme-database.org/query.php?ec=2.4.99.3" xr:uid="{8C1916E0-5E26-45C9-A874-2CDE48B817D0}"/>
+    <hyperlink ref="A431" r:id="rId714" display="http://www.enzyme-database.org/query.php?ec=2.4.99.4" xr:uid="{F32DB229-90FA-4916-9692-044459A18940}"/>
+    <hyperlink ref="A432" r:id="rId715" display="http://www.enzyme-database.org/query.php?ec=2.4.99.6" xr:uid="{F55097C2-D610-4E8A-9F79-D1468946516F}"/>
+    <hyperlink ref="A433" r:id="rId716" display="http://www.enzyme-database.org/query.php?ec=2.4.99.7" xr:uid="{9FD0E631-69D9-49EC-A277-A3333BC7F13C}"/>
+    <hyperlink ref="B433" r:id="rId717" display="http://www.cazy.org/GT29.html" xr:uid="{F1621FA6-E79A-4201-B1F4-06499D20CB16}"/>
+    <hyperlink ref="A434" r:id="rId718" display="http://www.enzyme-database.org/query.php?ec=2.4.99.8" xr:uid="{BF29D03D-E704-4257-87F4-63165F0FE405}"/>
+    <hyperlink ref="A435" r:id="rId719" display="http://www.enzyme-database.org/query.php?ec=2.4.99.9" xr:uid="{007020A7-72FF-4BC5-8CB6-1799B5C4F651}"/>
+    <hyperlink ref="B435" r:id="rId720" display="http://www.cazy.org/GT29.html" xr:uid="{F3236A9A-32D5-4A1B-86FD-17AC2E71A5D2}"/>
+    <hyperlink ref="A436" r:id="rId721" display="http://www.enzyme-database.org/query.php?ec=2.4.99.18" xr:uid="{CA647DA6-8274-4082-8444-F32DAC775740}"/>
+    <hyperlink ref="B436" r:id="rId722" display="http://www.cazy.org/GT66.html" xr:uid="{D60C51E1-3FBD-455C-B856-5C9D12E88A40}"/>
+    <hyperlink ref="A437" r:id="rId723" display="http://www.enzyme-database.org/query.php?ec=2.4.99.19" xr:uid="{F173DDDF-CF7E-484C-B081-A20BF0A7B6EE}"/>
+    <hyperlink ref="B437" r:id="rId724" display="http://www.cazy.org/GT66.html" xr:uid="{2F6BE171-1562-4DEC-9A25-0B1DA2E7D0B7}"/>
+    <hyperlink ref="A438" r:id="rId725" display="http://www.enzyme-database.org/query.php?ec=3.1.*.*" xr:uid="{0CBE4EC9-A5D4-4BEB-B769-8417798E2D60}"/>
+    <hyperlink ref="B438" r:id="rId726" display="http://www.cazy.org/GT0.html" xr:uid="{7FE1D4D0-D319-4066-8C68-968C4434F879}"/>
+    <hyperlink ref="A439" r:id="rId727" display="http://www.enzyme-database.org/query.php?ec=3.1.3.12" xr:uid="{6D35B192-5810-4382-88C0-E80B5E6E8724}"/>
+    <hyperlink ref="B439" r:id="rId728" display="http://www.cazy.org/GT20.html" xr:uid="{BC141A27-2D29-4C60-821F-A7897B3DB1F9}"/>
+    <hyperlink ref="A440" r:id="rId729" display="http://www.enzyme-database.org/query.php?ec=3.2.1.*" xr:uid="{759C8935-0144-4776-93AC-2BB9BF6B32EF}"/>
+    <hyperlink ref="B440" r:id="rId730" display="http://www.cazy.org/GT80.html" xr:uid="{FB53A599-A7BB-4125-A056-5530AFB043CF}"/>
+    <hyperlink ref="A441" r:id="rId731" display="http://www.enzyme-database.org/query.php?ec=3.2.1.18" xr:uid="{6C3C0F68-ED6C-4268-8B92-4BB11B4BDCAF}"/>
+    <hyperlink ref="B441" r:id="rId732" display="http://www.cazy.org/GT80.html" xr:uid="{2CD7BF08-3A3E-4A03-A5DC-39B1539E07F2}"/>
+    <hyperlink ref="A442" r:id="rId733" display="http://www.enzyme-database.org/query.php?ec=3.5.1.*" xr:uid="{D0637A18-B661-4D85-9C01-44EE5D59F2A5}"/>
+    <hyperlink ref="B442" r:id="rId734" display="http://www.cazy.org/GT4.html" xr:uid="{5208C152-6451-4A38-BD59-3EC63333B3F4}"/>
+    <hyperlink ref="A443" r:id="rId735" display="http://www.enzyme-database.org/query.php?ec=5.4.99.30" xr:uid="{8F9ED7D8-A663-4D08-9F34-3D11BBA05E23}"/>
+    <hyperlink ref="B443" r:id="rId736" display="http://www.cazy.org/GT75.html" xr:uid="{E99A4F8C-3819-45C3-A6A0-FB4E9B26FC29}"/>
+    <hyperlink ref="A444" r:id="rId737" display="http://www.enzyme-database.org/query.php?ec=1.*.*.*" xr:uid="{AD91FCB0-8C6A-4267-9A3B-4BD05B226AA0}"/>
+    <hyperlink ref="B444" r:id="rId738" display="http://www.cazy.org/CBM1.html" xr:uid="{C0E96DAF-BD73-485C-9F33-2D3942129425}"/>
+    <hyperlink ref="A445" r:id="rId739" display="http://www.enzyme-database.org/query.php?ec=1.1.3.9" xr:uid="{877BC5B1-63C2-4597-92E2-0AF799A13A0C}"/>
+    <hyperlink ref="B445" r:id="rId740" display="http://www.cazy.org/CBM32.html" xr:uid="{37E623BF-E963-4777-937A-C5FCAF5DA1BA}"/>
+    <hyperlink ref="A446" r:id="rId741" display="http://www.enzyme-database.org/query.php?ec=1.1.99.18" xr:uid="{91C6435E-C28F-4206-B818-5C1E1FA133C3}"/>
+    <hyperlink ref="B446" r:id="rId742" display="http://www.cazy.org/CBM1.html" xr:uid="{8F4D67F1-5B07-4B49-B29D-E43590BA67EB}"/>
+    <hyperlink ref="A447" r:id="rId743" display="http://www.enzyme-database.org/query.php?ec=1.14.99.53" xr:uid="{C429F853-C9CD-4D9B-9BC9-9EA0137E0433}"/>
+    <hyperlink ref="A448" r:id="rId744" display="http://www.enzyme-database.org/query.php?ec=1.14.99.54" xr:uid="{C7461350-4609-4DF0-8D68-81AF5E4C6AAE}"/>
+    <hyperlink ref="A449" r:id="rId745" display="http://www.enzyme-database.org/query.php?ec=1.14.99.55" xr:uid="{D8D339EE-29CE-4830-989C-4B90A92400F8}"/>
+    <hyperlink ref="B449" r:id="rId746" display="http://www.cazy.org/CBM20.html" xr:uid="{7632F99E-FA5C-41E0-BF65-B5A7B06767F8}"/>
+    <hyperlink ref="A450" r:id="rId747" display="http://www.enzyme-database.org/query.php?ec=1.14.99.56" xr:uid="{B58563C5-412A-4E1D-B976-8E44C7837482}"/>
+    <hyperlink ref="A451" r:id="rId748" display="http://www.enzyme-database.org/query.php?ec=2.4.1.*" xr:uid="{1F25A950-AF18-4FA9-83D4-0804BC647D7E}"/>
+    <hyperlink ref="A452" r:id="rId749" display="http://www.enzyme-database.org/query.php?ec=2.4.1.2" xr:uid="{116B1290-541E-4BB2-B7AF-8182362D1D9F}"/>
+    <hyperlink ref="B452" r:id="rId750" display="http://www.cazy.org/CBM0.html" xr:uid="{7226D1BF-0F36-46C6-B49E-53E82D1F0514}"/>
+    <hyperlink ref="A453" r:id="rId751" display="http://www.enzyme-database.org/query.php?ec=2.4.1.18" xr:uid="{684156C1-0ED6-4BAA-BB61-162168C5617C}"/>
+    <hyperlink ref="B453" r:id="rId752" display="http://www.cazy.org/CBM48.html" xr:uid="{6A2F0064-F3DC-4F02-929E-2177C09D88D2}"/>
+    <hyperlink ref="A454" r:id="rId753" display="http://www.enzyme-database.org/query.php?ec=2.4.1.19" xr:uid="{5EB6FC5F-7C9B-49E8-8D70-210927B898C2}"/>
+    <hyperlink ref="B454" r:id="rId754" display="http://www.cazy.org/CBM20.html" xr:uid="{1217925A-5C03-433A-94BB-8A0ED5A54656}"/>
+    <hyperlink ref="A455" r:id="rId755" display="http://www.enzyme-database.org/query.php?ec=2.4.1.21" xr:uid="{FB3D4860-2486-41BE-88B9-C55A8F35C412}"/>
+    <hyperlink ref="B455" r:id="rId756" display="http://www.cazy.org/CBM53.html" xr:uid="{462AA5D3-4E70-47F9-A78D-A318C9751618}"/>
+    <hyperlink ref="A456" r:id="rId757" display="http://www.enzyme-database.org/query.php?ec=2.4.1.25" xr:uid="{C28B7CBC-821E-4DA4-81B9-803EA032B480}"/>
+    <hyperlink ref="A457" r:id="rId758" display="http://www.enzyme-database.org/query.php?ec=2.4.1.41" xr:uid="{1206B01A-0FED-4BE6-BFBC-9616085BCE5F}"/>
+    <hyperlink ref="B457" r:id="rId759" display="http://www.cazy.org/CBM13.html" xr:uid="{5260B6B1-8561-4160-B58C-CC2DC58C9D7B}"/>
+    <hyperlink ref="A458" r:id="rId760" display="http://www.enzyme-database.org/query.php?ec=2.4.1.248" xr:uid="{35F56F94-6DB0-4E68-8030-966F33893C6E}"/>
+    <hyperlink ref="B458" r:id="rId761" display="http://www.cazy.org/CBM35.html" xr:uid="{C041D178-0EA8-4AB6-A494-A94EACE4BB80}"/>
+    <hyperlink ref="A459" r:id="rId762" display="http://www.enzyme-database.org/query.php?ec=2.4.2.*" xr:uid="{99E9C2F2-E09B-4947-8451-15AFA12C3549}"/>
+    <hyperlink ref="B459" r:id="rId763" display="http://www.cazy.org/CBM22.html" xr:uid="{61DA7A17-8926-4A64-81D2-42673E6A2BA1}"/>
+    <hyperlink ref="A460" r:id="rId764" display="http://www.enzyme-database.org/query.php?ec=3.1.1.*" xr:uid="{462C7E51-87A0-4CD7-89F1-844C81B5C487}"/>
+    <hyperlink ref="A461" r:id="rId765" display="http://www.enzyme-database.org/query.php?ec=3.1.1.6" xr:uid="{BB89312B-47C3-454D-B2E7-447798BFCB89}"/>
+    <hyperlink ref="A462" r:id="rId766" display="http://www.enzyme-database.org/query.php?ec=3.1.1.72" xr:uid="{17B916DE-CC4B-43C8-96A7-DF640AF70563}"/>
+    <hyperlink ref="A463" r:id="rId767" display="http://www.enzyme-database.org/query.php?ec=3.1.1.73" xr:uid="{1BCFC7CA-B5C3-4B6F-9386-1BDEAAA386C2}"/>
+    <hyperlink ref="A464" r:id="rId768" display="http://www.enzyme-database.org/query.php?ec=3.1.3.16" xr:uid="{E6E5D2AB-AD2C-4D40-8950-03E9AA201E85}"/>
+    <hyperlink ref="B464" r:id="rId769" display="http://www.cazy.org/CBM21.html" xr:uid="{7B9F06F7-11ED-4F41-BBDD-7CF5DA7D84F2}"/>
+    <hyperlink ref="A465" r:id="rId770" display="http://www.enzyme-database.org/query.php?ec=3.2.1.*" xr:uid="{D2BDDD07-F68E-467A-BFC7-AE925EB0BBBC}"/>
+    <hyperlink ref="A466" r:id="rId771" display="http://www.enzyme-database.org/query.php?ec=3.2.1.1" xr:uid="{80908D42-6E69-4EFA-A9CE-F681B83F3249}"/>
+    <hyperlink ref="A467" r:id="rId772" display="http://www.enzyme-database.org/query.php?ec=3.2.1.2" xr:uid="{16B7E257-F03E-4E58-9061-F0EF4EE7061F}"/>
+    <hyperlink ref="A468" r:id="rId773" display="http://www.enzyme-database.org/query.php?ec=3.2.1.3" xr:uid="{7ABE65E4-1F89-4661-8347-F9C2A8A4843E}"/>
+    <hyperlink ref="A469" r:id="rId774" display="http://www.enzyme-database.org/query.php?ec=3.2.1.4" xr:uid="{49B9DA2D-C7BF-4A4A-8F53-1C48AFA66A4E}"/>
+    <hyperlink ref="A470" r:id="rId775" display="http://www.enzyme-database.org/query.php?ec=3.2.1.6" xr:uid="{0E6E7110-1CED-49C4-AFBA-799D14525987}"/>
+    <hyperlink ref="A471" r:id="rId776" display="http://www.enzyme-database.org/query.php?ec=3.2.1.8" xr:uid="{2DD9972C-95D1-4CB9-A80E-759BA1F86868}"/>
+    <hyperlink ref="A472" r:id="rId777" display="http://www.enzyme-database.org/query.php?ec=3.2.1.11" xr:uid="{2822482C-B138-493B-B8AC-A014526C73CB}"/>
+    <hyperlink ref="A473" r:id="rId778" display="http://www.enzyme-database.org/query.php?ec=3.2.1.14" xr:uid="{8D797C7C-E931-42E7-A3EF-6CADC907F6F2}"/>
+    <hyperlink ref="A474" r:id="rId779" display="http://www.enzyme-database.org/query.php?ec=3.2.1.17" xr:uid="{03EBA11B-5629-49B8-ADFD-452937451718}"/>
+    <hyperlink ref="A475" r:id="rId780" display="http://www.enzyme-database.org/query.php?ec=3.2.1.18" xr:uid="{7C60A3B5-98B5-42D5-B6DB-192FF84FD1CF}"/>
+    <hyperlink ref="A476" r:id="rId781" display="http://www.enzyme-database.org/query.php?ec=3.2.1.20" xr:uid="{2C66E270-B458-4D97-A9CA-2FDE3D4121A4}"/>
+    <hyperlink ref="A477" r:id="rId782" display="http://www.enzyme-database.org/query.php?ec=3.2.1.21" xr:uid="{E8EF7ADE-0754-4168-A559-B8452C8F351B}"/>
+    <hyperlink ref="B477" r:id="rId783" display="http://www.cazy.org/CBM1.html" xr:uid="{61CEDC9B-BA17-43D1-95C2-ABC3A5DFDB73}"/>
+    <hyperlink ref="A478" r:id="rId784" display="http://www.enzyme-database.org/query.php?ec=3.2.1.22" xr:uid="{86F45BBB-2715-484C-853B-CBB2F169C98D}"/>
+    <hyperlink ref="A479" r:id="rId785" display="http://www.enzyme-database.org/query.php?ec=3.2.1.23" xr:uid="{8D9AF3CD-1783-4166-8BF0-A94FEEA25961}"/>
+    <hyperlink ref="A480" r:id="rId786" display="http://www.enzyme-database.org/query.php?ec=3.2.1.26" xr:uid="{2A41B8C9-C5C4-4FEC-A8CB-21DE41812C2D}"/>
+    <hyperlink ref="B480" r:id="rId787" display="http://www.cazy.org/CBM38.html" xr:uid="{8EAE36D2-3C14-42E3-B68B-663591558E4B}"/>
+    <hyperlink ref="A481" r:id="rId788" display="http://www.enzyme-database.org/query.php?ec=3.2.1.31" xr:uid="{4CD4E0AE-6323-4657-A7E5-1BEE5BBF21C3}"/>
+    <hyperlink ref="B481" r:id="rId789" display="http://www.cazy.org/CBM57.html" xr:uid="{C318587E-74C0-4C94-B47C-5ADCEC85E547}"/>
+    <hyperlink ref="A482" r:id="rId790" display="http://www.enzyme-database.org/query.php?ec=3.2.1.32" xr:uid="{709F8B86-75A6-4EFD-AEC9-1124A0906312}"/>
+    <hyperlink ref="A483" r:id="rId791" display="http://www.enzyme-database.org/query.php?ec=3.2.1.33" xr:uid="{EF82897F-7E3F-49BF-BEF2-ADAAD3B29ED9}"/>
+    <hyperlink ref="A484" r:id="rId792" display="http://www.enzyme-database.org/query.php?ec=3.2.1.35" xr:uid="{ADEE678F-0A85-4845-A2D9-35943DAFB0E1}"/>
+    <hyperlink ref="B484" r:id="rId793" display="http://www.cazy.org/CBM32.html" xr:uid="{BCA1C8D2-2817-44F7-A9BB-E3E84C833EFC}"/>
+    <hyperlink ref="A485" r:id="rId794" display="http://www.enzyme-database.org/query.php?ec=3.2.1.37" xr:uid="{03EB0C42-8218-4EE3-8D15-B7E5E7CF6182}"/>
+    <hyperlink ref="A486" r:id="rId795" display="http://www.enzyme-database.org/query.php?ec=3.2.1.39" xr:uid="{3618787D-A700-407B-838C-63613A8542DA}"/>
+    <hyperlink ref="A487" r:id="rId796" display="http://www.enzyme-database.org/query.php?ec=3.2.1.40" xr:uid="{28B2CEA0-F2C8-41D9-BE17-3DA700E475FB}"/>
+    <hyperlink ref="B487" r:id="rId797" display="http://www.cazy.org/CBM67.html" xr:uid="{8D95C4F9-8AE2-4AA7-99F5-49B1010E7E72}"/>
+    <hyperlink ref="A488" r:id="rId798" display="http://www.enzyme-database.org/query.php?ec=3.2.1.41" xr:uid="{41962F69-A598-4C90-B5FD-6CB765663860}"/>
+    <hyperlink ref="A489" r:id="rId799" display="http://www.enzyme-database.org/query.php?ec=3.2.1.49" xr:uid="{1B28506D-AB4E-4FBB-99E2-C6DC19F3A27A}"/>
+    <hyperlink ref="A490" r:id="rId800" display="http://www.enzyme-database.org/query.php?ec=3.2.1.50" xr:uid="{0202A205-8DB6-4E6F-A566-4FD0F0F7D623}"/>
+    <hyperlink ref="B490" r:id="rId801" display="http://www.cazy.org/CBM32.html" xr:uid="{FD035676-0026-44FA-AF03-089B32F7CD29}"/>
+    <hyperlink ref="A491" r:id="rId802" display="http://www.enzyme-database.org/query.php?ec=3.2.1.52" xr:uid="{2A7DA163-0D79-4771-8F0E-0B0643A602D3}"/>
+    <hyperlink ref="B491" r:id="rId803" display="http://www.cazy.org/CBM32.html" xr:uid="{EDCCD98E-6F39-4F75-A85B-16AA8C81DFEC}"/>
+    <hyperlink ref="A492" r:id="rId804" display="http://www.enzyme-database.org/query.php?ec=3.2.1.54" xr:uid="{BC90E494-FE30-4A29-990E-593130BE9950}"/>
+    <hyperlink ref="A493" r:id="rId805" display="http://www.enzyme-database.org/query.php?ec=3.2.1.55" xr:uid="{365155D6-6061-4C98-8D81-25A630D140E4}"/>
+    <hyperlink ref="A494" r:id="rId806" display="http://www.enzyme-database.org/query.php?ec=3.2.1.58" xr:uid="{CBDDDC55-B8B6-45D1-85BB-2D5FCE7B5133}"/>
+    <hyperlink ref="A495" r:id="rId807" display="http://www.enzyme-database.org/query.php?ec=3.2.1.59" xr:uid="{5C9D860F-4DD8-47EB-9548-DA12F18A7489}"/>
+    <hyperlink ref="A496" r:id="rId808" display="http://www.enzyme-database.org/query.php?ec=3.2.1.60" xr:uid="{FC0BE366-ECAC-4F70-B4DD-E9548AF98901}"/>
+    <hyperlink ref="A497" r:id="rId809" display="http://www.enzyme-database.org/query.php?ec=3.2.1.63" xr:uid="{AE6AA34E-10D1-4EC6-A9B6-96DB2A777D6E}"/>
+    <hyperlink ref="B497" r:id="rId810" display="http://www.cazy.org/CBM51.html" xr:uid="{06CF2933-BD43-4402-AA10-A99A901DFEFD}"/>
+    <hyperlink ref="A498" r:id="rId811" display="http://www.enzyme-database.org/query.php?ec=3.2.1.65" xr:uid="{C3D9774E-3CAA-4DD0-9DBB-93417F1B694B}"/>
+    <hyperlink ref="B498" r:id="rId812" display="http://www.cazy.org/CBM66.html" xr:uid="{B8C95657-7428-4FDE-9326-40006135B6AE}"/>
+    <hyperlink ref="A499" r:id="rId813" display="http://www.enzyme-database.org/query.php?ec=3.2.1.68" xr:uid="{7183E2EB-1002-476A-8E0A-B0C76F80B35F}"/>
+    <hyperlink ref="A500" r:id="rId814" display="http://www.enzyme-database.org/query.php?ec=3.2.1.73" xr:uid="{70F55DA4-36F3-49FB-BB5A-1DE0A09C6E91}"/>
+    <hyperlink ref="A501" r:id="rId815" display="http://www.enzyme-database.org/query.php?ec=3.2.1.74" xr:uid="{9236F63F-F04F-4E4D-9137-A2A011A3D4CB}"/>
+    <hyperlink ref="A502" r:id="rId816" display="http://www.enzyme-database.org/query.php?ec=3.2.1.75" xr:uid="{EE947138-032C-448B-ADA3-0B74971AF08D}"/>
+    <hyperlink ref="B502" r:id="rId817" display="http://www.cazy.org/CBM6.html" xr:uid="{DEA4C102-1231-4CC8-BBC3-9C4D26004F8D}"/>
+    <hyperlink ref="A503" r:id="rId818" display="http://www.enzyme-database.org/query.php?ec=3.2.1.78" xr:uid="{F460B2F1-3D15-486E-89F6-61D7D5E22359}"/>
+    <hyperlink ref="A504" r:id="rId819" display="http://www.enzyme-database.org/query.php?ec=3.2.1.80" xr:uid="{ED507CA3-54CD-441E-997B-9D67D0670FD4}"/>
+    <hyperlink ref="A505" r:id="rId820" display="http://www.enzyme-database.org/query.php?ec=3.2.1.81" xr:uid="{AD00E7E5-5BCF-472D-8F25-92CFC27BFD19}"/>
+    <hyperlink ref="A506" r:id="rId821" display="http://www.enzyme-database.org/query.php?ec=3.2.1.83" xr:uid="{F38BEABB-5D98-46FE-84DF-269B461E66DF}"/>
+    <hyperlink ref="B506" r:id="rId822" display="http://www.cazy.org/CBM16.html" xr:uid="{72C35D89-7290-4170-8E49-E549F7427E66}"/>
+    <hyperlink ref="A507" r:id="rId823" display="http://www.enzyme-database.org/query.php?ec=3.2.1.88" xr:uid="{6B24C995-040D-4A19-A9DE-14D5B1433134}"/>
+    <hyperlink ref="A508" r:id="rId824" display="http://www.enzyme-database.org/query.php?ec=3.2.1.89" xr:uid="{B72F29EF-4A3D-4636-B4F1-0636CFC26201}"/>
+    <hyperlink ref="B508" r:id="rId825" display="http://www.cazy.org/CBM61.html" xr:uid="{125270D1-D863-442B-876C-3138B40E737D}"/>
+    <hyperlink ref="A509" r:id="rId826" display="http://www.enzyme-database.org/query.php?ec=3.2.1.91" xr:uid="{40090463-20EF-4AD3-A341-A56F9E1FB5CB}"/>
+    <hyperlink ref="A510" r:id="rId827" display="http://www.enzyme-database.org/query.php?ec=3.2.1.94" xr:uid="{24147497-5BBB-486D-BCFD-44E9001C9AC5}"/>
+    <hyperlink ref="B510" r:id="rId828" display="http://www.cazy.org/CBM35.html" xr:uid="{AE89FA2A-52BB-478A-9CAD-FC380FE0BB88}"/>
+    <hyperlink ref="A511" r:id="rId829" display="http://www.enzyme-database.org/query.php?ec=3.2.1.96" xr:uid="{5EBF0FEF-CCF3-43F5-8821-BA940B85F4DE}"/>
+    <hyperlink ref="A512" r:id="rId830" display="http://www.enzyme-database.org/query.php?ec=3.2.1.97" xr:uid="{F7E8AE82-6BEB-4B6A-BADD-411070F316F1}"/>
+    <hyperlink ref="A513" r:id="rId831" display="http://www.enzyme-database.org/query.php?ec=3.2.1.98" xr:uid="{67AC58E7-FA4B-4286-94BD-F66F4993F86D}"/>
+    <hyperlink ref="A514" r:id="rId832" display="http://www.enzyme-database.org/query.php?ec=3.2.1.99" xr:uid="{4EA6906F-D13B-4365-A8B6-8185DEDC414C}"/>
+    <hyperlink ref="A515" r:id="rId833" display="http://www.enzyme-database.org/query.php?ec=3.2.1.101" xr:uid="{42F0A71F-C76E-43AB-A3EC-CBA8E7E52C49}"/>
+    <hyperlink ref="B515" r:id="rId834" display="http://www.cazy.org/CBM6.html" xr:uid="{3C32308F-CA79-4F31-9B63-193CB2B446F7}"/>
+    <hyperlink ref="A516" r:id="rId835" display="http://www.enzyme-database.org/query.php?ec=3.2.1.102" xr:uid="{261691FE-C994-4111-98E2-6028193EF1A0}"/>
+    <hyperlink ref="A517" r:id="rId836" display="http://www.enzyme-database.org/query.php?ec=3.2.1.103" xr:uid="{E2DC75F1-B6A7-4CA6-9E25-7A29192FBDFF}"/>
+    <hyperlink ref="B517" r:id="rId837" display="http://www.cazy.org/CBM16.html" xr:uid="{DA6994EF-2198-4C23-9FB1-79DE966CB652}"/>
+    <hyperlink ref="A518" r:id="rId838" display="http://www.enzyme-database.org/query.php?ec=3.2.1.113" xr:uid="{5768C37A-A12D-45CB-ABEB-E31443A818D3}"/>
+    <hyperlink ref="B518" r:id="rId839" display="http://www.cazy.org/CBM32.html" xr:uid="{221034A2-771A-48FD-9E85-9FC1F4ED5B55}"/>
+    <hyperlink ref="A519" r:id="rId840" display="http://www.enzyme-database.org/query.php?ec=3.2.1.116" xr:uid="{C924DF09-D3C0-4ECF-A4A3-6984C667D057}"/>
+    <hyperlink ref="B519" r:id="rId841" display="http://www.cazy.org/CBM20.html" xr:uid="{DC2D6068-EA93-42A4-A911-1885FC0944DA}"/>
+    <hyperlink ref="A520" r:id="rId842" display="http://www.enzyme-database.org/query.php?ec=3.2.1.120" xr:uid="{7251CDB3-D81C-4851-90C0-1D2643EB03A2}"/>
+    <hyperlink ref="B520" r:id="rId843" display="http://www.cazy.org/CBM6.html" xr:uid="{1713C50B-D042-4E29-A0E1-73DB936F32AA}"/>
+    <hyperlink ref="A521" r:id="rId844" display="http://www.enzyme-database.org/query.php?ec=3.2.1.132" xr:uid="{DEAD326A-4ED5-4D26-8830-9DC62D10476E}"/>
+    <hyperlink ref="A522" r:id="rId845" display="http://www.enzyme-database.org/query.php?ec=3.2.1.133" xr:uid="{6FE7D578-62E9-46A8-ADD9-697E73AE2373}"/>
+    <hyperlink ref="A523" r:id="rId846" display="http://www.enzyme-database.org/query.php?ec=3.2.1.135" xr:uid="{F81C9C54-CFC1-410F-9F17-38DB9E870777}"/>
+    <hyperlink ref="A524" r:id="rId847" display="http://www.enzyme-database.org/query.php?ec=3.2.1.136" xr:uid="{77313FF1-DDF9-4B5B-AF7C-95EB4AAC65C8}"/>
+    <hyperlink ref="B524" r:id="rId848" display="http://www.cazy.org/CBM35.html" xr:uid="{9B30CF79-8215-4E69-BC08-0A987097D21A}"/>
+    <hyperlink ref="A525" r:id="rId849" display="http://www.enzyme-database.org/query.php?ec=3.2.1.140" xr:uid="{ED50EA32-ED96-40F1-B98A-AB31477F8777}"/>
+    <hyperlink ref="B525" r:id="rId850" display="http://www.cazy.org/CBM32.html" xr:uid="{3EA275AC-ACE2-4B44-AAB0-C6A0129AB836}"/>
+    <hyperlink ref="A526" r:id="rId851" display="http://www.enzyme-database.org/query.php?ec=3.2.1.141" xr:uid="{B2C3267E-2DB4-4FF5-8BB8-8A80166FA87C}"/>
+    <hyperlink ref="B526" r:id="rId852" display="http://www.cazy.org/CBM48.html" xr:uid="{3CCDA8BA-CC4F-4D98-BD63-616B8458146C}"/>
+    <hyperlink ref="A527" r:id="rId853" display="http://www.enzyme-database.org/query.php?ec=3.2.1.145" xr:uid="{0287D86A-ACE8-4ECD-B472-41807AC7DC90}"/>
+    <hyperlink ref="A528" r:id="rId854" display="http://www.enzyme-database.org/query.php?ec=3.2.1.146" xr:uid="{5CF9AA1C-92FE-4973-8FA3-37BB10CBCDCD}"/>
+    <hyperlink ref="A529" r:id="rId855" display="http://www.enzyme-database.org/query.php?ec=3.2.1.151" xr:uid="{F0125379-C2B6-43B6-BA84-5F4B1CB8E9A1}"/>
+    <hyperlink ref="A530" r:id="rId856" display="http://www.enzyme-database.org/query.php?ec=3.2.1.158" xr:uid="{10B07716-CECA-441C-B9F8-614D076694B7}"/>
+    <hyperlink ref="B530" r:id="rId857" display="http://www.cazy.org/CBM6.html" xr:uid="{E5D421D8-8878-4FD1-B0F0-951682BC1EC4}"/>
+    <hyperlink ref="A531" r:id="rId858" display="http://www.enzyme-database.org/query.php?ec=3.2.1.165" xr:uid="{79EDF645-0547-4A53-9B92-29918BD8FE21}"/>
+    <hyperlink ref="B531" r:id="rId859" display="http://www.cazy.org/CBM35.html" xr:uid="{FC674227-7643-4578-8191-52546DC5A05E}"/>
+    <hyperlink ref="A532" r:id="rId860" display="http://www.enzyme-database.org/query.php?ec=3.2.1.169" xr:uid="{16A09198-AD22-4BD0-8811-F7087BB205C5}"/>
+    <hyperlink ref="B532" r:id="rId861" display="http://www.cazy.org/CBM32.html" xr:uid="{CCD41928-9C69-45FD-9E35-E3F47F1AF03B}"/>
+    <hyperlink ref="A533" r:id="rId862" display="http://www.enzyme-database.org/query.php?ec=3.2.1.176" xr:uid="{B2A8F872-4AC8-4998-9A0F-347C37791C0B}"/>
+    <hyperlink ref="A534" r:id="rId863" display="http://www.enzyme-database.org/query.php?ec=3.2.1.178" xr:uid="{77CA21EC-427D-4BA0-A9ED-3D2BFEBA2CD3}"/>
+    <hyperlink ref="B534" r:id="rId864" display="http://www.cazy.org/CBM13.html" xr:uid="{2C17C8D1-2F57-4FAF-895C-9EBE1BF26EAA}"/>
+    <hyperlink ref="A535" r:id="rId865" display="http://www.enzyme-database.org/query.php?ec=3.2.1.185" xr:uid="{5DA7220D-CF98-410E-B06A-FC90B08A3145}"/>
+    <hyperlink ref="B535" r:id="rId866" display="http://www.cazy.org/CBM57.html" xr:uid="{41CE8A12-09D8-48E9-8230-A3334364A669}"/>
+    <hyperlink ref="A536" r:id="rId867" display="http://www.enzyme-database.org/query.php?ec=4.2.2.*" xr:uid="{A4F16054-5CD3-44A9-8BBA-7715B6376EAB}"/>
+    <hyperlink ref="A537" r:id="rId868" display="http://www.enzyme-database.org/query.php?ec=4.2.2.n1" xr:uid="{6BED835D-3691-4E17-A1E0-AF22EA3BE91D}"/>
+    <hyperlink ref="B537" r:id="rId869" display="http://www.cazy.org/CBM50.html" xr:uid="{C11F4E23-C246-47D7-BB7E-3BBF04FF4DC5}"/>
+    <hyperlink ref="A538" r:id="rId870" display="http://www.enzyme-database.org/query.php?ec=4.2.2.1" xr:uid="{6EEA796F-78FA-4714-A0E4-4E476D22AC4B}"/>
+    <hyperlink ref="B538" r:id="rId871" display="http://www.cazy.org/CBM70.html" xr:uid="{AD4173BF-2ABB-4144-93BD-15956AD8CA06}"/>
+    <hyperlink ref="A539" r:id="rId872" display="http://www.enzyme-database.org/query.php?ec=4.2.2.2" xr:uid="{F77A878C-39BE-4CBD-B69F-91F9918738A7}"/>
+    <hyperlink ref="A540" r:id="rId873" display="http://www.enzyme-database.org/query.php?ec=4.2.2.3" xr:uid="{90D14C5D-5F47-4C90-AD8A-131F54DAE842}"/>
+    <hyperlink ref="A541" r:id="rId874" display="http://www.enzyme-database.org/query.php?ec=4.2.2.10" xr:uid="{6AE6842E-D090-434C-86DE-AF09117A89F0}"/>
+    <hyperlink ref="B541" r:id="rId875" display="http://www.cazy.org/CBM1.html" xr:uid="{547408AA-6CA9-4CF6-92DF-A979CB3C4BBD}"/>
+    <hyperlink ref="A542" r:id="rId876" display="http://www.enzyme-database.org/query.php?ec=4.2.2.11" xr:uid="{6E05C6D4-314D-48D6-AF6F-D9202E1B7A73}"/>
+    <hyperlink ref="A543" r:id="rId877" display="http://www.enzyme-database.org/query.php?ec=4.2.2.12" xr:uid="{D0E395D8-CECE-4944-8FCF-61EEA05B1B4E}"/>
+    <hyperlink ref="B543" r:id="rId878" display="http://www.cazy.org/CBM84.html" xr:uid="{97433556-9CE5-43A8-BC99-297B73EC8F30}"/>
+    <hyperlink ref="A544" r:id="rId879" display="http://www.enzyme-database.org/query.php?ec=4.2.2.15" xr:uid="{1AFB821A-8E9A-4EFF-B27F-4FDC0C9D1BC0}"/>
+    <hyperlink ref="B544" r:id="rId880" display="http://www.cazy.org/CBM40.html" xr:uid="{A835D4DA-9B4F-4114-A900-30322C031A13}"/>
+    <hyperlink ref="A545" r:id="rId881" display="http://www.enzyme-database.org/query.php?ec=4.2.2.23" xr:uid="{04BAD822-84BD-498E-A129-4E303357054C}"/>
+    <hyperlink ref="B545" r:id="rId882" display="http://www.cazy.org/CBM2.html" xr:uid="{F4E7BCD8-236E-4F28-B93B-17DDE15ECE93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId883"/>
@@ -25018,4 +25124,424 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A3E683-4394-4399-A619-3E1258D3E488}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>672</v>
+      </c>
+      <c r="C5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" t="s">
+        <v>675</v>
+      </c>
+      <c r="C10" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B11" t="s">
+        <v>676</v>
+      </c>
+      <c r="C11" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>676</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>677</v>
+      </c>
+      <c r="C13" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>677</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>678</v>
+      </c>
+      <c r="C15" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" t="s">
+        <v>679</v>
+      </c>
+      <c r="C16" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>679</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>678</v>
+      </c>
+      <c r="C18" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>678</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>681</v>
+      </c>
+      <c r="C24" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>681</v>
+      </c>
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4C9B00-B84F-4644-A5A2-EFA14E698CFD}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+    </row>
+    <row r="2" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A12B21CA-EFDA-4D31-B693-C1D7D93CA0D5}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{40E7FB10-5835-4809-A2D9-9C56950EF8CB}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{18A02CE1-0394-4BD4-BEA1-EA25FCABBFD7}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{1A6A9D75-D69A-4EBA-824C-C8B1C5A27D4B}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{47641EC9-68B0-4FC0-96C7-75BEA4D45802}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CAZy/cazyEC.xlsx
+++ b/CAZy/cazyEC.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3EBCF3-DF4F-4C85-BB00-CD9752B424A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF2A73B-B6C1-490A-87AC-9AE6FB3022EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1044" windowWidth="6708" windowHeight="10812" firstSheet="2" activeTab="2" xr2:uid="{9B374AC3-F643-4C6F-98BB-B75DB48583FD}"/>
+    <workbookView xWindow="480" yWindow="1044" windowWidth="14928" windowHeight="11388" activeTab="3" xr2:uid="{9B374AC3-F643-4C6F-98BB-B75DB48583FD}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="1" r:id="rId1"/>
     <sheet name="clan" sheetId="2" r:id="rId2"/>
     <sheet name="ECnet" sheetId="4" r:id="rId3"/>
-    <sheet name="sources" sheetId="5" r:id="rId4"/>
+    <sheet name="EC_LiCoRR" sheetId="7" r:id="rId4"/>
+    <sheet name="sources" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="782">
   <si>
     <t>1.14.99.53</t>
   </si>
@@ -17443,13 +17444,500 @@
   </si>
   <si>
     <t>O-glycan</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Enzyme</t>
+  </si>
+  <si>
+    <t>EC No.</t>
+  </si>
+  <si>
+    <t>Substrate</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>ManI</t>
+  </si>
+  <si>
+    <t>(Ma2Ma</t>
+  </si>
+  <si>
+    <t>(Ma</t>
+  </si>
+  <si>
+    <t>(Ma3(Ma2Ma3(Ma6)Ma6)</t>
+  </si>
+  <si>
+    <t>(Ma3(Ma3(Ma6)Ma6)</t>
+  </si>
+  <si>
+    <t>ManII</t>
+  </si>
+  <si>
+    <t>(Ma3(Ma6)Ma6</t>
+  </si>
+  <si>
+    <t>(Ma6Ma6</t>
+  </si>
+  <si>
+    <t>(Ma6</t>
+  </si>
+  <si>
+    <t>FUT8</t>
+  </si>
+  <si>
+    <t>GNb4GN</t>
+  </si>
+  <si>
+    <t>GNb4(Fa6)GN</t>
+  </si>
+  <si>
+    <t>MGAT1</t>
+  </si>
+  <si>
+    <t>(Ma33(Ma3(Ma6)Ma6)Mb4</t>
+  </si>
+  <si>
+    <t>(GNb2Ma3(Ma3(Ma6)Ma6)Mb4</t>
+  </si>
+  <si>
+    <t>MGAT2</t>
+  </si>
+  <si>
+    <t>(GNb2|Ma3(Ma6)Mb4</t>
+  </si>
+  <si>
+    <t>(GNb2 |Ma3(GNb2Ma6)Mb4</t>
+  </si>
+  <si>
+    <t>MGAT3</t>
+  </si>
+  <si>
+    <t>GNb2 |Ma3</t>
+  </si>
+  <si>
+    <t>GNb2 |Ma3(GNb4)</t>
+  </si>
+  <si>
+    <t>MGAT4</t>
+  </si>
+  <si>
+    <t>(GNb2Ma3</t>
+  </si>
+  <si>
+    <t>(GNb2(GNb4)Ma3</t>
+  </si>
+  <si>
+    <t>MGAT5</t>
+  </si>
+  <si>
+    <t>(GNb2Ma6</t>
+  </si>
+  <si>
+    <t>(GNb2(GNb6)Ma6</t>
+  </si>
+  <si>
+    <t>iGnT</t>
+  </si>
+  <si>
+    <t>(Ab4GN</t>
+  </si>
+  <si>
+    <t>(GNb3Ab4GN</t>
+  </si>
+  <si>
+    <t>b4GalT</t>
+  </si>
+  <si>
+    <t>(GN</t>
+  </si>
+  <si>
+    <t>a3SiaT</t>
+  </si>
+  <si>
+    <t>(NNa3Ab4GN</t>
+  </si>
+  <si>
+    <t>IGNT</t>
+  </si>
+  <si>
+    <t>(Ab4GNb3Ab</t>
+  </si>
+  <si>
+    <t>(Ab4GNb3(GNb6)Ab</t>
+  </si>
+  <si>
+    <t>a6SiaT</t>
+  </si>
+  <si>
+    <t>(NNa6Ab4GN</t>
+  </si>
+  <si>
+    <t>b3GalT1</t>
+  </si>
+  <si>
+    <t>(Ab3GN</t>
+  </si>
+  <si>
+    <t>FUT3</t>
+  </si>
+  <si>
+    <t>Ab3GNb</t>
+  </si>
+  <si>
+    <t>Ab3(Fa4)GNb</t>
+  </si>
+  <si>
+    <t>(Ab3* or (Fa2Ab3* or (NNa3Ab3*)</t>
+  </si>
+  <si>
+    <t>(…Ab4GNb</t>
+  </si>
+  <si>
+    <t>(Fa3(…Ab4)GNb</t>
+  </si>
+  <si>
+    <t>(*Ab4 or (*Fa2Ab4 or (*NNa3Ab4)</t>
+  </si>
+  <si>
+    <t>FUT1</t>
+  </si>
+  <si>
+    <t>(Ab3GNb</t>
+  </si>
+  <si>
+    <t>(Fa2Ab3GNb</t>
+  </si>
+  <si>
+    <t>(Ab4GNb</t>
+  </si>
+  <si>
+    <t>(Fa2Ab4GNb</t>
+  </si>
+  <si>
+    <t>a3FucT</t>
+  </si>
+  <si>
+    <t>(*Ab4 or (*Fa2Ab4</t>
+  </si>
+  <si>
+    <t>GalNAcT-A</t>
+  </si>
+  <si>
+    <t>(Fa2Ab</t>
+  </si>
+  <si>
+    <t>(Fa2(ANa3)Ab</t>
+  </si>
+  <si>
+    <t>GalT-B</t>
+  </si>
+  <si>
+    <t>(Fa2(Aa3)Ab</t>
+  </si>
+  <si>
+    <t>b3GALT6</t>
+  </si>
+  <si>
+    <t>Ab4GN</t>
+  </si>
+  <si>
+    <t>Ab3Ab4GN</t>
+  </si>
+  <si>
+    <t>Ab4A</t>
+  </si>
+  <si>
+    <t>Ab3Ab4A</t>
+  </si>
+  <si>
+    <t>c1GALT1</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Ab3AN</t>
+  </si>
+  <si>
+    <t>st3galI</t>
+  </si>
+  <si>
+    <t>~*2Ma3(...Ma6)</t>
+  </si>
+  <si>
+    <t>(GNb2 |Ma3 &amp; ~Gnbis)</t>
+  </si>
+  <si>
+    <t>GNb2 |Ma3 &amp; ~Gnbis &amp; ~Ab</t>
+  </si>
+  <si>
+    <t>~Ab &amp; ~Gnbis</t>
+  </si>
+  <si>
+    <t>~Gnbis</t>
+  </si>
+  <si>
+    <t>~_Ma3 |Mb4</t>
+  </si>
+  <si>
+    <t>(~*GNb4)(…Ma6)Mb4</t>
+  </si>
+  <si>
+    <t>EC -&gt; reaction rules sources</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12859-016-1094-6</t>
+  </si>
+  <si>
+    <t>EC net sources: bacterial catabolism</t>
+  </si>
+  <si>
+    <t>EC net sources: standard catabolism</t>
+  </si>
+  <si>
+    <t>2.4.1.62</t>
+  </si>
+  <si>
+    <t>look up @ ExplorEnz or Rhea: e.g. https://www.enzyme-database.org/query.php?ec=2.4.1.*</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Enzyme Name</t>
+  </si>
+  <si>
+    <t>lytic chitin monooxygenase</t>
+  </si>
+  <si>
+    <t>LPMO; CBP21; chitin oxidohydrolase</t>
+  </si>
+  <si>
+    <r>
+      <t>[(1→4)-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-acetyl-β-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-glucosaminyl](m+n) + reduced acceptor + O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> = [(1→4)-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-acetyl-β-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-glucosaminyl](</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1)-(1→4)-2-(acetylamino)-2-deoxy-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-glucono-1,5-lactone + [(1→4)-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-acetyl-β-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-glucosaminyl]</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> + acceptor + H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>O</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17494,12 +17982,64 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF767676"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="MathJax_AMS"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17524,8 +18064,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -17563,12 +18115,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD5D5D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD5D5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD5D5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD5D5D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD5D5D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD5D5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD5D5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD5D5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD5D5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -17585,11 +18277,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -17907,11 +18637,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC703F99-887E-48F1-8184-C8580AC6FFC8}">
   <dimension ref="A1:C545"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="46.44140625" customWidth="1"/>
@@ -17920,7 +18650,7 @@
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>663</v>
       </c>
@@ -17931,7 +18661,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -17942,7 +18672,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -17953,7 +18683,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -17964,7 +18694,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -17975,7 +18705,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -17986,7 +18716,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -17997,7 +18727,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -18008,7 +18738,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -18019,7 +18749,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -18030,7 +18760,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -18041,7 +18771,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -18052,7 +18782,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -18063,7 +18793,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -18074,7 +18804,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -18085,7 +18815,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -18096,7 +18826,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -18107,7 +18837,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -18118,7 +18848,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -18129,7 +18859,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -18140,7 +18870,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -18151,7 +18881,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -18162,7 +18892,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -18173,7 +18903,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -18184,7 +18914,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -18195,7 +18925,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -18206,7 +18936,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -18217,7 +18947,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -18228,7 +18958,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -18239,7 +18969,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -18250,7 +18980,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -18261,7 +18991,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -18272,7 +19002,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -18283,7 +19013,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -18294,7 +19024,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -18305,7 +19035,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -18316,7 +19046,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -18327,7 +19057,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -18338,7 +19068,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -18349,7 +19079,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -18360,7 +19090,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -18371,7 +19101,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -18382,7 +19112,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -18393,7 +19123,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -18404,7 +19134,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -18415,7 +19145,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -18426,7 +19156,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -18437,7 +19167,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -18448,7 +19178,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -18459,7 +19189,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -18470,7 +19200,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -18481,7 +19211,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="18">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -18492,7 +19222,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
@@ -18503,7 +19233,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -18514,7 +19244,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -18525,7 +19255,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="18">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -18536,7 +19266,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
@@ -18547,7 +19277,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>72</v>
       </c>
@@ -18558,7 +19288,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="18">
       <c r="A59" s="1" t="s">
         <v>73</v>
       </c>
@@ -18569,7 +19299,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>75</v>
       </c>
@@ -18580,7 +19310,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>77</v>
       </c>
@@ -18591,7 +19321,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -18602,7 +19332,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>81</v>
       </c>
@@ -18613,7 +19343,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
@@ -18624,7 +19354,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>84</v>
       </c>
@@ -18635,7 +19365,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>86</v>
       </c>
@@ -18646,7 +19376,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
@@ -18657,7 +19387,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>90</v>
       </c>
@@ -18668,7 +19398,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>92</v>
       </c>
@@ -18679,7 +19409,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>94</v>
       </c>
@@ -18690,7 +19420,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
@@ -18701,7 +19431,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>98</v>
       </c>
@@ -18712,7 +19442,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>100</v>
       </c>
@@ -18723,7 +19453,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>102</v>
       </c>
@@ -18734,7 +19464,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>104</v>
       </c>
@@ -18745,7 +19475,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>106</v>
       </c>
@@ -18756,7 +19486,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>108</v>
       </c>
@@ -18767,7 +19497,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>110</v>
       </c>
@@ -18778,7 +19508,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>111</v>
       </c>
@@ -18789,7 +19519,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>113</v>
       </c>
@@ -18800,7 +19530,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>115</v>
       </c>
@@ -18811,7 +19541,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>117</v>
       </c>
@@ -18822,7 +19552,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>119</v>
       </c>
@@ -18833,7 +19563,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
@@ -18844,7 +19574,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>122</v>
       </c>
@@ -18855,7 +19585,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>124</v>
       </c>
@@ -18866,7 +19596,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>125</v>
       </c>
@@ -18877,7 +19607,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>127</v>
       </c>
@@ -18888,7 +19618,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>128</v>
       </c>
@@ -18899,7 +19629,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>130</v>
       </c>
@@ -18910,7 +19640,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>132</v>
       </c>
@@ -18921,7 +19651,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>133</v>
       </c>
@@ -18932,7 +19662,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>134</v>
       </c>
@@ -18943,7 +19673,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>136</v>
       </c>
@@ -18954,7 +19684,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>137</v>
       </c>
@@ -18965,7 +19695,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>139</v>
       </c>
@@ -18976,7 +19706,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>141</v>
       </c>
@@ -18987,7 +19717,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>142</v>
       </c>
@@ -18998,7 +19728,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>143</v>
       </c>
@@ -19009,7 +19739,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>144</v>
       </c>
@@ -19020,7 +19750,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>146</v>
       </c>
@@ -19031,7 +19761,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>147</v>
       </c>
@@ -19042,7 +19772,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>148</v>
       </c>
@@ -19053,7 +19783,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>150</v>
       </c>
@@ -19064,7 +19794,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>151</v>
       </c>
@@ -19075,7 +19805,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>153</v>
       </c>
@@ -19086,7 +19816,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>155</v>
       </c>
@@ -19097,7 +19827,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>157</v>
       </c>
@@ -19108,7 +19838,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>159</v>
       </c>
@@ -19119,7 +19849,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>161</v>
       </c>
@@ -19130,7 +19860,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>162</v>
       </c>
@@ -19141,7 +19871,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>164</v>
       </c>
@@ -19152,7 +19882,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>165</v>
       </c>
@@ -19163,7 +19893,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>167</v>
       </c>
@@ -19174,7 +19904,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>168</v>
       </c>
@@ -19185,7 +19915,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>169</v>
       </c>
@@ -19196,7 +19926,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>171</v>
       </c>
@@ -19207,7 +19937,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>172</v>
       </c>
@@ -19218,7 +19948,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>174</v>
       </c>
@@ -19229,7 +19959,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>176</v>
       </c>
@@ -19240,7 +19970,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>178</v>
       </c>
@@ -19251,7 +19981,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>180</v>
       </c>
@@ -19262,7 +19992,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>181</v>
       </c>
@@ -19273,7 +20003,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>182</v>
       </c>
@@ -19284,7 +20014,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>183</v>
       </c>
@@ -19295,7 +20025,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>185</v>
       </c>
@@ -19306,7 +20036,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>186</v>
       </c>
@@ -19317,7 +20047,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>187</v>
       </c>
@@ -19328,7 +20058,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>188</v>
       </c>
@@ -19339,7 +20069,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>189</v>
       </c>
@@ -19350,7 +20080,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>190</v>
       </c>
@@ -19361,7 +20091,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>191</v>
       </c>
@@ -19372,7 +20102,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>192</v>
       </c>
@@ -19383,7 +20113,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>193</v>
       </c>
@@ -19394,7 +20124,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>194</v>
       </c>
@@ -19405,7 +20135,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>195</v>
       </c>
@@ -19416,7 +20146,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>196</v>
       </c>
@@ -19427,7 +20157,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>197</v>
       </c>
@@ -19438,7 +20168,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>198</v>
       </c>
@@ -19449,7 +20179,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>199</v>
       </c>
@@ -19460,7 +20190,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>201</v>
       </c>
@@ -19471,7 +20201,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>203</v>
       </c>
@@ -19482,7 +20212,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>204</v>
       </c>
@@ -19493,7 +20223,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>205</v>
       </c>
@@ -19504,7 +20234,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>206</v>
       </c>
@@ -19515,7 +20245,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>207</v>
       </c>
@@ -19526,7 +20256,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>208</v>
       </c>
@@ -19537,7 +20267,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>209</v>
       </c>
@@ -19548,7 +20278,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>210</v>
       </c>
@@ -19559,7 +20289,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>211</v>
       </c>
@@ -19570,7 +20300,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>212</v>
       </c>
@@ -19581,7 +20311,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>213</v>
       </c>
@@ -19592,7 +20322,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>214</v>
       </c>
@@ -19603,7 +20333,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>216</v>
       </c>
@@ -19614,7 +20344,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>218</v>
       </c>
@@ -19625,7 +20355,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>219</v>
       </c>
@@ -19636,7 +20366,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>220</v>
       </c>
@@ -19647,7 +20377,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>221</v>
       </c>
@@ -19658,7 +20388,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>223</v>
       </c>
@@ -19669,7 +20399,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>225</v>
       </c>
@@ -19680,7 +20410,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>226</v>
       </c>
@@ -19691,7 +20421,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>227</v>
       </c>
@@ -19702,7 +20432,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>229</v>
       </c>
@@ -19713,7 +20443,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>230</v>
       </c>
@@ -19724,7 +20454,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>232</v>
       </c>
@@ -19735,7 +20465,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>233</v>
       </c>
@@ -19746,7 +20476,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>235</v>
       </c>
@@ -19757,7 +20487,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>236</v>
       </c>
@@ -19768,7 +20498,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>237</v>
       </c>
@@ -19779,7 +20509,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -19790,7 +20520,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>239</v>
       </c>
@@ -19801,7 +20531,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>240</v>
       </c>
@@ -19812,7 +20542,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>241</v>
       </c>
@@ -19823,7 +20553,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>242</v>
       </c>
@@ -19834,7 +20564,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>243</v>
       </c>
@@ -19845,7 +20575,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>244</v>
       </c>
@@ -19856,7 +20586,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>245</v>
       </c>
@@ -19867,7 +20597,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>247</v>
       </c>
@@ -19878,7 +20608,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>248</v>
       </c>
@@ -19889,7 +20619,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>249</v>
       </c>
@@ -19900,7 +20630,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>250</v>
       </c>
@@ -19911,7 +20641,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>251</v>
       </c>
@@ -19922,7 +20652,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>252</v>
       </c>
@@ -19933,7 +20663,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>253</v>
       </c>
@@ -19944,7 +20674,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>255</v>
       </c>
@@ -19955,7 +20685,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>257</v>
       </c>
@@ -19966,7 +20696,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>259</v>
       </c>
@@ -19977,7 +20707,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>261</v>
       </c>
@@ -19988,7 +20718,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>262</v>
       </c>
@@ -19999,7 +20729,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>264</v>
       </c>
@@ -20010,7 +20740,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>265</v>
       </c>
@@ -20021,7 +20751,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>266</v>
       </c>
@@ -20032,7 +20762,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>268</v>
       </c>
@@ -20043,7 +20773,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>269</v>
       </c>
@@ -20054,7 +20784,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>270</v>
       </c>
@@ -20065,7 +20795,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>271</v>
       </c>
@@ -20076,7 +20806,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>272</v>
       </c>
@@ -20087,7 +20817,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>273</v>
       </c>
@@ -20098,7 +20828,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="43.2">
       <c r="A199" s="1" t="s">
         <v>274</v>
       </c>
@@ -20109,7 +20839,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>275</v>
       </c>
@@ -20120,7 +20850,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>276</v>
       </c>
@@ -20131,7 +20861,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>277</v>
       </c>
@@ -20142,7 +20872,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>279</v>
       </c>
@@ -20153,7 +20883,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>280</v>
       </c>
@@ -20164,7 +20894,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>281</v>
       </c>
@@ -20175,7 +20905,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>282</v>
       </c>
@@ -20186,7 +20916,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>283</v>
       </c>
@@ -20197,7 +20927,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>284</v>
       </c>
@@ -20208,7 +20938,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
         <v>285</v>
       </c>
@@ -20219,7 +20949,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
         <v>286</v>
       </c>
@@ -20230,7 +20960,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
         <v>331</v>
       </c>
@@ -20241,7 +20971,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
         <v>332</v>
       </c>
@@ -20252,7 +20982,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
         <v>1</v>
       </c>
@@ -20263,7 +20993,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
         <v>333</v>
       </c>
@@ -20274,7 +21004,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
         <v>54</v>
       </c>
@@ -20285,7 +21015,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
         <v>336</v>
       </c>
@@ -20296,7 +21026,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
         <v>337</v>
       </c>
@@ -20307,7 +21037,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
         <v>339</v>
       </c>
@@ -20318,7 +21048,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
         <v>341</v>
       </c>
@@ -20329,7 +21059,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
         <v>56</v>
       </c>
@@ -20340,7 +21070,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
         <v>58</v>
       </c>
@@ -20351,7 +21081,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
         <v>343</v>
       </c>
@@ -20362,7 +21092,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
         <v>60</v>
       </c>
@@ -20373,7 +21103,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
         <v>68</v>
       </c>
@@ -20384,7 +21114,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
         <v>73</v>
       </c>
@@ -20395,7 +21125,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
         <v>117</v>
       </c>
@@ -20406,7 +21136,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
         <v>134</v>
       </c>
@@ -20417,7 +21147,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
         <v>275</v>
       </c>
@@ -20428,7 +21158,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
         <v>348</v>
       </c>
@@ -20439,7 +21169,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
         <v>349</v>
       </c>
@@ -20450,7 +21180,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
         <v>350</v>
       </c>
@@ -20461,7 +21191,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
         <v>351</v>
       </c>
@@ -20472,7 +21202,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
         <v>352</v>
       </c>
@@ -20483,7 +21213,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
         <v>353</v>
       </c>
@@ -20494,7 +21224,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
         <v>355</v>
       </c>
@@ -20505,7 +21235,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
         <v>356</v>
       </c>
@@ -20516,7 +21246,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
         <v>357</v>
       </c>
@@ -20527,7 +21257,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
         <v>358</v>
       </c>
@@ -20538,7 +21268,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="18">
       <c r="A239" s="1" t="s">
         <v>357</v>
       </c>
@@ -20549,7 +21279,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
         <v>361</v>
       </c>
@@ -20560,7 +21290,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
         <v>358</v>
       </c>
@@ -20571,7 +21301,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
         <v>364</v>
       </c>
@@ -20582,7 +21312,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
         <v>366</v>
       </c>
@@ -20593,7 +21323,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
         <v>367</v>
       </c>
@@ -20604,7 +21334,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
         <v>368</v>
       </c>
@@ -20615,7 +21345,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
         <v>370</v>
       </c>
@@ -20626,7 +21356,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
         <v>372</v>
       </c>
@@ -20637,7 +21367,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
         <v>374</v>
       </c>
@@ -20648,7 +21378,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
         <v>375</v>
       </c>
@@ -20659,7 +21389,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
         <v>377</v>
       </c>
@@ -20670,7 +21400,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
         <v>378</v>
       </c>
@@ -20681,7 +21411,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
         <v>380</v>
       </c>
@@ -20692,7 +21422,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
         <v>381</v>
       </c>
@@ -20703,7 +21433,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
         <v>383</v>
       </c>
@@ -20714,7 +21444,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
         <v>385</v>
       </c>
@@ -20725,7 +21455,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
         <v>387</v>
       </c>
@@ -20736,7 +21466,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
         <v>388</v>
       </c>
@@ -20747,7 +21477,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
         <v>391</v>
       </c>
@@ -20758,7 +21488,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
         <v>392</v>
       </c>
@@ -20769,7 +21499,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
         <v>394</v>
       </c>
@@ -20780,7 +21510,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
         <v>395</v>
       </c>
@@ -20791,7 +21521,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
         <v>397</v>
       </c>
@@ -20802,7 +21532,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
         <v>398</v>
       </c>
@@ -20813,7 +21543,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
         <v>399</v>
       </c>
@@ -20824,7 +21554,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
         <v>400</v>
       </c>
@@ -20835,7 +21565,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
         <v>401</v>
       </c>
@@ -20846,7 +21576,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
         <v>402</v>
       </c>
@@ -20857,7 +21587,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
         <v>403</v>
       </c>
@@ -20868,7 +21598,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
         <v>405</v>
       </c>
@@ -20879,7 +21609,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
         <v>406</v>
       </c>
@@ -20890,7 +21620,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
         <v>407</v>
       </c>
@@ -20901,7 +21631,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
         <v>408</v>
       </c>
@@ -20912,7 +21642,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
         <v>409</v>
       </c>
@@ -20923,7 +21653,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
         <v>410</v>
       </c>
@@ -20934,7 +21664,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
         <v>411</v>
       </c>
@@ -20945,7 +21675,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
         <v>412</v>
       </c>
@@ -20956,7 +21686,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
         <v>413</v>
       </c>
@@ -20967,7 +21697,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
         <v>414</v>
       </c>
@@ -20978,7 +21708,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
         <v>415</v>
       </c>
@@ -20989,7 +21719,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" ht="28.8">
       <c r="A280" s="1" t="s">
         <v>0</v>
       </c>
@@ -21000,7 +21730,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" ht="28.8">
       <c r="A281" s="1" t="s">
         <v>418</v>
       </c>
@@ -21011,7 +21741,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" ht="28.8">
       <c r="A282" s="1" t="s">
         <v>420</v>
       </c>
@@ -21022,7 +21752,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" ht="28.8">
       <c r="A283" s="1" t="s">
         <v>421</v>
       </c>
@@ -21033,7 +21763,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
         <v>162</v>
       </c>
@@ -21044,7 +21774,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
         <v>424</v>
       </c>
@@ -21055,7 +21785,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
         <v>426</v>
       </c>
@@ -21066,7 +21796,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" ht="18">
       <c r="A287" s="1" t="s">
         <v>1</v>
       </c>
@@ -21077,7 +21807,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
         <v>429</v>
       </c>
@@ -21088,7 +21818,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
         <v>430</v>
       </c>
@@ -21099,7 +21829,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
         <v>11</v>
       </c>
@@ -21110,7 +21840,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
         <v>431</v>
       </c>
@@ -21121,7 +21851,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
         <v>432</v>
       </c>
@@ -21132,7 +21862,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
         <v>433</v>
       </c>
@@ -21143,7 +21873,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
         <v>434</v>
       </c>
@@ -21154,7 +21884,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
         <v>435</v>
       </c>
@@ -21165,7 +21895,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
         <v>437</v>
       </c>
@@ -21176,7 +21906,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
         <v>439</v>
       </c>
@@ -21187,7 +21917,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
         <v>440</v>
       </c>
@@ -21198,7 +21928,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
         <v>441</v>
       </c>
@@ -21209,7 +21939,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
         <v>442</v>
       </c>
@@ -21220,7 +21950,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
         <v>443</v>
       </c>
@@ -21231,7 +21961,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
         <v>445</v>
       </c>
@@ -21242,7 +21972,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
         <v>446</v>
       </c>
@@ -21253,7 +21983,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
         <v>448</v>
       </c>
@@ -21264,7 +21994,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
         <v>449</v>
       </c>
@@ -21275,7 +22005,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
         <v>450</v>
       </c>
@@ -21286,7 +22016,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
         <v>451</v>
       </c>
@@ -21297,7 +22027,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
         <v>452</v>
       </c>
@@ -21308,7 +22038,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
         <v>453</v>
       </c>
@@ -21319,7 +22049,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
         <v>455</v>
       </c>
@@ -21330,7 +22060,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
         <v>456</v>
       </c>
@@ -21341,7 +22071,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
         <v>457</v>
       </c>
@@ -21352,7 +22082,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
         <v>458</v>
       </c>
@@ -21363,7 +22093,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
         <v>460</v>
       </c>
@@ -21374,7 +22104,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
         <v>461</v>
       </c>
@@ -21385,7 +22115,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
         <v>462</v>
       </c>
@@ -21396,7 +22126,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
         <v>463</v>
       </c>
@@ -21407,7 +22137,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
         <v>465</v>
       </c>
@@ -21418,7 +22148,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
         <v>466</v>
       </c>
@@ -21429,7 +22159,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
         <v>468</v>
       </c>
@@ -21440,7 +22170,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
         <v>469</v>
       </c>
@@ -21451,7 +22181,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
         <v>471</v>
       </c>
@@ -21462,7 +22192,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
         <v>472</v>
       </c>
@@ -21473,7 +22203,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
         <v>473</v>
       </c>
@@ -21484,7 +22214,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
         <v>474</v>
       </c>
@@ -21495,7 +22225,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
         <v>475</v>
       </c>
@@ -21506,7 +22236,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
         <v>476</v>
       </c>
@@ -21517,7 +22247,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
         <v>477</v>
       </c>
@@ -21528,7 +22258,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
         <v>478</v>
       </c>
@@ -21539,7 +22269,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
         <v>479</v>
       </c>
@@ -21550,7 +22280,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
         <v>481</v>
       </c>
@@ -21561,7 +22291,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
         <v>482</v>
       </c>
@@ -21572,7 +22302,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
         <v>483</v>
       </c>
@@ -21583,7 +22313,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
         <v>484</v>
       </c>
@@ -21594,7 +22324,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
         <v>485</v>
       </c>
@@ -21605,7 +22335,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
         <v>486</v>
       </c>
@@ -21616,7 +22346,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
         <v>487</v>
       </c>
@@ -21627,7 +22357,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
         <v>488</v>
       </c>
@@ -21638,7 +22368,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
         <v>489</v>
       </c>
@@ -21649,7 +22379,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
         <v>491</v>
       </c>
@@ -21660,7 +22390,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
         <v>492</v>
       </c>
@@ -21671,7 +22401,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
         <v>493</v>
       </c>
@@ -21682,7 +22412,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
         <v>494</v>
       </c>
@@ -21693,7 +22423,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
         <v>495</v>
       </c>
@@ -21704,7 +22434,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
         <v>496</v>
       </c>
@@ -21715,7 +22445,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
         <v>497</v>
       </c>
@@ -21726,7 +22456,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
         <v>498</v>
       </c>
@@ -21737,7 +22467,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
         <v>499</v>
       </c>
@@ -21748,7 +22478,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
         <v>501</v>
       </c>
@@ -21759,7 +22489,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
         <v>502</v>
       </c>
@@ -21770,7 +22500,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
         <v>503</v>
       </c>
@@ -21781,7 +22511,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
         <v>504</v>
       </c>
@@ -21792,7 +22522,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
         <v>506</v>
       </c>
@@ -21803,7 +22533,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
         <v>507</v>
       </c>
@@ -21814,7 +22544,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
         <v>508</v>
       </c>
@@ -21825,7 +22555,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
         <v>509</v>
       </c>
@@ -21836,7 +22566,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
         <v>510</v>
       </c>
@@ -21847,7 +22577,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
         <v>512</v>
       </c>
@@ -21858,7 +22588,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
         <v>513</v>
       </c>
@@ -21869,7 +22599,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
         <v>30</v>
       </c>
@@ -21880,7 +22610,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
         <v>514</v>
       </c>
@@ -21891,7 +22621,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
         <v>515</v>
       </c>
@@ -21902,7 +22632,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
         <v>516</v>
       </c>
@@ -21913,7 +22643,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
         <v>517</v>
       </c>
@@ -21924,7 +22654,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
         <v>518</v>
       </c>
@@ -21935,7 +22665,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
         <v>519</v>
       </c>
@@ -21946,7 +22676,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
         <v>520</v>
       </c>
@@ -21957,7 +22687,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
         <v>521</v>
       </c>
@@ -21968,7 +22698,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
         <v>522</v>
       </c>
@@ -21979,7 +22709,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>523</v>
       </c>
@@ -21990,7 +22720,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
         <v>524</v>
       </c>
@@ -22001,7 +22731,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
         <v>525</v>
       </c>
@@ -22012,7 +22742,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
         <v>526</v>
       </c>
@@ -22023,7 +22753,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
         <v>527</v>
       </c>
@@ -22034,7 +22764,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
         <v>528</v>
       </c>
@@ -22045,7 +22775,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
         <v>529</v>
       </c>
@@ -22056,7 +22786,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
         <v>531</v>
       </c>
@@ -22067,7 +22797,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
         <v>532</v>
       </c>
@@ -22078,7 +22808,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
         <v>533</v>
       </c>
@@ -22089,7 +22819,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
         <v>535</v>
       </c>
@@ -22100,7 +22830,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
         <v>536</v>
       </c>
@@ -22111,7 +22841,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
         <v>537</v>
       </c>
@@ -22122,7 +22852,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
         <v>538</v>
       </c>
@@ -22133,7 +22863,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
         <v>539</v>
       </c>
@@ -22144,7 +22874,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
         <v>540</v>
       </c>
@@ -22155,7 +22885,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
         <v>541</v>
       </c>
@@ -22166,7 +22896,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
         <v>542</v>
       </c>
@@ -22177,7 +22907,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
         <v>543</v>
       </c>
@@ -22188,7 +22918,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
         <v>544</v>
       </c>
@@ -22199,7 +22929,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
         <v>545</v>
       </c>
@@ -22210,7 +22940,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
         <v>546</v>
       </c>
@@ -22221,7 +22951,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
         <v>547</v>
       </c>
@@ -22232,7 +22962,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
         <v>548</v>
       </c>
@@ -22243,7 +22973,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
         <v>549</v>
       </c>
@@ -22254,7 +22984,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
         <v>551</v>
       </c>
@@ -22265,7 +22995,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
         <v>552</v>
       </c>
@@ -22276,7 +23006,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
         <v>554</v>
       </c>
@@ -22287,7 +23017,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
         <v>555</v>
       </c>
@@ -22298,7 +23028,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
         <v>556</v>
       </c>
@@ -22309,7 +23039,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
         <v>557</v>
       </c>
@@ -22320,7 +23050,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
         <v>558</v>
       </c>
@@ -22331,7 +23061,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
         <v>559</v>
       </c>
@@ -22342,7 +23072,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
         <v>560</v>
       </c>
@@ -22353,7 +23083,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
         <v>561</v>
       </c>
@@ -22364,7 +23094,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
         <v>563</v>
       </c>
@@ -22375,7 +23105,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
         <v>564</v>
       </c>
@@ -22386,7 +23116,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
         <v>565</v>
       </c>
@@ -22397,7 +23127,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
         <v>566</v>
       </c>
@@ -22408,7 +23138,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
         <v>567</v>
       </c>
@@ -22419,7 +23149,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
         <v>568</v>
       </c>
@@ -22430,7 +23160,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
         <v>569</v>
       </c>
@@ -22441,7 +23171,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
         <v>570</v>
       </c>
@@ -22452,7 +23182,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
         <v>572</v>
       </c>
@@ -22463,7 +23193,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
         <v>573</v>
       </c>
@@ -22474,7 +23204,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
         <v>574</v>
       </c>
@@ -22485,7 +23215,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
         <v>46</v>
       </c>
@@ -22496,7 +23226,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
         <v>48</v>
       </c>
@@ -22507,7 +23237,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
         <v>575</v>
       </c>
@@ -22518,7 +23248,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
         <v>576</v>
       </c>
@@ -22529,7 +23259,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
         <v>577</v>
       </c>
@@ -22540,7 +23270,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
         <v>578</v>
       </c>
@@ -22551,7 +23281,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" ht="18">
       <c r="A422" s="1" t="s">
         <v>52</v>
       </c>
@@ -22562,7 +23292,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
         <v>581</v>
       </c>
@@ -22573,7 +23303,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
         <v>582</v>
       </c>
@@ -22584,7 +23314,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
         <v>583</v>
       </c>
@@ -22595,7 +23325,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
         <v>584</v>
       </c>
@@ -22606,7 +23336,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
         <v>585</v>
       </c>
@@ -22617,7 +23347,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" ht="18">
       <c r="A428" s="1" t="s">
         <v>586</v>
       </c>
@@ -22628,7 +23358,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
         <v>588</v>
       </c>
@@ -22639,7 +23369,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
         <v>590</v>
       </c>
@@ -22650,7 +23380,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
         <v>592</v>
       </c>
@@ -22661,7 +23391,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
         <v>594</v>
       </c>
@@ -22672,7 +23402,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
         <v>596</v>
       </c>
@@ -22683,7 +23413,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
         <v>597</v>
       </c>
@@ -22694,7 +23424,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
         <v>598</v>
       </c>
@@ -22705,7 +23435,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
         <v>599</v>
       </c>
@@ -22716,7 +23446,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
         <v>600</v>
       </c>
@@ -22727,7 +23457,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
         <v>601</v>
       </c>
@@ -22738,7 +23468,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
         <v>602</v>
       </c>
@@ -22749,7 +23479,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
         <v>60</v>
       </c>
@@ -22760,7 +23490,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
         <v>84</v>
       </c>
@@ -22771,7 +23501,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
         <v>275</v>
       </c>
@@ -22782,7 +23512,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
         <v>603</v>
       </c>
@@ -22793,7 +23523,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
         <v>391</v>
       </c>
@@ -22804,7 +23534,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
         <v>397</v>
       </c>
@@ -22815,7 +23545,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
         <v>403</v>
       </c>
@@ -22826,7 +23556,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" ht="28.8">
       <c r="A447" s="1" t="s">
         <v>0</v>
       </c>
@@ -22837,7 +23567,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" ht="28.8">
       <c r="A448" s="1" t="s">
         <v>418</v>
       </c>
@@ -22848,7 +23578,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" ht="28.8">
       <c r="A449" s="1" t="s">
         <v>420</v>
       </c>
@@ -22859,7 +23589,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" ht="28.8">
       <c r="A450" s="1" t="s">
         <v>421</v>
       </c>
@@ -22870,7 +23600,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
         <v>1</v>
       </c>
@@ -22881,7 +23611,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
         <v>3</v>
       </c>
@@ -22892,7 +23622,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
         <v>12</v>
       </c>
@@ -22903,7 +23633,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
         <v>14</v>
       </c>
@@ -22914,7 +23644,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
         <v>437</v>
       </c>
@@ -22925,7 +23655,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
         <v>16</v>
       </c>
@@ -22936,7 +23666,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
         <v>450</v>
       </c>
@@ -22947,7 +23677,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
         <v>38</v>
       </c>
@@ -22958,7 +23688,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
         <v>52</v>
       </c>
@@ -22969,7 +23699,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
         <v>54</v>
       </c>
@@ -22980,7 +23710,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
         <v>337</v>
       </c>
@@ -22991,7 +23721,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
         <v>56</v>
       </c>
@@ -23002,7 +23732,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
         <v>58</v>
       </c>
@@ -23013,7 +23743,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
         <v>614</v>
       </c>
@@ -23024,7 +23754,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" ht="18">
       <c r="A465" s="1" t="s">
         <v>60</v>
       </c>
@@ -23035,7 +23765,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
         <v>62</v>
       </c>
@@ -23046,7 +23776,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
         <v>64</v>
       </c>
@@ -23057,7 +23787,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
         <v>66</v>
       </c>
@@ -23068,7 +23798,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" ht="18">
       <c r="A469" s="1" t="s">
         <v>68</v>
       </c>
@@ -23079,7 +23809,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
         <v>70</v>
       </c>
@@ -23090,7 +23820,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" ht="18">
       <c r="A471" s="1" t="s">
         <v>73</v>
       </c>
@@ -23101,7 +23831,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
         <v>77</v>
       </c>
@@ -23112,7 +23842,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
         <v>79</v>
       </c>
@@ -23123,7 +23853,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
         <v>82</v>
       </c>
@@ -23134,7 +23864,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
         <v>84</v>
       </c>
@@ -23145,7 +23875,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
         <v>86</v>
       </c>
@@ -23156,7 +23886,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
         <v>88</v>
       </c>
@@ -23167,7 +23897,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
         <v>90</v>
       </c>
@@ -23178,7 +23908,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
         <v>92</v>
       </c>
@@ -23189,7 +23919,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
         <v>98</v>
       </c>
@@ -23200,7 +23930,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
         <v>102</v>
       </c>
@@ -23211,7 +23941,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
         <v>104</v>
       </c>
@@ -23222,7 +23952,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3">
       <c r="A483" s="1" t="s">
         <v>106</v>
       </c>
@@ -23233,7 +23963,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
         <v>108</v>
       </c>
@@ -23244,7 +23974,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
         <v>111</v>
       </c>
@@ -23255,7 +23985,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
         <v>115</v>
       </c>
@@ -23266,7 +23996,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
         <v>117</v>
       </c>
@@ -23277,7 +24007,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3">
       <c r="A488" s="1" t="s">
         <v>119</v>
       </c>
@@ -23288,7 +24018,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
         <v>125</v>
       </c>
@@ -23299,7 +24029,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
         <v>127</v>
       </c>
@@ -23310,7 +24040,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
         <v>130</v>
       </c>
@@ -23321,7 +24051,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
         <v>133</v>
       </c>
@@ -23332,7 +24062,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
         <v>134</v>
       </c>
@@ -23343,7 +24073,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
         <v>137</v>
       </c>
@@ -23354,7 +24084,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
         <v>139</v>
       </c>
@@ -23365,7 +24095,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
         <v>141</v>
       </c>
@@ -23376,7 +24106,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3">
       <c r="A497" s="1" t="s">
         <v>144</v>
       </c>
@@ -23387,7 +24117,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
         <v>147</v>
       </c>
@@ -23398,7 +24128,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
         <v>150</v>
       </c>
@@ -23409,7 +24139,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
         <v>155</v>
       </c>
@@ -23420,7 +24150,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
         <v>157</v>
       </c>
@@ -23431,7 +24161,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3">
       <c r="A502" s="1" t="s">
         <v>159</v>
       </c>
@@ -23442,7 +24172,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
         <v>162</v>
       </c>
@@ -23453,7 +24183,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
         <v>164</v>
       </c>
@@ -23464,7 +24194,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
         <v>165</v>
       </c>
@@ -23475,7 +24205,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
         <v>168</v>
       </c>
@@ -23486,7 +24216,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
         <v>174</v>
       </c>
@@ -23497,7 +24227,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
         <v>176</v>
       </c>
@@ -23508,7 +24238,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
         <v>178</v>
       </c>
@@ -23519,7 +24249,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
         <v>181</v>
       </c>
@@ -23530,7 +24260,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
         <v>183</v>
       </c>
@@ -23541,7 +24271,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
         <v>185</v>
       </c>
@@ -23552,7 +24282,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
         <v>186</v>
       </c>
@@ -23563,7 +24293,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
         <v>187</v>
       </c>
@@ -23574,7 +24304,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
         <v>189</v>
       </c>
@@ -23585,7 +24315,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
         <v>190</v>
       </c>
@@ -23596,7 +24326,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
         <v>191</v>
       </c>
@@ -23607,7 +24337,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
         <v>199</v>
       </c>
@@ -23618,7 +24348,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
         <v>203</v>
       </c>
@@ -23629,7 +24359,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
         <v>207</v>
       </c>
@@ -23640,7 +24370,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
         <v>216</v>
       </c>
@@ -23651,7 +24381,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
         <v>218</v>
       </c>
@@ -23662,7 +24392,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
         <v>219</v>
       </c>
@@ -23673,7 +24403,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
         <v>220</v>
       </c>
@@ -23684,7 +24414,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
         <v>223</v>
       </c>
@@ -23695,7 +24425,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
         <v>225</v>
       </c>
@@ -23706,7 +24436,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
         <v>226</v>
       </c>
@@ -23717,7 +24447,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
         <v>227</v>
       </c>
@@ -23728,7 +24458,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
         <v>233</v>
       </c>
@@ -23739,7 +24469,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
         <v>241</v>
       </c>
@@ -23750,7 +24480,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
         <v>245</v>
       </c>
@@ -23761,7 +24491,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
         <v>249</v>
       </c>
@@ -23772,7 +24502,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
         <v>259</v>
       </c>
@@ -23783,7 +24513,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
         <v>262</v>
       </c>
@@ -23794,7 +24524,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3">
       <c r="A535" s="1" t="s">
         <v>266</v>
       </c>
@@ -23805,7 +24535,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3">
       <c r="A536" s="1" t="s">
         <v>357</v>
       </c>
@@ -23816,7 +24546,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3">
       <c r="A537" s="1" t="s">
         <v>277</v>
       </c>
@@ -23827,7 +24557,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3">
       <c r="A538" s="1" t="s">
         <v>361</v>
       </c>
@@ -23838,7 +24568,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3">
       <c r="A539" s="1" t="s">
         <v>358</v>
       </c>
@@ -23849,7 +24579,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3">
       <c r="A540" s="1" t="s">
         <v>364</v>
       </c>
@@ -23860,7 +24590,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3">
       <c r="A541" s="1" t="s">
         <v>374</v>
       </c>
@@ -23871,7 +24601,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3">
       <c r="A542" s="1" t="s">
         <v>375</v>
       </c>
@@ -23882,7 +24612,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3">
       <c r="A543" s="1" t="s">
         <v>377</v>
       </c>
@@ -23893,7 +24623,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3">
       <c r="A544" s="1" t="s">
         <v>280</v>
       </c>
@@ -23904,7 +24634,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3">
       <c r="A545" s="1" t="s">
         <v>383</v>
       </c>
@@ -24813,9 +25543,9 @@
       <selection activeCell="E1" sqref="E1:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="72.599999999999994" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>287</v>
       </c>
@@ -24832,7 +25562,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>290</v>
       </c>
@@ -24849,7 +25579,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>293</v>
       </c>
@@ -24866,7 +25596,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>295</v>
       </c>
@@ -24883,7 +25613,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="18.600000000000001" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>297</v>
       </c>
@@ -24900,7 +25630,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>300</v>
       </c>
@@ -24917,7 +25647,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="18.600000000000001" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>303</v>
       </c>
@@ -24934,7 +25664,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>306</v>
       </c>
@@ -24951,7 +25681,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>308</v>
       </c>
@@ -24968,7 +25698,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="18.600000000000001" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>311</v>
       </c>
@@ -24985,7 +25715,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>312</v>
       </c>
@@ -25002,7 +25732,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>314</v>
       </c>
@@ -25019,7 +25749,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>316</v>
       </c>
@@ -25036,7 +25766,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>318</v>
       </c>
@@ -25053,7 +25783,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>321</v>
       </c>
@@ -25070,7 +25800,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>323</v>
       </c>
@@ -25087,7 +25817,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>325</v>
       </c>
@@ -25104,7 +25834,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>327</v>
       </c>
@@ -25130,13 +25860,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A3E683-4394-4399-A619-3E1258D3E488}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>666</v>
       </c>
@@ -25147,7 +25877,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -25158,7 +25888,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -25169,7 +25899,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>670</v>
       </c>
@@ -25180,7 +25910,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -25191,7 +25921,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>672</v>
       </c>
@@ -25202,7 +25932,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -25213,7 +25943,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>247</v>
       </c>
@@ -25224,7 +25954,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>670</v>
       </c>
@@ -25235,7 +25965,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -25246,7 +25976,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>675</v>
       </c>
@@ -25257,7 +25987,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>676</v>
       </c>
@@ -25268,7 +25998,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -25279,7 +26009,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>677</v>
       </c>
@@ -25290,7 +26020,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -25301,7 +26031,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -25312,7 +26042,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>679</v>
       </c>
@@ -25323,7 +26053,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -25334,7 +26064,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -25345,7 +26075,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>678</v>
       </c>
@@ -25356,7 +26086,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -25367,7 +26097,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -25378,7 +26108,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -25389,7 +26119,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -25400,7 +26130,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>681</v>
       </c>
@@ -25411,7 +26141,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -25422,7 +26152,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -25433,7 +26163,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -25444,7 +26174,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -25455,7 +26185,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -25466,7 +26196,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -25477,7 +26207,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -25494,54 +26224,3423 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0ECD8B-0222-4D69-A783-A98EBBB0C5CC}">
+  <dimension ref="A1:I572"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="60.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" ht="63.6" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5">
+      <c r="E57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5">
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5">
+      <c r="E59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5">
+      <c r="E60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5">
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5">
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5">
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5">
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5">
+      <c r="E79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5">
+      <c r="E80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5">
+      <c r="E82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5">
+      <c r="E84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5">
+      <c r="E85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5">
+      <c r="E86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5">
+      <c r="E87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5">
+      <c r="E88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5">
+      <c r="E89" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5">
+      <c r="E90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5">
+      <c r="E91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5">
+      <c r="E92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5">
+      <c r="E94" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5">
+      <c r="E95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5">
+      <c r="E96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5">
+      <c r="E100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5">
+      <c r="E101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5">
+      <c r="E102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5">
+      <c r="E104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5">
+      <c r="E106" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5">
+      <c r="E107" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5">
+      <c r="E108" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5">
+      <c r="E109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5">
+      <c r="E110" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5">
+      <c r="E111" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5">
+      <c r="E115" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5">
+      <c r="E117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5">
+      <c r="E119" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5">
+      <c r="E122" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5">
+      <c r="E132" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5">
+      <c r="E134" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5">
+      <c r="E136" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5">
+      <c r="E138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5">
+      <c r="E139" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5">
+      <c r="E140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5">
+      <c r="E141" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5">
+      <c r="E142" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5">
+      <c r="E143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5">
+      <c r="E144" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5">
+      <c r="E147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5">
+      <c r="E150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5">
+      <c r="E153" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5">
+      <c r="E156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5">
+      <c r="E157" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5">
+      <c r="E158" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5">
+      <c r="E159" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5">
+      <c r="E160" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5">
+      <c r="E161" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5">
+      <c r="E162" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5">
+      <c r="E163" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5">
+      <c r="E164" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="5:5">
+      <c r="E165" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="5:5">
+      <c r="E166" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5">
+      <c r="E167" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="5:5">
+      <c r="E168" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5">
+      <c r="E169" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="5:5">
+      <c r="E170" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5">
+      <c r="E171" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="5:5">
+      <c r="E172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="5:5">
+      <c r="E173" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="174" spans="5:5">
+      <c r="E174" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5">
+      <c r="E175" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="176" spans="5:5">
+      <c r="E176" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5">
+      <c r="E177" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" spans="5:5">
+      <c r="E178" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5">
+      <c r="E179" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5">
+      <c r="E180" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5">
+      <c r="E181" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182" spans="5:5">
+      <c r="E182" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5">
+      <c r="E183" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5">
+      <c r="E184" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5">
+      <c r="E185" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5">
+      <c r="E186" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5">
+      <c r="E187" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5">
+      <c r="E188" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5">
+      <c r="E189" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5">
+      <c r="E190" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5">
+      <c r="E191" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5">
+      <c r="E192" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5">
+      <c r="E193" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5">
+      <c r="E194" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5">
+      <c r="E195" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5">
+      <c r="E196" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5">
+      <c r="E197" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5">
+      <c r="E198" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5">
+      <c r="E199" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5">
+      <c r="E200" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5">
+      <c r="E201" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5">
+      <c r="E202" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5">
+      <c r="E203" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5">
+      <c r="E204" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5">
+      <c r="E205" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5">
+      <c r="E206" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5">
+      <c r="E207" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5">
+      <c r="E208" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5">
+      <c r="E209" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5">
+      <c r="E210" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5">
+      <c r="E211" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5">
+      <c r="E212" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5">
+      <c r="E213" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5">
+      <c r="E214" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5">
+      <c r="E215" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5">
+      <c r="E216" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5">
+      <c r="E217" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5">
+      <c r="E218" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5">
+      <c r="E219" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5">
+      <c r="E220" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5">
+      <c r="E221" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5">
+      <c r="E222" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="223" spans="5:5">
+      <c r="E223" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="224" spans="5:5">
+      <c r="E224" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="225" spans="5:5">
+      <c r="E225" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="226" spans="5:5">
+      <c r="E226" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="227" spans="5:5">
+      <c r="E227" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="228" spans="5:5">
+      <c r="E228" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="229" spans="5:5">
+      <c r="E229" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="230" spans="5:5">
+      <c r="E230" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="231" spans="5:5">
+      <c r="E231" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="232" spans="5:5">
+      <c r="E232" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="233" spans="5:5">
+      <c r="E233" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="234" spans="5:5">
+      <c r="E234" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="235" spans="5:5">
+      <c r="E235" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="236" spans="5:5">
+      <c r="E236" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="237" spans="5:5">
+      <c r="E237" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="238" spans="5:5">
+      <c r="E238" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="239" spans="5:5">
+      <c r="E239" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="240" spans="5:5">
+      <c r="E240" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5">
+      <c r="E241" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="242" spans="5:5">
+      <c r="E242" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="243" spans="5:5">
+      <c r="E243" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="244" spans="5:5">
+      <c r="E244" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="245" spans="5:5">
+      <c r="E245" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="246" spans="5:5">
+      <c r="E246" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="247" spans="5:5">
+      <c r="E247" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="248" spans="5:5">
+      <c r="E248" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="249" spans="5:5">
+      <c r="E249" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="250" spans="5:5">
+      <c r="E250" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="251" spans="5:5">
+      <c r="E251" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="252" spans="5:5">
+      <c r="E252" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="253" spans="5:5">
+      <c r="E253" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="254" spans="5:5">
+      <c r="E254" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="255" spans="5:5">
+      <c r="E255" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="256" spans="5:5">
+      <c r="E256" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="257" spans="5:5">
+      <c r="E257" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="258" spans="5:5">
+      <c r="E258" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="259" spans="5:5">
+      <c r="E259" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="260" spans="5:5">
+      <c r="E260" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="261" spans="5:5">
+      <c r="E261" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="262" spans="5:5">
+      <c r="E262" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="263" spans="5:5">
+      <c r="E263" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="264" spans="5:5">
+      <c r="E264" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="265" spans="5:5">
+      <c r="E265" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="266" spans="5:5">
+      <c r="E266" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="267" spans="5:5">
+      <c r="E267" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="268" spans="5:5">
+      <c r="E268" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="269" spans="5:5">
+      <c r="E269" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="270" spans="5:5">
+      <c r="E270" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="271" spans="5:5">
+      <c r="E271" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="272" spans="5:5">
+      <c r="E272" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="273" spans="5:5">
+      <c r="E273" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="274" spans="5:5">
+      <c r="E274" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="275" spans="5:5">
+      <c r="E275" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="276" spans="5:5">
+      <c r="E276" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="277" spans="5:5">
+      <c r="E277" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="278" spans="5:5">
+      <c r="E278" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="279" spans="5:5">
+      <c r="E279" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5">
+      <c r="E280" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="281" spans="5:5">
+      <c r="E281" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="282" spans="5:5">
+      <c r="E282" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="283" spans="5:5">
+      <c r="E283" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="284" spans="5:5">
+      <c r="E284" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="285" spans="5:5">
+      <c r="E285" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="286" spans="5:5">
+      <c r="E286" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="287" spans="5:5">
+      <c r="E287" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="288" spans="5:5">
+      <c r="E288" s="20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="289" spans="5:5">
+      <c r="E289" s="20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="290" spans="5:5">
+      <c r="E290" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="291" spans="5:5">
+      <c r="E291" s="20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="292" spans="5:5">
+      <c r="E292" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="293" spans="5:5">
+      <c r="E293" s="20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="294" spans="5:5">
+      <c r="E294" s="20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="295" spans="5:5">
+      <c r="E295" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="296" spans="5:5">
+      <c r="E296" s="20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="297" spans="5:5">
+      <c r="E297" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="298" spans="5:5">
+      <c r="E298" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="299" spans="5:5">
+      <c r="E299" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="300" spans="5:5">
+      <c r="E300" s="20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="301" spans="5:5">
+      <c r="E301" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="302" spans="5:5">
+      <c r="E302" s="20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="303" spans="5:5">
+      <c r="E303" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="304" spans="5:5">
+      <c r="E304" s="20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="305" spans="5:5">
+      <c r="E305" s="20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="306" spans="5:5">
+      <c r="E306" s="20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="307" spans="5:5">
+      <c r="E307" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="5:5">
+      <c r="E308" s="20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="309" spans="5:5">
+      <c r="E309" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="310" spans="5:5">
+      <c r="E310" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="311" spans="5:5">
+      <c r="E311" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="312" spans="5:5">
+      <c r="E312" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="313" spans="5:5">
+      <c r="E313" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="314" spans="5:5">
+      <c r="E314" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="5:5">
+      <c r="E315" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="316" spans="5:5">
+      <c r="E316" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="317" spans="5:5">
+      <c r="E317" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="5:5">
+      <c r="E318" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="319" spans="5:5">
+      <c r="E319" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="320" spans="5:5">
+      <c r="E320" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="321" spans="5:5">
+      <c r="E321" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="322" spans="5:5">
+      <c r="E322" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="323" spans="5:5">
+      <c r="E323" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="324" spans="5:5">
+      <c r="E324" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="325" spans="5:5">
+      <c r="E325" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="326" spans="5:5">
+      <c r="E326" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="327" spans="5:5">
+      <c r="E327" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="328" spans="5:5">
+      <c r="E328" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="329" spans="5:5">
+      <c r="E329" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="330" spans="5:5">
+      <c r="E330" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="331" spans="5:5">
+      <c r="E331" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="332" spans="5:5">
+      <c r="E332" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="333" spans="5:5">
+      <c r="E333" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="334" spans="5:5">
+      <c r="E334" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="335" spans="5:5">
+      <c r="E335" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="336" spans="5:5">
+      <c r="E336" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="337" spans="5:5">
+      <c r="E337" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="338" spans="5:5">
+      <c r="E338" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="339" spans="5:5">
+      <c r="E339" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="340" spans="5:5">
+      <c r="E340" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="341" spans="5:5">
+      <c r="E341" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="342" spans="5:5">
+      <c r="E342" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="343" spans="5:5">
+      <c r="E343" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="344" spans="5:5">
+      <c r="E344" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="345" spans="5:5">
+      <c r="E345" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="346" spans="5:5">
+      <c r="E346" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="347" spans="5:5">
+      <c r="E347" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="348" spans="5:5">
+      <c r="E348" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="349" spans="5:5">
+      <c r="E349" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="350" spans="5:5">
+      <c r="E350" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="351" spans="5:5">
+      <c r="E351" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="352" spans="5:5">
+      <c r="E352" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="353" spans="5:5">
+      <c r="E353" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="354" spans="5:5">
+      <c r="E354" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="355" spans="5:5">
+      <c r="E355" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="356" spans="5:5">
+      <c r="E356" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="357" spans="5:5">
+      <c r="E357" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="358" spans="5:5">
+      <c r="E358" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="359" spans="5:5">
+      <c r="E359" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="360" spans="5:5">
+      <c r="E360" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="361" spans="5:5">
+      <c r="E361" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="362" spans="5:5">
+      <c r="E362" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="363" spans="5:5">
+      <c r="E363" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="364" spans="5:5">
+      <c r="E364" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="365" spans="5:5">
+      <c r="E365" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="366" spans="5:5">
+      <c r="E366" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="367" spans="5:5">
+      <c r="E367" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="368" spans="5:5">
+      <c r="E368" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="369" spans="5:5">
+      <c r="E369" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="370" spans="5:5">
+      <c r="E370" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="371" spans="5:5">
+      <c r="E371" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="372" spans="5:5">
+      <c r="E372" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="373" spans="5:5">
+      <c r="E373" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="374" spans="5:5">
+      <c r="E374" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="375" spans="5:5">
+      <c r="E375" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="376" spans="5:5">
+      <c r="E376" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="377" spans="5:5">
+      <c r="E377" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="378" spans="5:5">
+      <c r="E378" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="379" spans="5:5">
+      <c r="E379" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="380" spans="5:5">
+      <c r="E380" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="381" spans="5:5">
+      <c r="E381" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="382" spans="5:5">
+      <c r="E382" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="383" spans="5:5">
+      <c r="E383" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="384" spans="5:5">
+      <c r="E384" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="385" spans="5:5">
+      <c r="E385" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="386" spans="5:5">
+      <c r="E386" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="387" spans="5:5">
+      <c r="E387" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="388" spans="5:5">
+      <c r="E388" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="389" spans="5:5">
+      <c r="E389" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="390" spans="5:5">
+      <c r="E390" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="391" spans="5:5">
+      <c r="E391" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="392" spans="5:5">
+      <c r="E392" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="393" spans="5:5">
+      <c r="E393" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="394" spans="5:5">
+      <c r="E394" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="395" spans="5:5">
+      <c r="E395" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="396" spans="5:5">
+      <c r="E396" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="397" spans="5:5">
+      <c r="E397" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="398" spans="5:5">
+      <c r="E398" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="399" spans="5:5">
+      <c r="E399" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="400" spans="5:5">
+      <c r="E400" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="401" spans="5:5">
+      <c r="E401" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="402" spans="5:5">
+      <c r="E402" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="403" spans="5:5">
+      <c r="E403" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="404" spans="5:5">
+      <c r="E404" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="405" spans="5:5">
+      <c r="E405" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="406" spans="5:5">
+      <c r="E406" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="407" spans="5:5">
+      <c r="E407" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="408" spans="5:5">
+      <c r="E408" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="409" spans="5:5">
+      <c r="E409" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="410" spans="5:5">
+      <c r="E410" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="411" spans="5:5">
+      <c r="E411" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="412" spans="5:5">
+      <c r="E412" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="413" spans="5:5">
+      <c r="E413" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="414" spans="5:5">
+      <c r="E414" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="415" spans="5:5">
+      <c r="E415" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="416" spans="5:5">
+      <c r="E416" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="417" spans="5:5">
+      <c r="E417" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="418" spans="5:5">
+      <c r="E418" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="419" spans="5:5">
+      <c r="E419" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="420" spans="5:5">
+      <c r="E420" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="421" spans="5:5">
+      <c r="E421" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="422" spans="5:5">
+      <c r="E422" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="423" spans="5:5">
+      <c r="E423" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="424" spans="5:5">
+      <c r="E424" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="425" spans="5:5">
+      <c r="E425" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="426" spans="5:5">
+      <c r="E426" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="427" spans="5:5">
+      <c r="E427" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="428" spans="5:5">
+      <c r="E428" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="429" spans="5:5">
+      <c r="E429" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="430" spans="5:5">
+      <c r="E430" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="431" spans="5:5">
+      <c r="E431" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="432" spans="5:5">
+      <c r="E432" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="433" spans="5:5">
+      <c r="E433" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="434" spans="5:5">
+      <c r="E434" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="435" spans="5:5">
+      <c r="E435" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="436" spans="5:5">
+      <c r="E436" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="437" spans="5:5">
+      <c r="E437" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="438" spans="5:5">
+      <c r="E438" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="439" spans="5:5">
+      <c r="E439" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="440" spans="5:5">
+      <c r="E440" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="441" spans="5:5">
+      <c r="E441" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="442" spans="5:5">
+      <c r="E442" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="443" spans="5:5">
+      <c r="E443" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="444" spans="5:5">
+      <c r="E444" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="445" spans="5:5">
+      <c r="E445" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="446" spans="5:5">
+      <c r="E446" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="447" spans="5:5">
+      <c r="E447" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="448" spans="5:5">
+      <c r="E448" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="449" spans="5:5">
+      <c r="E449" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="450" spans="5:5">
+      <c r="E450" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="451" spans="5:5">
+      <c r="E451" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="452" spans="5:5">
+      <c r="E452" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="453" spans="5:5">
+      <c r="E453" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="454" spans="5:5">
+      <c r="E454" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="455" spans="5:5">
+      <c r="E455" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="456" spans="5:5">
+      <c r="E456" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="457" spans="5:5">
+      <c r="E457" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="458" spans="5:5">
+      <c r="E458" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="459" spans="5:5">
+      <c r="E459" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="460" spans="5:5">
+      <c r="E460" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="461" spans="5:5">
+      <c r="E461" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="462" spans="5:5">
+      <c r="E462" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="463" spans="5:5">
+      <c r="E463" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="464" spans="5:5">
+      <c r="E464" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="465" spans="5:5">
+      <c r="E465" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="466" spans="5:5">
+      <c r="E466" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="467" spans="5:5">
+      <c r="E467" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="468" spans="5:5">
+      <c r="E468" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="469" spans="5:5">
+      <c r="E469" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="470" spans="5:5">
+      <c r="E470" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="471" spans="5:5">
+      <c r="E471" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="472" spans="5:5">
+      <c r="E472" s="20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="473" spans="5:5">
+      <c r="E473" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="474" spans="5:5">
+      <c r="E474" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="5:5">
+      <c r="E475" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="476" spans="5:5">
+      <c r="E476" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="477" spans="5:5">
+      <c r="E477" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="478" spans="5:5">
+      <c r="E478" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="5:5">
+      <c r="E479" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="5:5">
+      <c r="E480" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="481" spans="5:5">
+      <c r="E481" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="482" spans="5:5">
+      <c r="E482" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="483" spans="5:5">
+      <c r="E483" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="484" spans="5:5">
+      <c r="E484" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="485" spans="5:5">
+      <c r="E485" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="486" spans="5:5">
+      <c r="E486" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="487" spans="5:5">
+      <c r="E487" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="488" spans="5:5">
+      <c r="E488" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="489" spans="5:5">
+      <c r="E489" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="490" spans="5:5">
+      <c r="E490" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="491" spans="5:5">
+      <c r="E491" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="492" spans="5:5">
+      <c r="E492" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="493" spans="5:5">
+      <c r="E493" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="494" spans="5:5">
+      <c r="E494" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="495" spans="5:5">
+      <c r="E495" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="496" spans="5:5">
+      <c r="E496" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="497" spans="5:5">
+      <c r="E497" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="498" spans="5:5">
+      <c r="E498" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="499" spans="5:5">
+      <c r="E499" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="500" spans="5:5">
+      <c r="E500" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="501" spans="5:5">
+      <c r="E501" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="502" spans="5:5">
+      <c r="E502" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="503" spans="5:5">
+      <c r="E503" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="504" spans="5:5">
+      <c r="E504" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="505" spans="5:5">
+      <c r="E505" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="506" spans="5:5">
+      <c r="E506" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="507" spans="5:5">
+      <c r="E507" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="508" spans="5:5">
+      <c r="E508" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="509" spans="5:5">
+      <c r="E509" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="510" spans="5:5">
+      <c r="E510" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="511" spans="5:5">
+      <c r="E511" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="512" spans="5:5">
+      <c r="E512" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="513" spans="5:5">
+      <c r="E513" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="514" spans="5:5">
+      <c r="E514" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="515" spans="5:5">
+      <c r="E515" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="516" spans="5:5">
+      <c r="E516" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="517" spans="5:5">
+      <c r="E517" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="518" spans="5:5">
+      <c r="E518" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="519" spans="5:5">
+      <c r="E519" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="520" spans="5:5">
+      <c r="E520" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="521" spans="5:5">
+      <c r="E521" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="522" spans="5:5">
+      <c r="E522" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="523" spans="5:5">
+      <c r="E523" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="524" spans="5:5">
+      <c r="E524" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="525" spans="5:5">
+      <c r="E525" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="526" spans="5:5">
+      <c r="E526" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="527" spans="5:5">
+      <c r="E527" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="528" spans="5:5">
+      <c r="E528" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="529" spans="5:5">
+      <c r="E529" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="530" spans="5:5">
+      <c r="E530" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="531" spans="5:5">
+      <c r="E531" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="532" spans="5:5">
+      <c r="E532" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="533" spans="5:5">
+      <c r="E533" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="534" spans="5:5">
+      <c r="E534" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="535" spans="5:5">
+      <c r="E535" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="536" spans="5:5">
+      <c r="E536" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="537" spans="5:5">
+      <c r="E537" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="538" spans="5:5">
+      <c r="E538" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="539" spans="5:5">
+      <c r="E539" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="540" spans="5:5">
+      <c r="E540" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="541" spans="5:5">
+      <c r="E541" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="542" spans="5:5">
+      <c r="E542" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="543" spans="5:5">
+      <c r="E543" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="544" spans="5:5">
+      <c r="E544" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="545" spans="5:5">
+      <c r="E545" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="546" spans="5:5">
+      <c r="E546" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="547" spans="5:5">
+      <c r="E547" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="548" spans="5:5">
+      <c r="E548" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="549" spans="5:5">
+      <c r="E549" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="550" spans="5:5">
+      <c r="E550" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="551" spans="5:5">
+      <c r="E551" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="552" spans="5:5">
+      <c r="E552" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="553" spans="5:5">
+      <c r="E553" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="554" spans="5:5">
+      <c r="E554" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="555" spans="5:5">
+      <c r="E555" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="556" spans="5:5">
+      <c r="E556" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="557" spans="5:5">
+      <c r="E557" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="558" spans="5:5">
+      <c r="E558" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="559" spans="5:5">
+      <c r="E559" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="560" spans="5:5">
+      <c r="E560" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="561" spans="5:5">
+      <c r="E561" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="562" spans="5:5">
+      <c r="E562" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="563" spans="5:5">
+      <c r="E563" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="564" spans="5:5">
+      <c r="E564" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="565" spans="5:5">
+      <c r="E565" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="566" spans="5:5">
+      <c r="E566" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="567" spans="5:5">
+      <c r="E567" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="568" spans="5:5">
+      <c r="E568" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="569" spans="5:5">
+      <c r="E569" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="570" spans="5:5">
+      <c r="E570" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="571" spans="5:5">
+      <c r="E571" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="572" spans="5:5">
+      <c r="E572" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4C9B00-B84F-4644-A5A2-EFA14E698CFD}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-    </row>
-    <row r="2" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>687</v>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="8" t="s">
+        <v>772</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{A12B21CA-EFDA-4D31-B693-C1D7D93CA0D5}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{40E7FB10-5835-4809-A2D9-9C56950EF8CB}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{18A02CE1-0394-4BD4-BEA1-EA25FCABBFD7}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{1A6A9D75-D69A-4EBA-824C-C8B1C5A27D4B}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{47641EC9-68B0-4FC0-96C7-75BEA4D45802}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{40E7FB10-5835-4809-A2D9-9C56950EF8CB}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{18A02CE1-0394-4BD4-BEA1-EA25FCABBFD7}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{1A6A9D75-D69A-4EBA-824C-C8B1C5A27D4B}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{47641EC9-68B0-4FC0-96C7-75BEA4D45802}"/>
+    <hyperlink ref="A11" r:id="rId6" xr:uid="{65D3A018-FD6E-43A9-8A55-B449FA9426B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>